--- a/Desarrollo/MindSoft/Gestión/AMSM-CP.xlsx
+++ b/Desarrollo/MindSoft/Gestión/AMSM-CP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -193,6 +193,9 @@
     <t>AMSM-DEUI.docx</t>
   </si>
   <si>
+    <t>Cisneros/DUI</t>
+  </si>
+  <si>
     <t>Establecer estilos para la aplicación</t>
   </si>
   <si>
@@ -211,7 +214,7 @@
     <t>Documento de Especificación de la Base de Datos</t>
   </si>
   <si>
-    <t>AMSM-DEBS.docx</t>
+    <t>AMSM-DEBD.docx</t>
   </si>
   <si>
     <t>Gomez/DBA</t>
@@ -232,15 +235,21 @@
     <t>Elaboracion del documento de analisis</t>
   </si>
   <si>
-    <t>Documento de analisis</t>
-  </si>
-  <si>
-    <t>AMSM-DA.docx</t>
+    <t>Documento de analisis de requerimientos</t>
+  </si>
+  <si>
+    <t>AMSM-DAR.docx</t>
   </si>
   <si>
     <t>QA</t>
   </si>
   <si>
+    <t>Documento de aseguramiento de calidad</t>
+  </si>
+  <si>
+    <t>AMSM-DAC.docx</t>
+  </si>
+  <si>
     <t>Caceres/Analista QA</t>
   </si>
   <si>
@@ -259,10 +268,210 @@
     <t>Hito 1: Fin del Sprint #1</t>
   </si>
   <si>
-    <t>Hito 2: Diseño</t>
-  </si>
-  <si>
-    <t>11/14/2024</t>
+    <t>Actualización de product backlog</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>AMSM-PB</t>
+  </si>
+  <si>
+    <t>Actualización de cronograma del proyecto</t>
+  </si>
+  <si>
+    <t>Levantamiento de base de datos</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>AMSM-BD.sql</t>
+  </si>
+  <si>
+    <t>Cisneros</t>
+  </si>
+  <si>
+    <t>Codificación de la interfaz grafica de login y registro</t>
+  </si>
+  <si>
+    <t>UI del login y registro</t>
+  </si>
+  <si>
+    <t>//AMSM-UI-LR</t>
+  </si>
+  <si>
+    <t>Codificar controladores necesarios para manejar login y registro</t>
+  </si>
+  <si>
+    <t>API para manejar lógica del login y registro</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>login.controller.py</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+login.route.py
+user.repository.py</t>
+    </r>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Codificación de la interfaz grafica de los casos de uso 1</t>
+  </si>
+  <si>
+    <t>UI de la HU01</t>
+  </si>
+  <si>
+    <t>//AMSM-UI-HU01</t>
+  </si>
+  <si>
+    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 1</t>
+  </si>
+  <si>
+    <t>API de la HU01</t>
+  </si>
+  <si>
+    <t>//AMSM-API-HU01</t>
+  </si>
+  <si>
+    <t>Alquizar</t>
+  </si>
+  <si>
+    <t>Codificación de la interfaz grafica de los casos de uso 5</t>
+  </si>
+  <si>
+    <t>UI de la HU05</t>
+  </si>
+  <si>
+    <t>//AMSM-UI-HU05</t>
+  </si>
+  <si>
+    <t>Ladera</t>
+  </si>
+  <si>
+    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 5</t>
+  </si>
+  <si>
+    <t>API de la HU05</t>
+  </si>
+  <si>
+    <t>//AMSM-API-HU05</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias</t>
+  </si>
+  <si>
+    <t>//AMSM-PU</t>
+  </si>
+  <si>
+    <t>Salazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas de integracion </t>
+  </si>
+  <si>
+    <t>Pruebas de integración</t>
+  </si>
+  <si>
+    <t>AMSM-PI.py</t>
+  </si>
+  <si>
+    <t>Caceres</t>
+  </si>
+  <si>
+    <t>Reporte del Segundo Sprint</t>
+  </si>
+  <si>
+    <t>AMSM-RSS.docx</t>
+  </si>
+  <si>
+    <t>Hito 2: Fin del sprint #2</t>
+  </si>
+  <si>
+    <t>Codificación de la interfaz grafica de los casos de uso 2</t>
+  </si>
+  <si>
+    <t>UI de la HU02</t>
+  </si>
+  <si>
+    <t>//AMSM-UI-CU02</t>
+  </si>
+  <si>
+    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 2</t>
+  </si>
+  <si>
+    <t>API de la HU02</t>
+  </si>
+  <si>
+    <t>//AMSM-API-CIG02</t>
+  </si>
+  <si>
+    <t>Codificación de la interfaz grafica de los casos de uso 3</t>
+  </si>
+  <si>
+    <t>UI de la H03</t>
+  </si>
+  <si>
+    <t>//AMSM-UI-CU03</t>
+  </si>
+  <si>
+    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 3</t>
+  </si>
+  <si>
+    <t>API de la HU03</t>
+  </si>
+  <si>
+    <t>//AMSM-API-HU03</t>
+  </si>
+  <si>
+    <t>Codificación de la interfaz gráfica del caso de uso 4</t>
+  </si>
+  <si>
+    <t>UI de la HU04</t>
+  </si>
+  <si>
+    <t>//AMSM-UI-CU04</t>
+  </si>
+  <si>
+    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 4</t>
+  </si>
+  <si>
+    <t>API de la HU04</t>
+  </si>
+  <si>
+    <t>//AMSM-API-CU04</t>
+  </si>
+  <si>
+    <t>Reporte del Tercer Sprint</t>
+  </si>
+  <si>
+    <t>AMSM-RTS.docx</t>
+  </si>
+  <si>
+    <t>Elaborar del acta de cierre del proyecto</t>
+  </si>
+  <si>
+    <t>Acta de cierre del proyecto</t>
+  </si>
+  <si>
+    <t>AMSM-ACP.docx</t>
   </si>
   <si>
     <t>Hito 3: Desarrollo y Despliegue</t>
@@ -277,7 +486,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/MM/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -336,14 +545,24 @@
     </font>
     <font/>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="14.0"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -433,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -500,8 +719,8 @@
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -515,28 +734,62 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -977,7 +1230,7 @@
         <v>45534.0</v>
       </c>
       <c r="H15" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="16">
@@ -1001,7 +1254,7 @@
         <v>45534.0</v>
       </c>
       <c r="H16" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1278,7 @@
         <v>45534.0</v>
       </c>
       <c r="H17" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="18">
@@ -1049,7 +1302,7 @@
         <v>45534.0</v>
       </c>
       <c r="H18" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="19">
@@ -1073,7 +1326,7 @@
         <v>45534.0</v>
       </c>
       <c r="H19" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="20">
@@ -1097,7 +1350,7 @@
         <v>45534.0</v>
       </c>
       <c r="H20" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="21">
@@ -1121,7 +1374,7 @@
         <v>45534.0</v>
       </c>
       <c r="H21" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="22">
@@ -1136,7 +1389,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F22" s="19">
         <v>45534.0</v>
@@ -1145,46 +1398,46 @@
         <v>45539.0</v>
       </c>
       <c r="H22" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F23" s="19">
         <v>45540.0</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="22">
         <v>45542.0</v>
       </c>
       <c r="H23" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="19">
         <v>45543.0</v>
@@ -1193,22 +1446,22 @@
         <v>45545.0</v>
       </c>
       <c r="H24" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" s="19">
         <v>45546.0</v>
@@ -1217,19 +1470,19 @@
         <v>45548.0</v>
       </c>
       <c r="H25" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>53</v>
@@ -1241,18 +1494,22 @@
         <v>45551.0</v>
       </c>
       <c r="H26" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="E27" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F27" s="19">
         <v>45552.0</v>
@@ -1261,19 +1518,19 @@
         <v>45553.0</v>
       </c>
       <c r="H27" s="20">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>20</v>
@@ -1285,12 +1542,8 @@
         <v>45555.0</v>
       </c>
       <c r="H28" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
+        <v>100.0</v>
+      </c>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
@@ -1308,10 +1561,10 @@
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C29" s="26">
         <v>45555.0</v>
@@ -1323,4080 +1576,4603 @@
       <c r="H29" s="28"/>
     </row>
     <row r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="32">
+        <v>45556.0</v>
+      </c>
+      <c r="G30" s="32">
+        <v>45559.0</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="J30" s="33">
+        <f t="shared" ref="J30:J32" si="1">DAYS(G30,F30)</f>
+        <v>3</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="32">
+        <v>45559.0</v>
+      </c>
+      <c r="G31" s="32">
+        <v>45561.0</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="J31" s="33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
     </row>
     <row r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="32">
+        <v>45561.0</v>
+      </c>
+      <c r="G32" s="32">
+        <v>45562.0</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="J32" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
     </row>
     <row r="33">
-      <c r="A33" s="1"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="32">
+        <v>45562.0</v>
+      </c>
+      <c r="G33" s="32">
+        <v>45571.0</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
     </row>
     <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="32">
+        <v>45562.0</v>
+      </c>
+      <c r="G34" s="32">
+        <v>45571.0</v>
+      </c>
+      <c r="H34" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="A35" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="32">
+        <v>45562.0</v>
+      </c>
+      <c r="G35" s="32">
+        <v>45571.0</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="J35" s="33">
+        <f t="shared" ref="J35:J42" si="2">DAYS(G35,F35)</f>
+        <v>9</v>
+      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="32">
+        <v>45562.0</v>
+      </c>
+      <c r="G36" s="32">
+        <v>45571.0</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="J36" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="32">
+        <v>45572.0</v>
+      </c>
+      <c r="G37" s="32">
+        <v>45580.0</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="J37" s="33">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="32">
+        <v>45572.0</v>
+      </c>
+      <c r="G38" s="32">
+        <v>45580.0</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="J38" s="33">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="32">
+        <v>45580.0</v>
+      </c>
+      <c r="G39" s="32">
+        <v>45582.0</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="J39" s="33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="29"/>
+      <c r="B40" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="32">
+        <v>45582.0</v>
+      </c>
+      <c r="G40" s="32">
+        <v>45584.0</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="J40" s="33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="29"/>
+      <c r="B41" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="32">
+        <v>45585.0</v>
+      </c>
+      <c r="G41" s="32">
+        <v>45587.0</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="J41" s="33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="32">
+      <c r="C42" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="32">
+        <v>45588.0</v>
+      </c>
+      <c r="G42" s="32">
+        <v>45589.0</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="J42" s="33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="38">
         <v>45223.0</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
+      <c r="B44" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
+      <c r="B45" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
+      <c r="B46" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
+      <c r="B47" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="42"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48">
-      <c r="A48" s="33"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="35" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1"/>
+      <c r="B49" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="42"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1"/>
+      <c r="B50" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1"/>
+      <c r="B51" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="42"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1"/>
+      <c r="B52" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1"/>
+      <c r="B53" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="44"/>
+      <c r="B54" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="47">
+        <v>45610.0</v>
+      </c>
+      <c r="H54" s="46"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="H48" s="34"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="32">
+      <c r="B55" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="38">
         <v>45610.0</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50">
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-    </row>
-    <row r="51">
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-    </row>
-    <row r="52">
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-    </row>
-    <row r="53">
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-    </row>
-    <row r="54">
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-    </row>
-    <row r="55">
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
     </row>
     <row r="56">
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
     </row>
     <row r="57">
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
     </row>
     <row r="58">
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
     </row>
     <row r="59">
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
     </row>
     <row r="60">
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
     </row>
     <row r="61">
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
     </row>
     <row r="62">
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
     </row>
     <row r="63">
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
     </row>
     <row r="64">
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
     </row>
     <row r="65">
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
     </row>
     <row r="66">
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
     </row>
     <row r="67">
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
     </row>
     <row r="68">
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
     </row>
     <row r="69">
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
     </row>
     <row r="70">
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
     </row>
     <row r="71">
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
     </row>
     <row r="72">
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
     </row>
     <row r="73">
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
     </row>
     <row r="74">
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
     </row>
     <row r="75">
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
     </row>
     <row r="76">
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
     </row>
     <row r="77">
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
     </row>
     <row r="78">
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
     </row>
     <row r="79">
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
     </row>
     <row r="80">
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
     </row>
     <row r="81">
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
     </row>
     <row r="82">
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
     </row>
     <row r="83">
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
     </row>
     <row r="84">
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
     </row>
     <row r="85">
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
     </row>
     <row r="86">
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
     </row>
     <row r="87">
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
     </row>
     <row r="88">
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
     </row>
     <row r="89">
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
     </row>
     <row r="90">
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
     </row>
     <row r="91">
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
     </row>
     <row r="92">
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
     </row>
     <row r="93">
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
     </row>
     <row r="94">
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
     </row>
     <row r="95">
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
     </row>
     <row r="96">
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
     </row>
     <row r="97">
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
     </row>
     <row r="98">
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
     </row>
     <row r="99">
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
     </row>
     <row r="100">
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
     </row>
     <row r="101">
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
     </row>
     <row r="102">
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
     </row>
     <row r="103">
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
     </row>
     <row r="104">
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
     </row>
     <row r="105">
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
     </row>
     <row r="106">
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
     </row>
     <row r="107">
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
     </row>
     <row r="108">
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
     </row>
     <row r="109">
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
     </row>
     <row r="110">
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
     </row>
     <row r="111">
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
     </row>
     <row r="112">
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
     </row>
     <row r="113">
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
     </row>
     <row r="114">
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
     </row>
     <row r="115">
-      <c r="F115" s="36"/>
-      <c r="G115" s="36"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
     </row>
     <row r="116">
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
     </row>
     <row r="117">
-      <c r="F117" s="36"/>
-      <c r="G117" s="36"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
     </row>
     <row r="118">
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
     </row>
     <row r="119">
-      <c r="F119" s="36"/>
-      <c r="G119" s="36"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
     </row>
     <row r="120">
-      <c r="F120" s="36"/>
-      <c r="G120" s="36"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
     </row>
     <row r="121">
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
     </row>
     <row r="122">
-      <c r="F122" s="36"/>
-      <c r="G122" s="36"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
     </row>
     <row r="123">
-      <c r="F123" s="36"/>
-      <c r="G123" s="36"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
     </row>
     <row r="124">
-      <c r="F124" s="36"/>
-      <c r="G124" s="36"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
     </row>
     <row r="125">
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
     </row>
     <row r="126">
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
     </row>
     <row r="127">
-      <c r="F127" s="36"/>
-      <c r="G127" s="36"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
     </row>
     <row r="128">
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="48"/>
     </row>
     <row r="129">
-      <c r="F129" s="36"/>
-      <c r="G129" s="36"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="48"/>
     </row>
     <row r="130">
-      <c r="F130" s="36"/>
-      <c r="G130" s="36"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
     </row>
     <row r="131">
-      <c r="F131" s="36"/>
-      <c r="G131" s="36"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
     </row>
     <row r="132">
-      <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="48"/>
     </row>
     <row r="133">
-      <c r="F133" s="36"/>
-      <c r="G133" s="36"/>
+      <c r="F133" s="48"/>
+      <c r="G133" s="48"/>
     </row>
     <row r="134">
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
+      <c r="F134" s="48"/>
+      <c r="G134" s="48"/>
     </row>
     <row r="135">
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48"/>
     </row>
     <row r="136">
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
+      <c r="F136" s="48"/>
+      <c r="G136" s="48"/>
     </row>
     <row r="137">
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="48"/>
     </row>
     <row r="138">
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
     </row>
     <row r="139">
-      <c r="F139" s="36"/>
-      <c r="G139" s="36"/>
+      <c r="F139" s="48"/>
+      <c r="G139" s="48"/>
     </row>
     <row r="140">
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="48"/>
     </row>
     <row r="141">
-      <c r="F141" s="36"/>
-      <c r="G141" s="36"/>
+      <c r="F141" s="48"/>
+      <c r="G141" s="48"/>
     </row>
     <row r="142">
-      <c r="F142" s="36"/>
-      <c r="G142" s="36"/>
+      <c r="F142" s="48"/>
+      <c r="G142" s="48"/>
     </row>
     <row r="143">
-      <c r="F143" s="36"/>
-      <c r="G143" s="36"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="48"/>
     </row>
     <row r="144">
-      <c r="F144" s="36"/>
-      <c r="G144" s="36"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="48"/>
     </row>
     <row r="145">
-      <c r="F145" s="36"/>
-      <c r="G145" s="36"/>
+      <c r="F145" s="48"/>
+      <c r="G145" s="48"/>
     </row>
     <row r="146">
-      <c r="F146" s="36"/>
-      <c r="G146" s="36"/>
+      <c r="F146" s="48"/>
+      <c r="G146" s="48"/>
     </row>
     <row r="147">
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
+      <c r="F147" s="48"/>
+      <c r="G147" s="48"/>
     </row>
     <row r="148">
-      <c r="F148" s="36"/>
-      <c r="G148" s="36"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="48"/>
     </row>
     <row r="149">
-      <c r="F149" s="36"/>
-      <c r="G149" s="36"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="48"/>
     </row>
     <row r="150">
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
+      <c r="F150" s="48"/>
+      <c r="G150" s="48"/>
     </row>
     <row r="151">
-      <c r="F151" s="36"/>
-      <c r="G151" s="36"/>
+      <c r="F151" s="48"/>
+      <c r="G151" s="48"/>
     </row>
     <row r="152">
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
+      <c r="F152" s="48"/>
+      <c r="G152" s="48"/>
     </row>
     <row r="153">
-      <c r="F153" s="36"/>
-      <c r="G153" s="36"/>
+      <c r="F153" s="48"/>
+      <c r="G153" s="48"/>
     </row>
     <row r="154">
-      <c r="F154" s="36"/>
-      <c r="G154" s="36"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="48"/>
     </row>
     <row r="155">
-      <c r="F155" s="36"/>
-      <c r="G155" s="36"/>
+      <c r="F155" s="48"/>
+      <c r="G155" s="48"/>
     </row>
     <row r="156">
-      <c r="F156" s="36"/>
-      <c r="G156" s="36"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="48"/>
     </row>
     <row r="157">
-      <c r="F157" s="36"/>
-      <c r="G157" s="36"/>
+      <c r="F157" s="48"/>
+      <c r="G157" s="48"/>
     </row>
     <row r="158">
-      <c r="F158" s="36"/>
-      <c r="G158" s="36"/>
+      <c r="F158" s="48"/>
+      <c r="G158" s="48"/>
     </row>
     <row r="159">
-      <c r="F159" s="36"/>
-      <c r="G159" s="36"/>
+      <c r="F159" s="48"/>
+      <c r="G159" s="48"/>
     </row>
     <row r="160">
-      <c r="F160" s="36"/>
-      <c r="G160" s="36"/>
+      <c r="F160" s="48"/>
+      <c r="G160" s="48"/>
     </row>
     <row r="161">
-      <c r="F161" s="36"/>
-      <c r="G161" s="36"/>
+      <c r="F161" s="48"/>
+      <c r="G161" s="48"/>
     </row>
     <row r="162">
-      <c r="F162" s="36"/>
-      <c r="G162" s="36"/>
+      <c r="F162" s="48"/>
+      <c r="G162" s="48"/>
     </row>
     <row r="163">
-      <c r="F163" s="36"/>
-      <c r="G163" s="36"/>
+      <c r="F163" s="48"/>
+      <c r="G163" s="48"/>
     </row>
     <row r="164">
-      <c r="F164" s="36"/>
-      <c r="G164" s="36"/>
+      <c r="F164" s="48"/>
+      <c r="G164" s="48"/>
     </row>
     <row r="165">
-      <c r="F165" s="36"/>
-      <c r="G165" s="36"/>
+      <c r="F165" s="48"/>
+      <c r="G165" s="48"/>
     </row>
     <row r="166">
-      <c r="F166" s="36"/>
-      <c r="G166" s="36"/>
+      <c r="F166" s="48"/>
+      <c r="G166" s="48"/>
     </row>
     <row r="167">
-      <c r="F167" s="36"/>
-      <c r="G167" s="36"/>
+      <c r="F167" s="48"/>
+      <c r="G167" s="48"/>
     </row>
     <row r="168">
-      <c r="F168" s="36"/>
-      <c r="G168" s="36"/>
+      <c r="F168" s="48"/>
+      <c r="G168" s="48"/>
     </row>
     <row r="169">
-      <c r="F169" s="36"/>
-      <c r="G169" s="36"/>
+      <c r="F169" s="48"/>
+      <c r="G169" s="48"/>
     </row>
     <row r="170">
-      <c r="F170" s="36"/>
-      <c r="G170" s="36"/>
+      <c r="F170" s="48"/>
+      <c r="G170" s="48"/>
     </row>
     <row r="171">
-      <c r="F171" s="36"/>
-      <c r="G171" s="36"/>
+      <c r="F171" s="48"/>
+      <c r="G171" s="48"/>
     </row>
     <row r="172">
-      <c r="F172" s="36"/>
-      <c r="G172" s="36"/>
+      <c r="F172" s="48"/>
+      <c r="G172" s="48"/>
     </row>
     <row r="173">
-      <c r="F173" s="36"/>
-      <c r="G173" s="36"/>
+      <c r="F173" s="48"/>
+      <c r="G173" s="48"/>
     </row>
     <row r="174">
-      <c r="F174" s="36"/>
-      <c r="G174" s="36"/>
+      <c r="F174" s="48"/>
+      <c r="G174" s="48"/>
     </row>
     <row r="175">
-      <c r="F175" s="36"/>
-      <c r="G175" s="36"/>
+      <c r="F175" s="48"/>
+      <c r="G175" s="48"/>
     </row>
     <row r="176">
-      <c r="F176" s="36"/>
-      <c r="G176" s="36"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="48"/>
     </row>
     <row r="177">
-      <c r="F177" s="36"/>
-      <c r="G177" s="36"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="48"/>
     </row>
     <row r="178">
-      <c r="F178" s="36"/>
-      <c r="G178" s="36"/>
+      <c r="F178" s="48"/>
+      <c r="G178" s="48"/>
     </row>
     <row r="179">
-      <c r="F179" s="36"/>
-      <c r="G179" s="36"/>
+      <c r="F179" s="48"/>
+      <c r="G179" s="48"/>
     </row>
     <row r="180">
-      <c r="F180" s="36"/>
-      <c r="G180" s="36"/>
+      <c r="F180" s="48"/>
+      <c r="G180" s="48"/>
     </row>
     <row r="181">
-      <c r="F181" s="36"/>
-      <c r="G181" s="36"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
     </row>
     <row r="182">
-      <c r="F182" s="36"/>
-      <c r="G182" s="36"/>
+      <c r="F182" s="48"/>
+      <c r="G182" s="48"/>
     </row>
     <row r="183">
-      <c r="F183" s="36"/>
-      <c r="G183" s="36"/>
+      <c r="F183" s="48"/>
+      <c r="G183" s="48"/>
     </row>
     <row r="184">
-      <c r="F184" s="36"/>
-      <c r="G184" s="36"/>
+      <c r="F184" s="48"/>
+      <c r="G184" s="48"/>
     </row>
     <row r="185">
-      <c r="F185" s="36"/>
-      <c r="G185" s="36"/>
+      <c r="F185" s="48"/>
+      <c r="G185" s="48"/>
     </row>
     <row r="186">
-      <c r="F186" s="36"/>
-      <c r="G186" s="36"/>
+      <c r="F186" s="48"/>
+      <c r="G186" s="48"/>
     </row>
     <row r="187">
-      <c r="F187" s="36"/>
-      <c r="G187" s="36"/>
+      <c r="F187" s="48"/>
+      <c r="G187" s="48"/>
     </row>
     <row r="188">
-      <c r="F188" s="36"/>
-      <c r="G188" s="36"/>
+      <c r="F188" s="48"/>
+      <c r="G188" s="48"/>
     </row>
     <row r="189">
-      <c r="F189" s="36"/>
-      <c r="G189" s="36"/>
+      <c r="F189" s="48"/>
+      <c r="G189" s="48"/>
     </row>
     <row r="190">
-      <c r="F190" s="36"/>
-      <c r="G190" s="36"/>
+      <c r="F190" s="48"/>
+      <c r="G190" s="48"/>
     </row>
     <row r="191">
-      <c r="F191" s="36"/>
-      <c r="G191" s="36"/>
+      <c r="F191" s="48"/>
+      <c r="G191" s="48"/>
     </row>
     <row r="192">
-      <c r="F192" s="36"/>
-      <c r="G192" s="36"/>
+      <c r="F192" s="48"/>
+      <c r="G192" s="48"/>
     </row>
     <row r="193">
-      <c r="F193" s="36"/>
-      <c r="G193" s="36"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="48"/>
     </row>
     <row r="194">
-      <c r="F194" s="36"/>
-      <c r="G194" s="36"/>
+      <c r="F194" s="48"/>
+      <c r="G194" s="48"/>
     </row>
     <row r="195">
-      <c r="F195" s="36"/>
-      <c r="G195" s="36"/>
+      <c r="F195" s="48"/>
+      <c r="G195" s="48"/>
     </row>
     <row r="196">
-      <c r="F196" s="36"/>
-      <c r="G196" s="36"/>
+      <c r="F196" s="48"/>
+      <c r="G196" s="48"/>
     </row>
     <row r="197">
-      <c r="F197" s="36"/>
-      <c r="G197" s="36"/>
+      <c r="F197" s="48"/>
+      <c r="G197" s="48"/>
     </row>
     <row r="198">
-      <c r="F198" s="36"/>
-      <c r="G198" s="36"/>
+      <c r="F198" s="48"/>
+      <c r="G198" s="48"/>
     </row>
     <row r="199">
-      <c r="F199" s="36"/>
-      <c r="G199" s="36"/>
+      <c r="F199" s="48"/>
+      <c r="G199" s="48"/>
     </row>
     <row r="200">
-      <c r="F200" s="36"/>
-      <c r="G200" s="36"/>
+      <c r="F200" s="48"/>
+      <c r="G200" s="48"/>
     </row>
     <row r="201">
-      <c r="F201" s="36"/>
-      <c r="G201" s="36"/>
+      <c r="F201" s="48"/>
+      <c r="G201" s="48"/>
     </row>
     <row r="202">
-      <c r="F202" s="36"/>
-      <c r="G202" s="36"/>
+      <c r="F202" s="48"/>
+      <c r="G202" s="48"/>
     </row>
     <row r="203">
-      <c r="F203" s="36"/>
-      <c r="G203" s="36"/>
+      <c r="F203" s="48"/>
+      <c r="G203" s="48"/>
     </row>
     <row r="204">
-      <c r="F204" s="36"/>
-      <c r="G204" s="36"/>
+      <c r="F204" s="48"/>
+      <c r="G204" s="48"/>
     </row>
     <row r="205">
-      <c r="F205" s="36"/>
-      <c r="G205" s="36"/>
+      <c r="F205" s="48"/>
+      <c r="G205" s="48"/>
     </row>
     <row r="206">
-      <c r="F206" s="36"/>
-      <c r="G206" s="36"/>
+      <c r="F206" s="48"/>
+      <c r="G206" s="48"/>
     </row>
     <row r="207">
-      <c r="F207" s="36"/>
-      <c r="G207" s="36"/>
+      <c r="F207" s="48"/>
+      <c r="G207" s="48"/>
     </row>
     <row r="208">
-      <c r="F208" s="36"/>
-      <c r="G208" s="36"/>
+      <c r="F208" s="48"/>
+      <c r="G208" s="48"/>
     </row>
     <row r="209">
-      <c r="F209" s="36"/>
-      <c r="G209" s="36"/>
+      <c r="F209" s="48"/>
+      <c r="G209" s="48"/>
     </row>
     <row r="210">
-      <c r="F210" s="36"/>
-      <c r="G210" s="36"/>
+      <c r="F210" s="48"/>
+      <c r="G210" s="48"/>
     </row>
     <row r="211">
-      <c r="F211" s="36"/>
-      <c r="G211" s="36"/>
+      <c r="F211" s="48"/>
+      <c r="G211" s="48"/>
     </row>
     <row r="212">
-      <c r="F212" s="36"/>
-      <c r="G212" s="36"/>
+      <c r="F212" s="48"/>
+      <c r="G212" s="48"/>
     </row>
     <row r="213">
-      <c r="F213" s="36"/>
-      <c r="G213" s="36"/>
+      <c r="F213" s="48"/>
+      <c r="G213" s="48"/>
     </row>
     <row r="214">
-      <c r="F214" s="36"/>
-      <c r="G214" s="36"/>
+      <c r="F214" s="48"/>
+      <c r="G214" s="48"/>
     </row>
     <row r="215">
-      <c r="F215" s="36"/>
-      <c r="G215" s="36"/>
+      <c r="F215" s="48"/>
+      <c r="G215" s="48"/>
     </row>
     <row r="216">
-      <c r="F216" s="36"/>
-      <c r="G216" s="36"/>
+      <c r="F216" s="48"/>
+      <c r="G216" s="48"/>
     </row>
     <row r="217">
-      <c r="F217" s="36"/>
-      <c r="G217" s="36"/>
+      <c r="F217" s="48"/>
+      <c r="G217" s="48"/>
     </row>
     <row r="218">
-      <c r="F218" s="36"/>
-      <c r="G218" s="36"/>
+      <c r="F218" s="48"/>
+      <c r="G218" s="48"/>
     </row>
     <row r="219">
-      <c r="F219" s="36"/>
-      <c r="G219" s="36"/>
+      <c r="F219" s="48"/>
+      <c r="G219" s="48"/>
     </row>
     <row r="220">
-      <c r="F220" s="36"/>
-      <c r="G220" s="36"/>
+      <c r="F220" s="48"/>
+      <c r="G220" s="48"/>
     </row>
     <row r="221">
-      <c r="F221" s="36"/>
-      <c r="G221" s="36"/>
+      <c r="F221" s="48"/>
+      <c r="G221" s="48"/>
     </row>
     <row r="222">
-      <c r="F222" s="36"/>
-      <c r="G222" s="36"/>
+      <c r="F222" s="48"/>
+      <c r="G222" s="48"/>
     </row>
     <row r="223">
-      <c r="F223" s="36"/>
-      <c r="G223" s="36"/>
+      <c r="F223" s="48"/>
+      <c r="G223" s="48"/>
     </row>
     <row r="224">
-      <c r="F224" s="36"/>
-      <c r="G224" s="36"/>
+      <c r="F224" s="48"/>
+      <c r="G224" s="48"/>
     </row>
     <row r="225">
-      <c r="F225" s="36"/>
-      <c r="G225" s="36"/>
+      <c r="F225" s="48"/>
+      <c r="G225" s="48"/>
     </row>
     <row r="226">
-      <c r="F226" s="36"/>
-      <c r="G226" s="36"/>
+      <c r="F226" s="48"/>
+      <c r="G226" s="48"/>
     </row>
     <row r="227">
-      <c r="F227" s="36"/>
-      <c r="G227" s="36"/>
+      <c r="F227" s="48"/>
+      <c r="G227" s="48"/>
     </row>
     <row r="228">
-      <c r="F228" s="36"/>
-      <c r="G228" s="36"/>
+      <c r="F228" s="48"/>
+      <c r="G228" s="48"/>
     </row>
     <row r="229">
-      <c r="F229" s="36"/>
-      <c r="G229" s="36"/>
+      <c r="F229" s="48"/>
+      <c r="G229" s="48"/>
     </row>
     <row r="230">
-      <c r="F230" s="36"/>
-      <c r="G230" s="36"/>
+      <c r="F230" s="48"/>
+      <c r="G230" s="48"/>
     </row>
     <row r="231">
-      <c r="F231" s="36"/>
-      <c r="G231" s="36"/>
+      <c r="F231" s="48"/>
+      <c r="G231" s="48"/>
     </row>
     <row r="232">
-      <c r="F232" s="36"/>
-      <c r="G232" s="36"/>
+      <c r="F232" s="48"/>
+      <c r="G232" s="48"/>
     </row>
     <row r="233">
-      <c r="F233" s="36"/>
-      <c r="G233" s="36"/>
+      <c r="F233" s="48"/>
+      <c r="G233" s="48"/>
     </row>
     <row r="234">
-      <c r="F234" s="36"/>
-      <c r="G234" s="36"/>
+      <c r="F234" s="48"/>
+      <c r="G234" s="48"/>
     </row>
     <row r="235">
-      <c r="F235" s="36"/>
-      <c r="G235" s="36"/>
+      <c r="F235" s="48"/>
+      <c r="G235" s="48"/>
     </row>
     <row r="236">
-      <c r="F236" s="36"/>
-      <c r="G236" s="36"/>
+      <c r="F236" s="48"/>
+      <c r="G236" s="48"/>
     </row>
     <row r="237">
-      <c r="F237" s="36"/>
-      <c r="G237" s="36"/>
+      <c r="F237" s="48"/>
+      <c r="G237" s="48"/>
     </row>
     <row r="238">
-      <c r="F238" s="36"/>
-      <c r="G238" s="36"/>
+      <c r="F238" s="48"/>
+      <c r="G238" s="48"/>
     </row>
     <row r="239">
-      <c r="F239" s="36"/>
-      <c r="G239" s="36"/>
+      <c r="F239" s="48"/>
+      <c r="G239" s="48"/>
     </row>
     <row r="240">
-      <c r="F240" s="36"/>
-      <c r="G240" s="36"/>
+      <c r="F240" s="48"/>
+      <c r="G240" s="48"/>
     </row>
     <row r="241">
-      <c r="F241" s="36"/>
-      <c r="G241" s="36"/>
+      <c r="F241" s="48"/>
+      <c r="G241" s="48"/>
     </row>
     <row r="242">
-      <c r="F242" s="36"/>
-      <c r="G242" s="36"/>
+      <c r="F242" s="48"/>
+      <c r="G242" s="48"/>
     </row>
     <row r="243">
-      <c r="F243" s="36"/>
-      <c r="G243" s="36"/>
+      <c r="F243" s="48"/>
+      <c r="G243" s="48"/>
     </row>
     <row r="244">
-      <c r="F244" s="36"/>
-      <c r="G244" s="36"/>
+      <c r="F244" s="48"/>
+      <c r="G244" s="48"/>
     </row>
     <row r="245">
-      <c r="F245" s="36"/>
-      <c r="G245" s="36"/>
+      <c r="F245" s="48"/>
+      <c r="G245" s="48"/>
     </row>
     <row r="246">
-      <c r="F246" s="36"/>
-      <c r="G246" s="36"/>
+      <c r="F246" s="48"/>
+      <c r="G246" s="48"/>
     </row>
     <row r="247">
-      <c r="F247" s="36"/>
-      <c r="G247" s="36"/>
+      <c r="F247" s="48"/>
+      <c r="G247" s="48"/>
     </row>
     <row r="248">
-      <c r="F248" s="36"/>
-      <c r="G248" s="36"/>
+      <c r="F248" s="48"/>
+      <c r="G248" s="48"/>
     </row>
     <row r="249">
-      <c r="F249" s="36"/>
-      <c r="G249" s="36"/>
+      <c r="F249" s="48"/>
+      <c r="G249" s="48"/>
     </row>
     <row r="250">
-      <c r="F250" s="36"/>
-      <c r="G250" s="36"/>
+      <c r="F250" s="48"/>
+      <c r="G250" s="48"/>
     </row>
     <row r="251">
-      <c r="F251" s="36"/>
-      <c r="G251" s="36"/>
+      <c r="F251" s="48"/>
+      <c r="G251" s="48"/>
     </row>
     <row r="252">
-      <c r="F252" s="36"/>
-      <c r="G252" s="36"/>
+      <c r="F252" s="48"/>
+      <c r="G252" s="48"/>
     </row>
     <row r="253">
-      <c r="F253" s="36"/>
-      <c r="G253" s="36"/>
+      <c r="F253" s="48"/>
+      <c r="G253" s="48"/>
     </row>
     <row r="254">
-      <c r="F254" s="36"/>
-      <c r="G254" s="36"/>
+      <c r="F254" s="48"/>
+      <c r="G254" s="48"/>
     </row>
     <row r="255">
-      <c r="F255" s="36"/>
-      <c r="G255" s="36"/>
+      <c r="F255" s="48"/>
+      <c r="G255" s="48"/>
     </row>
     <row r="256">
-      <c r="F256" s="36"/>
-      <c r="G256" s="36"/>
+      <c r="F256" s="48"/>
+      <c r="G256" s="48"/>
     </row>
     <row r="257">
-      <c r="F257" s="36"/>
-      <c r="G257" s="36"/>
+      <c r="F257" s="48"/>
+      <c r="G257" s="48"/>
     </row>
     <row r="258">
-      <c r="F258" s="36"/>
-      <c r="G258" s="36"/>
+      <c r="F258" s="48"/>
+      <c r="G258" s="48"/>
     </row>
     <row r="259">
-      <c r="F259" s="36"/>
-      <c r="G259" s="36"/>
+      <c r="F259" s="48"/>
+      <c r="G259" s="48"/>
     </row>
     <row r="260">
-      <c r="F260" s="36"/>
-      <c r="G260" s="36"/>
+      <c r="F260" s="48"/>
+      <c r="G260" s="48"/>
     </row>
     <row r="261">
-      <c r="F261" s="36"/>
-      <c r="G261" s="36"/>
+      <c r="F261" s="48"/>
+      <c r="G261" s="48"/>
     </row>
     <row r="262">
-      <c r="F262" s="36"/>
-      <c r="G262" s="36"/>
+      <c r="F262" s="48"/>
+      <c r="G262" s="48"/>
     </row>
     <row r="263">
-      <c r="F263" s="36"/>
-      <c r="G263" s="36"/>
+      <c r="F263" s="48"/>
+      <c r="G263" s="48"/>
     </row>
     <row r="264">
-      <c r="F264" s="36"/>
-      <c r="G264" s="36"/>
+      <c r="F264" s="48"/>
+      <c r="G264" s="48"/>
     </row>
     <row r="265">
-      <c r="F265" s="36"/>
-      <c r="G265" s="36"/>
+      <c r="F265" s="48"/>
+      <c r="G265" s="48"/>
     </row>
     <row r="266">
-      <c r="F266" s="36"/>
-      <c r="G266" s="36"/>
+      <c r="F266" s="48"/>
+      <c r="G266" s="48"/>
     </row>
     <row r="267">
-      <c r="F267" s="36"/>
-      <c r="G267" s="36"/>
+      <c r="F267" s="48"/>
+      <c r="G267" s="48"/>
     </row>
     <row r="268">
-      <c r="F268" s="36"/>
-      <c r="G268" s="36"/>
+      <c r="F268" s="48"/>
+      <c r="G268" s="48"/>
     </row>
     <row r="269">
-      <c r="F269" s="36"/>
-      <c r="G269" s="36"/>
+      <c r="F269" s="48"/>
+      <c r="G269" s="48"/>
     </row>
     <row r="270">
-      <c r="F270" s="36"/>
-      <c r="G270" s="36"/>
+      <c r="F270" s="48"/>
+      <c r="G270" s="48"/>
     </row>
     <row r="271">
-      <c r="F271" s="36"/>
-      <c r="G271" s="36"/>
+      <c r="F271" s="48"/>
+      <c r="G271" s="48"/>
     </row>
     <row r="272">
-      <c r="F272" s="36"/>
-      <c r="G272" s="36"/>
+      <c r="F272" s="48"/>
+      <c r="G272" s="48"/>
     </row>
     <row r="273">
-      <c r="F273" s="36"/>
-      <c r="G273" s="36"/>
+      <c r="F273" s="48"/>
+      <c r="G273" s="48"/>
     </row>
     <row r="274">
-      <c r="F274" s="36"/>
-      <c r="G274" s="36"/>
+      <c r="F274" s="48"/>
+      <c r="G274" s="48"/>
     </row>
     <row r="275">
-      <c r="F275" s="36"/>
-      <c r="G275" s="36"/>
+      <c r="F275" s="48"/>
+      <c r="G275" s="48"/>
     </row>
     <row r="276">
-      <c r="F276" s="36"/>
-      <c r="G276" s="36"/>
+      <c r="F276" s="48"/>
+      <c r="G276" s="48"/>
     </row>
     <row r="277">
-      <c r="F277" s="36"/>
-      <c r="G277" s="36"/>
+      <c r="F277" s="48"/>
+      <c r="G277" s="48"/>
     </row>
     <row r="278">
-      <c r="F278" s="36"/>
-      <c r="G278" s="36"/>
+      <c r="F278" s="48"/>
+      <c r="G278" s="48"/>
     </row>
     <row r="279">
-      <c r="F279" s="36"/>
-      <c r="G279" s="36"/>
+      <c r="F279" s="48"/>
+      <c r="G279" s="48"/>
     </row>
     <row r="280">
-      <c r="F280" s="36"/>
-      <c r="G280" s="36"/>
+      <c r="F280" s="48"/>
+      <c r="G280" s="48"/>
     </row>
     <row r="281">
-      <c r="F281" s="36"/>
-      <c r="G281" s="36"/>
+      <c r="F281" s="48"/>
+      <c r="G281" s="48"/>
     </row>
     <row r="282">
-      <c r="F282" s="36"/>
-      <c r="G282" s="36"/>
+      <c r="F282" s="48"/>
+      <c r="G282" s="48"/>
     </row>
     <row r="283">
-      <c r="F283" s="36"/>
-      <c r="G283" s="36"/>
+      <c r="F283" s="48"/>
+      <c r="G283" s="48"/>
     </row>
     <row r="284">
-      <c r="F284" s="36"/>
-      <c r="G284" s="36"/>
+      <c r="F284" s="48"/>
+      <c r="G284" s="48"/>
     </row>
     <row r="285">
-      <c r="F285" s="36"/>
-      <c r="G285" s="36"/>
+      <c r="F285" s="48"/>
+      <c r="G285" s="48"/>
     </row>
     <row r="286">
-      <c r="F286" s="36"/>
-      <c r="G286" s="36"/>
+      <c r="F286" s="48"/>
+      <c r="G286" s="48"/>
     </row>
     <row r="287">
-      <c r="F287" s="36"/>
-      <c r="G287" s="36"/>
+      <c r="F287" s="48"/>
+      <c r="G287" s="48"/>
     </row>
     <row r="288">
-      <c r="F288" s="36"/>
-      <c r="G288" s="36"/>
+      <c r="F288" s="48"/>
+      <c r="G288" s="48"/>
     </row>
     <row r="289">
-      <c r="F289" s="36"/>
-      <c r="G289" s="36"/>
+      <c r="F289" s="48"/>
+      <c r="G289" s="48"/>
     </row>
     <row r="290">
-      <c r="F290" s="36"/>
-      <c r="G290" s="36"/>
+      <c r="F290" s="48"/>
+      <c r="G290" s="48"/>
     </row>
     <row r="291">
-      <c r="F291" s="36"/>
-      <c r="G291" s="36"/>
+      <c r="F291" s="48"/>
+      <c r="G291" s="48"/>
     </row>
     <row r="292">
-      <c r="F292" s="36"/>
-      <c r="G292" s="36"/>
+      <c r="F292" s="48"/>
+      <c r="G292" s="48"/>
     </row>
     <row r="293">
-      <c r="F293" s="36"/>
-      <c r="G293" s="36"/>
+      <c r="F293" s="48"/>
+      <c r="G293" s="48"/>
     </row>
     <row r="294">
-      <c r="F294" s="36"/>
-      <c r="G294" s="36"/>
+      <c r="F294" s="48"/>
+      <c r="G294" s="48"/>
     </row>
     <row r="295">
-      <c r="F295" s="36"/>
-      <c r="G295" s="36"/>
+      <c r="F295" s="48"/>
+      <c r="G295" s="48"/>
     </row>
     <row r="296">
-      <c r="F296" s="36"/>
-      <c r="G296" s="36"/>
+      <c r="F296" s="48"/>
+      <c r="G296" s="48"/>
     </row>
     <row r="297">
-      <c r="F297" s="36"/>
-      <c r="G297" s="36"/>
+      <c r="F297" s="48"/>
+      <c r="G297" s="48"/>
     </row>
     <row r="298">
-      <c r="F298" s="36"/>
-      <c r="G298" s="36"/>
+      <c r="F298" s="48"/>
+      <c r="G298" s="48"/>
     </row>
     <row r="299">
-      <c r="F299" s="36"/>
-      <c r="G299" s="36"/>
+      <c r="F299" s="48"/>
+      <c r="G299" s="48"/>
     </row>
     <row r="300">
-      <c r="F300" s="36"/>
-      <c r="G300" s="36"/>
+      <c r="F300" s="48"/>
+      <c r="G300" s="48"/>
     </row>
     <row r="301">
-      <c r="F301" s="36"/>
-      <c r="G301" s="36"/>
+      <c r="F301" s="48"/>
+      <c r="G301" s="48"/>
     </row>
     <row r="302">
-      <c r="F302" s="36"/>
-      <c r="G302" s="36"/>
+      <c r="F302" s="48"/>
+      <c r="G302" s="48"/>
     </row>
     <row r="303">
-      <c r="F303" s="36"/>
-      <c r="G303" s="36"/>
+      <c r="F303" s="48"/>
+      <c r="G303" s="48"/>
     </row>
     <row r="304">
-      <c r="F304" s="36"/>
-      <c r="G304" s="36"/>
+      <c r="F304" s="48"/>
+      <c r="G304" s="48"/>
     </row>
     <row r="305">
-      <c r="F305" s="36"/>
-      <c r="G305" s="36"/>
+      <c r="F305" s="48"/>
+      <c r="G305" s="48"/>
     </row>
     <row r="306">
-      <c r="F306" s="36"/>
-      <c r="G306" s="36"/>
+      <c r="F306" s="48"/>
+      <c r="G306" s="48"/>
     </row>
     <row r="307">
-      <c r="F307" s="36"/>
-      <c r="G307" s="36"/>
+      <c r="F307" s="48"/>
+      <c r="G307" s="48"/>
     </row>
     <row r="308">
-      <c r="F308" s="36"/>
-      <c r="G308" s="36"/>
+      <c r="F308" s="48"/>
+      <c r="G308" s="48"/>
     </row>
     <row r="309">
-      <c r="F309" s="36"/>
-      <c r="G309" s="36"/>
+      <c r="F309" s="48"/>
+      <c r="G309" s="48"/>
     </row>
     <row r="310">
-      <c r="F310" s="36"/>
-      <c r="G310" s="36"/>
+      <c r="F310" s="48"/>
+      <c r="G310" s="48"/>
     </row>
     <row r="311">
-      <c r="F311" s="36"/>
-      <c r="G311" s="36"/>
+      <c r="F311" s="48"/>
+      <c r="G311" s="48"/>
     </row>
     <row r="312">
-      <c r="F312" s="36"/>
-      <c r="G312" s="36"/>
+      <c r="F312" s="48"/>
+      <c r="G312" s="48"/>
     </row>
     <row r="313">
-      <c r="F313" s="36"/>
-      <c r="G313" s="36"/>
+      <c r="F313" s="48"/>
+      <c r="G313" s="48"/>
     </row>
     <row r="314">
-      <c r="F314" s="36"/>
-      <c r="G314" s="36"/>
+      <c r="F314" s="48"/>
+      <c r="G314" s="48"/>
     </row>
     <row r="315">
-      <c r="F315" s="36"/>
-      <c r="G315" s="36"/>
+      <c r="F315" s="48"/>
+      <c r="G315" s="48"/>
     </row>
     <row r="316">
-      <c r="F316" s="36"/>
-      <c r="G316" s="36"/>
+      <c r="F316" s="48"/>
+      <c r="G316" s="48"/>
     </row>
     <row r="317">
-      <c r="F317" s="36"/>
-      <c r="G317" s="36"/>
+      <c r="F317" s="48"/>
+      <c r="G317" s="48"/>
     </row>
     <row r="318">
-      <c r="F318" s="36"/>
-      <c r="G318" s="36"/>
+      <c r="F318" s="48"/>
+      <c r="G318" s="48"/>
     </row>
     <row r="319">
-      <c r="F319" s="36"/>
-      <c r="G319" s="36"/>
+      <c r="F319" s="48"/>
+      <c r="G319" s="48"/>
     </row>
     <row r="320">
-      <c r="F320" s="36"/>
-      <c r="G320" s="36"/>
+      <c r="F320" s="48"/>
+      <c r="G320" s="48"/>
     </row>
     <row r="321">
-      <c r="F321" s="36"/>
-      <c r="G321" s="36"/>
+      <c r="F321" s="48"/>
+      <c r="G321" s="48"/>
     </row>
     <row r="322">
-      <c r="F322" s="36"/>
-      <c r="G322" s="36"/>
+      <c r="F322" s="48"/>
+      <c r="G322" s="48"/>
     </row>
     <row r="323">
-      <c r="F323" s="36"/>
-      <c r="G323" s="36"/>
+      <c r="F323" s="48"/>
+      <c r="G323" s="48"/>
     </row>
     <row r="324">
-      <c r="F324" s="36"/>
-      <c r="G324" s="36"/>
+      <c r="F324" s="48"/>
+      <c r="G324" s="48"/>
     </row>
     <row r="325">
-      <c r="F325" s="36"/>
-      <c r="G325" s="36"/>
+      <c r="F325" s="48"/>
+      <c r="G325" s="48"/>
     </row>
     <row r="326">
-      <c r="F326" s="36"/>
-      <c r="G326" s="36"/>
+      <c r="F326" s="48"/>
+      <c r="G326" s="48"/>
     </row>
     <row r="327">
-      <c r="F327" s="36"/>
-      <c r="G327" s="36"/>
+      <c r="F327" s="48"/>
+      <c r="G327" s="48"/>
     </row>
     <row r="328">
-      <c r="F328" s="36"/>
-      <c r="G328" s="36"/>
+      <c r="F328" s="48"/>
+      <c r="G328" s="48"/>
     </row>
     <row r="329">
-      <c r="F329" s="36"/>
-      <c r="G329" s="36"/>
+      <c r="F329" s="48"/>
+      <c r="G329" s="48"/>
     </row>
     <row r="330">
-      <c r="F330" s="36"/>
-      <c r="G330" s="36"/>
+      <c r="F330" s="48"/>
+      <c r="G330" s="48"/>
     </row>
     <row r="331">
-      <c r="F331" s="36"/>
-      <c r="G331" s="36"/>
+      <c r="F331" s="48"/>
+      <c r="G331" s="48"/>
     </row>
     <row r="332">
-      <c r="F332" s="36"/>
-      <c r="G332" s="36"/>
+      <c r="F332" s="48"/>
+      <c r="G332" s="48"/>
     </row>
     <row r="333">
-      <c r="F333" s="36"/>
-      <c r="G333" s="36"/>
+      <c r="F333" s="48"/>
+      <c r="G333" s="48"/>
     </row>
     <row r="334">
-      <c r="F334" s="36"/>
-      <c r="G334" s="36"/>
+      <c r="F334" s="48"/>
+      <c r="G334" s="48"/>
     </row>
     <row r="335">
-      <c r="F335" s="36"/>
-      <c r="G335" s="36"/>
+      <c r="F335" s="48"/>
+      <c r="G335" s="48"/>
     </row>
     <row r="336">
-      <c r="F336" s="36"/>
-      <c r="G336" s="36"/>
+      <c r="F336" s="48"/>
+      <c r="G336" s="48"/>
     </row>
     <row r="337">
-      <c r="F337" s="36"/>
-      <c r="G337" s="36"/>
+      <c r="F337" s="48"/>
+      <c r="G337" s="48"/>
     </row>
     <row r="338">
-      <c r="F338" s="36"/>
-      <c r="G338" s="36"/>
+      <c r="F338" s="48"/>
+      <c r="G338" s="48"/>
     </row>
     <row r="339">
-      <c r="F339" s="36"/>
-      <c r="G339" s="36"/>
+      <c r="F339" s="48"/>
+      <c r="G339" s="48"/>
     </row>
     <row r="340">
-      <c r="F340" s="36"/>
-      <c r="G340" s="36"/>
+      <c r="F340" s="48"/>
+      <c r="G340" s="48"/>
     </row>
     <row r="341">
-      <c r="F341" s="36"/>
-      <c r="G341" s="36"/>
+      <c r="F341" s="48"/>
+      <c r="G341" s="48"/>
     </row>
     <row r="342">
-      <c r="F342" s="36"/>
-      <c r="G342" s="36"/>
+      <c r="F342" s="48"/>
+      <c r="G342" s="48"/>
     </row>
     <row r="343">
-      <c r="F343" s="36"/>
-      <c r="G343" s="36"/>
+      <c r="F343" s="48"/>
+      <c r="G343" s="48"/>
     </row>
     <row r="344">
-      <c r="F344" s="36"/>
-      <c r="G344" s="36"/>
+      <c r="F344" s="48"/>
+      <c r="G344" s="48"/>
     </row>
     <row r="345">
-      <c r="F345" s="36"/>
-      <c r="G345" s="36"/>
+      <c r="F345" s="48"/>
+      <c r="G345" s="48"/>
     </row>
     <row r="346">
-      <c r="F346" s="36"/>
-      <c r="G346" s="36"/>
+      <c r="F346" s="48"/>
+      <c r="G346" s="48"/>
     </row>
     <row r="347">
-      <c r="F347" s="36"/>
-      <c r="G347" s="36"/>
+      <c r="F347" s="48"/>
+      <c r="G347" s="48"/>
     </row>
     <row r="348">
-      <c r="F348" s="36"/>
-      <c r="G348" s="36"/>
+      <c r="F348" s="48"/>
+      <c r="G348" s="48"/>
     </row>
     <row r="349">
-      <c r="F349" s="36"/>
-      <c r="G349" s="36"/>
+      <c r="F349" s="48"/>
+      <c r="G349" s="48"/>
     </row>
     <row r="350">
-      <c r="F350" s="36"/>
-      <c r="G350" s="36"/>
+      <c r="F350" s="48"/>
+      <c r="G350" s="48"/>
     </row>
     <row r="351">
-      <c r="F351" s="36"/>
-      <c r="G351" s="36"/>
+      <c r="F351" s="48"/>
+      <c r="G351" s="48"/>
     </row>
     <row r="352">
-      <c r="F352" s="36"/>
-      <c r="G352" s="36"/>
+      <c r="F352" s="48"/>
+      <c r="G352" s="48"/>
     </row>
     <row r="353">
-      <c r="F353" s="36"/>
-      <c r="G353" s="36"/>
+      <c r="F353" s="48"/>
+      <c r="G353" s="48"/>
     </row>
     <row r="354">
-      <c r="F354" s="36"/>
-      <c r="G354" s="36"/>
+      <c r="F354" s="48"/>
+      <c r="G354" s="48"/>
     </row>
     <row r="355">
-      <c r="F355" s="36"/>
-      <c r="G355" s="36"/>
+      <c r="F355" s="48"/>
+      <c r="G355" s="48"/>
     </row>
     <row r="356">
-      <c r="F356" s="36"/>
-      <c r="G356" s="36"/>
+      <c r="F356" s="48"/>
+      <c r="G356" s="48"/>
     </row>
     <row r="357">
-      <c r="F357" s="36"/>
-      <c r="G357" s="36"/>
+      <c r="F357" s="48"/>
+      <c r="G357" s="48"/>
     </row>
     <row r="358">
-      <c r="F358" s="36"/>
-      <c r="G358" s="36"/>
+      <c r="F358" s="48"/>
+      <c r="G358" s="48"/>
     </row>
     <row r="359">
-      <c r="F359" s="36"/>
-      <c r="G359" s="36"/>
+      <c r="F359" s="48"/>
+      <c r="G359" s="48"/>
     </row>
     <row r="360">
-      <c r="F360" s="36"/>
-      <c r="G360" s="36"/>
+      <c r="F360" s="48"/>
+      <c r="G360" s="48"/>
     </row>
     <row r="361">
-      <c r="F361" s="36"/>
-      <c r="G361" s="36"/>
+      <c r="F361" s="48"/>
+      <c r="G361" s="48"/>
     </row>
     <row r="362">
-      <c r="F362" s="36"/>
-      <c r="G362" s="36"/>
+      <c r="F362" s="48"/>
+      <c r="G362" s="48"/>
     </row>
     <row r="363">
-      <c r="F363" s="36"/>
-      <c r="G363" s="36"/>
+      <c r="F363" s="48"/>
+      <c r="G363" s="48"/>
     </row>
     <row r="364">
-      <c r="F364" s="36"/>
-      <c r="G364" s="36"/>
+      <c r="F364" s="48"/>
+      <c r="G364" s="48"/>
     </row>
     <row r="365">
-      <c r="F365" s="36"/>
-      <c r="G365" s="36"/>
+      <c r="F365" s="48"/>
+      <c r="G365" s="48"/>
     </row>
     <row r="366">
-      <c r="F366" s="36"/>
-      <c r="G366" s="36"/>
+      <c r="F366" s="48"/>
+      <c r="G366" s="48"/>
     </row>
     <row r="367">
-      <c r="F367" s="36"/>
-      <c r="G367" s="36"/>
+      <c r="F367" s="48"/>
+      <c r="G367" s="48"/>
     </row>
     <row r="368">
-      <c r="F368" s="36"/>
-      <c r="G368" s="36"/>
+      <c r="F368" s="48"/>
+      <c r="G368" s="48"/>
     </row>
     <row r="369">
-      <c r="F369" s="36"/>
-      <c r="G369" s="36"/>
+      <c r="F369" s="48"/>
+      <c r="G369" s="48"/>
     </row>
     <row r="370">
-      <c r="F370" s="36"/>
-      <c r="G370" s="36"/>
+      <c r="F370" s="48"/>
+      <c r="G370" s="48"/>
     </row>
     <row r="371">
-      <c r="F371" s="36"/>
-      <c r="G371" s="36"/>
+      <c r="F371" s="48"/>
+      <c r="G371" s="48"/>
     </row>
     <row r="372">
-      <c r="F372" s="36"/>
-      <c r="G372" s="36"/>
+      <c r="F372" s="48"/>
+      <c r="G372" s="48"/>
     </row>
     <row r="373">
-      <c r="F373" s="36"/>
-      <c r="G373" s="36"/>
+      <c r="F373" s="48"/>
+      <c r="G373" s="48"/>
     </row>
     <row r="374">
-      <c r="F374" s="36"/>
-      <c r="G374" s="36"/>
+      <c r="F374" s="48"/>
+      <c r="G374" s="48"/>
     </row>
     <row r="375">
-      <c r="F375" s="36"/>
-      <c r="G375" s="36"/>
+      <c r="F375" s="48"/>
+      <c r="G375" s="48"/>
     </row>
     <row r="376">
-      <c r="F376" s="36"/>
-      <c r="G376" s="36"/>
+      <c r="F376" s="48"/>
+      <c r="G376" s="48"/>
     </row>
     <row r="377">
-      <c r="F377" s="36"/>
-      <c r="G377" s="36"/>
+      <c r="F377" s="48"/>
+      <c r="G377" s="48"/>
     </row>
     <row r="378">
-      <c r="F378" s="36"/>
-      <c r="G378" s="36"/>
+      <c r="F378" s="48"/>
+      <c r="G378" s="48"/>
     </row>
     <row r="379">
-      <c r="F379" s="36"/>
-      <c r="G379" s="36"/>
+      <c r="F379" s="48"/>
+      <c r="G379" s="48"/>
     </row>
     <row r="380">
-      <c r="F380" s="36"/>
-      <c r="G380" s="36"/>
+      <c r="F380" s="48"/>
+      <c r="G380" s="48"/>
     </row>
     <row r="381">
-      <c r="F381" s="36"/>
-      <c r="G381" s="36"/>
+      <c r="F381" s="48"/>
+      <c r="G381" s="48"/>
     </row>
     <row r="382">
-      <c r="F382" s="36"/>
-      <c r="G382" s="36"/>
+      <c r="F382" s="48"/>
+      <c r="G382" s="48"/>
     </row>
     <row r="383">
-      <c r="F383" s="36"/>
-      <c r="G383" s="36"/>
+      <c r="F383" s="48"/>
+      <c r="G383" s="48"/>
     </row>
     <row r="384">
-      <c r="F384" s="36"/>
-      <c r="G384" s="36"/>
+      <c r="F384" s="48"/>
+      <c r="G384" s="48"/>
     </row>
     <row r="385">
-      <c r="F385" s="36"/>
-      <c r="G385" s="36"/>
+      <c r="F385" s="48"/>
+      <c r="G385" s="48"/>
     </row>
     <row r="386">
-      <c r="F386" s="36"/>
-      <c r="G386" s="36"/>
+      <c r="F386" s="48"/>
+      <c r="G386" s="48"/>
     </row>
     <row r="387">
-      <c r="F387" s="36"/>
-      <c r="G387" s="36"/>
+      <c r="F387" s="48"/>
+      <c r="G387" s="48"/>
     </row>
     <row r="388">
-      <c r="F388" s="36"/>
-      <c r="G388" s="36"/>
+      <c r="F388" s="48"/>
+      <c r="G388" s="48"/>
     </row>
     <row r="389">
-      <c r="F389" s="36"/>
-      <c r="G389" s="36"/>
+      <c r="F389" s="48"/>
+      <c r="G389" s="48"/>
     </row>
     <row r="390">
-      <c r="F390" s="36"/>
-      <c r="G390" s="36"/>
+      <c r="F390" s="48"/>
+      <c r="G390" s="48"/>
     </row>
     <row r="391">
-      <c r="F391" s="36"/>
-      <c r="G391" s="36"/>
+      <c r="F391" s="48"/>
+      <c r="G391" s="48"/>
     </row>
     <row r="392">
-      <c r="F392" s="36"/>
-      <c r="G392" s="36"/>
+      <c r="F392" s="48"/>
+      <c r="G392" s="48"/>
     </row>
     <row r="393">
-      <c r="F393" s="36"/>
-      <c r="G393" s="36"/>
+      <c r="F393" s="48"/>
+      <c r="G393" s="48"/>
     </row>
     <row r="394">
-      <c r="F394" s="36"/>
-      <c r="G394" s="36"/>
+      <c r="F394" s="48"/>
+      <c r="G394" s="48"/>
     </row>
     <row r="395">
-      <c r="F395" s="36"/>
-      <c r="G395" s="36"/>
+      <c r="F395" s="48"/>
+      <c r="G395" s="48"/>
     </row>
     <row r="396">
-      <c r="F396" s="36"/>
-      <c r="G396" s="36"/>
+      <c r="F396" s="48"/>
+      <c r="G396" s="48"/>
     </row>
     <row r="397">
-      <c r="F397" s="36"/>
-      <c r="G397" s="36"/>
+      <c r="F397" s="48"/>
+      <c r="G397" s="48"/>
     </row>
     <row r="398">
-      <c r="F398" s="36"/>
-      <c r="G398" s="36"/>
+      <c r="F398" s="48"/>
+      <c r="G398" s="48"/>
     </row>
     <row r="399">
-      <c r="F399" s="36"/>
-      <c r="G399" s="36"/>
+      <c r="F399" s="48"/>
+      <c r="G399" s="48"/>
     </row>
     <row r="400">
-      <c r="F400" s="36"/>
-      <c r="G400" s="36"/>
+      <c r="F400" s="48"/>
+      <c r="G400" s="48"/>
     </row>
     <row r="401">
-      <c r="F401" s="36"/>
-      <c r="G401" s="36"/>
+      <c r="F401" s="48"/>
+      <c r="G401" s="48"/>
     </row>
     <row r="402">
-      <c r="F402" s="36"/>
-      <c r="G402" s="36"/>
+      <c r="F402" s="48"/>
+      <c r="G402" s="48"/>
     </row>
     <row r="403">
-      <c r="F403" s="36"/>
-      <c r="G403" s="36"/>
+      <c r="F403" s="48"/>
+      <c r="G403" s="48"/>
     </row>
     <row r="404">
-      <c r="F404" s="36"/>
-      <c r="G404" s="36"/>
+      <c r="F404" s="48"/>
+      <c r="G404" s="48"/>
     </row>
     <row r="405">
-      <c r="F405" s="36"/>
-      <c r="G405" s="36"/>
+      <c r="F405" s="48"/>
+      <c r="G405" s="48"/>
     </row>
     <row r="406">
-      <c r="F406" s="36"/>
-      <c r="G406" s="36"/>
+      <c r="F406" s="48"/>
+      <c r="G406" s="48"/>
     </row>
     <row r="407">
-      <c r="F407" s="36"/>
-      <c r="G407" s="36"/>
+      <c r="F407" s="48"/>
+      <c r="G407" s="48"/>
     </row>
     <row r="408">
-      <c r="F408" s="36"/>
-      <c r="G408" s="36"/>
+      <c r="F408" s="48"/>
+      <c r="G408" s="48"/>
     </row>
     <row r="409">
-      <c r="F409" s="36"/>
-      <c r="G409" s="36"/>
+      <c r="F409" s="48"/>
+      <c r="G409" s="48"/>
     </row>
     <row r="410">
-      <c r="F410" s="36"/>
-      <c r="G410" s="36"/>
+      <c r="F410" s="48"/>
+      <c r="G410" s="48"/>
     </row>
     <row r="411">
-      <c r="F411" s="36"/>
-      <c r="G411" s="36"/>
+      <c r="F411" s="48"/>
+      <c r="G411" s="48"/>
     </row>
     <row r="412">
-      <c r="F412" s="36"/>
-      <c r="G412" s="36"/>
+      <c r="F412" s="48"/>
+      <c r="G412" s="48"/>
     </row>
     <row r="413">
-      <c r="F413" s="36"/>
-      <c r="G413" s="36"/>
+      <c r="F413" s="48"/>
+      <c r="G413" s="48"/>
     </row>
     <row r="414">
-      <c r="F414" s="36"/>
-      <c r="G414" s="36"/>
+      <c r="F414" s="48"/>
+      <c r="G414" s="48"/>
     </row>
     <row r="415">
-      <c r="F415" s="36"/>
-      <c r="G415" s="36"/>
+      <c r="F415" s="48"/>
+      <c r="G415" s="48"/>
     </row>
     <row r="416">
-      <c r="F416" s="36"/>
-      <c r="G416" s="36"/>
+      <c r="F416" s="48"/>
+      <c r="G416" s="48"/>
     </row>
     <row r="417">
-      <c r="F417" s="36"/>
-      <c r="G417" s="36"/>
+      <c r="F417" s="48"/>
+      <c r="G417" s="48"/>
     </row>
     <row r="418">
-      <c r="F418" s="36"/>
-      <c r="G418" s="36"/>
+      <c r="F418" s="48"/>
+      <c r="G418" s="48"/>
     </row>
     <row r="419">
-      <c r="F419" s="36"/>
-      <c r="G419" s="36"/>
+      <c r="F419" s="48"/>
+      <c r="G419" s="48"/>
     </row>
     <row r="420">
-      <c r="F420" s="36"/>
-      <c r="G420" s="36"/>
+      <c r="F420" s="48"/>
+      <c r="G420" s="48"/>
     </row>
     <row r="421">
-      <c r="F421" s="36"/>
-      <c r="G421" s="36"/>
+      <c r="F421" s="48"/>
+      <c r="G421" s="48"/>
     </row>
     <row r="422">
-      <c r="F422" s="36"/>
-      <c r="G422" s="36"/>
+      <c r="F422" s="48"/>
+      <c r="G422" s="48"/>
     </row>
     <row r="423">
-      <c r="F423" s="36"/>
-      <c r="G423" s="36"/>
+      <c r="F423" s="48"/>
+      <c r="G423" s="48"/>
     </row>
     <row r="424">
-      <c r="F424" s="36"/>
-      <c r="G424" s="36"/>
+      <c r="F424" s="48"/>
+      <c r="G424" s="48"/>
     </row>
     <row r="425">
-      <c r="F425" s="36"/>
-      <c r="G425" s="36"/>
+      <c r="F425" s="48"/>
+      <c r="G425" s="48"/>
     </row>
     <row r="426">
-      <c r="F426" s="36"/>
-      <c r="G426" s="36"/>
+      <c r="F426" s="48"/>
+      <c r="G426" s="48"/>
     </row>
     <row r="427">
-      <c r="F427" s="36"/>
-      <c r="G427" s="36"/>
+      <c r="F427" s="48"/>
+      <c r="G427" s="48"/>
     </row>
     <row r="428">
-      <c r="F428" s="36"/>
-      <c r="G428" s="36"/>
+      <c r="F428" s="48"/>
+      <c r="G428" s="48"/>
     </row>
     <row r="429">
-      <c r="F429" s="36"/>
-      <c r="G429" s="36"/>
+      <c r="F429" s="48"/>
+      <c r="G429" s="48"/>
     </row>
     <row r="430">
-      <c r="F430" s="36"/>
-      <c r="G430" s="36"/>
+      <c r="F430" s="48"/>
+      <c r="G430" s="48"/>
     </row>
     <row r="431">
-      <c r="F431" s="36"/>
-      <c r="G431" s="36"/>
+      <c r="F431" s="48"/>
+      <c r="G431" s="48"/>
     </row>
     <row r="432">
-      <c r="F432" s="36"/>
-      <c r="G432" s="36"/>
+      <c r="F432" s="48"/>
+      <c r="G432" s="48"/>
     </row>
     <row r="433">
-      <c r="F433" s="36"/>
-      <c r="G433" s="36"/>
+      <c r="F433" s="48"/>
+      <c r="G433" s="48"/>
     </row>
     <row r="434">
-      <c r="F434" s="36"/>
-      <c r="G434" s="36"/>
+      <c r="F434" s="48"/>
+      <c r="G434" s="48"/>
     </row>
     <row r="435">
-      <c r="F435" s="36"/>
-      <c r="G435" s="36"/>
+      <c r="F435" s="48"/>
+      <c r="G435" s="48"/>
     </row>
     <row r="436">
-      <c r="F436" s="36"/>
-      <c r="G436" s="36"/>
+      <c r="F436" s="48"/>
+      <c r="G436" s="48"/>
     </row>
     <row r="437">
-      <c r="F437" s="36"/>
-      <c r="G437" s="36"/>
+      <c r="F437" s="48"/>
+      <c r="G437" s="48"/>
     </row>
     <row r="438">
-      <c r="F438" s="36"/>
-      <c r="G438" s="36"/>
+      <c r="F438" s="48"/>
+      <c r="G438" s="48"/>
     </row>
     <row r="439">
-      <c r="F439" s="36"/>
-      <c r="G439" s="36"/>
+      <c r="F439" s="48"/>
+      <c r="G439" s="48"/>
     </row>
     <row r="440">
-      <c r="F440" s="36"/>
-      <c r="G440" s="36"/>
+      <c r="F440" s="48"/>
+      <c r="G440" s="48"/>
     </row>
     <row r="441">
-      <c r="F441" s="36"/>
-      <c r="G441" s="36"/>
+      <c r="F441" s="48"/>
+      <c r="G441" s="48"/>
     </row>
     <row r="442">
-      <c r="F442" s="36"/>
-      <c r="G442" s="36"/>
+      <c r="F442" s="48"/>
+      <c r="G442" s="48"/>
     </row>
     <row r="443">
-      <c r="F443" s="36"/>
-      <c r="G443" s="36"/>
+      <c r="F443" s="48"/>
+      <c r="G443" s="48"/>
     </row>
     <row r="444">
-      <c r="F444" s="36"/>
-      <c r="G444" s="36"/>
+      <c r="F444" s="48"/>
+      <c r="G444" s="48"/>
     </row>
     <row r="445">
-      <c r="F445" s="36"/>
-      <c r="G445" s="36"/>
+      <c r="F445" s="48"/>
+      <c r="G445" s="48"/>
     </row>
     <row r="446">
-      <c r="F446" s="36"/>
-      <c r="G446" s="36"/>
+      <c r="F446" s="48"/>
+      <c r="G446" s="48"/>
     </row>
     <row r="447">
-      <c r="F447" s="36"/>
-      <c r="G447" s="36"/>
+      <c r="F447" s="48"/>
+      <c r="G447" s="48"/>
     </row>
     <row r="448">
-      <c r="F448" s="36"/>
-      <c r="G448" s="36"/>
+      <c r="F448" s="48"/>
+      <c r="G448" s="48"/>
     </row>
     <row r="449">
-      <c r="F449" s="36"/>
-      <c r="G449" s="36"/>
+      <c r="F449" s="48"/>
+      <c r="G449" s="48"/>
     </row>
     <row r="450">
-      <c r="F450" s="36"/>
-      <c r="G450" s="36"/>
+      <c r="F450" s="48"/>
+      <c r="G450" s="48"/>
     </row>
     <row r="451">
-      <c r="F451" s="36"/>
-      <c r="G451" s="36"/>
+      <c r="F451" s="48"/>
+      <c r="G451" s="48"/>
     </row>
     <row r="452">
-      <c r="F452" s="36"/>
-      <c r="G452" s="36"/>
+      <c r="F452" s="48"/>
+      <c r="G452" s="48"/>
     </row>
     <row r="453">
-      <c r="F453" s="36"/>
-      <c r="G453" s="36"/>
+      <c r="F453" s="48"/>
+      <c r="G453" s="48"/>
     </row>
     <row r="454">
-      <c r="F454" s="36"/>
-      <c r="G454" s="36"/>
+      <c r="F454" s="48"/>
+      <c r="G454" s="48"/>
     </row>
     <row r="455">
-      <c r="F455" s="36"/>
-      <c r="G455" s="36"/>
+      <c r="F455" s="48"/>
+      <c r="G455" s="48"/>
     </row>
     <row r="456">
-      <c r="F456" s="36"/>
-      <c r="G456" s="36"/>
+      <c r="F456" s="48"/>
+      <c r="G456" s="48"/>
     </row>
     <row r="457">
-      <c r="F457" s="36"/>
-      <c r="G457" s="36"/>
+      <c r="F457" s="48"/>
+      <c r="G457" s="48"/>
     </row>
     <row r="458">
-      <c r="F458" s="36"/>
-      <c r="G458" s="36"/>
+      <c r="F458" s="48"/>
+      <c r="G458" s="48"/>
     </row>
     <row r="459">
-      <c r="F459" s="36"/>
-      <c r="G459" s="36"/>
+      <c r="F459" s="48"/>
+      <c r="G459" s="48"/>
     </row>
     <row r="460">
-      <c r="F460" s="36"/>
-      <c r="G460" s="36"/>
+      <c r="F460" s="48"/>
+      <c r="G460" s="48"/>
     </row>
     <row r="461">
-      <c r="F461" s="36"/>
-      <c r="G461" s="36"/>
+      <c r="F461" s="48"/>
+      <c r="G461" s="48"/>
     </row>
     <row r="462">
-      <c r="F462" s="36"/>
-      <c r="G462" s="36"/>
+      <c r="F462" s="48"/>
+      <c r="G462" s="48"/>
     </row>
     <row r="463">
-      <c r="F463" s="36"/>
-      <c r="G463" s="36"/>
+      <c r="F463" s="48"/>
+      <c r="G463" s="48"/>
     </row>
     <row r="464">
-      <c r="F464" s="36"/>
-      <c r="G464" s="36"/>
+      <c r="F464" s="48"/>
+      <c r="G464" s="48"/>
     </row>
     <row r="465">
-      <c r="F465" s="36"/>
-      <c r="G465" s="36"/>
+      <c r="F465" s="48"/>
+      <c r="G465" s="48"/>
     </row>
     <row r="466">
-      <c r="F466" s="36"/>
-      <c r="G466" s="36"/>
+      <c r="F466" s="48"/>
+      <c r="G466" s="48"/>
     </row>
     <row r="467">
-      <c r="F467" s="36"/>
-      <c r="G467" s="36"/>
+      <c r="F467" s="48"/>
+      <c r="G467" s="48"/>
     </row>
     <row r="468">
-      <c r="F468" s="36"/>
-      <c r="G468" s="36"/>
+      <c r="F468" s="48"/>
+      <c r="G468" s="48"/>
     </row>
     <row r="469">
-      <c r="F469" s="36"/>
-      <c r="G469" s="36"/>
+      <c r="F469" s="48"/>
+      <c r="G469" s="48"/>
     </row>
     <row r="470">
-      <c r="F470" s="36"/>
-      <c r="G470" s="36"/>
+      <c r="F470" s="48"/>
+      <c r="G470" s="48"/>
     </row>
     <row r="471">
-      <c r="F471" s="36"/>
-      <c r="G471" s="36"/>
+      <c r="F471" s="48"/>
+      <c r="G471" s="48"/>
     </row>
     <row r="472">
-      <c r="F472" s="36"/>
-      <c r="G472" s="36"/>
+      <c r="F472" s="48"/>
+      <c r="G472" s="48"/>
     </row>
     <row r="473">
-      <c r="F473" s="36"/>
-      <c r="G473" s="36"/>
+      <c r="F473" s="48"/>
+      <c r="G473" s="48"/>
     </row>
     <row r="474">
-      <c r="F474" s="36"/>
-      <c r="G474" s="36"/>
+      <c r="F474" s="48"/>
+      <c r="G474" s="48"/>
     </row>
     <row r="475">
-      <c r="F475" s="36"/>
-      <c r="G475" s="36"/>
+      <c r="F475" s="48"/>
+      <c r="G475" s="48"/>
     </row>
     <row r="476">
-      <c r="F476" s="36"/>
-      <c r="G476" s="36"/>
+      <c r="F476" s="48"/>
+      <c r="G476" s="48"/>
     </row>
     <row r="477">
-      <c r="F477" s="36"/>
-      <c r="G477" s="36"/>
+      <c r="F477" s="48"/>
+      <c r="G477" s="48"/>
     </row>
     <row r="478">
-      <c r="F478" s="36"/>
-      <c r="G478" s="36"/>
+      <c r="F478" s="48"/>
+      <c r="G478" s="48"/>
     </row>
     <row r="479">
-      <c r="F479" s="36"/>
-      <c r="G479" s="36"/>
+      <c r="F479" s="48"/>
+      <c r="G479" s="48"/>
     </row>
     <row r="480">
-      <c r="F480" s="36"/>
-      <c r="G480" s="36"/>
+      <c r="F480" s="48"/>
+      <c r="G480" s="48"/>
     </row>
     <row r="481">
-      <c r="F481" s="36"/>
-      <c r="G481" s="36"/>
+      <c r="F481" s="48"/>
+      <c r="G481" s="48"/>
     </row>
     <row r="482">
-      <c r="F482" s="36"/>
-      <c r="G482" s="36"/>
+      <c r="F482" s="48"/>
+      <c r="G482" s="48"/>
     </row>
     <row r="483">
-      <c r="F483" s="36"/>
-      <c r="G483" s="36"/>
+      <c r="F483" s="48"/>
+      <c r="G483" s="48"/>
     </row>
     <row r="484">
-      <c r="F484" s="36"/>
-      <c r="G484" s="36"/>
+      <c r="F484" s="48"/>
+      <c r="G484" s="48"/>
     </row>
     <row r="485">
-      <c r="F485" s="36"/>
-      <c r="G485" s="36"/>
+      <c r="F485" s="48"/>
+      <c r="G485" s="48"/>
     </row>
     <row r="486">
-      <c r="F486" s="36"/>
-      <c r="G486" s="36"/>
+      <c r="F486" s="48"/>
+      <c r="G486" s="48"/>
     </row>
     <row r="487">
-      <c r="F487" s="36"/>
-      <c r="G487" s="36"/>
+      <c r="F487" s="48"/>
+      <c r="G487" s="48"/>
     </row>
     <row r="488">
-      <c r="F488" s="36"/>
-      <c r="G488" s="36"/>
+      <c r="F488" s="48"/>
+      <c r="G488" s="48"/>
     </row>
     <row r="489">
-      <c r="F489" s="36"/>
-      <c r="G489" s="36"/>
+      <c r="F489" s="48"/>
+      <c r="G489" s="48"/>
     </row>
     <row r="490">
-      <c r="F490" s="36"/>
-      <c r="G490" s="36"/>
+      <c r="F490" s="48"/>
+      <c r="G490" s="48"/>
     </row>
     <row r="491">
-      <c r="F491" s="36"/>
-      <c r="G491" s="36"/>
+      <c r="F491" s="48"/>
+      <c r="G491" s="48"/>
     </row>
     <row r="492">
-      <c r="F492" s="36"/>
-      <c r="G492" s="36"/>
+      <c r="F492" s="48"/>
+      <c r="G492" s="48"/>
     </row>
     <row r="493">
-      <c r="F493" s="36"/>
-      <c r="G493" s="36"/>
+      <c r="F493" s="48"/>
+      <c r="G493" s="48"/>
     </row>
     <row r="494">
-      <c r="F494" s="36"/>
-      <c r="G494" s="36"/>
+      <c r="F494" s="48"/>
+      <c r="G494" s="48"/>
     </row>
     <row r="495">
-      <c r="F495" s="36"/>
-      <c r="G495" s="36"/>
+      <c r="F495" s="48"/>
+      <c r="G495" s="48"/>
     </row>
     <row r="496">
-      <c r="F496" s="36"/>
-      <c r="G496" s="36"/>
+      <c r="F496" s="48"/>
+      <c r="G496" s="48"/>
     </row>
     <row r="497">
-      <c r="F497" s="36"/>
-      <c r="G497" s="36"/>
+      <c r="F497" s="48"/>
+      <c r="G497" s="48"/>
     </row>
     <row r="498">
-      <c r="F498" s="36"/>
-      <c r="G498" s="36"/>
+      <c r="F498" s="48"/>
+      <c r="G498" s="48"/>
     </row>
     <row r="499">
-      <c r="F499" s="36"/>
-      <c r="G499" s="36"/>
+      <c r="F499" s="48"/>
+      <c r="G499" s="48"/>
     </row>
     <row r="500">
-      <c r="F500" s="36"/>
-      <c r="G500" s="36"/>
+      <c r="F500" s="48"/>
+      <c r="G500" s="48"/>
     </row>
     <row r="501">
-      <c r="F501" s="36"/>
-      <c r="G501" s="36"/>
+      <c r="F501" s="48"/>
+      <c r="G501" s="48"/>
     </row>
     <row r="502">
-      <c r="F502" s="36"/>
-      <c r="G502" s="36"/>
+      <c r="F502" s="48"/>
+      <c r="G502" s="48"/>
     </row>
     <row r="503">
-      <c r="F503" s="36"/>
-      <c r="G503" s="36"/>
+      <c r="F503" s="48"/>
+      <c r="G503" s="48"/>
     </row>
     <row r="504">
-      <c r="F504" s="36"/>
-      <c r="G504" s="36"/>
+      <c r="F504" s="48"/>
+      <c r="G504" s="48"/>
     </row>
     <row r="505">
-      <c r="F505" s="36"/>
-      <c r="G505" s="36"/>
+      <c r="F505" s="48"/>
+      <c r="G505" s="48"/>
     </row>
     <row r="506">
-      <c r="F506" s="36"/>
-      <c r="G506" s="36"/>
+      <c r="F506" s="48"/>
+      <c r="G506" s="48"/>
     </row>
     <row r="507">
-      <c r="F507" s="36"/>
-      <c r="G507" s="36"/>
+      <c r="F507" s="48"/>
+      <c r="G507" s="48"/>
     </row>
     <row r="508">
-      <c r="F508" s="36"/>
-      <c r="G508" s="36"/>
+      <c r="F508" s="48"/>
+      <c r="G508" s="48"/>
     </row>
     <row r="509">
-      <c r="F509" s="36"/>
-      <c r="G509" s="36"/>
+      <c r="F509" s="48"/>
+      <c r="G509" s="48"/>
     </row>
     <row r="510">
-      <c r="F510" s="36"/>
-      <c r="G510" s="36"/>
+      <c r="F510" s="48"/>
+      <c r="G510" s="48"/>
     </row>
     <row r="511">
-      <c r="F511" s="36"/>
-      <c r="G511" s="36"/>
+      <c r="F511" s="48"/>
+      <c r="G511" s="48"/>
     </row>
     <row r="512">
-      <c r="F512" s="36"/>
-      <c r="G512" s="36"/>
+      <c r="F512" s="48"/>
+      <c r="G512" s="48"/>
     </row>
     <row r="513">
-      <c r="F513" s="36"/>
-      <c r="G513" s="36"/>
+      <c r="F513" s="48"/>
+      <c r="G513" s="48"/>
     </row>
     <row r="514">
-      <c r="F514" s="36"/>
-      <c r="G514" s="36"/>
+      <c r="F514" s="48"/>
+      <c r="G514" s="48"/>
     </row>
     <row r="515">
-      <c r="F515" s="36"/>
-      <c r="G515" s="36"/>
+      <c r="F515" s="48"/>
+      <c r="G515" s="48"/>
     </row>
     <row r="516">
-      <c r="F516" s="36"/>
-      <c r="G516" s="36"/>
+      <c r="F516" s="48"/>
+      <c r="G516" s="48"/>
     </row>
     <row r="517">
-      <c r="F517" s="36"/>
-      <c r="G517" s="36"/>
+      <c r="F517" s="48"/>
+      <c r="G517" s="48"/>
     </row>
     <row r="518">
-      <c r="F518" s="36"/>
-      <c r="G518" s="36"/>
+      <c r="F518" s="48"/>
+      <c r="G518" s="48"/>
     </row>
     <row r="519">
-      <c r="F519" s="36"/>
-      <c r="G519" s="36"/>
+      <c r="F519" s="48"/>
+      <c r="G519" s="48"/>
     </row>
     <row r="520">
-      <c r="F520" s="36"/>
-      <c r="G520" s="36"/>
+      <c r="F520" s="48"/>
+      <c r="G520" s="48"/>
     </row>
     <row r="521">
-      <c r="F521" s="36"/>
-      <c r="G521" s="36"/>
+      <c r="F521" s="48"/>
+      <c r="G521" s="48"/>
     </row>
     <row r="522">
-      <c r="F522" s="36"/>
-      <c r="G522" s="36"/>
+      <c r="F522" s="48"/>
+      <c r="G522" s="48"/>
     </row>
     <row r="523">
-      <c r="F523" s="36"/>
-      <c r="G523" s="36"/>
+      <c r="F523" s="48"/>
+      <c r="G523" s="48"/>
     </row>
     <row r="524">
-      <c r="F524" s="36"/>
-      <c r="G524" s="36"/>
+      <c r="F524" s="48"/>
+      <c r="G524" s="48"/>
     </row>
     <row r="525">
-      <c r="F525" s="36"/>
-      <c r="G525" s="36"/>
+      <c r="F525" s="48"/>
+      <c r="G525" s="48"/>
     </row>
     <row r="526">
-      <c r="F526" s="36"/>
-      <c r="G526" s="36"/>
+      <c r="F526" s="48"/>
+      <c r="G526" s="48"/>
     </row>
     <row r="527">
-      <c r="F527" s="36"/>
-      <c r="G527" s="36"/>
+      <c r="F527" s="48"/>
+      <c r="G527" s="48"/>
     </row>
     <row r="528">
-      <c r="F528" s="36"/>
-      <c r="G528" s="36"/>
+      <c r="F528" s="48"/>
+      <c r="G528" s="48"/>
     </row>
     <row r="529">
-      <c r="F529" s="36"/>
-      <c r="G529" s="36"/>
+      <c r="F529" s="48"/>
+      <c r="G529" s="48"/>
     </row>
     <row r="530">
-      <c r="F530" s="36"/>
-      <c r="G530" s="36"/>
+      <c r="F530" s="48"/>
+      <c r="G530" s="48"/>
     </row>
     <row r="531">
-      <c r="F531" s="36"/>
-      <c r="G531" s="36"/>
+      <c r="F531" s="48"/>
+      <c r="G531" s="48"/>
     </row>
     <row r="532">
-      <c r="F532" s="36"/>
-      <c r="G532" s="36"/>
+      <c r="F532" s="48"/>
+      <c r="G532" s="48"/>
     </row>
     <row r="533">
-      <c r="F533" s="36"/>
-      <c r="G533" s="36"/>
+      <c r="F533" s="48"/>
+      <c r="G533" s="48"/>
     </row>
     <row r="534">
-      <c r="F534" s="36"/>
-      <c r="G534" s="36"/>
+      <c r="F534" s="48"/>
+      <c r="G534" s="48"/>
     </row>
     <row r="535">
-      <c r="F535" s="36"/>
-      <c r="G535" s="36"/>
+      <c r="F535" s="48"/>
+      <c r="G535" s="48"/>
     </row>
     <row r="536">
-      <c r="F536" s="36"/>
-      <c r="G536" s="36"/>
+      <c r="F536" s="48"/>
+      <c r="G536" s="48"/>
     </row>
     <row r="537">
-      <c r="F537" s="36"/>
-      <c r="G537" s="36"/>
+      <c r="F537" s="48"/>
+      <c r="G537" s="48"/>
     </row>
     <row r="538">
-      <c r="F538" s="36"/>
-      <c r="G538" s="36"/>
+      <c r="F538" s="48"/>
+      <c r="G538" s="48"/>
     </row>
     <row r="539">
-      <c r="F539" s="36"/>
-      <c r="G539" s="36"/>
+      <c r="F539" s="48"/>
+      <c r="G539" s="48"/>
     </row>
     <row r="540">
-      <c r="F540" s="36"/>
-      <c r="G540" s="36"/>
+      <c r="F540" s="48"/>
+      <c r="G540" s="48"/>
     </row>
     <row r="541">
-      <c r="F541" s="36"/>
-      <c r="G541" s="36"/>
+      <c r="F541" s="48"/>
+      <c r="G541" s="48"/>
     </row>
     <row r="542">
-      <c r="F542" s="36"/>
-      <c r="G542" s="36"/>
+      <c r="F542" s="48"/>
+      <c r="G542" s="48"/>
     </row>
     <row r="543">
-      <c r="F543" s="36"/>
-      <c r="G543" s="36"/>
+      <c r="F543" s="48"/>
+      <c r="G543" s="48"/>
     </row>
     <row r="544">
-      <c r="F544" s="36"/>
-      <c r="G544" s="36"/>
+      <c r="F544" s="48"/>
+      <c r="G544" s="48"/>
     </row>
     <row r="545">
-      <c r="F545" s="36"/>
-      <c r="G545" s="36"/>
+      <c r="F545" s="48"/>
+      <c r="G545" s="48"/>
     </row>
     <row r="546">
-      <c r="F546" s="36"/>
-      <c r="G546" s="36"/>
+      <c r="F546" s="48"/>
+      <c r="G546" s="48"/>
     </row>
     <row r="547">
-      <c r="F547" s="36"/>
-      <c r="G547" s="36"/>
+      <c r="F547" s="48"/>
+      <c r="G547" s="48"/>
     </row>
     <row r="548">
-      <c r="F548" s="36"/>
-      <c r="G548" s="36"/>
+      <c r="F548" s="48"/>
+      <c r="G548" s="48"/>
     </row>
     <row r="549">
-      <c r="F549" s="36"/>
-      <c r="G549" s="36"/>
+      <c r="F549" s="48"/>
+      <c r="G549" s="48"/>
     </row>
     <row r="550">
-      <c r="F550" s="36"/>
-      <c r="G550" s="36"/>
+      <c r="F550" s="48"/>
+      <c r="G550" s="48"/>
     </row>
     <row r="551">
-      <c r="F551" s="36"/>
-      <c r="G551" s="36"/>
+      <c r="F551" s="48"/>
+      <c r="G551" s="48"/>
     </row>
     <row r="552">
-      <c r="F552" s="36"/>
-      <c r="G552" s="36"/>
+      <c r="F552" s="48"/>
+      <c r="G552" s="48"/>
     </row>
     <row r="553">
-      <c r="F553" s="36"/>
-      <c r="G553" s="36"/>
+      <c r="F553" s="48"/>
+      <c r="G553" s="48"/>
     </row>
     <row r="554">
-      <c r="F554" s="36"/>
-      <c r="G554" s="36"/>
+      <c r="F554" s="48"/>
+      <c r="G554" s="48"/>
     </row>
     <row r="555">
-      <c r="F555" s="36"/>
-      <c r="G555" s="36"/>
+      <c r="F555" s="48"/>
+      <c r="G555" s="48"/>
     </row>
     <row r="556">
-      <c r="F556" s="36"/>
-      <c r="G556" s="36"/>
+      <c r="F556" s="48"/>
+      <c r="G556" s="48"/>
     </row>
     <row r="557">
-      <c r="F557" s="36"/>
-      <c r="G557" s="36"/>
+      <c r="F557" s="48"/>
+      <c r="G557" s="48"/>
     </row>
     <row r="558">
-      <c r="F558" s="36"/>
-      <c r="G558" s="36"/>
+      <c r="F558" s="48"/>
+      <c r="G558" s="48"/>
     </row>
     <row r="559">
-      <c r="F559" s="36"/>
-      <c r="G559" s="36"/>
+      <c r="F559" s="48"/>
+      <c r="G559" s="48"/>
     </row>
     <row r="560">
-      <c r="F560" s="36"/>
-      <c r="G560" s="36"/>
+      <c r="F560" s="48"/>
+      <c r="G560" s="48"/>
     </row>
     <row r="561">
-      <c r="F561" s="36"/>
-      <c r="G561" s="36"/>
+      <c r="F561" s="48"/>
+      <c r="G561" s="48"/>
     </row>
     <row r="562">
-      <c r="F562" s="36"/>
-      <c r="G562" s="36"/>
+      <c r="F562" s="48"/>
+      <c r="G562" s="48"/>
     </row>
     <row r="563">
-      <c r="F563" s="36"/>
-      <c r="G563" s="36"/>
+      <c r="F563" s="48"/>
+      <c r="G563" s="48"/>
     </row>
     <row r="564">
-      <c r="F564" s="36"/>
-      <c r="G564" s="36"/>
+      <c r="F564" s="48"/>
+      <c r="G564" s="48"/>
     </row>
     <row r="565">
-      <c r="F565" s="36"/>
-      <c r="G565" s="36"/>
+      <c r="F565" s="48"/>
+      <c r="G565" s="48"/>
     </row>
     <row r="566">
-      <c r="F566" s="36"/>
-      <c r="G566" s="36"/>
+      <c r="F566" s="48"/>
+      <c r="G566" s="48"/>
     </row>
     <row r="567">
-      <c r="F567" s="36"/>
-      <c r="G567" s="36"/>
+      <c r="F567" s="48"/>
+      <c r="G567" s="48"/>
     </row>
     <row r="568">
-      <c r="F568" s="36"/>
-      <c r="G568" s="36"/>
+      <c r="F568" s="48"/>
+      <c r="G568" s="48"/>
     </row>
     <row r="569">
-      <c r="F569" s="36"/>
-      <c r="G569" s="36"/>
+      <c r="F569" s="48"/>
+      <c r="G569" s="48"/>
     </row>
     <row r="570">
-      <c r="F570" s="36"/>
-      <c r="G570" s="36"/>
+      <c r="F570" s="48"/>
+      <c r="G570" s="48"/>
     </row>
     <row r="571">
-      <c r="F571" s="36"/>
-      <c r="G571" s="36"/>
+      <c r="F571" s="48"/>
+      <c r="G571" s="48"/>
     </row>
     <row r="572">
-      <c r="F572" s="36"/>
-      <c r="G572" s="36"/>
+      <c r="F572" s="48"/>
+      <c r="G572" s="48"/>
     </row>
     <row r="573">
-      <c r="F573" s="36"/>
-      <c r="G573" s="36"/>
+      <c r="F573" s="48"/>
+      <c r="G573" s="48"/>
     </row>
     <row r="574">
-      <c r="F574" s="36"/>
-      <c r="G574" s="36"/>
+      <c r="F574" s="48"/>
+      <c r="G574" s="48"/>
     </row>
     <row r="575">
-      <c r="F575" s="36"/>
-      <c r="G575" s="36"/>
+      <c r="F575" s="48"/>
+      <c r="G575" s="48"/>
     </row>
     <row r="576">
-      <c r="F576" s="36"/>
-      <c r="G576" s="36"/>
+      <c r="F576" s="48"/>
+      <c r="G576" s="48"/>
     </row>
     <row r="577">
-      <c r="F577" s="36"/>
-      <c r="G577" s="36"/>
+      <c r="F577" s="48"/>
+      <c r="G577" s="48"/>
     </row>
     <row r="578">
-      <c r="F578" s="36"/>
-      <c r="G578" s="36"/>
+      <c r="F578" s="48"/>
+      <c r="G578" s="48"/>
     </row>
     <row r="579">
-      <c r="F579" s="36"/>
-      <c r="G579" s="36"/>
+      <c r="F579" s="48"/>
+      <c r="G579" s="48"/>
     </row>
     <row r="580">
-      <c r="F580" s="36"/>
-      <c r="G580" s="36"/>
+      <c r="F580" s="48"/>
+      <c r="G580" s="48"/>
     </row>
     <row r="581">
-      <c r="F581" s="36"/>
-      <c r="G581" s="36"/>
+      <c r="F581" s="48"/>
+      <c r="G581" s="48"/>
     </row>
     <row r="582">
-      <c r="F582" s="36"/>
-      <c r="G582" s="36"/>
+      <c r="F582" s="48"/>
+      <c r="G582" s="48"/>
     </row>
     <row r="583">
-      <c r="F583" s="36"/>
-      <c r="G583" s="36"/>
+      <c r="F583" s="48"/>
+      <c r="G583" s="48"/>
     </row>
     <row r="584">
-      <c r="F584" s="36"/>
-      <c r="G584" s="36"/>
+      <c r="F584" s="48"/>
+      <c r="G584" s="48"/>
     </row>
     <row r="585">
-      <c r="F585" s="36"/>
-      <c r="G585" s="36"/>
+      <c r="F585" s="48"/>
+      <c r="G585" s="48"/>
     </row>
     <row r="586">
-      <c r="F586" s="36"/>
-      <c r="G586" s="36"/>
+      <c r="F586" s="48"/>
+      <c r="G586" s="48"/>
     </row>
     <row r="587">
-      <c r="F587" s="36"/>
-      <c r="G587" s="36"/>
+      <c r="F587" s="48"/>
+      <c r="G587" s="48"/>
     </row>
     <row r="588">
-      <c r="F588" s="36"/>
-      <c r="G588" s="36"/>
+      <c r="F588" s="48"/>
+      <c r="G588" s="48"/>
     </row>
     <row r="589">
-      <c r="F589" s="36"/>
-      <c r="G589" s="36"/>
+      <c r="F589" s="48"/>
+      <c r="G589" s="48"/>
     </row>
     <row r="590">
-      <c r="F590" s="36"/>
-      <c r="G590" s="36"/>
+      <c r="F590" s="48"/>
+      <c r="G590" s="48"/>
     </row>
     <row r="591">
-      <c r="F591" s="36"/>
-      <c r="G591" s="36"/>
+      <c r="F591" s="48"/>
+      <c r="G591" s="48"/>
     </row>
     <row r="592">
-      <c r="F592" s="36"/>
-      <c r="G592" s="36"/>
+      <c r="F592" s="48"/>
+      <c r="G592" s="48"/>
     </row>
     <row r="593">
-      <c r="F593" s="36"/>
-      <c r="G593" s="36"/>
+      <c r="F593" s="48"/>
+      <c r="G593" s="48"/>
     </row>
     <row r="594">
-      <c r="F594" s="36"/>
-      <c r="G594" s="36"/>
+      <c r="F594" s="48"/>
+      <c r="G594" s="48"/>
     </row>
     <row r="595">
-      <c r="F595" s="36"/>
-      <c r="G595" s="36"/>
+      <c r="F595" s="48"/>
+      <c r="G595" s="48"/>
     </row>
     <row r="596">
-      <c r="F596" s="36"/>
-      <c r="G596" s="36"/>
+      <c r="F596" s="48"/>
+      <c r="G596" s="48"/>
     </row>
     <row r="597">
-      <c r="F597" s="36"/>
-      <c r="G597" s="36"/>
+      <c r="F597" s="48"/>
+      <c r="G597" s="48"/>
     </row>
     <row r="598">
-      <c r="F598" s="36"/>
-      <c r="G598" s="36"/>
+      <c r="F598" s="48"/>
+      <c r="G598" s="48"/>
     </row>
     <row r="599">
-      <c r="F599" s="36"/>
-      <c r="G599" s="36"/>
+      <c r="F599" s="48"/>
+      <c r="G599" s="48"/>
     </row>
     <row r="600">
-      <c r="F600" s="36"/>
-      <c r="G600" s="36"/>
+      <c r="F600" s="48"/>
+      <c r="G600" s="48"/>
     </row>
     <row r="601">
-      <c r="F601" s="36"/>
-      <c r="G601" s="36"/>
+      <c r="F601" s="48"/>
+      <c r="G601" s="48"/>
     </row>
     <row r="602">
-      <c r="F602" s="36"/>
-      <c r="G602" s="36"/>
+      <c r="F602" s="48"/>
+      <c r="G602" s="48"/>
     </row>
     <row r="603">
-      <c r="F603" s="36"/>
-      <c r="G603" s="36"/>
+      <c r="F603" s="48"/>
+      <c r="G603" s="48"/>
     </row>
     <row r="604">
-      <c r="F604" s="36"/>
-      <c r="G604" s="36"/>
+      <c r="F604" s="48"/>
+      <c r="G604" s="48"/>
     </row>
     <row r="605">
-      <c r="F605" s="36"/>
-      <c r="G605" s="36"/>
+      <c r="F605" s="48"/>
+      <c r="G605" s="48"/>
     </row>
     <row r="606">
-      <c r="F606" s="36"/>
-      <c r="G606" s="36"/>
+      <c r="F606" s="48"/>
+      <c r="G606" s="48"/>
     </row>
     <row r="607">
-      <c r="F607" s="36"/>
-      <c r="G607" s="36"/>
+      <c r="F607" s="48"/>
+      <c r="G607" s="48"/>
     </row>
     <row r="608">
-      <c r="F608" s="36"/>
-      <c r="G608" s="36"/>
+      <c r="F608" s="48"/>
+      <c r="G608" s="48"/>
     </row>
     <row r="609">
-      <c r="F609" s="36"/>
-      <c r="G609" s="36"/>
+      <c r="F609" s="48"/>
+      <c r="G609" s="48"/>
     </row>
     <row r="610">
-      <c r="F610" s="36"/>
-      <c r="G610" s="36"/>
+      <c r="F610" s="48"/>
+      <c r="G610" s="48"/>
     </row>
     <row r="611">
-      <c r="F611" s="36"/>
-      <c r="G611" s="36"/>
+      <c r="F611" s="48"/>
+      <c r="G611" s="48"/>
     </row>
     <row r="612">
-      <c r="F612" s="36"/>
-      <c r="G612" s="36"/>
+      <c r="F612" s="48"/>
+      <c r="G612" s="48"/>
     </row>
     <row r="613">
-      <c r="F613" s="36"/>
-      <c r="G613" s="36"/>
+      <c r="F613" s="48"/>
+      <c r="G613" s="48"/>
     </row>
     <row r="614">
-      <c r="F614" s="36"/>
-      <c r="G614" s="36"/>
+      <c r="F614" s="48"/>
+      <c r="G614" s="48"/>
     </row>
     <row r="615">
-      <c r="F615" s="36"/>
-      <c r="G615" s="36"/>
+      <c r="F615" s="48"/>
+      <c r="G615" s="48"/>
     </row>
     <row r="616">
-      <c r="F616" s="36"/>
-      <c r="G616" s="36"/>
+      <c r="F616" s="48"/>
+      <c r="G616" s="48"/>
     </row>
     <row r="617">
-      <c r="F617" s="36"/>
-      <c r="G617" s="36"/>
+      <c r="F617" s="48"/>
+      <c r="G617" s="48"/>
     </row>
     <row r="618">
-      <c r="F618" s="36"/>
-      <c r="G618" s="36"/>
+      <c r="F618" s="48"/>
+      <c r="G618" s="48"/>
     </row>
     <row r="619">
-      <c r="F619" s="36"/>
-      <c r="G619" s="36"/>
+      <c r="F619" s="48"/>
+      <c r="G619" s="48"/>
     </row>
     <row r="620">
-      <c r="F620" s="36"/>
-      <c r="G620" s="36"/>
+      <c r="F620" s="48"/>
+      <c r="G620" s="48"/>
     </row>
     <row r="621">
-      <c r="F621" s="36"/>
-      <c r="G621" s="36"/>
+      <c r="F621" s="48"/>
+      <c r="G621" s="48"/>
     </row>
     <row r="622">
-      <c r="F622" s="36"/>
-      <c r="G622" s="36"/>
+      <c r="F622" s="48"/>
+      <c r="G622" s="48"/>
     </row>
     <row r="623">
-      <c r="F623" s="36"/>
-      <c r="G623" s="36"/>
+      <c r="F623" s="48"/>
+      <c r="G623" s="48"/>
     </row>
     <row r="624">
-      <c r="F624" s="36"/>
-      <c r="G624" s="36"/>
+      <c r="F624" s="48"/>
+      <c r="G624" s="48"/>
     </row>
     <row r="625">
-      <c r="F625" s="36"/>
-      <c r="G625" s="36"/>
+      <c r="F625" s="48"/>
+      <c r="G625" s="48"/>
     </row>
     <row r="626">
-      <c r="F626" s="36"/>
-      <c r="G626" s="36"/>
+      <c r="F626" s="48"/>
+      <c r="G626" s="48"/>
     </row>
     <row r="627">
-      <c r="F627" s="36"/>
-      <c r="G627" s="36"/>
+      <c r="F627" s="48"/>
+      <c r="G627" s="48"/>
     </row>
     <row r="628">
-      <c r="F628" s="36"/>
-      <c r="G628" s="36"/>
+      <c r="F628" s="48"/>
+      <c r="G628" s="48"/>
     </row>
     <row r="629">
-      <c r="F629" s="36"/>
-      <c r="G629" s="36"/>
+      <c r="F629" s="48"/>
+      <c r="G629" s="48"/>
     </row>
     <row r="630">
-      <c r="F630" s="36"/>
-      <c r="G630" s="36"/>
+      <c r="F630" s="48"/>
+      <c r="G630" s="48"/>
     </row>
     <row r="631">
-      <c r="F631" s="36"/>
-      <c r="G631" s="36"/>
+      <c r="F631" s="48"/>
+      <c r="G631" s="48"/>
     </row>
     <row r="632">
-      <c r="F632" s="36"/>
-      <c r="G632" s="36"/>
+      <c r="F632" s="48"/>
+      <c r="G632" s="48"/>
     </row>
     <row r="633">
-      <c r="F633" s="36"/>
-      <c r="G633" s="36"/>
+      <c r="F633" s="48"/>
+      <c r="G633" s="48"/>
     </row>
     <row r="634">
-      <c r="F634" s="36"/>
-      <c r="G634" s="36"/>
+      <c r="F634" s="48"/>
+      <c r="G634" s="48"/>
     </row>
     <row r="635">
-      <c r="F635" s="36"/>
-      <c r="G635" s="36"/>
+      <c r="F635" s="48"/>
+      <c r="G635" s="48"/>
     </row>
     <row r="636">
-      <c r="F636" s="36"/>
-      <c r="G636" s="36"/>
+      <c r="F636" s="48"/>
+      <c r="G636" s="48"/>
     </row>
     <row r="637">
-      <c r="F637" s="36"/>
-      <c r="G637" s="36"/>
+      <c r="F637" s="48"/>
+      <c r="G637" s="48"/>
     </row>
     <row r="638">
-      <c r="F638" s="36"/>
-      <c r="G638" s="36"/>
+      <c r="F638" s="48"/>
+      <c r="G638" s="48"/>
     </row>
     <row r="639">
-      <c r="F639" s="36"/>
-      <c r="G639" s="36"/>
+      <c r="F639" s="48"/>
+      <c r="G639" s="48"/>
     </row>
     <row r="640">
-      <c r="F640" s="36"/>
-      <c r="G640" s="36"/>
+      <c r="F640" s="48"/>
+      <c r="G640" s="48"/>
     </row>
     <row r="641">
-      <c r="F641" s="36"/>
-      <c r="G641" s="36"/>
+      <c r="F641" s="48"/>
+      <c r="G641" s="48"/>
     </row>
     <row r="642">
-      <c r="F642" s="36"/>
-      <c r="G642" s="36"/>
+      <c r="F642" s="48"/>
+      <c r="G642" s="48"/>
     </row>
     <row r="643">
-      <c r="F643" s="36"/>
-      <c r="G643" s="36"/>
+      <c r="F643" s="48"/>
+      <c r="G643" s="48"/>
     </row>
     <row r="644">
-      <c r="F644" s="36"/>
-      <c r="G644" s="36"/>
+      <c r="F644" s="48"/>
+      <c r="G644" s="48"/>
     </row>
     <row r="645">
-      <c r="F645" s="36"/>
-      <c r="G645" s="36"/>
+      <c r="F645" s="48"/>
+      <c r="G645" s="48"/>
     </row>
     <row r="646">
-      <c r="F646" s="36"/>
-      <c r="G646" s="36"/>
+      <c r="F646" s="48"/>
+      <c r="G646" s="48"/>
     </row>
     <row r="647">
-      <c r="F647" s="36"/>
-      <c r="G647" s="36"/>
+      <c r="F647" s="48"/>
+      <c r="G647" s="48"/>
     </row>
     <row r="648">
-      <c r="F648" s="36"/>
-      <c r="G648" s="36"/>
+      <c r="F648" s="48"/>
+      <c r="G648" s="48"/>
     </row>
     <row r="649">
-      <c r="F649" s="36"/>
-      <c r="G649" s="36"/>
+      <c r="F649" s="48"/>
+      <c r="G649" s="48"/>
     </row>
     <row r="650">
-      <c r="F650" s="36"/>
-      <c r="G650" s="36"/>
+      <c r="F650" s="48"/>
+      <c r="G650" s="48"/>
     </row>
     <row r="651">
-      <c r="F651" s="36"/>
-      <c r="G651" s="36"/>
+      <c r="F651" s="48"/>
+      <c r="G651" s="48"/>
     </row>
     <row r="652">
-      <c r="F652" s="36"/>
-      <c r="G652" s="36"/>
+      <c r="F652" s="48"/>
+      <c r="G652" s="48"/>
     </row>
     <row r="653">
-      <c r="F653" s="36"/>
-      <c r="G653" s="36"/>
+      <c r="F653" s="48"/>
+      <c r="G653" s="48"/>
     </row>
     <row r="654">
-      <c r="F654" s="36"/>
-      <c r="G654" s="36"/>
+      <c r="F654" s="48"/>
+      <c r="G654" s="48"/>
     </row>
     <row r="655">
-      <c r="F655" s="36"/>
-      <c r="G655" s="36"/>
+      <c r="F655" s="48"/>
+      <c r="G655" s="48"/>
     </row>
     <row r="656">
-      <c r="F656" s="36"/>
-      <c r="G656" s="36"/>
+      <c r="F656" s="48"/>
+      <c r="G656" s="48"/>
     </row>
     <row r="657">
-      <c r="F657" s="36"/>
-      <c r="G657" s="36"/>
+      <c r="F657" s="48"/>
+      <c r="G657" s="48"/>
     </row>
     <row r="658">
-      <c r="F658" s="36"/>
-      <c r="G658" s="36"/>
+      <c r="F658" s="48"/>
+      <c r="G658" s="48"/>
     </row>
     <row r="659">
-      <c r="F659" s="36"/>
-      <c r="G659" s="36"/>
+      <c r="F659" s="48"/>
+      <c r="G659" s="48"/>
     </row>
     <row r="660">
-      <c r="F660" s="36"/>
-      <c r="G660" s="36"/>
+      <c r="F660" s="48"/>
+      <c r="G660" s="48"/>
     </row>
     <row r="661">
-      <c r="F661" s="36"/>
-      <c r="G661" s="36"/>
+      <c r="F661" s="48"/>
+      <c r="G661" s="48"/>
     </row>
     <row r="662">
-      <c r="F662" s="36"/>
-      <c r="G662" s="36"/>
+      <c r="F662" s="48"/>
+      <c r="G662" s="48"/>
     </row>
     <row r="663">
-      <c r="F663" s="36"/>
-      <c r="G663" s="36"/>
+      <c r="F663" s="48"/>
+      <c r="G663" s="48"/>
     </row>
     <row r="664">
-      <c r="F664" s="36"/>
-      <c r="G664" s="36"/>
+      <c r="F664" s="48"/>
+      <c r="G664" s="48"/>
     </row>
     <row r="665">
-      <c r="F665" s="36"/>
-      <c r="G665" s="36"/>
+      <c r="F665" s="48"/>
+      <c r="G665" s="48"/>
     </row>
     <row r="666">
-      <c r="F666" s="36"/>
-      <c r="G666" s="36"/>
+      <c r="F666" s="48"/>
+      <c r="G666" s="48"/>
     </row>
     <row r="667">
-      <c r="F667" s="36"/>
-      <c r="G667" s="36"/>
+      <c r="F667" s="48"/>
+      <c r="G667" s="48"/>
     </row>
     <row r="668">
-      <c r="F668" s="36"/>
-      <c r="G668" s="36"/>
+      <c r="F668" s="48"/>
+      <c r="G668" s="48"/>
     </row>
     <row r="669">
-      <c r="F669" s="36"/>
-      <c r="G669" s="36"/>
+      <c r="F669" s="48"/>
+      <c r="G669" s="48"/>
     </row>
     <row r="670">
-      <c r="F670" s="36"/>
-      <c r="G670" s="36"/>
+      <c r="F670" s="48"/>
+      <c r="G670" s="48"/>
     </row>
     <row r="671">
-      <c r="F671" s="36"/>
-      <c r="G671" s="36"/>
+      <c r="F671" s="48"/>
+      <c r="G671" s="48"/>
     </row>
     <row r="672">
-      <c r="F672" s="36"/>
-      <c r="G672" s="36"/>
+      <c r="F672" s="48"/>
+      <c r="G672" s="48"/>
     </row>
     <row r="673">
-      <c r="F673" s="36"/>
-      <c r="G673" s="36"/>
+      <c r="F673" s="48"/>
+      <c r="G673" s="48"/>
     </row>
     <row r="674">
-      <c r="F674" s="36"/>
-      <c r="G674" s="36"/>
+      <c r="F674" s="48"/>
+      <c r="G674" s="48"/>
     </row>
     <row r="675">
-      <c r="F675" s="36"/>
-      <c r="G675" s="36"/>
+      <c r="F675" s="48"/>
+      <c r="G675" s="48"/>
     </row>
     <row r="676">
-      <c r="F676" s="36"/>
-      <c r="G676" s="36"/>
+      <c r="F676" s="48"/>
+      <c r="G676" s="48"/>
     </row>
     <row r="677">
-      <c r="F677" s="36"/>
-      <c r="G677" s="36"/>
+      <c r="F677" s="48"/>
+      <c r="G677" s="48"/>
     </row>
     <row r="678">
-      <c r="F678" s="36"/>
-      <c r="G678" s="36"/>
+      <c r="F678" s="48"/>
+      <c r="G678" s="48"/>
     </row>
     <row r="679">
-      <c r="F679" s="36"/>
-      <c r="G679" s="36"/>
+      <c r="F679" s="48"/>
+      <c r="G679" s="48"/>
     </row>
     <row r="680">
-      <c r="F680" s="36"/>
-      <c r="G680" s="36"/>
+      <c r="F680" s="48"/>
+      <c r="G680" s="48"/>
     </row>
     <row r="681">
-      <c r="F681" s="36"/>
-      <c r="G681" s="36"/>
+      <c r="F681" s="48"/>
+      <c r="G681" s="48"/>
     </row>
     <row r="682">
-      <c r="F682" s="36"/>
-      <c r="G682" s="36"/>
+      <c r="F682" s="48"/>
+      <c r="G682" s="48"/>
     </row>
     <row r="683">
-      <c r="F683" s="36"/>
-      <c r="G683" s="36"/>
+      <c r="F683" s="48"/>
+      <c r="G683" s="48"/>
     </row>
     <row r="684">
-      <c r="F684" s="36"/>
-      <c r="G684" s="36"/>
+      <c r="F684" s="48"/>
+      <c r="G684" s="48"/>
     </row>
     <row r="685">
-      <c r="F685" s="36"/>
-      <c r="G685" s="36"/>
+      <c r="F685" s="48"/>
+      <c r="G685" s="48"/>
     </row>
     <row r="686">
-      <c r="F686" s="36"/>
-      <c r="G686" s="36"/>
+      <c r="F686" s="48"/>
+      <c r="G686" s="48"/>
     </row>
     <row r="687">
-      <c r="F687" s="36"/>
-      <c r="G687" s="36"/>
+      <c r="F687" s="48"/>
+      <c r="G687" s="48"/>
     </row>
     <row r="688">
-      <c r="F688" s="36"/>
-      <c r="G688" s="36"/>
+      <c r="F688" s="48"/>
+      <c r="G688" s="48"/>
     </row>
     <row r="689">
-      <c r="F689" s="36"/>
-      <c r="G689" s="36"/>
+      <c r="F689" s="48"/>
+      <c r="G689" s="48"/>
     </row>
     <row r="690">
-      <c r="F690" s="36"/>
-      <c r="G690" s="36"/>
+      <c r="F690" s="48"/>
+      <c r="G690" s="48"/>
     </row>
     <row r="691">
-      <c r="F691" s="36"/>
-      <c r="G691" s="36"/>
+      <c r="F691" s="48"/>
+      <c r="G691" s="48"/>
     </row>
     <row r="692">
-      <c r="F692" s="36"/>
-      <c r="G692" s="36"/>
+      <c r="F692" s="48"/>
+      <c r="G692" s="48"/>
     </row>
     <row r="693">
-      <c r="F693" s="36"/>
-      <c r="G693" s="36"/>
+      <c r="F693" s="48"/>
+      <c r="G693" s="48"/>
     </row>
     <row r="694">
-      <c r="F694" s="36"/>
-      <c r="G694" s="36"/>
+      <c r="F694" s="48"/>
+      <c r="G694" s="48"/>
     </row>
     <row r="695">
-      <c r="F695" s="36"/>
-      <c r="G695" s="36"/>
+      <c r="F695" s="48"/>
+      <c r="G695" s="48"/>
     </row>
     <row r="696">
-      <c r="F696" s="36"/>
-      <c r="G696" s="36"/>
+      <c r="F696" s="48"/>
+      <c r="G696" s="48"/>
     </row>
     <row r="697">
-      <c r="F697" s="36"/>
-      <c r="G697" s="36"/>
+      <c r="F697" s="48"/>
+      <c r="G697" s="48"/>
     </row>
     <row r="698">
-      <c r="F698" s="36"/>
-      <c r="G698" s="36"/>
+      <c r="F698" s="48"/>
+      <c r="G698" s="48"/>
     </row>
     <row r="699">
-      <c r="F699" s="36"/>
-      <c r="G699" s="36"/>
+      <c r="F699" s="48"/>
+      <c r="G699" s="48"/>
     </row>
     <row r="700">
-      <c r="F700" s="36"/>
-      <c r="G700" s="36"/>
+      <c r="F700" s="48"/>
+      <c r="G700" s="48"/>
     </row>
     <row r="701">
-      <c r="F701" s="36"/>
-      <c r="G701" s="36"/>
+      <c r="F701" s="48"/>
+      <c r="G701" s="48"/>
     </row>
     <row r="702">
-      <c r="F702" s="36"/>
-      <c r="G702" s="36"/>
+      <c r="F702" s="48"/>
+      <c r="G702" s="48"/>
     </row>
     <row r="703">
-      <c r="F703" s="36"/>
-      <c r="G703" s="36"/>
+      <c r="F703" s="48"/>
+      <c r="G703" s="48"/>
     </row>
     <row r="704">
-      <c r="F704" s="36"/>
-      <c r="G704" s="36"/>
+      <c r="F704" s="48"/>
+      <c r="G704" s="48"/>
     </row>
     <row r="705">
-      <c r="F705" s="36"/>
-      <c r="G705" s="36"/>
+      <c r="F705" s="48"/>
+      <c r="G705" s="48"/>
     </row>
     <row r="706">
-      <c r="F706" s="36"/>
-      <c r="G706" s="36"/>
+      <c r="F706" s="48"/>
+      <c r="G706" s="48"/>
     </row>
     <row r="707">
-      <c r="F707" s="36"/>
-      <c r="G707" s="36"/>
+      <c r="F707" s="48"/>
+      <c r="G707" s="48"/>
     </row>
     <row r="708">
-      <c r="F708" s="36"/>
-      <c r="G708" s="36"/>
+      <c r="F708" s="48"/>
+      <c r="G708" s="48"/>
     </row>
     <row r="709">
-      <c r="F709" s="36"/>
-      <c r="G709" s="36"/>
+      <c r="F709" s="48"/>
+      <c r="G709" s="48"/>
     </row>
     <row r="710">
-      <c r="F710" s="36"/>
-      <c r="G710" s="36"/>
+      <c r="F710" s="48"/>
+      <c r="G710" s="48"/>
     </row>
     <row r="711">
-      <c r="F711" s="36"/>
-      <c r="G711" s="36"/>
+      <c r="F711" s="48"/>
+      <c r="G711" s="48"/>
     </row>
     <row r="712">
-      <c r="F712" s="36"/>
-      <c r="G712" s="36"/>
+      <c r="F712" s="48"/>
+      <c r="G712" s="48"/>
     </row>
     <row r="713">
-      <c r="F713" s="36"/>
-      <c r="G713" s="36"/>
+      <c r="F713" s="48"/>
+      <c r="G713" s="48"/>
     </row>
     <row r="714">
-      <c r="F714" s="36"/>
-      <c r="G714" s="36"/>
+      <c r="F714" s="48"/>
+      <c r="G714" s="48"/>
     </row>
     <row r="715">
-      <c r="F715" s="36"/>
-      <c r="G715" s="36"/>
+      <c r="F715" s="48"/>
+      <c r="G715" s="48"/>
     </row>
     <row r="716">
-      <c r="F716" s="36"/>
-      <c r="G716" s="36"/>
+      <c r="F716" s="48"/>
+      <c r="G716" s="48"/>
     </row>
     <row r="717">
-      <c r="F717" s="36"/>
-      <c r="G717" s="36"/>
+      <c r="F717" s="48"/>
+      <c r="G717" s="48"/>
     </row>
     <row r="718">
-      <c r="F718" s="36"/>
-      <c r="G718" s="36"/>
+      <c r="F718" s="48"/>
+      <c r="G718" s="48"/>
     </row>
     <row r="719">
-      <c r="F719" s="36"/>
-      <c r="G719" s="36"/>
+      <c r="F719" s="48"/>
+      <c r="G719" s="48"/>
     </row>
     <row r="720">
-      <c r="F720" s="36"/>
-      <c r="G720" s="36"/>
+      <c r="F720" s="48"/>
+      <c r="G720" s="48"/>
     </row>
     <row r="721">
-      <c r="F721" s="36"/>
-      <c r="G721" s="36"/>
+      <c r="F721" s="48"/>
+      <c r="G721" s="48"/>
     </row>
     <row r="722">
-      <c r="F722" s="36"/>
-      <c r="G722" s="36"/>
+      <c r="F722" s="48"/>
+      <c r="G722" s="48"/>
     </row>
     <row r="723">
-      <c r="F723" s="36"/>
-      <c r="G723" s="36"/>
+      <c r="F723" s="48"/>
+      <c r="G723" s="48"/>
     </row>
     <row r="724">
-      <c r="F724" s="36"/>
-      <c r="G724" s="36"/>
+      <c r="F724" s="48"/>
+      <c r="G724" s="48"/>
     </row>
     <row r="725">
-      <c r="F725" s="36"/>
-      <c r="G725" s="36"/>
+      <c r="F725" s="48"/>
+      <c r="G725" s="48"/>
     </row>
     <row r="726">
-      <c r="F726" s="36"/>
-      <c r="G726" s="36"/>
+      <c r="F726" s="48"/>
+      <c r="G726" s="48"/>
     </row>
     <row r="727">
-      <c r="F727" s="36"/>
-      <c r="G727" s="36"/>
+      <c r="F727" s="48"/>
+      <c r="G727" s="48"/>
     </row>
     <row r="728">
-      <c r="F728" s="36"/>
-      <c r="G728" s="36"/>
+      <c r="F728" s="48"/>
+      <c r="G728" s="48"/>
     </row>
     <row r="729">
-      <c r="F729" s="36"/>
-      <c r="G729" s="36"/>
+      <c r="F729" s="48"/>
+      <c r="G729" s="48"/>
     </row>
     <row r="730">
-      <c r="F730" s="36"/>
-      <c r="G730" s="36"/>
+      <c r="F730" s="48"/>
+      <c r="G730" s="48"/>
     </row>
     <row r="731">
-      <c r="F731" s="36"/>
-      <c r="G731" s="36"/>
+      <c r="F731" s="48"/>
+      <c r="G731" s="48"/>
     </row>
     <row r="732">
-      <c r="F732" s="36"/>
-      <c r="G732" s="36"/>
+      <c r="F732" s="48"/>
+      <c r="G732" s="48"/>
     </row>
     <row r="733">
-      <c r="F733" s="36"/>
-      <c r="G733" s="36"/>
+      <c r="F733" s="48"/>
+      <c r="G733" s="48"/>
     </row>
     <row r="734">
-      <c r="F734" s="36"/>
-      <c r="G734" s="36"/>
+      <c r="F734" s="48"/>
+      <c r="G734" s="48"/>
     </row>
     <row r="735">
-      <c r="F735" s="36"/>
-      <c r="G735" s="36"/>
+      <c r="F735" s="48"/>
+      <c r="G735" s="48"/>
     </row>
     <row r="736">
-      <c r="F736" s="36"/>
-      <c r="G736" s="36"/>
+      <c r="F736" s="48"/>
+      <c r="G736" s="48"/>
     </row>
     <row r="737">
-      <c r="F737" s="36"/>
-      <c r="G737" s="36"/>
+      <c r="F737" s="48"/>
+      <c r="G737" s="48"/>
     </row>
     <row r="738">
-      <c r="F738" s="36"/>
-      <c r="G738" s="36"/>
+      <c r="F738" s="48"/>
+      <c r="G738" s="48"/>
     </row>
     <row r="739">
-      <c r="F739" s="36"/>
-      <c r="G739" s="36"/>
+      <c r="F739" s="48"/>
+      <c r="G739" s="48"/>
     </row>
     <row r="740">
-      <c r="F740" s="36"/>
-      <c r="G740" s="36"/>
+      <c r="F740" s="48"/>
+      <c r="G740" s="48"/>
     </row>
     <row r="741">
-      <c r="F741" s="36"/>
-      <c r="G741" s="36"/>
+      <c r="F741" s="48"/>
+      <c r="G741" s="48"/>
     </row>
     <row r="742">
-      <c r="F742" s="36"/>
-      <c r="G742" s="36"/>
+      <c r="F742" s="48"/>
+      <c r="G742" s="48"/>
     </row>
     <row r="743">
-      <c r="F743" s="36"/>
-      <c r="G743" s="36"/>
+      <c r="F743" s="48"/>
+      <c r="G743" s="48"/>
     </row>
     <row r="744">
-      <c r="F744" s="36"/>
-      <c r="G744" s="36"/>
+      <c r="F744" s="48"/>
+      <c r="G744" s="48"/>
     </row>
     <row r="745">
-      <c r="F745" s="36"/>
-      <c r="G745" s="36"/>
+      <c r="F745" s="48"/>
+      <c r="G745" s="48"/>
     </row>
     <row r="746">
-      <c r="F746" s="36"/>
-      <c r="G746" s="36"/>
+      <c r="F746" s="48"/>
+      <c r="G746" s="48"/>
     </row>
     <row r="747">
-      <c r="F747" s="36"/>
-      <c r="G747" s="36"/>
+      <c r="F747" s="48"/>
+      <c r="G747" s="48"/>
     </row>
     <row r="748">
-      <c r="F748" s="36"/>
-      <c r="G748" s="36"/>
+      <c r="F748" s="48"/>
+      <c r="G748" s="48"/>
     </row>
     <row r="749">
-      <c r="F749" s="36"/>
-      <c r="G749" s="36"/>
+      <c r="F749" s="48"/>
+      <c r="G749" s="48"/>
     </row>
     <row r="750">
-      <c r="F750" s="36"/>
-      <c r="G750" s="36"/>
+      <c r="F750" s="48"/>
+      <c r="G750" s="48"/>
     </row>
     <row r="751">
-      <c r="F751" s="36"/>
-      <c r="G751" s="36"/>
+      <c r="F751" s="48"/>
+      <c r="G751" s="48"/>
     </row>
     <row r="752">
-      <c r="F752" s="36"/>
-      <c r="G752" s="36"/>
+      <c r="F752" s="48"/>
+      <c r="G752" s="48"/>
     </row>
     <row r="753">
-      <c r="F753" s="36"/>
-      <c r="G753" s="36"/>
+      <c r="F753" s="48"/>
+      <c r="G753" s="48"/>
     </row>
     <row r="754">
-      <c r="F754" s="36"/>
-      <c r="G754" s="36"/>
+      <c r="F754" s="48"/>
+      <c r="G754" s="48"/>
     </row>
     <row r="755">
-      <c r="F755" s="36"/>
-      <c r="G755" s="36"/>
+      <c r="F755" s="48"/>
+      <c r="G755" s="48"/>
     </row>
     <row r="756">
-      <c r="F756" s="36"/>
-      <c r="G756" s="36"/>
+      <c r="F756" s="48"/>
+      <c r="G756" s="48"/>
     </row>
     <row r="757">
-      <c r="F757" s="36"/>
-      <c r="G757" s="36"/>
+      <c r="F757" s="48"/>
+      <c r="G757" s="48"/>
     </row>
     <row r="758">
-      <c r="F758" s="36"/>
-      <c r="G758" s="36"/>
+      <c r="F758" s="48"/>
+      <c r="G758" s="48"/>
     </row>
     <row r="759">
-      <c r="F759" s="36"/>
-      <c r="G759" s="36"/>
+      <c r="F759" s="48"/>
+      <c r="G759" s="48"/>
     </row>
     <row r="760">
-      <c r="F760" s="36"/>
-      <c r="G760" s="36"/>
+      <c r="F760" s="48"/>
+      <c r="G760" s="48"/>
     </row>
     <row r="761">
-      <c r="F761" s="36"/>
-      <c r="G761" s="36"/>
+      <c r="F761" s="48"/>
+      <c r="G761" s="48"/>
     </row>
     <row r="762">
-      <c r="F762" s="36"/>
-      <c r="G762" s="36"/>
+      <c r="F762" s="48"/>
+      <c r="G762" s="48"/>
     </row>
     <row r="763">
-      <c r="F763" s="36"/>
-      <c r="G763" s="36"/>
+      <c r="F763" s="48"/>
+      <c r="G763" s="48"/>
     </row>
     <row r="764">
-      <c r="F764" s="36"/>
-      <c r="G764" s="36"/>
+      <c r="F764" s="48"/>
+      <c r="G764" s="48"/>
     </row>
     <row r="765">
-      <c r="F765" s="36"/>
-      <c r="G765" s="36"/>
+      <c r="F765" s="48"/>
+      <c r="G765" s="48"/>
     </row>
     <row r="766">
-      <c r="F766" s="36"/>
-      <c r="G766" s="36"/>
+      <c r="F766" s="48"/>
+      <c r="G766" s="48"/>
     </row>
     <row r="767">
-      <c r="F767" s="36"/>
-      <c r="G767" s="36"/>
+      <c r="F767" s="48"/>
+      <c r="G767" s="48"/>
     </row>
     <row r="768">
-      <c r="F768" s="36"/>
-      <c r="G768" s="36"/>
+      <c r="F768" s="48"/>
+      <c r="G768" s="48"/>
     </row>
     <row r="769">
-      <c r="F769" s="36"/>
-      <c r="G769" s="36"/>
+      <c r="F769" s="48"/>
+      <c r="G769" s="48"/>
     </row>
     <row r="770">
-      <c r="F770" s="36"/>
-      <c r="G770" s="36"/>
+      <c r="F770" s="48"/>
+      <c r="G770" s="48"/>
     </row>
     <row r="771">
-      <c r="F771" s="36"/>
-      <c r="G771" s="36"/>
+      <c r="F771" s="48"/>
+      <c r="G771" s="48"/>
     </row>
     <row r="772">
-      <c r="F772" s="36"/>
-      <c r="G772" s="36"/>
+      <c r="F772" s="48"/>
+      <c r="G772" s="48"/>
     </row>
     <row r="773">
-      <c r="F773" s="36"/>
-      <c r="G773" s="36"/>
+      <c r="F773" s="48"/>
+      <c r="G773" s="48"/>
     </row>
     <row r="774">
-      <c r="F774" s="36"/>
-      <c r="G774" s="36"/>
+      <c r="F774" s="48"/>
+      <c r="G774" s="48"/>
     </row>
     <row r="775">
-      <c r="F775" s="36"/>
-      <c r="G775" s="36"/>
+      <c r="F775" s="48"/>
+      <c r="G775" s="48"/>
     </row>
     <row r="776">
-      <c r="F776" s="36"/>
-      <c r="G776" s="36"/>
+      <c r="F776" s="48"/>
+      <c r="G776" s="48"/>
     </row>
     <row r="777">
-      <c r="F777" s="36"/>
-      <c r="G777" s="36"/>
+      <c r="F777" s="48"/>
+      <c r="G777" s="48"/>
     </row>
     <row r="778">
-      <c r="F778" s="36"/>
-      <c r="G778" s="36"/>
+      <c r="F778" s="48"/>
+      <c r="G778" s="48"/>
     </row>
     <row r="779">
-      <c r="F779" s="36"/>
-      <c r="G779" s="36"/>
+      <c r="F779" s="48"/>
+      <c r="G779" s="48"/>
     </row>
     <row r="780">
-      <c r="F780" s="36"/>
-      <c r="G780" s="36"/>
+      <c r="F780" s="48"/>
+      <c r="G780" s="48"/>
     </row>
     <row r="781">
-      <c r="F781" s="36"/>
-      <c r="G781" s="36"/>
+      <c r="F781" s="48"/>
+      <c r="G781" s="48"/>
     </row>
     <row r="782">
-      <c r="F782" s="36"/>
-      <c r="G782" s="36"/>
+      <c r="F782" s="48"/>
+      <c r="G782" s="48"/>
     </row>
     <row r="783">
-      <c r="F783" s="36"/>
-      <c r="G783" s="36"/>
+      <c r="F783" s="48"/>
+      <c r="G783" s="48"/>
     </row>
     <row r="784">
-      <c r="F784" s="36"/>
-      <c r="G784" s="36"/>
+      <c r="F784" s="48"/>
+      <c r="G784" s="48"/>
     </row>
     <row r="785">
-      <c r="F785" s="36"/>
-      <c r="G785" s="36"/>
+      <c r="F785" s="48"/>
+      <c r="G785" s="48"/>
     </row>
     <row r="786">
-      <c r="F786" s="36"/>
-      <c r="G786" s="36"/>
+      <c r="F786" s="48"/>
+      <c r="G786" s="48"/>
     </row>
     <row r="787">
-      <c r="F787" s="36"/>
-      <c r="G787" s="36"/>
+      <c r="F787" s="48"/>
+      <c r="G787" s="48"/>
     </row>
     <row r="788">
-      <c r="F788" s="36"/>
-      <c r="G788" s="36"/>
+      <c r="F788" s="48"/>
+      <c r="G788" s="48"/>
     </row>
     <row r="789">
-      <c r="F789" s="36"/>
-      <c r="G789" s="36"/>
+      <c r="F789" s="48"/>
+      <c r="G789" s="48"/>
     </row>
     <row r="790">
-      <c r="F790" s="36"/>
-      <c r="G790" s="36"/>
+      <c r="F790" s="48"/>
+      <c r="G790" s="48"/>
     </row>
     <row r="791">
-      <c r="F791" s="36"/>
-      <c r="G791" s="36"/>
+      <c r="F791" s="48"/>
+      <c r="G791" s="48"/>
     </row>
     <row r="792">
-      <c r="F792" s="36"/>
-      <c r="G792" s="36"/>
+      <c r="F792" s="48"/>
+      <c r="G792" s="48"/>
     </row>
     <row r="793">
-      <c r="F793" s="36"/>
-      <c r="G793" s="36"/>
+      <c r="F793" s="48"/>
+      <c r="G793" s="48"/>
     </row>
     <row r="794">
-      <c r="F794" s="36"/>
-      <c r="G794" s="36"/>
+      <c r="F794" s="48"/>
+      <c r="G794" s="48"/>
     </row>
     <row r="795">
-      <c r="F795" s="36"/>
-      <c r="G795" s="36"/>
+      <c r="F795" s="48"/>
+      <c r="G795" s="48"/>
     </row>
     <row r="796">
-      <c r="F796" s="36"/>
-      <c r="G796" s="36"/>
+      <c r="F796" s="48"/>
+      <c r="G796" s="48"/>
     </row>
     <row r="797">
-      <c r="F797" s="36"/>
-      <c r="G797" s="36"/>
+      <c r="F797" s="48"/>
+      <c r="G797" s="48"/>
     </row>
     <row r="798">
-      <c r="F798" s="36"/>
-      <c r="G798" s="36"/>
+      <c r="F798" s="48"/>
+      <c r="G798" s="48"/>
     </row>
     <row r="799">
-      <c r="F799" s="36"/>
-      <c r="G799" s="36"/>
+      <c r="F799" s="48"/>
+      <c r="G799" s="48"/>
     </row>
     <row r="800">
-      <c r="F800" s="36"/>
-      <c r="G800" s="36"/>
+      <c r="F800" s="48"/>
+      <c r="G800" s="48"/>
     </row>
     <row r="801">
-      <c r="F801" s="36"/>
-      <c r="G801" s="36"/>
+      <c r="F801" s="48"/>
+      <c r="G801" s="48"/>
     </row>
     <row r="802">
-      <c r="F802" s="36"/>
-      <c r="G802" s="36"/>
+      <c r="F802" s="48"/>
+      <c r="G802" s="48"/>
     </row>
     <row r="803">
-      <c r="F803" s="36"/>
-      <c r="G803" s="36"/>
+      <c r="F803" s="48"/>
+      <c r="G803" s="48"/>
     </row>
     <row r="804">
-      <c r="F804" s="36"/>
-      <c r="G804" s="36"/>
+      <c r="F804" s="48"/>
+      <c r="G804" s="48"/>
     </row>
     <row r="805">
-      <c r="F805" s="36"/>
-      <c r="G805" s="36"/>
+      <c r="F805" s="48"/>
+      <c r="G805" s="48"/>
     </row>
     <row r="806">
-      <c r="F806" s="36"/>
-      <c r="G806" s="36"/>
+      <c r="F806" s="48"/>
+      <c r="G806" s="48"/>
     </row>
     <row r="807">
-      <c r="F807" s="36"/>
-      <c r="G807" s="36"/>
+      <c r="F807" s="48"/>
+      <c r="G807" s="48"/>
     </row>
     <row r="808">
-      <c r="F808" s="36"/>
-      <c r="G808" s="36"/>
+      <c r="F808" s="48"/>
+      <c r="G808" s="48"/>
     </row>
     <row r="809">
-      <c r="F809" s="36"/>
-      <c r="G809" s="36"/>
+      <c r="F809" s="48"/>
+      <c r="G809" s="48"/>
     </row>
     <row r="810">
-      <c r="F810" s="36"/>
-      <c r="G810" s="36"/>
+      <c r="F810" s="48"/>
+      <c r="G810" s="48"/>
     </row>
     <row r="811">
-      <c r="F811" s="36"/>
-      <c r="G811" s="36"/>
+      <c r="F811" s="48"/>
+      <c r="G811" s="48"/>
     </row>
     <row r="812">
-      <c r="F812" s="36"/>
-      <c r="G812" s="36"/>
+      <c r="F812" s="48"/>
+      <c r="G812" s="48"/>
     </row>
     <row r="813">
-      <c r="F813" s="36"/>
-      <c r="G813" s="36"/>
+      <c r="F813" s="48"/>
+      <c r="G813" s="48"/>
     </row>
     <row r="814">
-      <c r="F814" s="36"/>
-      <c r="G814" s="36"/>
+      <c r="F814" s="48"/>
+      <c r="G814" s="48"/>
     </row>
     <row r="815">
-      <c r="F815" s="36"/>
-      <c r="G815" s="36"/>
+      <c r="F815" s="48"/>
+      <c r="G815" s="48"/>
     </row>
     <row r="816">
-      <c r="F816" s="36"/>
-      <c r="G816" s="36"/>
+      <c r="F816" s="48"/>
+      <c r="G816" s="48"/>
     </row>
     <row r="817">
-      <c r="F817" s="36"/>
-      <c r="G817" s="36"/>
+      <c r="F817" s="48"/>
+      <c r="G817" s="48"/>
     </row>
     <row r="818">
-      <c r="F818" s="36"/>
-      <c r="G818" s="36"/>
+      <c r="F818" s="48"/>
+      <c r="G818" s="48"/>
     </row>
     <row r="819">
-      <c r="F819" s="36"/>
-      <c r="G819" s="36"/>
+      <c r="F819" s="48"/>
+      <c r="G819" s="48"/>
     </row>
     <row r="820">
-      <c r="F820" s="36"/>
-      <c r="G820" s="36"/>
+      <c r="F820" s="48"/>
+      <c r="G820" s="48"/>
     </row>
     <row r="821">
-      <c r="F821" s="36"/>
-      <c r="G821" s="36"/>
+      <c r="F821" s="48"/>
+      <c r="G821" s="48"/>
     </row>
     <row r="822">
-      <c r="F822" s="36"/>
-      <c r="G822" s="36"/>
+      <c r="F822" s="48"/>
+      <c r="G822" s="48"/>
     </row>
     <row r="823">
-      <c r="F823" s="36"/>
-      <c r="G823" s="36"/>
+      <c r="F823" s="48"/>
+      <c r="G823" s="48"/>
     </row>
     <row r="824">
-      <c r="F824" s="36"/>
-      <c r="G824" s="36"/>
+      <c r="F824" s="48"/>
+      <c r="G824" s="48"/>
     </row>
     <row r="825">
-      <c r="F825" s="36"/>
-      <c r="G825" s="36"/>
+      <c r="F825" s="48"/>
+      <c r="G825" s="48"/>
     </row>
     <row r="826">
-      <c r="F826" s="36"/>
-      <c r="G826" s="36"/>
+      <c r="F826" s="48"/>
+      <c r="G826" s="48"/>
     </row>
     <row r="827">
-      <c r="F827" s="36"/>
-      <c r="G827" s="36"/>
+      <c r="F827" s="48"/>
+      <c r="G827" s="48"/>
     </row>
     <row r="828">
-      <c r="F828" s="36"/>
-      <c r="G828" s="36"/>
+      <c r="F828" s="48"/>
+      <c r="G828" s="48"/>
     </row>
     <row r="829">
-      <c r="F829" s="36"/>
-      <c r="G829" s="36"/>
+      <c r="F829" s="48"/>
+      <c r="G829" s="48"/>
     </row>
     <row r="830">
-      <c r="F830" s="36"/>
-      <c r="G830" s="36"/>
+      <c r="F830" s="48"/>
+      <c r="G830" s="48"/>
     </row>
     <row r="831">
-      <c r="F831" s="36"/>
-      <c r="G831" s="36"/>
+      <c r="F831" s="48"/>
+      <c r="G831" s="48"/>
     </row>
     <row r="832">
-      <c r="F832" s="36"/>
-      <c r="G832" s="36"/>
+      <c r="F832" s="48"/>
+      <c r="G832" s="48"/>
     </row>
     <row r="833">
-      <c r="F833" s="36"/>
-      <c r="G833" s="36"/>
+      <c r="F833" s="48"/>
+      <c r="G833" s="48"/>
     </row>
     <row r="834">
-      <c r="F834" s="36"/>
-      <c r="G834" s="36"/>
+      <c r="F834" s="48"/>
+      <c r="G834" s="48"/>
     </row>
     <row r="835">
-      <c r="F835" s="36"/>
-      <c r="G835" s="36"/>
+      <c r="F835" s="48"/>
+      <c r="G835" s="48"/>
     </row>
     <row r="836">
-      <c r="F836" s="36"/>
-      <c r="G836" s="36"/>
+      <c r="F836" s="48"/>
+      <c r="G836" s="48"/>
     </row>
     <row r="837">
-      <c r="F837" s="36"/>
-      <c r="G837" s="36"/>
+      <c r="F837" s="48"/>
+      <c r="G837" s="48"/>
     </row>
     <row r="838">
-      <c r="F838" s="36"/>
-      <c r="G838" s="36"/>
+      <c r="F838" s="48"/>
+      <c r="G838" s="48"/>
     </row>
     <row r="839">
-      <c r="F839" s="36"/>
-      <c r="G839" s="36"/>
+      <c r="F839" s="48"/>
+      <c r="G839" s="48"/>
     </row>
     <row r="840">
-      <c r="F840" s="36"/>
-      <c r="G840" s="36"/>
+      <c r="F840" s="48"/>
+      <c r="G840" s="48"/>
     </row>
     <row r="841">
-      <c r="F841" s="36"/>
-      <c r="G841" s="36"/>
+      <c r="F841" s="48"/>
+      <c r="G841" s="48"/>
     </row>
     <row r="842">
-      <c r="F842" s="36"/>
-      <c r="G842" s="36"/>
+      <c r="F842" s="48"/>
+      <c r="G842" s="48"/>
     </row>
     <row r="843">
-      <c r="F843" s="36"/>
-      <c r="G843" s="36"/>
+      <c r="F843" s="48"/>
+      <c r="G843" s="48"/>
     </row>
     <row r="844">
-      <c r="F844" s="36"/>
-      <c r="G844" s="36"/>
+      <c r="F844" s="48"/>
+      <c r="G844" s="48"/>
     </row>
     <row r="845">
-      <c r="F845" s="36"/>
-      <c r="G845" s="36"/>
+      <c r="F845" s="48"/>
+      <c r="G845" s="48"/>
     </row>
     <row r="846">
-      <c r="F846" s="36"/>
-      <c r="G846" s="36"/>
+      <c r="F846" s="48"/>
+      <c r="G846" s="48"/>
     </row>
     <row r="847">
-      <c r="F847" s="36"/>
-      <c r="G847" s="36"/>
+      <c r="F847" s="48"/>
+      <c r="G847" s="48"/>
     </row>
     <row r="848">
-      <c r="F848" s="36"/>
-      <c r="G848" s="36"/>
+      <c r="F848" s="48"/>
+      <c r="G848" s="48"/>
     </row>
     <row r="849">
-      <c r="F849" s="36"/>
-      <c r="G849" s="36"/>
+      <c r="F849" s="48"/>
+      <c r="G849" s="48"/>
     </row>
     <row r="850">
-      <c r="F850" s="36"/>
-      <c r="G850" s="36"/>
+      <c r="F850" s="48"/>
+      <c r="G850" s="48"/>
     </row>
     <row r="851">
-      <c r="F851" s="36"/>
-      <c r="G851" s="36"/>
+      <c r="F851" s="48"/>
+      <c r="G851" s="48"/>
     </row>
     <row r="852">
-      <c r="F852" s="36"/>
-      <c r="G852" s="36"/>
+      <c r="F852" s="48"/>
+      <c r="G852" s="48"/>
     </row>
     <row r="853">
-      <c r="F853" s="36"/>
-      <c r="G853" s="36"/>
+      <c r="F853" s="48"/>
+      <c r="G853" s="48"/>
     </row>
     <row r="854">
-      <c r="F854" s="36"/>
-      <c r="G854" s="36"/>
+      <c r="F854" s="48"/>
+      <c r="G854" s="48"/>
     </row>
     <row r="855">
-      <c r="F855" s="36"/>
-      <c r="G855" s="36"/>
+      <c r="F855" s="48"/>
+      <c r="G855" s="48"/>
     </row>
     <row r="856">
-      <c r="F856" s="36"/>
-      <c r="G856" s="36"/>
+      <c r="F856" s="48"/>
+      <c r="G856" s="48"/>
     </row>
     <row r="857">
-      <c r="F857" s="36"/>
-      <c r="G857" s="36"/>
+      <c r="F857" s="48"/>
+      <c r="G857" s="48"/>
     </row>
     <row r="858">
-      <c r="F858" s="36"/>
-      <c r="G858" s="36"/>
+      <c r="F858" s="48"/>
+      <c r="G858" s="48"/>
     </row>
     <row r="859">
-      <c r="F859" s="36"/>
-      <c r="G859" s="36"/>
+      <c r="F859" s="48"/>
+      <c r="G859" s="48"/>
     </row>
     <row r="860">
-      <c r="F860" s="36"/>
-      <c r="G860" s="36"/>
+      <c r="F860" s="48"/>
+      <c r="G860" s="48"/>
     </row>
     <row r="861">
-      <c r="F861" s="36"/>
-      <c r="G861" s="36"/>
+      <c r="F861" s="48"/>
+      <c r="G861" s="48"/>
     </row>
     <row r="862">
-      <c r="F862" s="36"/>
-      <c r="G862" s="36"/>
+      <c r="F862" s="48"/>
+      <c r="G862" s="48"/>
     </row>
     <row r="863">
-      <c r="F863" s="36"/>
-      <c r="G863" s="36"/>
+      <c r="F863" s="48"/>
+      <c r="G863" s="48"/>
     </row>
     <row r="864">
-      <c r="F864" s="36"/>
-      <c r="G864" s="36"/>
+      <c r="F864" s="48"/>
+      <c r="G864" s="48"/>
     </row>
     <row r="865">
-      <c r="F865" s="36"/>
-      <c r="G865" s="36"/>
+      <c r="F865" s="48"/>
+      <c r="G865" s="48"/>
     </row>
     <row r="866">
-      <c r="F866" s="36"/>
-      <c r="G866" s="36"/>
+      <c r="F866" s="48"/>
+      <c r="G866" s="48"/>
     </row>
     <row r="867">
-      <c r="F867" s="36"/>
-      <c r="G867" s="36"/>
+      <c r="F867" s="48"/>
+      <c r="G867" s="48"/>
     </row>
     <row r="868">
-      <c r="F868" s="36"/>
-      <c r="G868" s="36"/>
+      <c r="F868" s="48"/>
+      <c r="G868" s="48"/>
     </row>
     <row r="869">
-      <c r="F869" s="36"/>
-      <c r="G869" s="36"/>
+      <c r="F869" s="48"/>
+      <c r="G869" s="48"/>
     </row>
     <row r="870">
-      <c r="F870" s="36"/>
-      <c r="G870" s="36"/>
+      <c r="F870" s="48"/>
+      <c r="G870" s="48"/>
     </row>
     <row r="871">
-      <c r="F871" s="36"/>
-      <c r="G871" s="36"/>
+      <c r="F871" s="48"/>
+      <c r="G871" s="48"/>
     </row>
     <row r="872">
-      <c r="F872" s="36"/>
-      <c r="G872" s="36"/>
+      <c r="F872" s="48"/>
+      <c r="G872" s="48"/>
     </row>
     <row r="873">
-      <c r="F873" s="36"/>
-      <c r="G873" s="36"/>
+      <c r="F873" s="48"/>
+      <c r="G873" s="48"/>
     </row>
     <row r="874">
-      <c r="F874" s="36"/>
-      <c r="G874" s="36"/>
+      <c r="F874" s="48"/>
+      <c r="G874" s="48"/>
     </row>
     <row r="875">
-      <c r="F875" s="36"/>
-      <c r="G875" s="36"/>
+      <c r="F875" s="48"/>
+      <c r="G875" s="48"/>
     </row>
     <row r="876">
-      <c r="F876" s="36"/>
-      <c r="G876" s="36"/>
+      <c r="F876" s="48"/>
+      <c r="G876" s="48"/>
     </row>
     <row r="877">
-      <c r="F877" s="36"/>
-      <c r="G877" s="36"/>
+      <c r="F877" s="48"/>
+      <c r="G877" s="48"/>
     </row>
     <row r="878">
-      <c r="F878" s="36"/>
-      <c r="G878" s="36"/>
+      <c r="F878" s="48"/>
+      <c r="G878" s="48"/>
     </row>
     <row r="879">
-      <c r="F879" s="36"/>
-      <c r="G879" s="36"/>
+      <c r="F879" s="48"/>
+      <c r="G879" s="48"/>
     </row>
     <row r="880">
-      <c r="F880" s="36"/>
-      <c r="G880" s="36"/>
+      <c r="F880" s="48"/>
+      <c r="G880" s="48"/>
     </row>
     <row r="881">
-      <c r="F881" s="36"/>
-      <c r="G881" s="36"/>
+      <c r="F881" s="48"/>
+      <c r="G881" s="48"/>
     </row>
     <row r="882">
-      <c r="F882" s="36"/>
-      <c r="G882" s="36"/>
+      <c r="F882" s="48"/>
+      <c r="G882" s="48"/>
     </row>
     <row r="883">
-      <c r="F883" s="36"/>
-      <c r="G883" s="36"/>
+      <c r="F883" s="48"/>
+      <c r="G883" s="48"/>
     </row>
     <row r="884">
-      <c r="F884" s="36"/>
-      <c r="G884" s="36"/>
+      <c r="F884" s="48"/>
+      <c r="G884" s="48"/>
     </row>
     <row r="885">
-      <c r="F885" s="36"/>
-      <c r="G885" s="36"/>
+      <c r="F885" s="48"/>
+      <c r="G885" s="48"/>
     </row>
     <row r="886">
-      <c r="F886" s="36"/>
-      <c r="G886" s="36"/>
+      <c r="F886" s="48"/>
+      <c r="G886" s="48"/>
     </row>
     <row r="887">
-      <c r="F887" s="36"/>
-      <c r="G887" s="36"/>
+      <c r="F887" s="48"/>
+      <c r="G887" s="48"/>
     </row>
     <row r="888">
-      <c r="F888" s="36"/>
-      <c r="G888" s="36"/>
+      <c r="F888" s="48"/>
+      <c r="G888" s="48"/>
     </row>
     <row r="889">
-      <c r="F889" s="36"/>
-      <c r="G889" s="36"/>
+      <c r="F889" s="48"/>
+      <c r="G889" s="48"/>
     </row>
     <row r="890">
-      <c r="F890" s="36"/>
-      <c r="G890" s="36"/>
+      <c r="F890" s="48"/>
+      <c r="G890" s="48"/>
     </row>
     <row r="891">
-      <c r="F891" s="36"/>
-      <c r="G891" s="36"/>
+      <c r="F891" s="48"/>
+      <c r="G891" s="48"/>
     </row>
     <row r="892">
-      <c r="F892" s="36"/>
-      <c r="G892" s="36"/>
+      <c r="F892" s="48"/>
+      <c r="G892" s="48"/>
     </row>
     <row r="893">
-      <c r="F893" s="36"/>
-      <c r="G893" s="36"/>
+      <c r="F893" s="48"/>
+      <c r="G893" s="48"/>
     </row>
     <row r="894">
-      <c r="F894" s="36"/>
-      <c r="G894" s="36"/>
+      <c r="F894" s="48"/>
+      <c r="G894" s="48"/>
     </row>
     <row r="895">
-      <c r="F895" s="36"/>
-      <c r="G895" s="36"/>
+      <c r="F895" s="48"/>
+      <c r="G895" s="48"/>
     </row>
     <row r="896">
-      <c r="F896" s="36"/>
-      <c r="G896" s="36"/>
+      <c r="F896" s="48"/>
+      <c r="G896" s="48"/>
     </row>
     <row r="897">
-      <c r="F897" s="36"/>
-      <c r="G897" s="36"/>
+      <c r="F897" s="48"/>
+      <c r="G897" s="48"/>
     </row>
     <row r="898">
-      <c r="F898" s="36"/>
-      <c r="G898" s="36"/>
+      <c r="F898" s="48"/>
+      <c r="G898" s="48"/>
     </row>
     <row r="899">
-      <c r="F899" s="36"/>
-      <c r="G899" s="36"/>
+      <c r="F899" s="48"/>
+      <c r="G899" s="48"/>
     </row>
     <row r="900">
-      <c r="F900" s="36"/>
-      <c r="G900" s="36"/>
+      <c r="F900" s="48"/>
+      <c r="G900" s="48"/>
     </row>
     <row r="901">
-      <c r="F901" s="36"/>
-      <c r="G901" s="36"/>
+      <c r="F901" s="48"/>
+      <c r="G901" s="48"/>
     </row>
     <row r="902">
-      <c r="F902" s="36"/>
-      <c r="G902" s="36"/>
+      <c r="F902" s="48"/>
+      <c r="G902" s="48"/>
     </row>
     <row r="903">
-      <c r="F903" s="36"/>
-      <c r="G903" s="36"/>
+      <c r="F903" s="48"/>
+      <c r="G903" s="48"/>
     </row>
     <row r="904">
-      <c r="F904" s="36"/>
-      <c r="G904" s="36"/>
+      <c r="F904" s="48"/>
+      <c r="G904" s="48"/>
     </row>
     <row r="905">
-      <c r="F905" s="36"/>
-      <c r="G905" s="36"/>
+      <c r="F905" s="48"/>
+      <c r="G905" s="48"/>
     </row>
     <row r="906">
-      <c r="F906" s="36"/>
-      <c r="G906" s="36"/>
+      <c r="F906" s="48"/>
+      <c r="G906" s="48"/>
     </row>
     <row r="907">
-      <c r="F907" s="36"/>
-      <c r="G907" s="36"/>
+      <c r="F907" s="48"/>
+      <c r="G907" s="48"/>
     </row>
     <row r="908">
-      <c r="F908" s="36"/>
-      <c r="G908" s="36"/>
+      <c r="F908" s="48"/>
+      <c r="G908" s="48"/>
     </row>
     <row r="909">
-      <c r="F909" s="36"/>
-      <c r="G909" s="36"/>
+      <c r="F909" s="48"/>
+      <c r="G909" s="48"/>
     </row>
     <row r="910">
-      <c r="F910" s="36"/>
-      <c r="G910" s="36"/>
+      <c r="F910" s="48"/>
+      <c r="G910" s="48"/>
     </row>
     <row r="911">
-      <c r="F911" s="36"/>
-      <c r="G911" s="36"/>
+      <c r="F911" s="48"/>
+      <c r="G911" s="48"/>
     </row>
     <row r="912">
-      <c r="F912" s="36"/>
-      <c r="G912" s="36"/>
+      <c r="F912" s="48"/>
+      <c r="G912" s="48"/>
     </row>
     <row r="913">
-      <c r="F913" s="36"/>
-      <c r="G913" s="36"/>
+      <c r="F913" s="48"/>
+      <c r="G913" s="48"/>
     </row>
     <row r="914">
-      <c r="F914" s="36"/>
-      <c r="G914" s="36"/>
+      <c r="F914" s="48"/>
+      <c r="G914" s="48"/>
     </row>
     <row r="915">
-      <c r="F915" s="36"/>
-      <c r="G915" s="36"/>
+      <c r="F915" s="48"/>
+      <c r="G915" s="48"/>
     </row>
     <row r="916">
-      <c r="F916" s="36"/>
-      <c r="G916" s="36"/>
+      <c r="F916" s="48"/>
+      <c r="G916" s="48"/>
     </row>
     <row r="917">
-      <c r="F917" s="36"/>
-      <c r="G917" s="36"/>
+      <c r="F917" s="48"/>
+      <c r="G917" s="48"/>
     </row>
     <row r="918">
-      <c r="F918" s="36"/>
-      <c r="G918" s="36"/>
+      <c r="F918" s="48"/>
+      <c r="G918" s="48"/>
     </row>
     <row r="919">
-      <c r="F919" s="36"/>
-      <c r="G919" s="36"/>
+      <c r="F919" s="48"/>
+      <c r="G919" s="48"/>
     </row>
     <row r="920">
-      <c r="F920" s="36"/>
-      <c r="G920" s="36"/>
+      <c r="F920" s="48"/>
+      <c r="G920" s="48"/>
     </row>
     <row r="921">
-      <c r="F921" s="36"/>
-      <c r="G921" s="36"/>
+      <c r="F921" s="48"/>
+      <c r="G921" s="48"/>
     </row>
     <row r="922">
-      <c r="F922" s="36"/>
-      <c r="G922" s="36"/>
+      <c r="F922" s="48"/>
+      <c r="G922" s="48"/>
     </row>
     <row r="923">
-      <c r="F923" s="36"/>
-      <c r="G923" s="36"/>
+      <c r="F923" s="48"/>
+      <c r="G923" s="48"/>
     </row>
     <row r="924">
-      <c r="F924" s="36"/>
-      <c r="G924" s="36"/>
+      <c r="F924" s="48"/>
+      <c r="G924" s="48"/>
     </row>
     <row r="925">
-      <c r="F925" s="36"/>
-      <c r="G925" s="36"/>
+      <c r="F925" s="48"/>
+      <c r="G925" s="48"/>
     </row>
     <row r="926">
-      <c r="F926" s="36"/>
-      <c r="G926" s="36"/>
+      <c r="F926" s="48"/>
+      <c r="G926" s="48"/>
     </row>
     <row r="927">
-      <c r="F927" s="36"/>
-      <c r="G927" s="36"/>
+      <c r="F927" s="48"/>
+      <c r="G927" s="48"/>
     </row>
     <row r="928">
-      <c r="F928" s="36"/>
-      <c r="G928" s="36"/>
+      <c r="F928" s="48"/>
+      <c r="G928" s="48"/>
     </row>
     <row r="929">
-      <c r="F929" s="36"/>
-      <c r="G929" s="36"/>
+      <c r="F929" s="48"/>
+      <c r="G929" s="48"/>
     </row>
     <row r="930">
-      <c r="F930" s="36"/>
-      <c r="G930" s="36"/>
+      <c r="F930" s="48"/>
+      <c r="G930" s="48"/>
     </row>
     <row r="931">
-      <c r="F931" s="36"/>
-      <c r="G931" s="36"/>
+      <c r="F931" s="48"/>
+      <c r="G931" s="48"/>
     </row>
     <row r="932">
-      <c r="F932" s="36"/>
-      <c r="G932" s="36"/>
+      <c r="F932" s="48"/>
+      <c r="G932" s="48"/>
     </row>
     <row r="933">
-      <c r="F933" s="36"/>
-      <c r="G933" s="36"/>
+      <c r="F933" s="48"/>
+      <c r="G933" s="48"/>
     </row>
     <row r="934">
-      <c r="F934" s="36"/>
-      <c r="G934" s="36"/>
+      <c r="F934" s="48"/>
+      <c r="G934" s="48"/>
     </row>
     <row r="935">
-      <c r="F935" s="36"/>
-      <c r="G935" s="36"/>
+      <c r="F935" s="48"/>
+      <c r="G935" s="48"/>
     </row>
     <row r="936">
-      <c r="F936" s="36"/>
-      <c r="G936" s="36"/>
+      <c r="F936" s="48"/>
+      <c r="G936" s="48"/>
     </row>
     <row r="937">
-      <c r="F937" s="36"/>
-      <c r="G937" s="36"/>
+      <c r="F937" s="48"/>
+      <c r="G937" s="48"/>
     </row>
     <row r="938">
-      <c r="F938" s="36"/>
-      <c r="G938" s="36"/>
+      <c r="F938" s="48"/>
+      <c r="G938" s="48"/>
     </row>
     <row r="939">
-      <c r="F939" s="36"/>
-      <c r="G939" s="36"/>
+      <c r="F939" s="48"/>
+      <c r="G939" s="48"/>
     </row>
     <row r="940">
-      <c r="F940" s="36"/>
-      <c r="G940" s="36"/>
+      <c r="F940" s="48"/>
+      <c r="G940" s="48"/>
     </row>
     <row r="941">
-      <c r="F941" s="36"/>
-      <c r="G941" s="36"/>
+      <c r="F941" s="48"/>
+      <c r="G941" s="48"/>
     </row>
     <row r="942">
-      <c r="F942" s="36"/>
-      <c r="G942" s="36"/>
+      <c r="F942" s="48"/>
+      <c r="G942" s="48"/>
     </row>
     <row r="943">
-      <c r="F943" s="36"/>
-      <c r="G943" s="36"/>
+      <c r="F943" s="48"/>
+      <c r="G943" s="48"/>
     </row>
     <row r="944">
-      <c r="F944" s="36"/>
-      <c r="G944" s="36"/>
+      <c r="F944" s="48"/>
+      <c r="G944" s="48"/>
     </row>
     <row r="945">
-      <c r="F945" s="36"/>
-      <c r="G945" s="36"/>
+      <c r="F945" s="48"/>
+      <c r="G945" s="48"/>
     </row>
     <row r="946">
-      <c r="F946" s="36"/>
-      <c r="G946" s="36"/>
+      <c r="F946" s="48"/>
+      <c r="G946" s="48"/>
     </row>
     <row r="947">
-      <c r="F947" s="36"/>
-      <c r="G947" s="36"/>
+      <c r="F947" s="48"/>
+      <c r="G947" s="48"/>
     </row>
     <row r="948">
-      <c r="F948" s="36"/>
-      <c r="G948" s="36"/>
+      <c r="F948" s="48"/>
+      <c r="G948" s="48"/>
     </row>
     <row r="949">
-      <c r="F949" s="36"/>
-      <c r="G949" s="36"/>
+      <c r="F949" s="48"/>
+      <c r="G949" s="48"/>
     </row>
     <row r="950">
-      <c r="F950" s="36"/>
-      <c r="G950" s="36"/>
+      <c r="F950" s="48"/>
+      <c r="G950" s="48"/>
     </row>
     <row r="951">
-      <c r="F951" s="36"/>
-      <c r="G951" s="36"/>
+      <c r="F951" s="48"/>
+      <c r="G951" s="48"/>
     </row>
     <row r="952">
-      <c r="F952" s="36"/>
-      <c r="G952" s="36"/>
+      <c r="F952" s="48"/>
+      <c r="G952" s="48"/>
     </row>
     <row r="953">
-      <c r="F953" s="36"/>
-      <c r="G953" s="36"/>
+      <c r="F953" s="48"/>
+      <c r="G953" s="48"/>
     </row>
     <row r="954">
-      <c r="F954" s="36"/>
-      <c r="G954" s="36"/>
+      <c r="F954" s="48"/>
+      <c r="G954" s="48"/>
     </row>
     <row r="955">
-      <c r="F955" s="36"/>
-      <c r="G955" s="36"/>
+      <c r="F955" s="48"/>
+      <c r="G955" s="48"/>
     </row>
     <row r="956">
-      <c r="F956" s="36"/>
-      <c r="G956" s="36"/>
+      <c r="F956" s="48"/>
+      <c r="G956" s="48"/>
     </row>
     <row r="957">
-      <c r="F957" s="36"/>
-      <c r="G957" s="36"/>
+      <c r="F957" s="48"/>
+      <c r="G957" s="48"/>
     </row>
     <row r="958">
-      <c r="F958" s="36"/>
-      <c r="G958" s="36"/>
+      <c r="F958" s="48"/>
+      <c r="G958" s="48"/>
     </row>
     <row r="959">
-      <c r="F959" s="36"/>
-      <c r="G959" s="36"/>
+      <c r="F959" s="48"/>
+      <c r="G959" s="48"/>
     </row>
     <row r="960">
-      <c r="F960" s="36"/>
-      <c r="G960" s="36"/>
+      <c r="F960" s="48"/>
+      <c r="G960" s="48"/>
     </row>
     <row r="961">
-      <c r="F961" s="36"/>
-      <c r="G961" s="36"/>
+      <c r="F961" s="48"/>
+      <c r="G961" s="48"/>
     </row>
     <row r="962">
-      <c r="F962" s="36"/>
-      <c r="G962" s="36"/>
+      <c r="F962" s="48"/>
+      <c r="G962" s="48"/>
     </row>
     <row r="963">
-      <c r="F963" s="36"/>
-      <c r="G963" s="36"/>
+      <c r="F963" s="48"/>
+      <c r="G963" s="48"/>
     </row>
     <row r="964">
-      <c r="F964" s="36"/>
-      <c r="G964" s="36"/>
+      <c r="F964" s="48"/>
+      <c r="G964" s="48"/>
     </row>
     <row r="965">
-      <c r="F965" s="36"/>
-      <c r="G965" s="36"/>
+      <c r="F965" s="48"/>
+      <c r="G965" s="48"/>
     </row>
     <row r="966">
-      <c r="F966" s="36"/>
-      <c r="G966" s="36"/>
+      <c r="F966" s="48"/>
+      <c r="G966" s="48"/>
     </row>
     <row r="967">
-      <c r="F967" s="36"/>
-      <c r="G967" s="36"/>
+      <c r="F967" s="48"/>
+      <c r="G967" s="48"/>
     </row>
     <row r="968">
-      <c r="F968" s="36"/>
-      <c r="G968" s="36"/>
+      <c r="F968" s="48"/>
+      <c r="G968" s="48"/>
     </row>
     <row r="969">
-      <c r="F969" s="36"/>
-      <c r="G969" s="36"/>
+      <c r="F969" s="48"/>
+      <c r="G969" s="48"/>
     </row>
     <row r="970">
-      <c r="F970" s="36"/>
-      <c r="G970" s="36"/>
+      <c r="F970" s="48"/>
+      <c r="G970" s="48"/>
     </row>
     <row r="971">
-      <c r="F971" s="36"/>
-      <c r="G971" s="36"/>
+      <c r="F971" s="48"/>
+      <c r="G971" s="48"/>
     </row>
     <row r="972">
-      <c r="F972" s="36"/>
-      <c r="G972" s="36"/>
+      <c r="F972" s="48"/>
+      <c r="G972" s="48"/>
     </row>
     <row r="973">
-      <c r="F973" s="36"/>
-      <c r="G973" s="36"/>
+      <c r="F973" s="48"/>
+      <c r="G973" s="48"/>
     </row>
     <row r="974">
-      <c r="F974" s="36"/>
-      <c r="G974" s="36"/>
+      <c r="F974" s="48"/>
+      <c r="G974" s="48"/>
     </row>
     <row r="975">
-      <c r="F975" s="36"/>
-      <c r="G975" s="36"/>
+      <c r="F975" s="48"/>
+      <c r="G975" s="48"/>
     </row>
     <row r="976">
-      <c r="F976" s="36"/>
-      <c r="G976" s="36"/>
+      <c r="F976" s="48"/>
+      <c r="G976" s="48"/>
     </row>
     <row r="977">
-      <c r="F977" s="36"/>
-      <c r="G977" s="36"/>
+      <c r="F977" s="48"/>
+      <c r="G977" s="48"/>
     </row>
     <row r="978">
-      <c r="F978" s="36"/>
-      <c r="G978" s="36"/>
+      <c r="F978" s="48"/>
+      <c r="G978" s="48"/>
     </row>
     <row r="979">
-      <c r="F979" s="36"/>
-      <c r="G979" s="36"/>
+      <c r="F979" s="48"/>
+      <c r="G979" s="48"/>
     </row>
     <row r="980">
-      <c r="F980" s="36"/>
-      <c r="G980" s="36"/>
+      <c r="F980" s="48"/>
+      <c r="G980" s="48"/>
     </row>
     <row r="981">
-      <c r="F981" s="36"/>
-      <c r="G981" s="36"/>
+      <c r="F981" s="48"/>
+      <c r="G981" s="48"/>
     </row>
     <row r="982">
-      <c r="F982" s="36"/>
-      <c r="G982" s="36"/>
+      <c r="F982" s="48"/>
+      <c r="G982" s="48"/>
     </row>
     <row r="983">
-      <c r="F983" s="36"/>
-      <c r="G983" s="36"/>
+      <c r="F983" s="48"/>
+      <c r="G983" s="48"/>
     </row>
     <row r="984">
-      <c r="F984" s="36"/>
-      <c r="G984" s="36"/>
+      <c r="F984" s="48"/>
+      <c r="G984" s="48"/>
     </row>
     <row r="985">
-      <c r="F985" s="36"/>
-      <c r="G985" s="36"/>
+      <c r="F985" s="48"/>
+      <c r="G985" s="48"/>
     </row>
     <row r="986">
-      <c r="F986" s="36"/>
-      <c r="G986" s="36"/>
+      <c r="F986" s="48"/>
+      <c r="G986" s="48"/>
     </row>
     <row r="987">
-      <c r="F987" s="36"/>
-      <c r="G987" s="36"/>
+      <c r="F987" s="48"/>
+      <c r="G987" s="48"/>
     </row>
     <row r="988">
-      <c r="F988" s="36"/>
-      <c r="G988" s="36"/>
+      <c r="F988" s="48"/>
+      <c r="G988" s="48"/>
     </row>
     <row r="989">
-      <c r="F989" s="36"/>
-      <c r="G989" s="36"/>
+      <c r="F989" s="48"/>
+      <c r="G989" s="48"/>
     </row>
     <row r="990">
-      <c r="F990" s="36"/>
-      <c r="G990" s="36"/>
+      <c r="F990" s="48"/>
+      <c r="G990" s="48"/>
     </row>
     <row r="991">
-      <c r="F991" s="36"/>
-      <c r="G991" s="36"/>
+      <c r="F991" s="48"/>
+      <c r="G991" s="48"/>
     </row>
     <row r="992">
-      <c r="F992" s="36"/>
-      <c r="G992" s="36"/>
+      <c r="F992" s="48"/>
+      <c r="G992" s="48"/>
     </row>
     <row r="993">
-      <c r="F993" s="36"/>
-      <c r="G993" s="36"/>
+      <c r="F993" s="48"/>
+      <c r="G993" s="48"/>
     </row>
     <row r="994">
-      <c r="F994" s="36"/>
-      <c r="G994" s="36"/>
+      <c r="F994" s="48"/>
+      <c r="G994" s="48"/>
     </row>
     <row r="995">
-      <c r="F995" s="36"/>
-      <c r="G995" s="36"/>
+      <c r="F995" s="48"/>
+      <c r="G995" s="48"/>
     </row>
     <row r="996">
-      <c r="F996" s="36"/>
-      <c r="G996" s="36"/>
+      <c r="F996" s="48"/>
+      <c r="G996" s="48"/>
     </row>
     <row r="997">
-      <c r="F997" s="36"/>
-      <c r="G997" s="36"/>
+      <c r="F997" s="48"/>
+      <c r="G997" s="48"/>
     </row>
     <row r="998">
-      <c r="F998" s="36"/>
-      <c r="G998" s="36"/>
+      <c r="F998" s="48"/>
+      <c r="G998" s="48"/>
     </row>
     <row r="999">
-      <c r="F999" s="36"/>
-      <c r="G999" s="36"/>
+      <c r="F999" s="48"/>
+      <c r="G999" s="48"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="36"/>
-      <c r="G1000" s="36"/>
+      <c r="F1000" s="48"/>
+      <c r="G1000" s="48"/>
     </row>
     <row r="1001">
-      <c r="F1001" s="36"/>
-      <c r="G1001" s="36"/>
+      <c r="F1001" s="48"/>
+      <c r="G1001" s="48"/>
     </row>
     <row r="1002">
-      <c r="F1002" s="36"/>
-      <c r="G1002" s="36"/>
+      <c r="F1002" s="48"/>
+      <c r="G1002" s="48"/>
     </row>
     <row r="1003">
-      <c r="F1003" s="36"/>
-      <c r="G1003" s="36"/>
+      <c r="F1003" s="48"/>
+      <c r="G1003" s="48"/>
     </row>
     <row r="1004">
-      <c r="F1004" s="36"/>
-      <c r="G1004" s="36"/>
+      <c r="F1004" s="48"/>
+      <c r="G1004" s="48"/>
     </row>
     <row r="1005">
-      <c r="F1005" s="36"/>
-      <c r="G1005" s="36"/>
+      <c r="F1005" s="48"/>
+      <c r="G1005" s="48"/>
     </row>
     <row r="1006">
-      <c r="F1006" s="36"/>
-      <c r="G1006" s="36"/>
+      <c r="F1006" s="48"/>
+      <c r="G1006" s="48"/>
     </row>
     <row r="1007">
-      <c r="F1007" s="36"/>
-      <c r="G1007" s="36"/>
+      <c r="F1007" s="48"/>
+      <c r="G1007" s="48"/>
     </row>
     <row r="1008">
-      <c r="F1008" s="36"/>
-      <c r="G1008" s="36"/>
+      <c r="F1008" s="48"/>
+      <c r="G1008" s="48"/>
     </row>
     <row r="1009">
-      <c r="F1009" s="36"/>
-      <c r="G1009" s="36"/>
+      <c r="F1009" s="48"/>
+      <c r="G1009" s="48"/>
     </row>
     <row r="1010">
-      <c r="F1010" s="36"/>
-      <c r="G1010" s="36"/>
+      <c r="F1010" s="48"/>
+      <c r="G1010" s="48"/>
+    </row>
+    <row r="1011">
+      <c r="F1011" s="48"/>
+      <c r="G1011" s="48"/>
+    </row>
+    <row r="1012">
+      <c r="F1012" s="48"/>
+      <c r="G1012" s="48"/>
+    </row>
+    <row r="1013">
+      <c r="F1013" s="48"/>
+      <c r="G1013" s="48"/>
+    </row>
+    <row r="1014">
+      <c r="F1014" s="48"/>
+      <c r="G1014" s="48"/>
+    </row>
+    <row r="1015">
+      <c r="F1015" s="48"/>
+      <c r="G1015" s="48"/>
+    </row>
+    <row r="1016">
+      <c r="F1016" s="48"/>
+      <c r="G1016" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C55:H55"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C49:H49"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D34"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Desarrollo/MindSoft/Gestión/AMSM-CP.xlsx
+++ b/Desarrollo/MindSoft/Gestión/AMSM-CP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -289,7 +289,7 @@
     <t>AMSM-BD.sql</t>
   </si>
   <si>
-    <t>Cisneros</t>
+    <t>Cisneros/Programador Front</t>
   </si>
   <si>
     <t>Codificación de la interfaz grafica de login y registro</t>
@@ -307,6 +307,147 @@
     <t>API para manejar lógica del login y registro</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>login.controller.py</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+login.route.py
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>user.repository.py</t>
+    </r>
+  </si>
+  <si>
+    <t>Gomez/Programador Backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Codificación de la interfaz grafica de los casos de uso 1</t>
+  </si>
+  <si>
+    <t>UI de la HU01</t>
+  </si>
+  <si>
+    <t>//Frontend</t>
+  </si>
+  <si>
+    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 1</t>
+  </si>
+  <si>
+    <t>API de la HU01</t>
+  </si>
+  <si>
+    <t>daily_rating.repository.py
+daily_rating.route.py
+daily_rating.controller.y</t>
+  </si>
+  <si>
+    <t>Alquizar/Programador Backend</t>
+  </si>
+  <si>
+    <t>Codificación de la interfaz grafica de los casos de uso 5</t>
+  </si>
+  <si>
+    <t>UI de la HU05</t>
+  </si>
+  <si>
+    <t>Ladera/Programador Front</t>
+  </si>
+  <si>
+    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 5</t>
+  </si>
+  <si>
+    <t>API de la HU05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">goal.repository.py
+goal.controller.py
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>goal.route.py</t>
+    </r>
+  </si>
+  <si>
+    <t>Pruebas unitarias</t>
+  </si>
+  <si>
+    <t>//AMSM-PU</t>
+  </si>
+  <si>
+    <t>Salazar, Ladera, Victor / Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas de integracion </t>
+  </si>
+  <si>
+    <t>Pruebas de integración</t>
+  </si>
+  <si>
+    <t>AMSM-PI.py</t>
+  </si>
+  <si>
+    <t>Reporte del Segundo Sprint</t>
+  </si>
+  <si>
+    <t>AMSM-RSS.docx</t>
+  </si>
+  <si>
+    <t>Hito 2: Fin del sprint #2</t>
+  </si>
+  <si>
+    <t>Codificación de la interfaz grafica de los casos de uso 2</t>
+  </si>
+  <si>
+    <t>UI de la HU02</t>
+  </si>
+  <si>
+    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 2</t>
+  </si>
+  <si>
+    <t>API de la HU02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">mood_rating.controller.py
+mood_rating.route.py
+</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -314,131 +455,49 @@
         <sz val="12.0"/>
         <u/>
       </rPr>
-      <t>login.controller.py</t>
+      <t>mood_rating.repository.py</t>
+    </r>
+  </si>
+  <si>
+    <t>Codificación de la interfaz grafica de los casos de uso 3</t>
+  </si>
+  <si>
+    <t>UI de la H03</t>
+  </si>
+  <si>
+    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 3</t>
+  </si>
+  <si>
+    <t>API de la HU03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>journal.controller.py
+journal.repositor</t>
     </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">
-login.route.py
-user.repository.py</t>
+      <t xml:space="preserve">y.py
+</t>
     </r>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Codificación de la interfaz grafica de los casos de uso 1</t>
-  </si>
-  <si>
-    <t>UI de la HU01</t>
-  </si>
-  <si>
-    <t>//AMSM-UI-HU01</t>
-  </si>
-  <si>
-    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 1</t>
-  </si>
-  <si>
-    <t>API de la HU01</t>
-  </si>
-  <si>
-    <t>//AMSM-API-HU01</t>
-  </si>
-  <si>
-    <t>Alquizar</t>
-  </si>
-  <si>
-    <t>Codificación de la interfaz grafica de los casos de uso 5</t>
-  </si>
-  <si>
-    <t>UI de la HU05</t>
-  </si>
-  <si>
-    <t>//AMSM-UI-HU05</t>
-  </si>
-  <si>
-    <t>Ladera</t>
-  </si>
-  <si>
-    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 5</t>
-  </si>
-  <si>
-    <t>API de la HU05</t>
-  </si>
-  <si>
-    <t>//AMSM-API-HU05</t>
-  </si>
-  <si>
-    <t>Pruebas unitarias</t>
-  </si>
-  <si>
-    <t>//AMSM-PU</t>
-  </si>
-  <si>
-    <t>Salazar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pruebas de integracion </t>
-  </si>
-  <si>
-    <t>Pruebas de integración</t>
-  </si>
-  <si>
-    <t>AMSM-PI.py</t>
-  </si>
-  <si>
-    <t>Caceres</t>
-  </si>
-  <si>
-    <t>Reporte del Segundo Sprint</t>
-  </si>
-  <si>
-    <t>AMSM-RSS.docx</t>
-  </si>
-  <si>
-    <t>Hito 2: Fin del sprint #2</t>
-  </si>
-  <si>
-    <t>Codificación de la interfaz grafica de los casos de uso 2</t>
-  </si>
-  <si>
-    <t>UI de la HU02</t>
-  </si>
-  <si>
-    <t>//AMSM-UI-CU02</t>
-  </si>
-  <si>
-    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 2</t>
-  </si>
-  <si>
-    <t>API de la HU02</t>
-  </si>
-  <si>
-    <t>//AMSM-API-CIG02</t>
-  </si>
-  <si>
-    <t>Codificación de la interfaz grafica de los casos de uso 3</t>
-  </si>
-  <si>
-    <t>UI de la H03</t>
-  </si>
-  <si>
-    <t>//AMSM-UI-CU03</t>
-  </si>
-  <si>
-    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 3</t>
-  </si>
-  <si>
-    <t>API de la HU03</t>
-  </si>
-  <si>
-    <t>//AMSM-API-HU03</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>journal.route.py</t>
+    </r>
   </si>
   <si>
     <t>Codificación de la interfaz gráfica del caso de uso 4</t>
@@ -456,7 +515,24 @@
     <t>API de la HU04</t>
   </si>
   <si>
-    <t>//AMSM-API-CU04</t>
+    <t>ai.service.py
+recomendation.controller.py
+recomendation.route.py</t>
+  </si>
+  <si>
+    <t>Salazar / Tester</t>
+  </si>
+  <si>
+    <t>//AMSM-PI</t>
+  </si>
+  <si>
+    <t>Despliegue</t>
+  </si>
+  <si>
+    <t>Documento de despliegue</t>
+  </si>
+  <si>
+    <t>AMSM-DD.docx</t>
   </si>
   <si>
     <t>Reporte del Tercer Sprint</t>
@@ -486,7 +562,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/MM/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -545,24 +621,41 @@
     </font>
     <font/>
     <font>
+      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12.0"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color theme="1"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="14.0"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -652,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -710,17 +803,17 @@
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -738,58 +831,75 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1010,8 +1120,8 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="42.75"/>
     <col customWidth="1" min="3" max="3" width="52.13"/>
-    <col customWidth="1" min="4" max="4" width="16.5"/>
-    <col customWidth="1" min="5" max="5" width="23.38"/>
+    <col customWidth="1" min="4" max="4" width="24.13"/>
+    <col customWidth="1" min="5" max="5" width="27.0"/>
     <col customWidth="1" min="6" max="8" width="16.5"/>
   </cols>
   <sheetData>
@@ -1124,16 +1234,16 @@
         <v>19</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="20">
         <v>45526.0</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="20">
         <v>45527.0</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1148,16 +1258,16 @@
       <c r="D12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="20">
         <v>45527.0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="20">
         <v>45528.0</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1172,16 +1282,16 @@
       <c r="D13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="20">
         <v>45527.0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="20">
         <v>45528.0</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>30.0</v>
       </c>
     </row>
@@ -1196,16 +1306,16 @@
       <c r="D14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="20">
         <v>45529.0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="20">
         <v>45531.0</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1220,16 +1330,16 @@
       <c r="D15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="20">
         <v>45532.0</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="20">
         <v>45534.0</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1244,16 +1354,16 @@
       <c r="D16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="20">
         <v>45532.0</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="20">
         <v>45534.0</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1268,16 +1378,16 @@
       <c r="D17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="20">
         <v>45532.0</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="20">
         <v>45534.0</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1292,16 +1402,16 @@
       <c r="D18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="20">
         <v>45532.0</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="20">
         <v>45534.0</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1316,16 +1426,16 @@
       <c r="D19" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="20">
         <v>45532.0</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="20">
         <v>45534.0</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1340,16 +1450,16 @@
       <c r="D20" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="20">
         <v>45532.0</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="20">
         <v>45534.0</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1364,16 +1474,16 @@
       <c r="D21" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="20">
         <v>45532.0</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="20">
         <v>45534.0</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1388,16 +1498,16 @@
       <c r="D22" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="20">
         <v>45534.0</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="20">
         <v>45539.0</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1412,16 +1522,16 @@
       <c r="D23" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="20">
         <v>45540.0</v>
       </c>
       <c r="G23" s="22">
         <v>45542.0</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1436,16 +1546,16 @@
       <c r="D24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="20">
         <v>45543.0</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="20">
         <v>45545.0</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1460,16 +1570,16 @@
       <c r="D25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="20">
         <v>45546.0</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="20">
         <v>45548.0</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1484,16 +1594,16 @@
       <c r="D26" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="20">
         <v>45549.0</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="20">
         <v>45551.0</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1508,16 +1618,16 @@
       <c r="D27" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="20">
         <v>45552.0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="20">
         <v>45553.0</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>100.0</v>
       </c>
     </row>
@@ -1532,16 +1642,16 @@
       <c r="D28" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="20">
         <v>45554.0</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="20">
         <v>45555.0</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>100.0</v>
       </c>
       <c r="M28" s="23"/>
@@ -1586,34 +1696,32 @@
       <c r="D30" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="20">
         <v>45556.0</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="20">
         <v>45559.0</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="J30" s="33">
-        <f t="shared" ref="J30:J32" si="1">DAYS(G30,F30)</f>
-        <v>3</v>
-      </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
+      <c r="H30" s="32">
+        <v>100.0</v>
+      </c>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
     </row>
     <row r="31">
       <c r="A31" s="29"/>
@@ -1626,34 +1734,32 @@
       <c r="D31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="20">
         <v>45559.0</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="20">
         <v>45561.0</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="J31" s="33">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
+      <c r="H31" s="32">
+        <v>100.0</v>
+      </c>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
     </row>
     <row r="32">
       <c r="A32" s="29"/>
@@ -1666,354 +1772,342 @@
       <c r="D32" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="20">
         <v>45561.0</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="20">
         <v>45562.0</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="J32" s="33">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
+      <c r="H32" s="32">
+        <v>100.0</v>
+      </c>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
     </row>
     <row r="33">
       <c r="A33" s="29"/>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>94</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="20">
         <v>45562.0</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="20">
         <v>45571.0</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
+      <c r="H33" s="32">
+        <v>100.0</v>
+      </c>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
     </row>
     <row r="34">
       <c r="A34" s="29"/>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="20">
         <v>45562.0</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="20">
         <v>45571.0</v>
       </c>
-      <c r="H34" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
+      <c r="H34" s="32">
+        <v>100.0</v>
+      </c>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
     </row>
     <row r="35">
       <c r="A35" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="33" t="s">
         <v>102</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="20">
         <v>45562.0</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="20">
         <v>45571.0</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="J35" s="33">
-        <f t="shared" ref="J35:J42" si="2">DAYS(G35,F35)</f>
-        <v>9</v>
-      </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
+      <c r="H35" s="32">
+        <v>100.0</v>
+      </c>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
     </row>
     <row r="36">
       <c r="A36" s="29"/>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="20">
         <v>45562.0</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="20">
         <v>45571.0</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="J36" s="33">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
+      <c r="H36" s="32">
+        <v>100.0</v>
+      </c>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
     </row>
     <row r="37">
       <c r="A37" s="29"/>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="33" t="s">
         <v>109</v>
       </c>
       <c r="D37" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="32">
+      <c r="F37" s="20">
         <v>45572.0</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="20">
         <v>45580.0</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="J37" s="33">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
+      <c r="H37" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
     </row>
     <row r="38">
       <c r="A38" s="29"/>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="D38" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="20">
         <v>45572.0</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="20">
         <v>45580.0</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="J38" s="33">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
+      <c r="H38" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
     </row>
     <row r="39">
       <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="21" t="s">
+      <c r="E39" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="32">
+      <c r="F39" s="20">
         <v>45580.0</v>
       </c>
-      <c r="G39" s="32">
-        <v>45582.0</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="J39" s="33">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
+      <c r="G39" s="20">
+        <v>45584.0</v>
+      </c>
+      <c r="H39" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
     </row>
     <row r="40">
       <c r="A40" s="29"/>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="D40" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="32">
+      <c r="E40" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="20">
         <v>45582.0</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="20">
         <v>45584.0</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="J40" s="33">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
+      <c r="H40" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
     </row>
     <row r="41">
       <c r="A41" s="29"/>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -2022,34 +2116,32 @@
       <c r="D41" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="32">
+      <c r="E41" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="20">
         <v>45585.0</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="20">
         <v>45587.0</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="J41" s="33">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
+      <c r="H41" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
     </row>
     <row r="42">
       <c r="A42" s="29"/>
@@ -2057,49 +2149,47 @@
         <v>80</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="32">
+        <v>121</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="20">
         <v>45588.0</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="20">
         <v>45589.0</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="J42" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
+      <c r="H42" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
     </row>
     <row r="43">
       <c r="A43" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="38">
-        <v>45223.0</v>
+      <c r="B43" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="39">
+        <v>45589.0</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -2112,4055 +2202,4177 @@
       <c r="B44" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
+      <c r="E44" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="41">
+        <v>45590.0</v>
+      </c>
+      <c r="G44" s="41">
+        <v>45592.0</v>
+      </c>
+      <c r="H44" s="42">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>25</v>
+      <c r="B45" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
+        <v>103</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="41">
+        <v>45592.0</v>
+      </c>
+      <c r="G45" s="41">
+        <v>45596.0</v>
+      </c>
+      <c r="H45" s="42">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
+      <c r="F46" s="41">
+        <v>45592.0</v>
+      </c>
+      <c r="G46" s="41">
+        <v>45596.0</v>
+      </c>
+      <c r="H46" s="42">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="33" t="s">
         <v>129</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+        <v>103</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="41">
+        <v>45597.0</v>
+      </c>
+      <c r="G47" s="41">
+        <v>45600.0</v>
+      </c>
+      <c r="H47" s="42">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="D48" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
+      <c r="E48" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="41">
+        <v>45597.0</v>
+      </c>
+      <c r="G48" s="41">
+        <v>45600.0</v>
+      </c>
+      <c r="H48" s="42">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="D49" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="E49" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="41">
+        <v>45600.0</v>
+      </c>
+      <c r="G49" s="41">
+        <v>45603.0</v>
+      </c>
+      <c r="H49" s="42">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="D50" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
+      <c r="E50" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="41">
+        <v>45600.0</v>
+      </c>
+      <c r="G50" s="41">
+        <v>45603.0</v>
+      </c>
+      <c r="H50" s="19">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>141</v>
+      <c r="B51" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>114</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+        <v>115</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="41">
+        <v>45603.0</v>
+      </c>
+      <c r="G51" s="41">
+        <v>45603.0</v>
+      </c>
+      <c r="H51" s="42">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>77</v>
+      <c r="B52" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
+        <v>140</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="41">
+        <v>45572.0</v>
+      </c>
+      <c r="G52" s="41">
+        <v>45573.0</v>
+      </c>
+      <c r="H52" s="42">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="41">
+        <v>45573.0</v>
+      </c>
+      <c r="G53" s="41">
+        <v>45575.0</v>
+      </c>
+      <c r="H53" s="42">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1"/>
+      <c r="B54" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="41">
+        <v>45576.0</v>
+      </c>
+      <c r="G54" s="41">
+        <v>45577.0</v>
+      </c>
+      <c r="H54" s="47">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1"/>
+      <c r="B55" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="21" t="s">
+      <c r="C55" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="D55" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="44"/>
-      <c r="B54" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" s="21" t="s">
+      <c r="F55" s="41">
+        <v>45577.0</v>
+      </c>
+      <c r="G55" s="41">
+        <v>45578.0</v>
+      </c>
+      <c r="H55" s="47">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="48"/>
+      <c r="B56" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="C56" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="47">
+      <c r="D56" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="51">
+        <v>45609.0</v>
+      </c>
+      <c r="G56" s="51">
         <v>45610.0</v>
       </c>
-      <c r="H54" s="46"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="24" t="s">
+      <c r="H56" s="52"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="38">
+      <c r="B57" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="39">
         <v>45610.0</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-    </row>
-    <row r="56">
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-    </row>
-    <row r="57">
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
     </row>
     <row r="58">
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
     </row>
     <row r="59">
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
     </row>
     <row r="60">
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
     </row>
     <row r="61">
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
     </row>
     <row r="62">
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
     </row>
     <row r="63">
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
     </row>
     <row r="64">
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
     </row>
     <row r="65">
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
     </row>
     <row r="66">
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
     </row>
     <row r="67">
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
     </row>
     <row r="68">
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
     </row>
     <row r="69">
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
     </row>
     <row r="70">
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
     </row>
     <row r="71">
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
     </row>
     <row r="72">
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
     </row>
     <row r="73">
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
     </row>
     <row r="74">
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
     </row>
     <row r="75">
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
     </row>
     <row r="76">
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
     </row>
     <row r="77">
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
     </row>
     <row r="78">
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
     </row>
     <row r="79">
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
     </row>
     <row r="80">
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
     </row>
     <row r="81">
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
     </row>
     <row r="82">
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
     </row>
     <row r="83">
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="53"/>
     </row>
     <row r="84">
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
     </row>
     <row r="85">
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
     </row>
     <row r="86">
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
     </row>
     <row r="87">
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="53"/>
     </row>
     <row r="88">
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
     </row>
     <row r="89">
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
     </row>
     <row r="90">
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
     </row>
     <row r="91">
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
     </row>
     <row r="92">
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
     </row>
     <row r="93">
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
     </row>
     <row r="94">
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53"/>
     </row>
     <row r="95">
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
     </row>
     <row r="96">
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
     </row>
     <row r="97">
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53"/>
     </row>
     <row r="98">
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="53"/>
     </row>
     <row r="99">
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
     </row>
     <row r="100">
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
     </row>
     <row r="101">
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
     </row>
     <row r="102">
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
     </row>
     <row r="103">
-      <c r="F103" s="48"/>
-      <c r="G103" s="48"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
     </row>
     <row r="104">
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
     </row>
     <row r="105">
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
     </row>
     <row r="106">
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53"/>
     </row>
     <row r="107">
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53"/>
     </row>
     <row r="108">
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="53"/>
     </row>
     <row r="109">
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="53"/>
     </row>
     <row r="110">
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53"/>
     </row>
     <row r="111">
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
     </row>
     <row r="112">
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
     </row>
     <row r="113">
-      <c r="F113" s="48"/>
-      <c r="G113" s="48"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="53"/>
     </row>
     <row r="114">
-      <c r="F114" s="48"/>
-      <c r="G114" s="48"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="53"/>
     </row>
     <row r="115">
-      <c r="F115" s="48"/>
-      <c r="G115" s="48"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="53"/>
     </row>
     <row r="116">
-      <c r="F116" s="48"/>
-      <c r="G116" s="48"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="53"/>
     </row>
     <row r="117">
-      <c r="F117" s="48"/>
-      <c r="G117" s="48"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
     </row>
     <row r="118">
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="53"/>
     </row>
     <row r="119">
-      <c r="F119" s="48"/>
-      <c r="G119" s="48"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="53"/>
     </row>
     <row r="120">
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
     </row>
     <row r="121">
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="53"/>
     </row>
     <row r="122">
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
     </row>
     <row r="123">
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="53"/>
     </row>
     <row r="124">
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
     </row>
     <row r="125">
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="53"/>
     </row>
     <row r="126">
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
     </row>
     <row r="127">
-      <c r="F127" s="48"/>
-      <c r="G127" s="48"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="53"/>
     </row>
     <row r="128">
-      <c r="F128" s="48"/>
-      <c r="G128" s="48"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
     </row>
     <row r="129">
-      <c r="F129" s="48"/>
-      <c r="G129" s="48"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
     </row>
     <row r="130">
-      <c r="F130" s="48"/>
-      <c r="G130" s="48"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="53"/>
     </row>
     <row r="131">
-      <c r="F131" s="48"/>
-      <c r="G131" s="48"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="53"/>
     </row>
     <row r="132">
-      <c r="F132" s="48"/>
-      <c r="G132" s="48"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
     </row>
     <row r="133">
-      <c r="F133" s="48"/>
-      <c r="G133" s="48"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="53"/>
     </row>
     <row r="134">
-      <c r="F134" s="48"/>
-      <c r="G134" s="48"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="53"/>
     </row>
     <row r="135">
-      <c r="F135" s="48"/>
-      <c r="G135" s="48"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53"/>
     </row>
     <row r="136">
-      <c r="F136" s="48"/>
-      <c r="G136" s="48"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="53"/>
     </row>
     <row r="137">
-      <c r="F137" s="48"/>
-      <c r="G137" s="48"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53"/>
     </row>
     <row r="138">
-      <c r="F138" s="48"/>
-      <c r="G138" s="48"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="53"/>
     </row>
     <row r="139">
-      <c r="F139" s="48"/>
-      <c r="G139" s="48"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="53"/>
     </row>
     <row r="140">
-      <c r="F140" s="48"/>
-      <c r="G140" s="48"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="53"/>
     </row>
     <row r="141">
-      <c r="F141" s="48"/>
-      <c r="G141" s="48"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="53"/>
     </row>
     <row r="142">
-      <c r="F142" s="48"/>
-      <c r="G142" s="48"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="53"/>
     </row>
     <row r="143">
-      <c r="F143" s="48"/>
-      <c r="G143" s="48"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="53"/>
     </row>
     <row r="144">
-      <c r="F144" s="48"/>
-      <c r="G144" s="48"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="53"/>
     </row>
     <row r="145">
-      <c r="F145" s="48"/>
-      <c r="G145" s="48"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="53"/>
     </row>
     <row r="146">
-      <c r="F146" s="48"/>
-      <c r="G146" s="48"/>
+      <c r="F146" s="53"/>
+      <c r="G146" s="53"/>
     </row>
     <row r="147">
-      <c r="F147" s="48"/>
-      <c r="G147" s="48"/>
+      <c r="F147" s="53"/>
+      <c r="G147" s="53"/>
     </row>
     <row r="148">
-      <c r="F148" s="48"/>
-      <c r="G148" s="48"/>
+      <c r="F148" s="53"/>
+      <c r="G148" s="53"/>
     </row>
     <row r="149">
-      <c r="F149" s="48"/>
-      <c r="G149" s="48"/>
+      <c r="F149" s="53"/>
+      <c r="G149" s="53"/>
     </row>
     <row r="150">
-      <c r="F150" s="48"/>
-      <c r="G150" s="48"/>
+      <c r="F150" s="53"/>
+      <c r="G150" s="53"/>
     </row>
     <row r="151">
-      <c r="F151" s="48"/>
-      <c r="G151" s="48"/>
+      <c r="F151" s="53"/>
+      <c r="G151" s="53"/>
     </row>
     <row r="152">
-      <c r="F152" s="48"/>
-      <c r="G152" s="48"/>
+      <c r="F152" s="53"/>
+      <c r="G152" s="53"/>
     </row>
     <row r="153">
-      <c r="F153" s="48"/>
-      <c r="G153" s="48"/>
+      <c r="F153" s="53"/>
+      <c r="G153" s="53"/>
     </row>
     <row r="154">
-      <c r="F154" s="48"/>
-      <c r="G154" s="48"/>
+      <c r="F154" s="53"/>
+      <c r="G154" s="53"/>
     </row>
     <row r="155">
-      <c r="F155" s="48"/>
-      <c r="G155" s="48"/>
+      <c r="F155" s="53"/>
+      <c r="G155" s="53"/>
     </row>
     <row r="156">
-      <c r="F156" s="48"/>
-      <c r="G156" s="48"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="53"/>
     </row>
     <row r="157">
-      <c r="F157" s="48"/>
-      <c r="G157" s="48"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="53"/>
     </row>
     <row r="158">
-      <c r="F158" s="48"/>
-      <c r="G158" s="48"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="53"/>
     </row>
     <row r="159">
-      <c r="F159" s="48"/>
-      <c r="G159" s="48"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="53"/>
     </row>
     <row r="160">
-      <c r="F160" s="48"/>
-      <c r="G160" s="48"/>
+      <c r="F160" s="53"/>
+      <c r="G160" s="53"/>
     </row>
     <row r="161">
-      <c r="F161" s="48"/>
-      <c r="G161" s="48"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="53"/>
     </row>
     <row r="162">
-      <c r="F162" s="48"/>
-      <c r="G162" s="48"/>
+      <c r="F162" s="53"/>
+      <c r="G162" s="53"/>
     </row>
     <row r="163">
-      <c r="F163" s="48"/>
-      <c r="G163" s="48"/>
+      <c r="F163" s="53"/>
+      <c r="G163" s="53"/>
     </row>
     <row r="164">
-      <c r="F164" s="48"/>
-      <c r="G164" s="48"/>
+      <c r="F164" s="53"/>
+      <c r="G164" s="53"/>
     </row>
     <row r="165">
-      <c r="F165" s="48"/>
-      <c r="G165" s="48"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="53"/>
     </row>
     <row r="166">
-      <c r="F166" s="48"/>
-      <c r="G166" s="48"/>
+      <c r="F166" s="53"/>
+      <c r="G166" s="53"/>
     </row>
     <row r="167">
-      <c r="F167" s="48"/>
-      <c r="G167" s="48"/>
+      <c r="F167" s="53"/>
+      <c r="G167" s="53"/>
     </row>
     <row r="168">
-      <c r="F168" s="48"/>
-      <c r="G168" s="48"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="53"/>
     </row>
     <row r="169">
-      <c r="F169" s="48"/>
-      <c r="G169" s="48"/>
+      <c r="F169" s="53"/>
+      <c r="G169" s="53"/>
     </row>
     <row r="170">
-      <c r="F170" s="48"/>
-      <c r="G170" s="48"/>
+      <c r="F170" s="53"/>
+      <c r="G170" s="53"/>
     </row>
     <row r="171">
-      <c r="F171" s="48"/>
-      <c r="G171" s="48"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="53"/>
     </row>
     <row r="172">
-      <c r="F172" s="48"/>
-      <c r="G172" s="48"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="53"/>
     </row>
     <row r="173">
-      <c r="F173" s="48"/>
-      <c r="G173" s="48"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="53"/>
     </row>
     <row r="174">
-      <c r="F174" s="48"/>
-      <c r="G174" s="48"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="53"/>
     </row>
     <row r="175">
-      <c r="F175" s="48"/>
-      <c r="G175" s="48"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="53"/>
     </row>
     <row r="176">
-      <c r="F176" s="48"/>
-      <c r="G176" s="48"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="53"/>
     </row>
     <row r="177">
-      <c r="F177" s="48"/>
-      <c r="G177" s="48"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="53"/>
     </row>
     <row r="178">
-      <c r="F178" s="48"/>
-      <c r="G178" s="48"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="53"/>
     </row>
     <row r="179">
-      <c r="F179" s="48"/>
-      <c r="G179" s="48"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="53"/>
     </row>
     <row r="180">
-      <c r="F180" s="48"/>
-      <c r="G180" s="48"/>
+      <c r="F180" s="53"/>
+      <c r="G180" s="53"/>
     </row>
     <row r="181">
-      <c r="F181" s="48"/>
-      <c r="G181" s="48"/>
+      <c r="F181" s="53"/>
+      <c r="G181" s="53"/>
     </row>
     <row r="182">
-      <c r="F182" s="48"/>
-      <c r="G182" s="48"/>
+      <c r="F182" s="53"/>
+      <c r="G182" s="53"/>
     </row>
     <row r="183">
-      <c r="F183" s="48"/>
-      <c r="G183" s="48"/>
+      <c r="F183" s="53"/>
+      <c r="G183" s="53"/>
     </row>
     <row r="184">
-      <c r="F184" s="48"/>
-      <c r="G184" s="48"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="53"/>
     </row>
     <row r="185">
-      <c r="F185" s="48"/>
-      <c r="G185" s="48"/>
+      <c r="F185" s="53"/>
+      <c r="G185" s="53"/>
     </row>
     <row r="186">
-      <c r="F186" s="48"/>
-      <c r="G186" s="48"/>
+      <c r="F186" s="53"/>
+      <c r="G186" s="53"/>
     </row>
     <row r="187">
-      <c r="F187" s="48"/>
-      <c r="G187" s="48"/>
+      <c r="F187" s="53"/>
+      <c r="G187" s="53"/>
     </row>
     <row r="188">
-      <c r="F188" s="48"/>
-      <c r="G188" s="48"/>
+      <c r="F188" s="53"/>
+      <c r="G188" s="53"/>
     </row>
     <row r="189">
-      <c r="F189" s="48"/>
-      <c r="G189" s="48"/>
+      <c r="F189" s="53"/>
+      <c r="G189" s="53"/>
     </row>
     <row r="190">
-      <c r="F190" s="48"/>
-      <c r="G190" s="48"/>
+      <c r="F190" s="53"/>
+      <c r="G190" s="53"/>
     </row>
     <row r="191">
-      <c r="F191" s="48"/>
-      <c r="G191" s="48"/>
+      <c r="F191" s="53"/>
+      <c r="G191" s="53"/>
     </row>
     <row r="192">
-      <c r="F192" s="48"/>
-      <c r="G192" s="48"/>
+      <c r="F192" s="53"/>
+      <c r="G192" s="53"/>
     </row>
     <row r="193">
-      <c r="F193" s="48"/>
-      <c r="G193" s="48"/>
+      <c r="F193" s="53"/>
+      <c r="G193" s="53"/>
     </row>
     <row r="194">
-      <c r="F194" s="48"/>
-      <c r="G194" s="48"/>
+      <c r="F194" s="53"/>
+      <c r="G194" s="53"/>
     </row>
     <row r="195">
-      <c r="F195" s="48"/>
-      <c r="G195" s="48"/>
+      <c r="F195" s="53"/>
+      <c r="G195" s="53"/>
     </row>
     <row r="196">
-      <c r="F196" s="48"/>
-      <c r="G196" s="48"/>
+      <c r="F196" s="53"/>
+      <c r="G196" s="53"/>
     </row>
     <row r="197">
-      <c r="F197" s="48"/>
-      <c r="G197" s="48"/>
+      <c r="F197" s="53"/>
+      <c r="G197" s="53"/>
     </row>
     <row r="198">
-      <c r="F198" s="48"/>
-      <c r="G198" s="48"/>
+      <c r="F198" s="53"/>
+      <c r="G198" s="53"/>
     </row>
     <row r="199">
-      <c r="F199" s="48"/>
-      <c r="G199" s="48"/>
+      <c r="F199" s="53"/>
+      <c r="G199" s="53"/>
     </row>
     <row r="200">
-      <c r="F200" s="48"/>
-      <c r="G200" s="48"/>
+      <c r="F200" s="53"/>
+      <c r="G200" s="53"/>
     </row>
     <row r="201">
-      <c r="F201" s="48"/>
-      <c r="G201" s="48"/>
+      <c r="F201" s="53"/>
+      <c r="G201" s="53"/>
     </row>
     <row r="202">
-      <c r="F202" s="48"/>
-      <c r="G202" s="48"/>
+      <c r="F202" s="53"/>
+      <c r="G202" s="53"/>
     </row>
     <row r="203">
-      <c r="F203" s="48"/>
-      <c r="G203" s="48"/>
+      <c r="F203" s="53"/>
+      <c r="G203" s="53"/>
     </row>
     <row r="204">
-      <c r="F204" s="48"/>
-      <c r="G204" s="48"/>
+      <c r="F204" s="53"/>
+      <c r="G204" s="53"/>
     </row>
     <row r="205">
-      <c r="F205" s="48"/>
-      <c r="G205" s="48"/>
+      <c r="F205" s="53"/>
+      <c r="G205" s="53"/>
     </row>
     <row r="206">
-      <c r="F206" s="48"/>
-      <c r="G206" s="48"/>
+      <c r="F206" s="53"/>
+      <c r="G206" s="53"/>
     </row>
     <row r="207">
-      <c r="F207" s="48"/>
-      <c r="G207" s="48"/>
+      <c r="F207" s="53"/>
+      <c r="G207" s="53"/>
     </row>
     <row r="208">
-      <c r="F208" s="48"/>
-      <c r="G208" s="48"/>
+      <c r="F208" s="53"/>
+      <c r="G208" s="53"/>
     </row>
     <row r="209">
-      <c r="F209" s="48"/>
-      <c r="G209" s="48"/>
+      <c r="F209" s="53"/>
+      <c r="G209" s="53"/>
     </row>
     <row r="210">
-      <c r="F210" s="48"/>
-      <c r="G210" s="48"/>
+      <c r="F210" s="53"/>
+      <c r="G210" s="53"/>
     </row>
     <row r="211">
-      <c r="F211" s="48"/>
-      <c r="G211" s="48"/>
+      <c r="F211" s="53"/>
+      <c r="G211" s="53"/>
     </row>
     <row r="212">
-      <c r="F212" s="48"/>
-      <c r="G212" s="48"/>
+      <c r="F212" s="53"/>
+      <c r="G212" s="53"/>
     </row>
     <row r="213">
-      <c r="F213" s="48"/>
-      <c r="G213" s="48"/>
+      <c r="F213" s="53"/>
+      <c r="G213" s="53"/>
     </row>
     <row r="214">
-      <c r="F214" s="48"/>
-      <c r="G214" s="48"/>
+      <c r="F214" s="53"/>
+      <c r="G214" s="53"/>
     </row>
     <row r="215">
-      <c r="F215" s="48"/>
-      <c r="G215" s="48"/>
+      <c r="F215" s="53"/>
+      <c r="G215" s="53"/>
     </row>
     <row r="216">
-      <c r="F216" s="48"/>
-      <c r="G216" s="48"/>
+      <c r="F216" s="53"/>
+      <c r="G216" s="53"/>
     </row>
     <row r="217">
-      <c r="F217" s="48"/>
-      <c r="G217" s="48"/>
+      <c r="F217" s="53"/>
+      <c r="G217" s="53"/>
     </row>
     <row r="218">
-      <c r="F218" s="48"/>
-      <c r="G218" s="48"/>
+      <c r="F218" s="53"/>
+      <c r="G218" s="53"/>
     </row>
     <row r="219">
-      <c r="F219" s="48"/>
-      <c r="G219" s="48"/>
+      <c r="F219" s="53"/>
+      <c r="G219" s="53"/>
     </row>
     <row r="220">
-      <c r="F220" s="48"/>
-      <c r="G220" s="48"/>
+      <c r="F220" s="53"/>
+      <c r="G220" s="53"/>
     </row>
     <row r="221">
-      <c r="F221" s="48"/>
-      <c r="G221" s="48"/>
+      <c r="F221" s="53"/>
+      <c r="G221" s="53"/>
     </row>
     <row r="222">
-      <c r="F222" s="48"/>
-      <c r="G222" s="48"/>
+      <c r="F222" s="53"/>
+      <c r="G222" s="53"/>
     </row>
     <row r="223">
-      <c r="F223" s="48"/>
-      <c r="G223" s="48"/>
+      <c r="F223" s="53"/>
+      <c r="G223" s="53"/>
     </row>
     <row r="224">
-      <c r="F224" s="48"/>
-      <c r="G224" s="48"/>
+      <c r="F224" s="53"/>
+      <c r="G224" s="53"/>
     </row>
     <row r="225">
-      <c r="F225" s="48"/>
-      <c r="G225" s="48"/>
+      <c r="F225" s="53"/>
+      <c r="G225" s="53"/>
     </row>
     <row r="226">
-      <c r="F226" s="48"/>
-      <c r="G226" s="48"/>
+      <c r="F226" s="53"/>
+      <c r="G226" s="53"/>
     </row>
     <row r="227">
-      <c r="F227" s="48"/>
-      <c r="G227" s="48"/>
+      <c r="F227" s="53"/>
+      <c r="G227" s="53"/>
     </row>
     <row r="228">
-      <c r="F228" s="48"/>
-      <c r="G228" s="48"/>
+      <c r="F228" s="53"/>
+      <c r="G228" s="53"/>
     </row>
     <row r="229">
-      <c r="F229" s="48"/>
-      <c r="G229" s="48"/>
+      <c r="F229" s="53"/>
+      <c r="G229" s="53"/>
     </row>
     <row r="230">
-      <c r="F230" s="48"/>
-      <c r="G230" s="48"/>
+      <c r="F230" s="53"/>
+      <c r="G230" s="53"/>
     </row>
     <row r="231">
-      <c r="F231" s="48"/>
-      <c r="G231" s="48"/>
+      <c r="F231" s="53"/>
+      <c r="G231" s="53"/>
     </row>
     <row r="232">
-      <c r="F232" s="48"/>
-      <c r="G232" s="48"/>
+      <c r="F232" s="53"/>
+      <c r="G232" s="53"/>
     </row>
     <row r="233">
-      <c r="F233" s="48"/>
-      <c r="G233" s="48"/>
+      <c r="F233" s="53"/>
+      <c r="G233" s="53"/>
     </row>
     <row r="234">
-      <c r="F234" s="48"/>
-      <c r="G234" s="48"/>
+      <c r="F234" s="53"/>
+      <c r="G234" s="53"/>
     </row>
     <row r="235">
-      <c r="F235" s="48"/>
-      <c r="G235" s="48"/>
+      <c r="F235" s="53"/>
+      <c r="G235" s="53"/>
     </row>
     <row r="236">
-      <c r="F236" s="48"/>
-      <c r="G236" s="48"/>
+      <c r="F236" s="53"/>
+      <c r="G236" s="53"/>
     </row>
     <row r="237">
-      <c r="F237" s="48"/>
-      <c r="G237" s="48"/>
+      <c r="F237" s="53"/>
+      <c r="G237" s="53"/>
     </row>
     <row r="238">
-      <c r="F238" s="48"/>
-      <c r="G238" s="48"/>
+      <c r="F238" s="53"/>
+      <c r="G238" s="53"/>
     </row>
     <row r="239">
-      <c r="F239" s="48"/>
-      <c r="G239" s="48"/>
+      <c r="F239" s="53"/>
+      <c r="G239" s="53"/>
     </row>
     <row r="240">
-      <c r="F240" s="48"/>
-      <c r="G240" s="48"/>
+      <c r="F240" s="53"/>
+      <c r="G240" s="53"/>
     </row>
     <row r="241">
-      <c r="F241" s="48"/>
-      <c r="G241" s="48"/>
+      <c r="F241" s="53"/>
+      <c r="G241" s="53"/>
     </row>
     <row r="242">
-      <c r="F242" s="48"/>
-      <c r="G242" s="48"/>
+      <c r="F242" s="53"/>
+      <c r="G242" s="53"/>
     </row>
     <row r="243">
-      <c r="F243" s="48"/>
-      <c r="G243" s="48"/>
+      <c r="F243" s="53"/>
+      <c r="G243" s="53"/>
     </row>
     <row r="244">
-      <c r="F244" s="48"/>
-      <c r="G244" s="48"/>
+      <c r="F244" s="53"/>
+      <c r="G244" s="53"/>
     </row>
     <row r="245">
-      <c r="F245" s="48"/>
-      <c r="G245" s="48"/>
+      <c r="F245" s="53"/>
+      <c r="G245" s="53"/>
     </row>
     <row r="246">
-      <c r="F246" s="48"/>
-      <c r="G246" s="48"/>
+      <c r="F246" s="53"/>
+      <c r="G246" s="53"/>
     </row>
     <row r="247">
-      <c r="F247" s="48"/>
-      <c r="G247" s="48"/>
+      <c r="F247" s="53"/>
+      <c r="G247" s="53"/>
     </row>
     <row r="248">
-      <c r="F248" s="48"/>
-      <c r="G248" s="48"/>
+      <c r="F248" s="53"/>
+      <c r="G248" s="53"/>
     </row>
     <row r="249">
-      <c r="F249" s="48"/>
-      <c r="G249" s="48"/>
+      <c r="F249" s="53"/>
+      <c r="G249" s="53"/>
     </row>
     <row r="250">
-      <c r="F250" s="48"/>
-      <c r="G250" s="48"/>
+      <c r="F250" s="53"/>
+      <c r="G250" s="53"/>
     </row>
     <row r="251">
-      <c r="F251" s="48"/>
-      <c r="G251" s="48"/>
+      <c r="F251" s="53"/>
+      <c r="G251" s="53"/>
     </row>
     <row r="252">
-      <c r="F252" s="48"/>
-      <c r="G252" s="48"/>
+      <c r="F252" s="53"/>
+      <c r="G252" s="53"/>
     </row>
     <row r="253">
-      <c r="F253" s="48"/>
-      <c r="G253" s="48"/>
+      <c r="F253" s="53"/>
+      <c r="G253" s="53"/>
     </row>
     <row r="254">
-      <c r="F254" s="48"/>
-      <c r="G254" s="48"/>
+      <c r="F254" s="53"/>
+      <c r="G254" s="53"/>
     </row>
     <row r="255">
-      <c r="F255" s="48"/>
-      <c r="G255" s="48"/>
+      <c r="F255" s="53"/>
+      <c r="G255" s="53"/>
     </row>
     <row r="256">
-      <c r="F256" s="48"/>
-      <c r="G256" s="48"/>
+      <c r="F256" s="53"/>
+      <c r="G256" s="53"/>
     </row>
     <row r="257">
-      <c r="F257" s="48"/>
-      <c r="G257" s="48"/>
+      <c r="F257" s="53"/>
+      <c r="G257" s="53"/>
     </row>
     <row r="258">
-      <c r="F258" s="48"/>
-      <c r="G258" s="48"/>
+      <c r="F258" s="53"/>
+      <c r="G258" s="53"/>
     </row>
     <row r="259">
-      <c r="F259" s="48"/>
-      <c r="G259" s="48"/>
+      <c r="F259" s="53"/>
+      <c r="G259" s="53"/>
     </row>
     <row r="260">
-      <c r="F260" s="48"/>
-      <c r="G260" s="48"/>
+      <c r="F260" s="53"/>
+      <c r="G260" s="53"/>
     </row>
     <row r="261">
-      <c r="F261" s="48"/>
-      <c r="G261" s="48"/>
+      <c r="F261" s="53"/>
+      <c r="G261" s="53"/>
     </row>
     <row r="262">
-      <c r="F262" s="48"/>
-      <c r="G262" s="48"/>
+      <c r="F262" s="53"/>
+      <c r="G262" s="53"/>
     </row>
     <row r="263">
-      <c r="F263" s="48"/>
-      <c r="G263" s="48"/>
+      <c r="F263" s="53"/>
+      <c r="G263" s="53"/>
     </row>
     <row r="264">
-      <c r="F264" s="48"/>
-      <c r="G264" s="48"/>
+      <c r="F264" s="53"/>
+      <c r="G264" s="53"/>
     </row>
     <row r="265">
-      <c r="F265" s="48"/>
-      <c r="G265" s="48"/>
+      <c r="F265" s="53"/>
+      <c r="G265" s="53"/>
     </row>
     <row r="266">
-      <c r="F266" s="48"/>
-      <c r="G266" s="48"/>
+      <c r="F266" s="53"/>
+      <c r="G266" s="53"/>
     </row>
     <row r="267">
-      <c r="F267" s="48"/>
-      <c r="G267" s="48"/>
+      <c r="F267" s="53"/>
+      <c r="G267" s="53"/>
     </row>
     <row r="268">
-      <c r="F268" s="48"/>
-      <c r="G268" s="48"/>
+      <c r="F268" s="53"/>
+      <c r="G268" s="53"/>
     </row>
     <row r="269">
-      <c r="F269" s="48"/>
-      <c r="G269" s="48"/>
+      <c r="F269" s="53"/>
+      <c r="G269" s="53"/>
     </row>
     <row r="270">
-      <c r="F270" s="48"/>
-      <c r="G270" s="48"/>
+      <c r="F270" s="53"/>
+      <c r="G270" s="53"/>
     </row>
     <row r="271">
-      <c r="F271" s="48"/>
-      <c r="G271" s="48"/>
+      <c r="F271" s="53"/>
+      <c r="G271" s="53"/>
     </row>
     <row r="272">
-      <c r="F272" s="48"/>
-      <c r="G272" s="48"/>
+      <c r="F272" s="53"/>
+      <c r="G272" s="53"/>
     </row>
     <row r="273">
-      <c r="F273" s="48"/>
-      <c r="G273" s="48"/>
+      <c r="F273" s="53"/>
+      <c r="G273" s="53"/>
     </row>
     <row r="274">
-      <c r="F274" s="48"/>
-      <c r="G274" s="48"/>
+      <c r="F274" s="53"/>
+      <c r="G274" s="53"/>
     </row>
     <row r="275">
-      <c r="F275" s="48"/>
-      <c r="G275" s="48"/>
+      <c r="F275" s="53"/>
+      <c r="G275" s="53"/>
     </row>
     <row r="276">
-      <c r="F276" s="48"/>
-      <c r="G276" s="48"/>
+      <c r="F276" s="53"/>
+      <c r="G276" s="53"/>
     </row>
     <row r="277">
-      <c r="F277" s="48"/>
-      <c r="G277" s="48"/>
+      <c r="F277" s="53"/>
+      <c r="G277" s="53"/>
     </row>
     <row r="278">
-      <c r="F278" s="48"/>
-      <c r="G278" s="48"/>
+      <c r="F278" s="53"/>
+      <c r="G278" s="53"/>
     </row>
     <row r="279">
-      <c r="F279" s="48"/>
-      <c r="G279" s="48"/>
+      <c r="F279" s="53"/>
+      <c r="G279" s="53"/>
     </row>
     <row r="280">
-      <c r="F280" s="48"/>
-      <c r="G280" s="48"/>
+      <c r="F280" s="53"/>
+      <c r="G280" s="53"/>
     </row>
     <row r="281">
-      <c r="F281" s="48"/>
-      <c r="G281" s="48"/>
+      <c r="F281" s="53"/>
+      <c r="G281" s="53"/>
     </row>
     <row r="282">
-      <c r="F282" s="48"/>
-      <c r="G282" s="48"/>
+      <c r="F282" s="53"/>
+      <c r="G282" s="53"/>
     </row>
     <row r="283">
-      <c r="F283" s="48"/>
-      <c r="G283" s="48"/>
+      <c r="F283" s="53"/>
+      <c r="G283" s="53"/>
     </row>
     <row r="284">
-      <c r="F284" s="48"/>
-      <c r="G284" s="48"/>
+      <c r="F284" s="53"/>
+      <c r="G284" s="53"/>
     </row>
     <row r="285">
-      <c r="F285" s="48"/>
-      <c r="G285" s="48"/>
+      <c r="F285" s="53"/>
+      <c r="G285" s="53"/>
     </row>
     <row r="286">
-      <c r="F286" s="48"/>
-      <c r="G286" s="48"/>
+      <c r="F286" s="53"/>
+      <c r="G286" s="53"/>
     </row>
     <row r="287">
-      <c r="F287" s="48"/>
-      <c r="G287" s="48"/>
+      <c r="F287" s="53"/>
+      <c r="G287" s="53"/>
     </row>
     <row r="288">
-      <c r="F288" s="48"/>
-      <c r="G288" s="48"/>
+      <c r="F288" s="53"/>
+      <c r="G288" s="53"/>
     </row>
     <row r="289">
-      <c r="F289" s="48"/>
-      <c r="G289" s="48"/>
+      <c r="F289" s="53"/>
+      <c r="G289" s="53"/>
     </row>
     <row r="290">
-      <c r="F290" s="48"/>
-      <c r="G290" s="48"/>
+      <c r="F290" s="53"/>
+      <c r="G290" s="53"/>
     </row>
     <row r="291">
-      <c r="F291" s="48"/>
-      <c r="G291" s="48"/>
+      <c r="F291" s="53"/>
+      <c r="G291" s="53"/>
     </row>
     <row r="292">
-      <c r="F292" s="48"/>
-      <c r="G292" s="48"/>
+      <c r="F292" s="53"/>
+      <c r="G292" s="53"/>
     </row>
     <row r="293">
-      <c r="F293" s="48"/>
-      <c r="G293" s="48"/>
+      <c r="F293" s="53"/>
+      <c r="G293" s="53"/>
     </row>
     <row r="294">
-      <c r="F294" s="48"/>
-      <c r="G294" s="48"/>
+      <c r="F294" s="53"/>
+      <c r="G294" s="53"/>
     </row>
     <row r="295">
-      <c r="F295" s="48"/>
-      <c r="G295" s="48"/>
+      <c r="F295" s="53"/>
+      <c r="G295" s="53"/>
     </row>
     <row r="296">
-      <c r="F296" s="48"/>
-      <c r="G296" s="48"/>
+      <c r="F296" s="53"/>
+      <c r="G296" s="53"/>
     </row>
     <row r="297">
-      <c r="F297" s="48"/>
-      <c r="G297" s="48"/>
+      <c r="F297" s="53"/>
+      <c r="G297" s="53"/>
     </row>
     <row r="298">
-      <c r="F298" s="48"/>
-      <c r="G298" s="48"/>
+      <c r="F298" s="53"/>
+      <c r="G298" s="53"/>
     </row>
     <row r="299">
-      <c r="F299" s="48"/>
-      <c r="G299" s="48"/>
+      <c r="F299" s="53"/>
+      <c r="G299" s="53"/>
     </row>
     <row r="300">
-      <c r="F300" s="48"/>
-      <c r="G300" s="48"/>
+      <c r="F300" s="53"/>
+      <c r="G300" s="53"/>
     </row>
     <row r="301">
-      <c r="F301" s="48"/>
-      <c r="G301" s="48"/>
+      <c r="F301" s="53"/>
+      <c r="G301" s="53"/>
     </row>
     <row r="302">
-      <c r="F302" s="48"/>
-      <c r="G302" s="48"/>
+      <c r="F302" s="53"/>
+      <c r="G302" s="53"/>
     </row>
     <row r="303">
-      <c r="F303" s="48"/>
-      <c r="G303" s="48"/>
+      <c r="F303" s="53"/>
+      <c r="G303" s="53"/>
     </row>
     <row r="304">
-      <c r="F304" s="48"/>
-      <c r="G304" s="48"/>
+      <c r="F304" s="53"/>
+      <c r="G304" s="53"/>
     </row>
     <row r="305">
-      <c r="F305" s="48"/>
-      <c r="G305" s="48"/>
+      <c r="F305" s="53"/>
+      <c r="G305" s="53"/>
     </row>
     <row r="306">
-      <c r="F306" s="48"/>
-      <c r="G306" s="48"/>
+      <c r="F306" s="53"/>
+      <c r="G306" s="53"/>
     </row>
     <row r="307">
-      <c r="F307" s="48"/>
-      <c r="G307" s="48"/>
+      <c r="F307" s="53"/>
+      <c r="G307" s="53"/>
     </row>
     <row r="308">
-      <c r="F308" s="48"/>
-      <c r="G308" s="48"/>
+      <c r="F308" s="53"/>
+      <c r="G308" s="53"/>
     </row>
     <row r="309">
-      <c r="F309" s="48"/>
-      <c r="G309" s="48"/>
+      <c r="F309" s="53"/>
+      <c r="G309" s="53"/>
     </row>
     <row r="310">
-      <c r="F310" s="48"/>
-      <c r="G310" s="48"/>
+      <c r="F310" s="53"/>
+      <c r="G310" s="53"/>
     </row>
     <row r="311">
-      <c r="F311" s="48"/>
-      <c r="G311" s="48"/>
+      <c r="F311" s="53"/>
+      <c r="G311" s="53"/>
     </row>
     <row r="312">
-      <c r="F312" s="48"/>
-      <c r="G312" s="48"/>
+      <c r="F312" s="53"/>
+      <c r="G312" s="53"/>
     </row>
     <row r="313">
-      <c r="F313" s="48"/>
-      <c r="G313" s="48"/>
+      <c r="F313" s="53"/>
+      <c r="G313" s="53"/>
     </row>
     <row r="314">
-      <c r="F314" s="48"/>
-      <c r="G314" s="48"/>
+      <c r="F314" s="53"/>
+      <c r="G314" s="53"/>
     </row>
     <row r="315">
-      <c r="F315" s="48"/>
-      <c r="G315" s="48"/>
+      <c r="F315" s="53"/>
+      <c r="G315" s="53"/>
     </row>
     <row r="316">
-      <c r="F316" s="48"/>
-      <c r="G316" s="48"/>
+      <c r="F316" s="53"/>
+      <c r="G316" s="53"/>
     </row>
     <row r="317">
-      <c r="F317" s="48"/>
-      <c r="G317" s="48"/>
+      <c r="F317" s="53"/>
+      <c r="G317" s="53"/>
     </row>
     <row r="318">
-      <c r="F318" s="48"/>
-      <c r="G318" s="48"/>
+      <c r="F318" s="53"/>
+      <c r="G318" s="53"/>
     </row>
     <row r="319">
-      <c r="F319" s="48"/>
-      <c r="G319" s="48"/>
+      <c r="F319" s="53"/>
+      <c r="G319" s="53"/>
     </row>
     <row r="320">
-      <c r="F320" s="48"/>
-      <c r="G320" s="48"/>
+      <c r="F320" s="53"/>
+      <c r="G320" s="53"/>
     </row>
     <row r="321">
-      <c r="F321" s="48"/>
-      <c r="G321" s="48"/>
+      <c r="F321" s="53"/>
+      <c r="G321" s="53"/>
     </row>
     <row r="322">
-      <c r="F322" s="48"/>
-      <c r="G322" s="48"/>
+      <c r="F322" s="53"/>
+      <c r="G322" s="53"/>
     </row>
     <row r="323">
-      <c r="F323" s="48"/>
-      <c r="G323" s="48"/>
+      <c r="F323" s="53"/>
+      <c r="G323" s="53"/>
     </row>
     <row r="324">
-      <c r="F324" s="48"/>
-      <c r="G324" s="48"/>
+      <c r="F324" s="53"/>
+      <c r="G324" s="53"/>
     </row>
     <row r="325">
-      <c r="F325" s="48"/>
-      <c r="G325" s="48"/>
+      <c r="F325" s="53"/>
+      <c r="G325" s="53"/>
     </row>
     <row r="326">
-      <c r="F326" s="48"/>
-      <c r="G326" s="48"/>
+      <c r="F326" s="53"/>
+      <c r="G326" s="53"/>
     </row>
     <row r="327">
-      <c r="F327" s="48"/>
-      <c r="G327" s="48"/>
+      <c r="F327" s="53"/>
+      <c r="G327" s="53"/>
     </row>
     <row r="328">
-      <c r="F328" s="48"/>
-      <c r="G328" s="48"/>
+      <c r="F328" s="53"/>
+      <c r="G328" s="53"/>
     </row>
     <row r="329">
-      <c r="F329" s="48"/>
-      <c r="G329" s="48"/>
+      <c r="F329" s="53"/>
+      <c r="G329" s="53"/>
     </row>
     <row r="330">
-      <c r="F330" s="48"/>
-      <c r="G330" s="48"/>
+      <c r="F330" s="53"/>
+      <c r="G330" s="53"/>
     </row>
     <row r="331">
-      <c r="F331" s="48"/>
-      <c r="G331" s="48"/>
+      <c r="F331" s="53"/>
+      <c r="G331" s="53"/>
     </row>
     <row r="332">
-      <c r="F332" s="48"/>
-      <c r="G332" s="48"/>
+      <c r="F332" s="53"/>
+      <c r="G332" s="53"/>
     </row>
     <row r="333">
-      <c r="F333" s="48"/>
-      <c r="G333" s="48"/>
+      <c r="F333" s="53"/>
+      <c r="G333" s="53"/>
     </row>
     <row r="334">
-      <c r="F334" s="48"/>
-      <c r="G334" s="48"/>
+      <c r="F334" s="53"/>
+      <c r="G334" s="53"/>
     </row>
     <row r="335">
-      <c r="F335" s="48"/>
-      <c r="G335" s="48"/>
+      <c r="F335" s="53"/>
+      <c r="G335" s="53"/>
     </row>
     <row r="336">
-      <c r="F336" s="48"/>
-      <c r="G336" s="48"/>
+      <c r="F336" s="53"/>
+      <c r="G336" s="53"/>
     </row>
     <row r="337">
-      <c r="F337" s="48"/>
-      <c r="G337" s="48"/>
+      <c r="F337" s="53"/>
+      <c r="G337" s="53"/>
     </row>
     <row r="338">
-      <c r="F338" s="48"/>
-      <c r="G338" s="48"/>
+      <c r="F338" s="53"/>
+      <c r="G338" s="53"/>
     </row>
     <row r="339">
-      <c r="F339" s="48"/>
-      <c r="G339" s="48"/>
+      <c r="F339" s="53"/>
+      <c r="G339" s="53"/>
     </row>
     <row r="340">
-      <c r="F340" s="48"/>
-      <c r="G340" s="48"/>
+      <c r="F340" s="53"/>
+      <c r="G340" s="53"/>
     </row>
     <row r="341">
-      <c r="F341" s="48"/>
-      <c r="G341" s="48"/>
+      <c r="F341" s="53"/>
+      <c r="G341" s="53"/>
     </row>
     <row r="342">
-      <c r="F342" s="48"/>
-      <c r="G342" s="48"/>
+      <c r="F342" s="53"/>
+      <c r="G342" s="53"/>
     </row>
     <row r="343">
-      <c r="F343" s="48"/>
-      <c r="G343" s="48"/>
+      <c r="F343" s="53"/>
+      <c r="G343" s="53"/>
     </row>
     <row r="344">
-      <c r="F344" s="48"/>
-      <c r="G344" s="48"/>
+      <c r="F344" s="53"/>
+      <c r="G344" s="53"/>
     </row>
     <row r="345">
-      <c r="F345" s="48"/>
-      <c r="G345" s="48"/>
+      <c r="F345" s="53"/>
+      <c r="G345" s="53"/>
     </row>
     <row r="346">
-      <c r="F346" s="48"/>
-      <c r="G346" s="48"/>
+      <c r="F346" s="53"/>
+      <c r="G346" s="53"/>
     </row>
     <row r="347">
-      <c r="F347" s="48"/>
-      <c r="G347" s="48"/>
+      <c r="F347" s="53"/>
+      <c r="G347" s="53"/>
     </row>
     <row r="348">
-      <c r="F348" s="48"/>
-      <c r="G348" s="48"/>
+      <c r="F348" s="53"/>
+      <c r="G348" s="53"/>
     </row>
     <row r="349">
-      <c r="F349" s="48"/>
-      <c r="G349" s="48"/>
+      <c r="F349" s="53"/>
+      <c r="G349" s="53"/>
     </row>
     <row r="350">
-      <c r="F350" s="48"/>
-      <c r="G350" s="48"/>
+      <c r="F350" s="53"/>
+      <c r="G350" s="53"/>
     </row>
     <row r="351">
-      <c r="F351" s="48"/>
-      <c r="G351" s="48"/>
+      <c r="F351" s="53"/>
+      <c r="G351" s="53"/>
     </row>
     <row r="352">
-      <c r="F352" s="48"/>
-      <c r="G352" s="48"/>
+      <c r="F352" s="53"/>
+      <c r="G352" s="53"/>
     </row>
     <row r="353">
-      <c r="F353" s="48"/>
-      <c r="G353" s="48"/>
+      <c r="F353" s="53"/>
+      <c r="G353" s="53"/>
     </row>
     <row r="354">
-      <c r="F354" s="48"/>
-      <c r="G354" s="48"/>
+      <c r="F354" s="53"/>
+      <c r="G354" s="53"/>
     </row>
     <row r="355">
-      <c r="F355" s="48"/>
-      <c r="G355" s="48"/>
+      <c r="F355" s="53"/>
+      <c r="G355" s="53"/>
     </row>
     <row r="356">
-      <c r="F356" s="48"/>
-      <c r="G356" s="48"/>
+      <c r="F356" s="53"/>
+      <c r="G356" s="53"/>
     </row>
     <row r="357">
-      <c r="F357" s="48"/>
-      <c r="G357" s="48"/>
+      <c r="F357" s="53"/>
+      <c r="G357" s="53"/>
     </row>
     <row r="358">
-      <c r="F358" s="48"/>
-      <c r="G358" s="48"/>
+      <c r="F358" s="53"/>
+      <c r="G358" s="53"/>
     </row>
     <row r="359">
-      <c r="F359" s="48"/>
-      <c r="G359" s="48"/>
+      <c r="F359" s="53"/>
+      <c r="G359" s="53"/>
     </row>
     <row r="360">
-      <c r="F360" s="48"/>
-      <c r="G360" s="48"/>
+      <c r="F360" s="53"/>
+      <c r="G360" s="53"/>
     </row>
     <row r="361">
-      <c r="F361" s="48"/>
-      <c r="G361" s="48"/>
+      <c r="F361" s="53"/>
+      <c r="G361" s="53"/>
     </row>
     <row r="362">
-      <c r="F362" s="48"/>
-      <c r="G362" s="48"/>
+      <c r="F362" s="53"/>
+      <c r="G362" s="53"/>
     </row>
     <row r="363">
-      <c r="F363" s="48"/>
-      <c r="G363" s="48"/>
+      <c r="F363" s="53"/>
+      <c r="G363" s="53"/>
     </row>
     <row r="364">
-      <c r="F364" s="48"/>
-      <c r="G364" s="48"/>
+      <c r="F364" s="53"/>
+      <c r="G364" s="53"/>
     </row>
     <row r="365">
-      <c r="F365" s="48"/>
-      <c r="G365" s="48"/>
+      <c r="F365" s="53"/>
+      <c r="G365" s="53"/>
     </row>
     <row r="366">
-      <c r="F366" s="48"/>
-      <c r="G366" s="48"/>
+      <c r="F366" s="53"/>
+      <c r="G366" s="53"/>
     </row>
     <row r="367">
-      <c r="F367" s="48"/>
-      <c r="G367" s="48"/>
+      <c r="F367" s="53"/>
+      <c r="G367" s="53"/>
     </row>
     <row r="368">
-      <c r="F368" s="48"/>
-      <c r="G368" s="48"/>
+      <c r="F368" s="53"/>
+      <c r="G368" s="53"/>
     </row>
     <row r="369">
-      <c r="F369" s="48"/>
-      <c r="G369" s="48"/>
+      <c r="F369" s="53"/>
+      <c r="G369" s="53"/>
     </row>
     <row r="370">
-      <c r="F370" s="48"/>
-      <c r="G370" s="48"/>
+      <c r="F370" s="53"/>
+      <c r="G370" s="53"/>
     </row>
     <row r="371">
-      <c r="F371" s="48"/>
-      <c r="G371" s="48"/>
+      <c r="F371" s="53"/>
+      <c r="G371" s="53"/>
     </row>
     <row r="372">
-      <c r="F372" s="48"/>
-      <c r="G372" s="48"/>
+      <c r="F372" s="53"/>
+      <c r="G372" s="53"/>
     </row>
     <row r="373">
-      <c r="F373" s="48"/>
-      <c r="G373" s="48"/>
+      <c r="F373" s="53"/>
+      <c r="G373" s="53"/>
     </row>
     <row r="374">
-      <c r="F374" s="48"/>
-      <c r="G374" s="48"/>
+      <c r="F374" s="53"/>
+      <c r="G374" s="53"/>
     </row>
     <row r="375">
-      <c r="F375" s="48"/>
-      <c r="G375" s="48"/>
+      <c r="F375" s="53"/>
+      <c r="G375" s="53"/>
     </row>
     <row r="376">
-      <c r="F376" s="48"/>
-      <c r="G376" s="48"/>
+      <c r="F376" s="53"/>
+      <c r="G376" s="53"/>
     </row>
     <row r="377">
-      <c r="F377" s="48"/>
-      <c r="G377" s="48"/>
+      <c r="F377" s="53"/>
+      <c r="G377" s="53"/>
     </row>
     <row r="378">
-      <c r="F378" s="48"/>
-      <c r="G378" s="48"/>
+      <c r="F378" s="53"/>
+      <c r="G378" s="53"/>
     </row>
     <row r="379">
-      <c r="F379" s="48"/>
-      <c r="G379" s="48"/>
+      <c r="F379" s="53"/>
+      <c r="G379" s="53"/>
     </row>
     <row r="380">
-      <c r="F380" s="48"/>
-      <c r="G380" s="48"/>
+      <c r="F380" s="53"/>
+      <c r="G380" s="53"/>
     </row>
     <row r="381">
-      <c r="F381" s="48"/>
-      <c r="G381" s="48"/>
+      <c r="F381" s="53"/>
+      <c r="G381" s="53"/>
     </row>
     <row r="382">
-      <c r="F382" s="48"/>
-      <c r="G382" s="48"/>
+      <c r="F382" s="53"/>
+      <c r="G382" s="53"/>
     </row>
     <row r="383">
-      <c r="F383" s="48"/>
-      <c r="G383" s="48"/>
+      <c r="F383" s="53"/>
+      <c r="G383" s="53"/>
     </row>
     <row r="384">
-      <c r="F384" s="48"/>
-      <c r="G384" s="48"/>
+      <c r="F384" s="53"/>
+      <c r="G384" s="53"/>
     </row>
     <row r="385">
-      <c r="F385" s="48"/>
-      <c r="G385" s="48"/>
+      <c r="F385" s="53"/>
+      <c r="G385" s="53"/>
     </row>
     <row r="386">
-      <c r="F386" s="48"/>
-      <c r="G386" s="48"/>
+      <c r="F386" s="53"/>
+      <c r="G386" s="53"/>
     </row>
     <row r="387">
-      <c r="F387" s="48"/>
-      <c r="G387" s="48"/>
+      <c r="F387" s="53"/>
+      <c r="G387" s="53"/>
     </row>
     <row r="388">
-      <c r="F388" s="48"/>
-      <c r="G388" s="48"/>
+      <c r="F388" s="53"/>
+      <c r="G388" s="53"/>
     </row>
     <row r="389">
-      <c r="F389" s="48"/>
-      <c r="G389" s="48"/>
+      <c r="F389" s="53"/>
+      <c r="G389" s="53"/>
     </row>
     <row r="390">
-      <c r="F390" s="48"/>
-      <c r="G390" s="48"/>
+      <c r="F390" s="53"/>
+      <c r="G390" s="53"/>
     </row>
     <row r="391">
-      <c r="F391" s="48"/>
-      <c r="G391" s="48"/>
+      <c r="F391" s="53"/>
+      <c r="G391" s="53"/>
     </row>
     <row r="392">
-      <c r="F392" s="48"/>
-      <c r="G392" s="48"/>
+      <c r="F392" s="53"/>
+      <c r="G392" s="53"/>
     </row>
     <row r="393">
-      <c r="F393" s="48"/>
-      <c r="G393" s="48"/>
+      <c r="F393" s="53"/>
+      <c r="G393" s="53"/>
     </row>
     <row r="394">
-      <c r="F394" s="48"/>
-      <c r="G394" s="48"/>
+      <c r="F394" s="53"/>
+      <c r="G394" s="53"/>
     </row>
     <row r="395">
-      <c r="F395" s="48"/>
-      <c r="G395" s="48"/>
+      <c r="F395" s="53"/>
+      <c r="G395" s="53"/>
     </row>
     <row r="396">
-      <c r="F396" s="48"/>
-      <c r="G396" s="48"/>
+      <c r="F396" s="53"/>
+      <c r="G396" s="53"/>
     </row>
     <row r="397">
-      <c r="F397" s="48"/>
-      <c r="G397" s="48"/>
+      <c r="F397" s="53"/>
+      <c r="G397" s="53"/>
     </row>
     <row r="398">
-      <c r="F398" s="48"/>
-      <c r="G398" s="48"/>
+      <c r="F398" s="53"/>
+      <c r="G398" s="53"/>
     </row>
     <row r="399">
-      <c r="F399" s="48"/>
-      <c r="G399" s="48"/>
+      <c r="F399" s="53"/>
+      <c r="G399" s="53"/>
     </row>
     <row r="400">
-      <c r="F400" s="48"/>
-      <c r="G400" s="48"/>
+      <c r="F400" s="53"/>
+      <c r="G400" s="53"/>
     </row>
     <row r="401">
-      <c r="F401" s="48"/>
-      <c r="G401" s="48"/>
+      <c r="F401" s="53"/>
+      <c r="G401" s="53"/>
     </row>
     <row r="402">
-      <c r="F402" s="48"/>
-      <c r="G402" s="48"/>
+      <c r="F402" s="53"/>
+      <c r="G402" s="53"/>
     </row>
     <row r="403">
-      <c r="F403" s="48"/>
-      <c r="G403" s="48"/>
+      <c r="F403" s="53"/>
+      <c r="G403" s="53"/>
     </row>
     <row r="404">
-      <c r="F404" s="48"/>
-      <c r="G404" s="48"/>
+      <c r="F404" s="53"/>
+      <c r="G404" s="53"/>
     </row>
     <row r="405">
-      <c r="F405" s="48"/>
-      <c r="G405" s="48"/>
+      <c r="F405" s="53"/>
+      <c r="G405" s="53"/>
     </row>
     <row r="406">
-      <c r="F406" s="48"/>
-      <c r="G406" s="48"/>
+      <c r="F406" s="53"/>
+      <c r="G406" s="53"/>
     </row>
     <row r="407">
-      <c r="F407" s="48"/>
-      <c r="G407" s="48"/>
+      <c r="F407" s="53"/>
+      <c r="G407" s="53"/>
     </row>
     <row r="408">
-      <c r="F408" s="48"/>
-      <c r="G408" s="48"/>
+      <c r="F408" s="53"/>
+      <c r="G408" s="53"/>
     </row>
     <row r="409">
-      <c r="F409" s="48"/>
-      <c r="G409" s="48"/>
+      <c r="F409" s="53"/>
+      <c r="G409" s="53"/>
     </row>
     <row r="410">
-      <c r="F410" s="48"/>
-      <c r="G410" s="48"/>
+      <c r="F410" s="53"/>
+      <c r="G410" s="53"/>
     </row>
     <row r="411">
-      <c r="F411" s="48"/>
-      <c r="G411" s="48"/>
+      <c r="F411" s="53"/>
+      <c r="G411" s="53"/>
     </row>
     <row r="412">
-      <c r="F412" s="48"/>
-      <c r="G412" s="48"/>
+      <c r="F412" s="53"/>
+      <c r="G412" s="53"/>
     </row>
     <row r="413">
-      <c r="F413" s="48"/>
-      <c r="G413" s="48"/>
+      <c r="F413" s="53"/>
+      <c r="G413" s="53"/>
     </row>
     <row r="414">
-      <c r="F414" s="48"/>
-      <c r="G414" s="48"/>
+      <c r="F414" s="53"/>
+      <c r="G414" s="53"/>
     </row>
     <row r="415">
-      <c r="F415" s="48"/>
-      <c r="G415" s="48"/>
+      <c r="F415" s="53"/>
+      <c r="G415" s="53"/>
     </row>
     <row r="416">
-      <c r="F416" s="48"/>
-      <c r="G416" s="48"/>
+      <c r="F416" s="53"/>
+      <c r="G416" s="53"/>
     </row>
     <row r="417">
-      <c r="F417" s="48"/>
-      <c r="G417" s="48"/>
+      <c r="F417" s="53"/>
+      <c r="G417" s="53"/>
     </row>
     <row r="418">
-      <c r="F418" s="48"/>
-      <c r="G418" s="48"/>
+      <c r="F418" s="53"/>
+      <c r="G418" s="53"/>
     </row>
     <row r="419">
-      <c r="F419" s="48"/>
-      <c r="G419" s="48"/>
+      <c r="F419" s="53"/>
+      <c r="G419" s="53"/>
     </row>
     <row r="420">
-      <c r="F420" s="48"/>
-      <c r="G420" s="48"/>
+      <c r="F420" s="53"/>
+      <c r="G420" s="53"/>
     </row>
     <row r="421">
-      <c r="F421" s="48"/>
-      <c r="G421" s="48"/>
+      <c r="F421" s="53"/>
+      <c r="G421" s="53"/>
     </row>
     <row r="422">
-      <c r="F422" s="48"/>
-      <c r="G422" s="48"/>
+      <c r="F422" s="53"/>
+      <c r="G422" s="53"/>
     </row>
     <row r="423">
-      <c r="F423" s="48"/>
-      <c r="G423" s="48"/>
+      <c r="F423" s="53"/>
+      <c r="G423" s="53"/>
     </row>
     <row r="424">
-      <c r="F424" s="48"/>
-      <c r="G424" s="48"/>
+      <c r="F424" s="53"/>
+      <c r="G424" s="53"/>
     </row>
     <row r="425">
-      <c r="F425" s="48"/>
-      <c r="G425" s="48"/>
+      <c r="F425" s="53"/>
+      <c r="G425" s="53"/>
     </row>
     <row r="426">
-      <c r="F426" s="48"/>
-      <c r="G426" s="48"/>
+      <c r="F426" s="53"/>
+      <c r="G426" s="53"/>
     </row>
     <row r="427">
-      <c r="F427" s="48"/>
-      <c r="G427" s="48"/>
+      <c r="F427" s="53"/>
+      <c r="G427" s="53"/>
     </row>
     <row r="428">
-      <c r="F428" s="48"/>
-      <c r="G428" s="48"/>
+      <c r="F428" s="53"/>
+      <c r="G428" s="53"/>
     </row>
     <row r="429">
-      <c r="F429" s="48"/>
-      <c r="G429" s="48"/>
+      <c r="F429" s="53"/>
+      <c r="G429" s="53"/>
     </row>
     <row r="430">
-      <c r="F430" s="48"/>
-      <c r="G430" s="48"/>
+      <c r="F430" s="53"/>
+      <c r="G430" s="53"/>
     </row>
     <row r="431">
-      <c r="F431" s="48"/>
-      <c r="G431" s="48"/>
+      <c r="F431" s="53"/>
+      <c r="G431" s="53"/>
     </row>
     <row r="432">
-      <c r="F432" s="48"/>
-      <c r="G432" s="48"/>
+      <c r="F432" s="53"/>
+      <c r="G432" s="53"/>
     </row>
     <row r="433">
-      <c r="F433" s="48"/>
-      <c r="G433" s="48"/>
+      <c r="F433" s="53"/>
+      <c r="G433" s="53"/>
     </row>
     <row r="434">
-      <c r="F434" s="48"/>
-      <c r="G434" s="48"/>
+      <c r="F434" s="53"/>
+      <c r="G434" s="53"/>
     </row>
     <row r="435">
-      <c r="F435" s="48"/>
-      <c r="G435" s="48"/>
+      <c r="F435" s="53"/>
+      <c r="G435" s="53"/>
     </row>
     <row r="436">
-      <c r="F436" s="48"/>
-      <c r="G436" s="48"/>
+      <c r="F436" s="53"/>
+      <c r="G436" s="53"/>
     </row>
     <row r="437">
-      <c r="F437" s="48"/>
-      <c r="G437" s="48"/>
+      <c r="F437" s="53"/>
+      <c r="G437" s="53"/>
     </row>
     <row r="438">
-      <c r="F438" s="48"/>
-      <c r="G438" s="48"/>
+      <c r="F438" s="53"/>
+      <c r="G438" s="53"/>
     </row>
     <row r="439">
-      <c r="F439" s="48"/>
-      <c r="G439" s="48"/>
+      <c r="F439" s="53"/>
+      <c r="G439" s="53"/>
     </row>
     <row r="440">
-      <c r="F440" s="48"/>
-      <c r="G440" s="48"/>
+      <c r="F440" s="53"/>
+      <c r="G440" s="53"/>
     </row>
     <row r="441">
-      <c r="F441" s="48"/>
-      <c r="G441" s="48"/>
+      <c r="F441" s="53"/>
+      <c r="G441" s="53"/>
     </row>
     <row r="442">
-      <c r="F442" s="48"/>
-      <c r="G442" s="48"/>
+      <c r="F442" s="53"/>
+      <c r="G442" s="53"/>
     </row>
     <row r="443">
-      <c r="F443" s="48"/>
-      <c r="G443" s="48"/>
+      <c r="F443" s="53"/>
+      <c r="G443" s="53"/>
     </row>
     <row r="444">
-      <c r="F444" s="48"/>
-      <c r="G444" s="48"/>
+      <c r="F444" s="53"/>
+      <c r="G444" s="53"/>
     </row>
     <row r="445">
-      <c r="F445" s="48"/>
-      <c r="G445" s="48"/>
+      <c r="F445" s="53"/>
+      <c r="G445" s="53"/>
     </row>
     <row r="446">
-      <c r="F446" s="48"/>
-      <c r="G446" s="48"/>
+      <c r="F446" s="53"/>
+      <c r="G446" s="53"/>
     </row>
     <row r="447">
-      <c r="F447" s="48"/>
-      <c r="G447" s="48"/>
+      <c r="F447" s="53"/>
+      <c r="G447" s="53"/>
     </row>
     <row r="448">
-      <c r="F448" s="48"/>
-      <c r="G448" s="48"/>
+      <c r="F448" s="53"/>
+      <c r="G448" s="53"/>
     </row>
     <row r="449">
-      <c r="F449" s="48"/>
-      <c r="G449" s="48"/>
+      <c r="F449" s="53"/>
+      <c r="G449" s="53"/>
     </row>
     <row r="450">
-      <c r="F450" s="48"/>
-      <c r="G450" s="48"/>
+      <c r="F450" s="53"/>
+      <c r="G450" s="53"/>
     </row>
     <row r="451">
-      <c r="F451" s="48"/>
-      <c r="G451" s="48"/>
+      <c r="F451" s="53"/>
+      <c r="G451" s="53"/>
     </row>
     <row r="452">
-      <c r="F452" s="48"/>
-      <c r="G452" s="48"/>
+      <c r="F452" s="53"/>
+      <c r="G452" s="53"/>
     </row>
     <row r="453">
-      <c r="F453" s="48"/>
-      <c r="G453" s="48"/>
+      <c r="F453" s="53"/>
+      <c r="G453" s="53"/>
     </row>
     <row r="454">
-      <c r="F454" s="48"/>
-      <c r="G454" s="48"/>
+      <c r="F454" s="53"/>
+      <c r="G454" s="53"/>
     </row>
     <row r="455">
-      <c r="F455" s="48"/>
-      <c r="G455" s="48"/>
+      <c r="F455" s="53"/>
+      <c r="G455" s="53"/>
     </row>
     <row r="456">
-      <c r="F456" s="48"/>
-      <c r="G456" s="48"/>
+      <c r="F456" s="53"/>
+      <c r="G456" s="53"/>
     </row>
     <row r="457">
-      <c r="F457" s="48"/>
-      <c r="G457" s="48"/>
+      <c r="F457" s="53"/>
+      <c r="G457" s="53"/>
     </row>
     <row r="458">
-      <c r="F458" s="48"/>
-      <c r="G458" s="48"/>
+      <c r="F458" s="53"/>
+      <c r="G458" s="53"/>
     </row>
     <row r="459">
-      <c r="F459" s="48"/>
-      <c r="G459" s="48"/>
+      <c r="F459" s="53"/>
+      <c r="G459" s="53"/>
     </row>
     <row r="460">
-      <c r="F460" s="48"/>
-      <c r="G460" s="48"/>
+      <c r="F460" s="53"/>
+      <c r="G460" s="53"/>
     </row>
     <row r="461">
-      <c r="F461" s="48"/>
-      <c r="G461" s="48"/>
+      <c r="F461" s="53"/>
+      <c r="G461" s="53"/>
     </row>
     <row r="462">
-      <c r="F462" s="48"/>
-      <c r="G462" s="48"/>
+      <c r="F462" s="53"/>
+      <c r="G462" s="53"/>
     </row>
     <row r="463">
-      <c r="F463" s="48"/>
-      <c r="G463" s="48"/>
+      <c r="F463" s="53"/>
+      <c r="G463" s="53"/>
     </row>
     <row r="464">
-      <c r="F464" s="48"/>
-      <c r="G464" s="48"/>
+      <c r="F464" s="53"/>
+      <c r="G464" s="53"/>
     </row>
     <row r="465">
-      <c r="F465" s="48"/>
-      <c r="G465" s="48"/>
+      <c r="F465" s="53"/>
+      <c r="G465" s="53"/>
     </row>
     <row r="466">
-      <c r="F466" s="48"/>
-      <c r="G466" s="48"/>
+      <c r="F466" s="53"/>
+      <c r="G466" s="53"/>
     </row>
     <row r="467">
-      <c r="F467" s="48"/>
-      <c r="G467" s="48"/>
+      <c r="F467" s="53"/>
+      <c r="G467" s="53"/>
     </row>
     <row r="468">
-      <c r="F468" s="48"/>
-      <c r="G468" s="48"/>
+      <c r="F468" s="53"/>
+      <c r="G468" s="53"/>
     </row>
     <row r="469">
-      <c r="F469" s="48"/>
-      <c r="G469" s="48"/>
+      <c r="F469" s="53"/>
+      <c r="G469" s="53"/>
     </row>
     <row r="470">
-      <c r="F470" s="48"/>
-      <c r="G470" s="48"/>
+      <c r="F470" s="53"/>
+      <c r="G470" s="53"/>
     </row>
     <row r="471">
-      <c r="F471" s="48"/>
-      <c r="G471" s="48"/>
+      <c r="F471" s="53"/>
+      <c r="G471" s="53"/>
     </row>
     <row r="472">
-      <c r="F472" s="48"/>
-      <c r="G472" s="48"/>
+      <c r="F472" s="53"/>
+      <c r="G472" s="53"/>
     </row>
     <row r="473">
-      <c r="F473" s="48"/>
-      <c r="G473" s="48"/>
+      <c r="F473" s="53"/>
+      <c r="G473" s="53"/>
     </row>
     <row r="474">
-      <c r="F474" s="48"/>
-      <c r="G474" s="48"/>
+      <c r="F474" s="53"/>
+      <c r="G474" s="53"/>
     </row>
     <row r="475">
-      <c r="F475" s="48"/>
-      <c r="G475" s="48"/>
+      <c r="F475" s="53"/>
+      <c r="G475" s="53"/>
     </row>
     <row r="476">
-      <c r="F476" s="48"/>
-      <c r="G476" s="48"/>
+      <c r="F476" s="53"/>
+      <c r="G476" s="53"/>
     </row>
     <row r="477">
-      <c r="F477" s="48"/>
-      <c r="G477" s="48"/>
+      <c r="F477" s="53"/>
+      <c r="G477" s="53"/>
     </row>
     <row r="478">
-      <c r="F478" s="48"/>
-      <c r="G478" s="48"/>
+      <c r="F478" s="53"/>
+      <c r="G478" s="53"/>
     </row>
     <row r="479">
-      <c r="F479" s="48"/>
-      <c r="G479" s="48"/>
+      <c r="F479" s="53"/>
+      <c r="G479" s="53"/>
     </row>
     <row r="480">
-      <c r="F480" s="48"/>
-      <c r="G480" s="48"/>
+      <c r="F480" s="53"/>
+      <c r="G480" s="53"/>
     </row>
     <row r="481">
-      <c r="F481" s="48"/>
-      <c r="G481" s="48"/>
+      <c r="F481" s="53"/>
+      <c r="G481" s="53"/>
     </row>
     <row r="482">
-      <c r="F482" s="48"/>
-      <c r="G482" s="48"/>
+      <c r="F482" s="53"/>
+      <c r="G482" s="53"/>
     </row>
     <row r="483">
-      <c r="F483" s="48"/>
-      <c r="G483" s="48"/>
+      <c r="F483" s="53"/>
+      <c r="G483" s="53"/>
     </row>
     <row r="484">
-      <c r="F484" s="48"/>
-      <c r="G484" s="48"/>
+      <c r="F484" s="53"/>
+      <c r="G484" s="53"/>
     </row>
     <row r="485">
-      <c r="F485" s="48"/>
-      <c r="G485" s="48"/>
+      <c r="F485" s="53"/>
+      <c r="G485" s="53"/>
     </row>
     <row r="486">
-      <c r="F486" s="48"/>
-      <c r="G486" s="48"/>
+      <c r="F486" s="53"/>
+      <c r="G486" s="53"/>
     </row>
     <row r="487">
-      <c r="F487" s="48"/>
-      <c r="G487" s="48"/>
+      <c r="F487" s="53"/>
+      <c r="G487" s="53"/>
     </row>
     <row r="488">
-      <c r="F488" s="48"/>
-      <c r="G488" s="48"/>
+      <c r="F488" s="53"/>
+      <c r="G488" s="53"/>
     </row>
     <row r="489">
-      <c r="F489" s="48"/>
-      <c r="G489" s="48"/>
+      <c r="F489" s="53"/>
+      <c r="G489" s="53"/>
     </row>
     <row r="490">
-      <c r="F490" s="48"/>
-      <c r="G490" s="48"/>
+      <c r="F490" s="53"/>
+      <c r="G490" s="53"/>
     </row>
     <row r="491">
-      <c r="F491" s="48"/>
-      <c r="G491" s="48"/>
+      <c r="F491" s="53"/>
+      <c r="G491" s="53"/>
     </row>
     <row r="492">
-      <c r="F492" s="48"/>
-      <c r="G492" s="48"/>
+      <c r="F492" s="53"/>
+      <c r="G492" s="53"/>
     </row>
     <row r="493">
-      <c r="F493" s="48"/>
-      <c r="G493" s="48"/>
+      <c r="F493" s="53"/>
+      <c r="G493" s="53"/>
     </row>
     <row r="494">
-      <c r="F494" s="48"/>
-      <c r="G494" s="48"/>
+      <c r="F494" s="53"/>
+      <c r="G494" s="53"/>
     </row>
     <row r="495">
-      <c r="F495" s="48"/>
-      <c r="G495" s="48"/>
+      <c r="F495" s="53"/>
+      <c r="G495" s="53"/>
     </row>
     <row r="496">
-      <c r="F496" s="48"/>
-      <c r="G496" s="48"/>
+      <c r="F496" s="53"/>
+      <c r="G496" s="53"/>
     </row>
     <row r="497">
-      <c r="F497" s="48"/>
-      <c r="G497" s="48"/>
+      <c r="F497" s="53"/>
+      <c r="G497" s="53"/>
     </row>
     <row r="498">
-      <c r="F498" s="48"/>
-      <c r="G498" s="48"/>
+      <c r="F498" s="53"/>
+      <c r="G498" s="53"/>
     </row>
     <row r="499">
-      <c r="F499" s="48"/>
-      <c r="G499" s="48"/>
+      <c r="F499" s="53"/>
+      <c r="G499" s="53"/>
     </row>
     <row r="500">
-      <c r="F500" s="48"/>
-      <c r="G500" s="48"/>
+      <c r="F500" s="53"/>
+      <c r="G500" s="53"/>
     </row>
     <row r="501">
-      <c r="F501" s="48"/>
-      <c r="G501" s="48"/>
+      <c r="F501" s="53"/>
+      <c r="G501" s="53"/>
     </row>
     <row r="502">
-      <c r="F502" s="48"/>
-      <c r="G502" s="48"/>
+      <c r="F502" s="53"/>
+      <c r="G502" s="53"/>
     </row>
     <row r="503">
-      <c r="F503" s="48"/>
-      <c r="G503" s="48"/>
+      <c r="F503" s="53"/>
+      <c r="G503" s="53"/>
     </row>
     <row r="504">
-      <c r="F504" s="48"/>
-      <c r="G504" s="48"/>
+      <c r="F504" s="53"/>
+      <c r="G504" s="53"/>
     </row>
     <row r="505">
-      <c r="F505" s="48"/>
-      <c r="G505" s="48"/>
+      <c r="F505" s="53"/>
+      <c r="G505" s="53"/>
     </row>
     <row r="506">
-      <c r="F506" s="48"/>
-      <c r="G506" s="48"/>
+      <c r="F506" s="53"/>
+      <c r="G506" s="53"/>
     </row>
     <row r="507">
-      <c r="F507" s="48"/>
-      <c r="G507" s="48"/>
+      <c r="F507" s="53"/>
+      <c r="G507" s="53"/>
     </row>
     <row r="508">
-      <c r="F508" s="48"/>
-      <c r="G508" s="48"/>
+      <c r="F508" s="53"/>
+      <c r="G508" s="53"/>
     </row>
     <row r="509">
-      <c r="F509" s="48"/>
-      <c r="G509" s="48"/>
+      <c r="F509" s="53"/>
+      <c r="G509" s="53"/>
     </row>
     <row r="510">
-      <c r="F510" s="48"/>
-      <c r="G510" s="48"/>
+      <c r="F510" s="53"/>
+      <c r="G510" s="53"/>
     </row>
     <row r="511">
-      <c r="F511" s="48"/>
-      <c r="G511" s="48"/>
+      <c r="F511" s="53"/>
+      <c r="G511" s="53"/>
     </row>
     <row r="512">
-      <c r="F512" s="48"/>
-      <c r="G512" s="48"/>
+      <c r="F512" s="53"/>
+      <c r="G512" s="53"/>
     </row>
     <row r="513">
-      <c r="F513" s="48"/>
-      <c r="G513" s="48"/>
+      <c r="F513" s="53"/>
+      <c r="G513" s="53"/>
     </row>
     <row r="514">
-      <c r="F514" s="48"/>
-      <c r="G514" s="48"/>
+      <c r="F514" s="53"/>
+      <c r="G514" s="53"/>
     </row>
     <row r="515">
-      <c r="F515" s="48"/>
-      <c r="G515" s="48"/>
+      <c r="F515" s="53"/>
+      <c r="G515" s="53"/>
     </row>
     <row r="516">
-      <c r="F516" s="48"/>
-      <c r="G516" s="48"/>
+      <c r="F516" s="53"/>
+      <c r="G516" s="53"/>
     </row>
     <row r="517">
-      <c r="F517" s="48"/>
-      <c r="G517" s="48"/>
+      <c r="F517" s="53"/>
+      <c r="G517" s="53"/>
     </row>
     <row r="518">
-      <c r="F518" s="48"/>
-      <c r="G518" s="48"/>
+      <c r="F518" s="53"/>
+      <c r="G518" s="53"/>
     </row>
     <row r="519">
-      <c r="F519" s="48"/>
-      <c r="G519" s="48"/>
+      <c r="F519" s="53"/>
+      <c r="G519" s="53"/>
     </row>
     <row r="520">
-      <c r="F520" s="48"/>
-      <c r="G520" s="48"/>
+      <c r="F520" s="53"/>
+      <c r="G520" s="53"/>
     </row>
     <row r="521">
-      <c r="F521" s="48"/>
-      <c r="G521" s="48"/>
+      <c r="F521" s="53"/>
+      <c r="G521" s="53"/>
     </row>
     <row r="522">
-      <c r="F522" s="48"/>
-      <c r="G522" s="48"/>
+      <c r="F522" s="53"/>
+      <c r="G522" s="53"/>
     </row>
     <row r="523">
-      <c r="F523" s="48"/>
-      <c r="G523" s="48"/>
+      <c r="F523" s="53"/>
+      <c r="G523" s="53"/>
     </row>
     <row r="524">
-      <c r="F524" s="48"/>
-      <c r="G524" s="48"/>
+      <c r="F524" s="53"/>
+      <c r="G524" s="53"/>
     </row>
     <row r="525">
-      <c r="F525" s="48"/>
-      <c r="G525" s="48"/>
+      <c r="F525" s="53"/>
+      <c r="G525" s="53"/>
     </row>
     <row r="526">
-      <c r="F526" s="48"/>
-      <c r="G526" s="48"/>
+      <c r="F526" s="53"/>
+      <c r="G526" s="53"/>
     </row>
     <row r="527">
-      <c r="F527" s="48"/>
-      <c r="G527" s="48"/>
+      <c r="F527" s="53"/>
+      <c r="G527" s="53"/>
     </row>
     <row r="528">
-      <c r="F528" s="48"/>
-      <c r="G528" s="48"/>
+      <c r="F528" s="53"/>
+      <c r="G528" s="53"/>
     </row>
     <row r="529">
-      <c r="F529" s="48"/>
-      <c r="G529" s="48"/>
+      <c r="F529" s="53"/>
+      <c r="G529" s="53"/>
     </row>
     <row r="530">
-      <c r="F530" s="48"/>
-      <c r="G530" s="48"/>
+      <c r="F530" s="53"/>
+      <c r="G530" s="53"/>
     </row>
     <row r="531">
-      <c r="F531" s="48"/>
-      <c r="G531" s="48"/>
+      <c r="F531" s="53"/>
+      <c r="G531" s="53"/>
     </row>
     <row r="532">
-      <c r="F532" s="48"/>
-      <c r="G532" s="48"/>
+      <c r="F532" s="53"/>
+      <c r="G532" s="53"/>
     </row>
     <row r="533">
-      <c r="F533" s="48"/>
-      <c r="G533" s="48"/>
+      <c r="F533" s="53"/>
+      <c r="G533" s="53"/>
     </row>
     <row r="534">
-      <c r="F534" s="48"/>
-      <c r="G534" s="48"/>
+      <c r="F534" s="53"/>
+      <c r="G534" s="53"/>
     </row>
     <row r="535">
-      <c r="F535" s="48"/>
-      <c r="G535" s="48"/>
+      <c r="F535" s="53"/>
+      <c r="G535" s="53"/>
     </row>
     <row r="536">
-      <c r="F536" s="48"/>
-      <c r="G536" s="48"/>
+      <c r="F536" s="53"/>
+      <c r="G536" s="53"/>
     </row>
     <row r="537">
-      <c r="F537" s="48"/>
-      <c r="G537" s="48"/>
+      <c r="F537" s="53"/>
+      <c r="G537" s="53"/>
     </row>
     <row r="538">
-      <c r="F538" s="48"/>
-      <c r="G538" s="48"/>
+      <c r="F538" s="53"/>
+      <c r="G538" s="53"/>
     </row>
     <row r="539">
-      <c r="F539" s="48"/>
-      <c r="G539" s="48"/>
+      <c r="F539" s="53"/>
+      <c r="G539" s="53"/>
     </row>
     <row r="540">
-      <c r="F540" s="48"/>
-      <c r="G540" s="48"/>
+      <c r="F540" s="53"/>
+      <c r="G540" s="53"/>
     </row>
     <row r="541">
-      <c r="F541" s="48"/>
-      <c r="G541" s="48"/>
+      <c r="F541" s="53"/>
+      <c r="G541" s="53"/>
     </row>
     <row r="542">
-      <c r="F542" s="48"/>
-      <c r="G542" s="48"/>
+      <c r="F542" s="53"/>
+      <c r="G542" s="53"/>
     </row>
     <row r="543">
-      <c r="F543" s="48"/>
-      <c r="G543" s="48"/>
+      <c r="F543" s="53"/>
+      <c r="G543" s="53"/>
     </row>
     <row r="544">
-      <c r="F544" s="48"/>
-      <c r="G544" s="48"/>
+      <c r="F544" s="53"/>
+      <c r="G544" s="53"/>
     </row>
     <row r="545">
-      <c r="F545" s="48"/>
-      <c r="G545" s="48"/>
+      <c r="F545" s="53"/>
+      <c r="G545" s="53"/>
     </row>
     <row r="546">
-      <c r="F546" s="48"/>
-      <c r="G546" s="48"/>
+      <c r="F546" s="53"/>
+      <c r="G546" s="53"/>
     </row>
     <row r="547">
-      <c r="F547" s="48"/>
-      <c r="G547" s="48"/>
+      <c r="F547" s="53"/>
+      <c r="G547" s="53"/>
     </row>
     <row r="548">
-      <c r="F548" s="48"/>
-      <c r="G548" s="48"/>
+      <c r="F548" s="53"/>
+      <c r="G548" s="53"/>
     </row>
     <row r="549">
-      <c r="F549" s="48"/>
-      <c r="G549" s="48"/>
+      <c r="F549" s="53"/>
+      <c r="G549" s="53"/>
     </row>
     <row r="550">
-      <c r="F550" s="48"/>
-      <c r="G550" s="48"/>
+      <c r="F550" s="53"/>
+      <c r="G550" s="53"/>
     </row>
     <row r="551">
-      <c r="F551" s="48"/>
-      <c r="G551" s="48"/>
+      <c r="F551" s="53"/>
+      <c r="G551" s="53"/>
     </row>
     <row r="552">
-      <c r="F552" s="48"/>
-      <c r="G552" s="48"/>
+      <c r="F552" s="53"/>
+      <c r="G552" s="53"/>
     </row>
     <row r="553">
-      <c r="F553" s="48"/>
-      <c r="G553" s="48"/>
+      <c r="F553" s="53"/>
+      <c r="G553" s="53"/>
     </row>
     <row r="554">
-      <c r="F554" s="48"/>
-      <c r="G554" s="48"/>
+      <c r="F554" s="53"/>
+      <c r="G554" s="53"/>
     </row>
     <row r="555">
-      <c r="F555" s="48"/>
-      <c r="G555" s="48"/>
+      <c r="F555" s="53"/>
+      <c r="G555" s="53"/>
     </row>
     <row r="556">
-      <c r="F556" s="48"/>
-      <c r="G556" s="48"/>
+      <c r="F556" s="53"/>
+      <c r="G556" s="53"/>
     </row>
     <row r="557">
-      <c r="F557" s="48"/>
-      <c r="G557" s="48"/>
+      <c r="F557" s="53"/>
+      <c r="G557" s="53"/>
     </row>
     <row r="558">
-      <c r="F558" s="48"/>
-      <c r="G558" s="48"/>
+      <c r="F558" s="53"/>
+      <c r="G558" s="53"/>
     </row>
     <row r="559">
-      <c r="F559" s="48"/>
-      <c r="G559" s="48"/>
+      <c r="F559" s="53"/>
+      <c r="G559" s="53"/>
     </row>
     <row r="560">
-      <c r="F560" s="48"/>
-      <c r="G560" s="48"/>
+      <c r="F560" s="53"/>
+      <c r="G560" s="53"/>
     </row>
     <row r="561">
-      <c r="F561" s="48"/>
-      <c r="G561" s="48"/>
+      <c r="F561" s="53"/>
+      <c r="G561" s="53"/>
     </row>
     <row r="562">
-      <c r="F562" s="48"/>
-      <c r="G562" s="48"/>
+      <c r="F562" s="53"/>
+      <c r="G562" s="53"/>
     </row>
     <row r="563">
-      <c r="F563" s="48"/>
-      <c r="G563" s="48"/>
+      <c r="F563" s="53"/>
+      <c r="G563" s="53"/>
     </row>
     <row r="564">
-      <c r="F564" s="48"/>
-      <c r="G564" s="48"/>
+      <c r="F564" s="53"/>
+      <c r="G564" s="53"/>
     </row>
     <row r="565">
-      <c r="F565" s="48"/>
-      <c r="G565" s="48"/>
+      <c r="F565" s="53"/>
+      <c r="G565" s="53"/>
     </row>
     <row r="566">
-      <c r="F566" s="48"/>
-      <c r="G566" s="48"/>
+      <c r="F566" s="53"/>
+      <c r="G566" s="53"/>
     </row>
     <row r="567">
-      <c r="F567" s="48"/>
-      <c r="G567" s="48"/>
+      <c r="F567" s="53"/>
+      <c r="G567" s="53"/>
     </row>
     <row r="568">
-      <c r="F568" s="48"/>
-      <c r="G568" s="48"/>
+      <c r="F568" s="53"/>
+      <c r="G568" s="53"/>
     </row>
     <row r="569">
-      <c r="F569" s="48"/>
-      <c r="G569" s="48"/>
+      <c r="F569" s="53"/>
+      <c r="G569" s="53"/>
     </row>
     <row r="570">
-      <c r="F570" s="48"/>
-      <c r="G570" s="48"/>
+      <c r="F570" s="53"/>
+      <c r="G570" s="53"/>
     </row>
     <row r="571">
-      <c r="F571" s="48"/>
-      <c r="G571" s="48"/>
+      <c r="F571" s="53"/>
+      <c r="G571" s="53"/>
     </row>
     <row r="572">
-      <c r="F572" s="48"/>
-      <c r="G572" s="48"/>
+      <c r="F572" s="53"/>
+      <c r="G572" s="53"/>
     </row>
     <row r="573">
-      <c r="F573" s="48"/>
-      <c r="G573" s="48"/>
+      <c r="F573" s="53"/>
+      <c r="G573" s="53"/>
     </row>
     <row r="574">
-      <c r="F574" s="48"/>
-      <c r="G574" s="48"/>
+      <c r="F574" s="53"/>
+      <c r="G574" s="53"/>
     </row>
     <row r="575">
-      <c r="F575" s="48"/>
-      <c r="G575" s="48"/>
+      <c r="F575" s="53"/>
+      <c r="G575" s="53"/>
     </row>
     <row r="576">
-      <c r="F576" s="48"/>
-      <c r="G576" s="48"/>
+      <c r="F576" s="53"/>
+      <c r="G576" s="53"/>
     </row>
     <row r="577">
-      <c r="F577" s="48"/>
-      <c r="G577" s="48"/>
+      <c r="F577" s="53"/>
+      <c r="G577" s="53"/>
     </row>
     <row r="578">
-      <c r="F578" s="48"/>
-      <c r="G578" s="48"/>
+      <c r="F578" s="53"/>
+      <c r="G578" s="53"/>
     </row>
     <row r="579">
-      <c r="F579" s="48"/>
-      <c r="G579" s="48"/>
+      <c r="F579" s="53"/>
+      <c r="G579" s="53"/>
     </row>
     <row r="580">
-      <c r="F580" s="48"/>
-      <c r="G580" s="48"/>
+      <c r="F580" s="53"/>
+      <c r="G580" s="53"/>
     </row>
     <row r="581">
-      <c r="F581" s="48"/>
-      <c r="G581" s="48"/>
+      <c r="F581" s="53"/>
+      <c r="G581" s="53"/>
     </row>
     <row r="582">
-      <c r="F582" s="48"/>
-      <c r="G582" s="48"/>
+      <c r="F582" s="53"/>
+      <c r="G582" s="53"/>
     </row>
     <row r="583">
-      <c r="F583" s="48"/>
-      <c r="G583" s="48"/>
+      <c r="F583" s="53"/>
+      <c r="G583" s="53"/>
     </row>
     <row r="584">
-      <c r="F584" s="48"/>
-      <c r="G584" s="48"/>
+      <c r="F584" s="53"/>
+      <c r="G584" s="53"/>
     </row>
     <row r="585">
-      <c r="F585" s="48"/>
-      <c r="G585" s="48"/>
+      <c r="F585" s="53"/>
+      <c r="G585" s="53"/>
     </row>
     <row r="586">
-      <c r="F586" s="48"/>
-      <c r="G586" s="48"/>
+      <c r="F586" s="53"/>
+      <c r="G586" s="53"/>
     </row>
     <row r="587">
-      <c r="F587" s="48"/>
-      <c r="G587" s="48"/>
+      <c r="F587" s="53"/>
+      <c r="G587" s="53"/>
     </row>
     <row r="588">
-      <c r="F588" s="48"/>
-      <c r="G588" s="48"/>
+      <c r="F588" s="53"/>
+      <c r="G588" s="53"/>
     </row>
     <row r="589">
-      <c r="F589" s="48"/>
-      <c r="G589" s="48"/>
+      <c r="F589" s="53"/>
+      <c r="G589" s="53"/>
     </row>
     <row r="590">
-      <c r="F590" s="48"/>
-      <c r="G590" s="48"/>
+      <c r="F590" s="53"/>
+      <c r="G590" s="53"/>
     </row>
     <row r="591">
-      <c r="F591" s="48"/>
-      <c r="G591" s="48"/>
+      <c r="F591" s="53"/>
+      <c r="G591" s="53"/>
     </row>
     <row r="592">
-      <c r="F592" s="48"/>
-      <c r="G592" s="48"/>
+      <c r="F592" s="53"/>
+      <c r="G592" s="53"/>
     </row>
     <row r="593">
-      <c r="F593" s="48"/>
-      <c r="G593" s="48"/>
+      <c r="F593" s="53"/>
+      <c r="G593" s="53"/>
     </row>
     <row r="594">
-      <c r="F594" s="48"/>
-      <c r="G594" s="48"/>
+      <c r="F594" s="53"/>
+      <c r="G594" s="53"/>
     </row>
     <row r="595">
-      <c r="F595" s="48"/>
-      <c r="G595" s="48"/>
+      <c r="F595" s="53"/>
+      <c r="G595" s="53"/>
     </row>
     <row r="596">
-      <c r="F596" s="48"/>
-      <c r="G596" s="48"/>
+      <c r="F596" s="53"/>
+      <c r="G596" s="53"/>
     </row>
     <row r="597">
-      <c r="F597" s="48"/>
-      <c r="G597" s="48"/>
+      <c r="F597" s="53"/>
+      <c r="G597" s="53"/>
     </row>
     <row r="598">
-      <c r="F598" s="48"/>
-      <c r="G598" s="48"/>
+      <c r="F598" s="53"/>
+      <c r="G598" s="53"/>
     </row>
     <row r="599">
-      <c r="F599" s="48"/>
-      <c r="G599" s="48"/>
+      <c r="F599" s="53"/>
+      <c r="G599" s="53"/>
     </row>
     <row r="600">
-      <c r="F600" s="48"/>
-      <c r="G600" s="48"/>
+      <c r="F600" s="53"/>
+      <c r="G600" s="53"/>
     </row>
     <row r="601">
-      <c r="F601" s="48"/>
-      <c r="G601" s="48"/>
+      <c r="F601" s="53"/>
+      <c r="G601" s="53"/>
     </row>
     <row r="602">
-      <c r="F602" s="48"/>
-      <c r="G602" s="48"/>
+      <c r="F602" s="53"/>
+      <c r="G602" s="53"/>
     </row>
     <row r="603">
-      <c r="F603" s="48"/>
-      <c r="G603" s="48"/>
+      <c r="F603" s="53"/>
+      <c r="G603" s="53"/>
     </row>
     <row r="604">
-      <c r="F604" s="48"/>
-      <c r="G604" s="48"/>
+      <c r="F604" s="53"/>
+      <c r="G604" s="53"/>
     </row>
     <row r="605">
-      <c r="F605" s="48"/>
-      <c r="G605" s="48"/>
+      <c r="F605" s="53"/>
+      <c r="G605" s="53"/>
     </row>
     <row r="606">
-      <c r="F606" s="48"/>
-      <c r="G606" s="48"/>
+      <c r="F606" s="53"/>
+      <c r="G606" s="53"/>
     </row>
     <row r="607">
-      <c r="F607" s="48"/>
-      <c r="G607" s="48"/>
+      <c r="F607" s="53"/>
+      <c r="G607" s="53"/>
     </row>
     <row r="608">
-      <c r="F608" s="48"/>
-      <c r="G608" s="48"/>
+      <c r="F608" s="53"/>
+      <c r="G608" s="53"/>
     </row>
     <row r="609">
-      <c r="F609" s="48"/>
-      <c r="G609" s="48"/>
+      <c r="F609" s="53"/>
+      <c r="G609" s="53"/>
     </row>
     <row r="610">
-      <c r="F610" s="48"/>
-      <c r="G610" s="48"/>
+      <c r="F610" s="53"/>
+      <c r="G610" s="53"/>
     </row>
     <row r="611">
-      <c r="F611" s="48"/>
-      <c r="G611" s="48"/>
+      <c r="F611" s="53"/>
+      <c r="G611" s="53"/>
     </row>
     <row r="612">
-      <c r="F612" s="48"/>
-      <c r="G612" s="48"/>
+      <c r="F612" s="53"/>
+      <c r="G612" s="53"/>
     </row>
     <row r="613">
-      <c r="F613" s="48"/>
-      <c r="G613" s="48"/>
+      <c r="F613" s="53"/>
+      <c r="G613" s="53"/>
     </row>
     <row r="614">
-      <c r="F614" s="48"/>
-      <c r="G614" s="48"/>
+      <c r="F614" s="53"/>
+      <c r="G614" s="53"/>
     </row>
     <row r="615">
-      <c r="F615" s="48"/>
-      <c r="G615" s="48"/>
+      <c r="F615" s="53"/>
+      <c r="G615" s="53"/>
     </row>
     <row r="616">
-      <c r="F616" s="48"/>
-      <c r="G616" s="48"/>
+      <c r="F616" s="53"/>
+      <c r="G616" s="53"/>
     </row>
     <row r="617">
-      <c r="F617" s="48"/>
-      <c r="G617" s="48"/>
+      <c r="F617" s="53"/>
+      <c r="G617" s="53"/>
     </row>
     <row r="618">
-      <c r="F618" s="48"/>
-      <c r="G618" s="48"/>
+      <c r="F618" s="53"/>
+      <c r="G618" s="53"/>
     </row>
     <row r="619">
-      <c r="F619" s="48"/>
-      <c r="G619" s="48"/>
+      <c r="F619" s="53"/>
+      <c r="G619" s="53"/>
     </row>
     <row r="620">
-      <c r="F620" s="48"/>
-      <c r="G620" s="48"/>
+      <c r="F620" s="53"/>
+      <c r="G620" s="53"/>
     </row>
     <row r="621">
-      <c r="F621" s="48"/>
-      <c r="G621" s="48"/>
+      <c r="F621" s="53"/>
+      <c r="G621" s="53"/>
     </row>
     <row r="622">
-      <c r="F622" s="48"/>
-      <c r="G622" s="48"/>
+      <c r="F622" s="53"/>
+      <c r="G622" s="53"/>
     </row>
     <row r="623">
-      <c r="F623" s="48"/>
-      <c r="G623" s="48"/>
+      <c r="F623" s="53"/>
+      <c r="G623" s="53"/>
     </row>
     <row r="624">
-      <c r="F624" s="48"/>
-      <c r="G624" s="48"/>
+      <c r="F624" s="53"/>
+      <c r="G624" s="53"/>
     </row>
     <row r="625">
-      <c r="F625" s="48"/>
-      <c r="G625" s="48"/>
+      <c r="F625" s="53"/>
+      <c r="G625" s="53"/>
     </row>
     <row r="626">
-      <c r="F626" s="48"/>
-      <c r="G626" s="48"/>
+      <c r="F626" s="53"/>
+      <c r="G626" s="53"/>
     </row>
     <row r="627">
-      <c r="F627" s="48"/>
-      <c r="G627" s="48"/>
+      <c r="F627" s="53"/>
+      <c r="G627" s="53"/>
     </row>
     <row r="628">
-      <c r="F628" s="48"/>
-      <c r="G628" s="48"/>
+      <c r="F628" s="53"/>
+      <c r="G628" s="53"/>
     </row>
     <row r="629">
-      <c r="F629" s="48"/>
-      <c r="G629" s="48"/>
+      <c r="F629" s="53"/>
+      <c r="G629" s="53"/>
     </row>
     <row r="630">
-      <c r="F630" s="48"/>
-      <c r="G630" s="48"/>
+      <c r="F630" s="53"/>
+      <c r="G630" s="53"/>
     </row>
     <row r="631">
-      <c r="F631" s="48"/>
-      <c r="G631" s="48"/>
+      <c r="F631" s="53"/>
+      <c r="G631" s="53"/>
     </row>
     <row r="632">
-      <c r="F632" s="48"/>
-      <c r="G632" s="48"/>
+      <c r="F632" s="53"/>
+      <c r="G632" s="53"/>
     </row>
     <row r="633">
-      <c r="F633" s="48"/>
-      <c r="G633" s="48"/>
+      <c r="F633" s="53"/>
+      <c r="G633" s="53"/>
     </row>
     <row r="634">
-      <c r="F634" s="48"/>
-      <c r="G634" s="48"/>
+      <c r="F634" s="53"/>
+      <c r="G634" s="53"/>
     </row>
     <row r="635">
-      <c r="F635" s="48"/>
-      <c r="G635" s="48"/>
+      <c r="F635" s="53"/>
+      <c r="G635" s="53"/>
     </row>
     <row r="636">
-      <c r="F636" s="48"/>
-      <c r="G636" s="48"/>
+      <c r="F636" s="53"/>
+      <c r="G636" s="53"/>
     </row>
     <row r="637">
-      <c r="F637" s="48"/>
-      <c r="G637" s="48"/>
+      <c r="F637" s="53"/>
+      <c r="G637" s="53"/>
     </row>
     <row r="638">
-      <c r="F638" s="48"/>
-      <c r="G638" s="48"/>
+      <c r="F638" s="53"/>
+      <c r="G638" s="53"/>
     </row>
     <row r="639">
-      <c r="F639" s="48"/>
-      <c r="G639" s="48"/>
+      <c r="F639" s="53"/>
+      <c r="G639" s="53"/>
     </row>
     <row r="640">
-      <c r="F640" s="48"/>
-      <c r="G640" s="48"/>
+      <c r="F640" s="53"/>
+      <c r="G640" s="53"/>
     </row>
     <row r="641">
-      <c r="F641" s="48"/>
-      <c r="G641" s="48"/>
+      <c r="F641" s="53"/>
+      <c r="G641" s="53"/>
     </row>
     <row r="642">
-      <c r="F642" s="48"/>
-      <c r="G642" s="48"/>
+      <c r="F642" s="53"/>
+      <c r="G642" s="53"/>
     </row>
     <row r="643">
-      <c r="F643" s="48"/>
-      <c r="G643" s="48"/>
+      <c r="F643" s="53"/>
+      <c r="G643" s="53"/>
     </row>
     <row r="644">
-      <c r="F644" s="48"/>
-      <c r="G644" s="48"/>
+      <c r="F644" s="53"/>
+      <c r="G644" s="53"/>
     </row>
     <row r="645">
-      <c r="F645" s="48"/>
-      <c r="G645" s="48"/>
+      <c r="F645" s="53"/>
+      <c r="G645" s="53"/>
     </row>
     <row r="646">
-      <c r="F646" s="48"/>
-      <c r="G646" s="48"/>
+      <c r="F646" s="53"/>
+      <c r="G646" s="53"/>
     </row>
     <row r="647">
-      <c r="F647" s="48"/>
-      <c r="G647" s="48"/>
+      <c r="F647" s="53"/>
+      <c r="G647" s="53"/>
     </row>
     <row r="648">
-      <c r="F648" s="48"/>
-      <c r="G648" s="48"/>
+      <c r="F648" s="53"/>
+      <c r="G648" s="53"/>
     </row>
     <row r="649">
-      <c r="F649" s="48"/>
-      <c r="G649" s="48"/>
+      <c r="F649" s="53"/>
+      <c r="G649" s="53"/>
     </row>
     <row r="650">
-      <c r="F650" s="48"/>
-      <c r="G650" s="48"/>
+      <c r="F650" s="53"/>
+      <c r="G650" s="53"/>
     </row>
     <row r="651">
-      <c r="F651" s="48"/>
-      <c r="G651" s="48"/>
+      <c r="F651" s="53"/>
+      <c r="G651" s="53"/>
     </row>
     <row r="652">
-      <c r="F652" s="48"/>
-      <c r="G652" s="48"/>
+      <c r="F652" s="53"/>
+      <c r="G652" s="53"/>
     </row>
     <row r="653">
-      <c r="F653" s="48"/>
-      <c r="G653" s="48"/>
+      <c r="F653" s="53"/>
+      <c r="G653" s="53"/>
     </row>
     <row r="654">
-      <c r="F654" s="48"/>
-      <c r="G654" s="48"/>
+      <c r="F654" s="53"/>
+      <c r="G654" s="53"/>
     </row>
     <row r="655">
-      <c r="F655" s="48"/>
-      <c r="G655" s="48"/>
+      <c r="F655" s="53"/>
+      <c r="G655" s="53"/>
     </row>
     <row r="656">
-      <c r="F656" s="48"/>
-      <c r="G656" s="48"/>
+      <c r="F656" s="53"/>
+      <c r="G656" s="53"/>
     </row>
     <row r="657">
-      <c r="F657" s="48"/>
-      <c r="G657" s="48"/>
+      <c r="F657" s="53"/>
+      <c r="G657" s="53"/>
     </row>
     <row r="658">
-      <c r="F658" s="48"/>
-      <c r="G658" s="48"/>
+      <c r="F658" s="53"/>
+      <c r="G658" s="53"/>
     </row>
     <row r="659">
-      <c r="F659" s="48"/>
-      <c r="G659" s="48"/>
+      <c r="F659" s="53"/>
+      <c r="G659" s="53"/>
     </row>
     <row r="660">
-      <c r="F660" s="48"/>
-      <c r="G660" s="48"/>
+      <c r="F660" s="53"/>
+      <c r="G660" s="53"/>
     </row>
     <row r="661">
-      <c r="F661" s="48"/>
-      <c r="G661" s="48"/>
+      <c r="F661" s="53"/>
+      <c r="G661" s="53"/>
     </row>
     <row r="662">
-      <c r="F662" s="48"/>
-      <c r="G662" s="48"/>
+      <c r="F662" s="53"/>
+      <c r="G662" s="53"/>
     </row>
     <row r="663">
-      <c r="F663" s="48"/>
-      <c r="G663" s="48"/>
+      <c r="F663" s="53"/>
+      <c r="G663" s="53"/>
     </row>
     <row r="664">
-      <c r="F664" s="48"/>
-      <c r="G664" s="48"/>
+      <c r="F664" s="53"/>
+      <c r="G664" s="53"/>
     </row>
     <row r="665">
-      <c r="F665" s="48"/>
-      <c r="G665" s="48"/>
+      <c r="F665" s="53"/>
+      <c r="G665" s="53"/>
     </row>
     <row r="666">
-      <c r="F666" s="48"/>
-      <c r="G666" s="48"/>
+      <c r="F666" s="53"/>
+      <c r="G666" s="53"/>
     </row>
     <row r="667">
-      <c r="F667" s="48"/>
-      <c r="G667" s="48"/>
+      <c r="F667" s="53"/>
+      <c r="G667" s="53"/>
     </row>
     <row r="668">
-      <c r="F668" s="48"/>
-      <c r="G668" s="48"/>
+      <c r="F668" s="53"/>
+      <c r="G668" s="53"/>
     </row>
     <row r="669">
-      <c r="F669" s="48"/>
-      <c r="G669" s="48"/>
+      <c r="F669" s="53"/>
+      <c r="G669" s="53"/>
     </row>
     <row r="670">
-      <c r="F670" s="48"/>
-      <c r="G670" s="48"/>
+      <c r="F670" s="53"/>
+      <c r="G670" s="53"/>
     </row>
     <row r="671">
-      <c r="F671" s="48"/>
-      <c r="G671" s="48"/>
+      <c r="F671" s="53"/>
+      <c r="G671" s="53"/>
     </row>
     <row r="672">
-      <c r="F672" s="48"/>
-      <c r="G672" s="48"/>
+      <c r="F672" s="53"/>
+      <c r="G672" s="53"/>
     </row>
     <row r="673">
-      <c r="F673" s="48"/>
-      <c r="G673" s="48"/>
+      <c r="F673" s="53"/>
+      <c r="G673" s="53"/>
     </row>
     <row r="674">
-      <c r="F674" s="48"/>
-      <c r="G674" s="48"/>
+      <c r="F674" s="53"/>
+      <c r="G674" s="53"/>
     </row>
     <row r="675">
-      <c r="F675" s="48"/>
-      <c r="G675" s="48"/>
+      <c r="F675" s="53"/>
+      <c r="G675" s="53"/>
     </row>
     <row r="676">
-      <c r="F676" s="48"/>
-      <c r="G676" s="48"/>
+      <c r="F676" s="53"/>
+      <c r="G676" s="53"/>
     </row>
     <row r="677">
-      <c r="F677" s="48"/>
-      <c r="G677" s="48"/>
+      <c r="F677" s="53"/>
+      <c r="G677" s="53"/>
     </row>
     <row r="678">
-      <c r="F678" s="48"/>
-      <c r="G678" s="48"/>
+      <c r="F678" s="53"/>
+      <c r="G678" s="53"/>
     </row>
     <row r="679">
-      <c r="F679" s="48"/>
-      <c r="G679" s="48"/>
+      <c r="F679" s="53"/>
+      <c r="G679" s="53"/>
     </row>
     <row r="680">
-      <c r="F680" s="48"/>
-      <c r="G680" s="48"/>
+      <c r="F680" s="53"/>
+      <c r="G680" s="53"/>
     </row>
     <row r="681">
-      <c r="F681" s="48"/>
-      <c r="G681" s="48"/>
+      <c r="F681" s="53"/>
+      <c r="G681" s="53"/>
     </row>
     <row r="682">
-      <c r="F682" s="48"/>
-      <c r="G682" s="48"/>
+      <c r="F682" s="53"/>
+      <c r="G682" s="53"/>
     </row>
     <row r="683">
-      <c r="F683" s="48"/>
-      <c r="G683" s="48"/>
+      <c r="F683" s="53"/>
+      <c r="G683" s="53"/>
     </row>
     <row r="684">
-      <c r="F684" s="48"/>
-      <c r="G684" s="48"/>
+      <c r="F684" s="53"/>
+      <c r="G684" s="53"/>
     </row>
     <row r="685">
-      <c r="F685" s="48"/>
-      <c r="G685" s="48"/>
+      <c r="F685" s="53"/>
+      <c r="G685" s="53"/>
     </row>
     <row r="686">
-      <c r="F686" s="48"/>
-      <c r="G686" s="48"/>
+      <c r="F686" s="53"/>
+      <c r="G686" s="53"/>
     </row>
     <row r="687">
-      <c r="F687" s="48"/>
-      <c r="G687" s="48"/>
+      <c r="F687" s="53"/>
+      <c r="G687" s="53"/>
     </row>
     <row r="688">
-      <c r="F688" s="48"/>
-      <c r="G688" s="48"/>
+      <c r="F688" s="53"/>
+      <c r="G688" s="53"/>
     </row>
     <row r="689">
-      <c r="F689" s="48"/>
-      <c r="G689" s="48"/>
+      <c r="F689" s="53"/>
+      <c r="G689" s="53"/>
     </row>
     <row r="690">
-      <c r="F690" s="48"/>
-      <c r="G690" s="48"/>
+      <c r="F690" s="53"/>
+      <c r="G690" s="53"/>
     </row>
     <row r="691">
-      <c r="F691" s="48"/>
-      <c r="G691" s="48"/>
+      <c r="F691" s="53"/>
+      <c r="G691" s="53"/>
     </row>
     <row r="692">
-      <c r="F692" s="48"/>
-      <c r="G692" s="48"/>
+      <c r="F692" s="53"/>
+      <c r="G692" s="53"/>
     </row>
     <row r="693">
-      <c r="F693" s="48"/>
-      <c r="G693" s="48"/>
+      <c r="F693" s="53"/>
+      <c r="G693" s="53"/>
     </row>
     <row r="694">
-      <c r="F694" s="48"/>
-      <c r="G694" s="48"/>
+      <c r="F694" s="53"/>
+      <c r="G694" s="53"/>
     </row>
     <row r="695">
-      <c r="F695" s="48"/>
-      <c r="G695" s="48"/>
+      <c r="F695" s="53"/>
+      <c r="G695" s="53"/>
     </row>
     <row r="696">
-      <c r="F696" s="48"/>
-      <c r="G696" s="48"/>
+      <c r="F696" s="53"/>
+      <c r="G696" s="53"/>
     </row>
     <row r="697">
-      <c r="F697" s="48"/>
-      <c r="G697" s="48"/>
+      <c r="F697" s="53"/>
+      <c r="G697" s="53"/>
     </row>
     <row r="698">
-      <c r="F698" s="48"/>
-      <c r="G698" s="48"/>
+      <c r="F698" s="53"/>
+      <c r="G698" s="53"/>
     </row>
     <row r="699">
-      <c r="F699" s="48"/>
-      <c r="G699" s="48"/>
+      <c r="F699" s="53"/>
+      <c r="G699" s="53"/>
     </row>
     <row r="700">
-      <c r="F700" s="48"/>
-      <c r="G700" s="48"/>
+      <c r="F700" s="53"/>
+      <c r="G700" s="53"/>
     </row>
     <row r="701">
-      <c r="F701" s="48"/>
-      <c r="G701" s="48"/>
+      <c r="F701" s="53"/>
+      <c r="G701" s="53"/>
     </row>
     <row r="702">
-      <c r="F702" s="48"/>
-      <c r="G702" s="48"/>
+      <c r="F702" s="53"/>
+      <c r="G702" s="53"/>
     </row>
     <row r="703">
-      <c r="F703" s="48"/>
-      <c r="G703" s="48"/>
+      <c r="F703" s="53"/>
+      <c r="G703" s="53"/>
     </row>
     <row r="704">
-      <c r="F704" s="48"/>
-      <c r="G704" s="48"/>
+      <c r="F704" s="53"/>
+      <c r="G704" s="53"/>
     </row>
     <row r="705">
-      <c r="F705" s="48"/>
-      <c r="G705" s="48"/>
+      <c r="F705" s="53"/>
+      <c r="G705" s="53"/>
     </row>
     <row r="706">
-      <c r="F706" s="48"/>
-      <c r="G706" s="48"/>
+      <c r="F706" s="53"/>
+      <c r="G706" s="53"/>
     </row>
     <row r="707">
-      <c r="F707" s="48"/>
-      <c r="G707" s="48"/>
+      <c r="F707" s="53"/>
+      <c r="G707" s="53"/>
     </row>
     <row r="708">
-      <c r="F708" s="48"/>
-      <c r="G708" s="48"/>
+      <c r="F708" s="53"/>
+      <c r="G708" s="53"/>
     </row>
     <row r="709">
-      <c r="F709" s="48"/>
-      <c r="G709" s="48"/>
+      <c r="F709" s="53"/>
+      <c r="G709" s="53"/>
     </row>
     <row r="710">
-      <c r="F710" s="48"/>
-      <c r="G710" s="48"/>
+      <c r="F710" s="53"/>
+      <c r="G710" s="53"/>
     </row>
     <row r="711">
-      <c r="F711" s="48"/>
-      <c r="G711" s="48"/>
+      <c r="F711" s="53"/>
+      <c r="G711" s="53"/>
     </row>
     <row r="712">
-      <c r="F712" s="48"/>
-      <c r="G712" s="48"/>
+      <c r="F712" s="53"/>
+      <c r="G712" s="53"/>
     </row>
     <row r="713">
-      <c r="F713" s="48"/>
-      <c r="G713" s="48"/>
+      <c r="F713" s="53"/>
+      <c r="G713" s="53"/>
     </row>
     <row r="714">
-      <c r="F714" s="48"/>
-      <c r="G714" s="48"/>
+      <c r="F714" s="53"/>
+      <c r="G714" s="53"/>
     </row>
     <row r="715">
-      <c r="F715" s="48"/>
-      <c r="G715" s="48"/>
+      <c r="F715" s="53"/>
+      <c r="G715" s="53"/>
     </row>
     <row r="716">
-      <c r="F716" s="48"/>
-      <c r="G716" s="48"/>
+      <c r="F716" s="53"/>
+      <c r="G716" s="53"/>
     </row>
     <row r="717">
-      <c r="F717" s="48"/>
-      <c r="G717" s="48"/>
+      <c r="F717" s="53"/>
+      <c r="G717" s="53"/>
     </row>
     <row r="718">
-      <c r="F718" s="48"/>
-      <c r="G718" s="48"/>
+      <c r="F718" s="53"/>
+      <c r="G718" s="53"/>
     </row>
     <row r="719">
-      <c r="F719" s="48"/>
-      <c r="G719" s="48"/>
+      <c r="F719" s="53"/>
+      <c r="G719" s="53"/>
     </row>
     <row r="720">
-      <c r="F720" s="48"/>
-      <c r="G720" s="48"/>
+      <c r="F720" s="53"/>
+      <c r="G720" s="53"/>
     </row>
     <row r="721">
-      <c r="F721" s="48"/>
-      <c r="G721" s="48"/>
+      <c r="F721" s="53"/>
+      <c r="G721" s="53"/>
     </row>
     <row r="722">
-      <c r="F722" s="48"/>
-      <c r="G722" s="48"/>
+      <c r="F722" s="53"/>
+      <c r="G722" s="53"/>
     </row>
     <row r="723">
-      <c r="F723" s="48"/>
-      <c r="G723" s="48"/>
+      <c r="F723" s="53"/>
+      <c r="G723" s="53"/>
     </row>
     <row r="724">
-      <c r="F724" s="48"/>
-      <c r="G724" s="48"/>
+      <c r="F724" s="53"/>
+      <c r="G724" s="53"/>
     </row>
     <row r="725">
-      <c r="F725" s="48"/>
-      <c r="G725" s="48"/>
+      <c r="F725" s="53"/>
+      <c r="G725" s="53"/>
     </row>
     <row r="726">
-      <c r="F726" s="48"/>
-      <c r="G726" s="48"/>
+      <c r="F726" s="53"/>
+      <c r="G726" s="53"/>
     </row>
     <row r="727">
-      <c r="F727" s="48"/>
-      <c r="G727" s="48"/>
+      <c r="F727" s="53"/>
+      <c r="G727" s="53"/>
     </row>
     <row r="728">
-      <c r="F728" s="48"/>
-      <c r="G728" s="48"/>
+      <c r="F728" s="53"/>
+      <c r="G728" s="53"/>
     </row>
     <row r="729">
-      <c r="F729" s="48"/>
-      <c r="G729" s="48"/>
+      <c r="F729" s="53"/>
+      <c r="G729" s="53"/>
     </row>
     <row r="730">
-      <c r="F730" s="48"/>
-      <c r="G730" s="48"/>
+      <c r="F730" s="53"/>
+      <c r="G730" s="53"/>
     </row>
     <row r="731">
-      <c r="F731" s="48"/>
-      <c r="G731" s="48"/>
+      <c r="F731" s="53"/>
+      <c r="G731" s="53"/>
     </row>
     <row r="732">
-      <c r="F732" s="48"/>
-      <c r="G732" s="48"/>
+      <c r="F732" s="53"/>
+      <c r="G732" s="53"/>
     </row>
     <row r="733">
-      <c r="F733" s="48"/>
-      <c r="G733" s="48"/>
+      <c r="F733" s="53"/>
+      <c r="G733" s="53"/>
     </row>
     <row r="734">
-      <c r="F734" s="48"/>
-      <c r="G734" s="48"/>
+      <c r="F734" s="53"/>
+      <c r="G734" s="53"/>
     </row>
     <row r="735">
-      <c r="F735" s="48"/>
-      <c r="G735" s="48"/>
+      <c r="F735" s="53"/>
+      <c r="G735" s="53"/>
     </row>
     <row r="736">
-      <c r="F736" s="48"/>
-      <c r="G736" s="48"/>
+      <c r="F736" s="53"/>
+      <c r="G736" s="53"/>
     </row>
     <row r="737">
-      <c r="F737" s="48"/>
-      <c r="G737" s="48"/>
+      <c r="F737" s="53"/>
+      <c r="G737" s="53"/>
     </row>
     <row r="738">
-      <c r="F738" s="48"/>
-      <c r="G738" s="48"/>
+      <c r="F738" s="53"/>
+      <c r="G738" s="53"/>
     </row>
     <row r="739">
-      <c r="F739" s="48"/>
-      <c r="G739" s="48"/>
+      <c r="F739" s="53"/>
+      <c r="G739" s="53"/>
     </row>
     <row r="740">
-      <c r="F740" s="48"/>
-      <c r="G740" s="48"/>
+      <c r="F740" s="53"/>
+      <c r="G740" s="53"/>
     </row>
     <row r="741">
-      <c r="F741" s="48"/>
-      <c r="G741" s="48"/>
+      <c r="F741" s="53"/>
+      <c r="G741" s="53"/>
     </row>
     <row r="742">
-      <c r="F742" s="48"/>
-      <c r="G742" s="48"/>
+      <c r="F742" s="53"/>
+      <c r="G742" s="53"/>
     </row>
     <row r="743">
-      <c r="F743" s="48"/>
-      <c r="G743" s="48"/>
+      <c r="F743" s="53"/>
+      <c r="G743" s="53"/>
     </row>
     <row r="744">
-      <c r="F744" s="48"/>
-      <c r="G744" s="48"/>
+      <c r="F744" s="53"/>
+      <c r="G744" s="53"/>
     </row>
     <row r="745">
-      <c r="F745" s="48"/>
-      <c r="G745" s="48"/>
+      <c r="F745" s="53"/>
+      <c r="G745" s="53"/>
     </row>
     <row r="746">
-      <c r="F746" s="48"/>
-      <c r="G746" s="48"/>
+      <c r="F746" s="53"/>
+      <c r="G746" s="53"/>
     </row>
     <row r="747">
-      <c r="F747" s="48"/>
-      <c r="G747" s="48"/>
+      <c r="F747" s="53"/>
+      <c r="G747" s="53"/>
     </row>
     <row r="748">
-      <c r="F748" s="48"/>
-      <c r="G748" s="48"/>
+      <c r="F748" s="53"/>
+      <c r="G748" s="53"/>
     </row>
     <row r="749">
-      <c r="F749" s="48"/>
-      <c r="G749" s="48"/>
+      <c r="F749" s="53"/>
+      <c r="G749" s="53"/>
     </row>
     <row r="750">
-      <c r="F750" s="48"/>
-      <c r="G750" s="48"/>
+      <c r="F750" s="53"/>
+      <c r="G750" s="53"/>
     </row>
     <row r="751">
-      <c r="F751" s="48"/>
-      <c r="G751" s="48"/>
+      <c r="F751" s="53"/>
+      <c r="G751" s="53"/>
     </row>
     <row r="752">
-      <c r="F752" s="48"/>
-      <c r="G752" s="48"/>
+      <c r="F752" s="53"/>
+      <c r="G752" s="53"/>
     </row>
     <row r="753">
-      <c r="F753" s="48"/>
-      <c r="G753" s="48"/>
+      <c r="F753" s="53"/>
+      <c r="G753" s="53"/>
     </row>
     <row r="754">
-      <c r="F754" s="48"/>
-      <c r="G754" s="48"/>
+      <c r="F754" s="53"/>
+      <c r="G754" s="53"/>
     </row>
     <row r="755">
-      <c r="F755" s="48"/>
-      <c r="G755" s="48"/>
+      <c r="F755" s="53"/>
+      <c r="G755" s="53"/>
     </row>
     <row r="756">
-      <c r="F756" s="48"/>
-      <c r="G756" s="48"/>
+      <c r="F756" s="53"/>
+      <c r="G756" s="53"/>
     </row>
     <row r="757">
-      <c r="F757" s="48"/>
-      <c r="G757" s="48"/>
+      <c r="F757" s="53"/>
+      <c r="G757" s="53"/>
     </row>
     <row r="758">
-      <c r="F758" s="48"/>
-      <c r="G758" s="48"/>
+      <c r="F758" s="53"/>
+      <c r="G758" s="53"/>
     </row>
     <row r="759">
-      <c r="F759" s="48"/>
-      <c r="G759" s="48"/>
+      <c r="F759" s="53"/>
+      <c r="G759" s="53"/>
     </row>
     <row r="760">
-      <c r="F760" s="48"/>
-      <c r="G760" s="48"/>
+      <c r="F760" s="53"/>
+      <c r="G760" s="53"/>
     </row>
     <row r="761">
-      <c r="F761" s="48"/>
-      <c r="G761" s="48"/>
+      <c r="F761" s="53"/>
+      <c r="G761" s="53"/>
     </row>
     <row r="762">
-      <c r="F762" s="48"/>
-      <c r="G762" s="48"/>
+      <c r="F762" s="53"/>
+      <c r="G762" s="53"/>
     </row>
     <row r="763">
-      <c r="F763" s="48"/>
-      <c r="G763" s="48"/>
+      <c r="F763" s="53"/>
+      <c r="G763" s="53"/>
     </row>
     <row r="764">
-      <c r="F764" s="48"/>
-      <c r="G764" s="48"/>
+      <c r="F764" s="53"/>
+      <c r="G764" s="53"/>
     </row>
     <row r="765">
-      <c r="F765" s="48"/>
-      <c r="G765" s="48"/>
+      <c r="F765" s="53"/>
+      <c r="G765" s="53"/>
     </row>
     <row r="766">
-      <c r="F766" s="48"/>
-      <c r="G766" s="48"/>
+      <c r="F766" s="53"/>
+      <c r="G766" s="53"/>
     </row>
     <row r="767">
-      <c r="F767" s="48"/>
-      <c r="G767" s="48"/>
+      <c r="F767" s="53"/>
+      <c r="G767" s="53"/>
     </row>
     <row r="768">
-      <c r="F768" s="48"/>
-      <c r="G768" s="48"/>
+      <c r="F768" s="53"/>
+      <c r="G768" s="53"/>
     </row>
     <row r="769">
-      <c r="F769" s="48"/>
-      <c r="G769" s="48"/>
+      <c r="F769" s="53"/>
+      <c r="G769" s="53"/>
     </row>
     <row r="770">
-      <c r="F770" s="48"/>
-      <c r="G770" s="48"/>
+      <c r="F770" s="53"/>
+      <c r="G770" s="53"/>
     </row>
     <row r="771">
-      <c r="F771" s="48"/>
-      <c r="G771" s="48"/>
+      <c r="F771" s="53"/>
+      <c r="G771" s="53"/>
     </row>
     <row r="772">
-      <c r="F772" s="48"/>
-      <c r="G772" s="48"/>
+      <c r="F772" s="53"/>
+      <c r="G772" s="53"/>
     </row>
     <row r="773">
-      <c r="F773" s="48"/>
-      <c r="G773" s="48"/>
+      <c r="F773" s="53"/>
+      <c r="G773" s="53"/>
     </row>
     <row r="774">
-      <c r="F774" s="48"/>
-      <c r="G774" s="48"/>
+      <c r="F774" s="53"/>
+      <c r="G774" s="53"/>
     </row>
     <row r="775">
-      <c r="F775" s="48"/>
-      <c r="G775" s="48"/>
+      <c r="F775" s="53"/>
+      <c r="G775" s="53"/>
     </row>
     <row r="776">
-      <c r="F776" s="48"/>
-      <c r="G776" s="48"/>
+      <c r="F776" s="53"/>
+      <c r="G776" s="53"/>
     </row>
     <row r="777">
-      <c r="F777" s="48"/>
-      <c r="G777" s="48"/>
+      <c r="F777" s="53"/>
+      <c r="G777" s="53"/>
     </row>
     <row r="778">
-      <c r="F778" s="48"/>
-      <c r="G778" s="48"/>
+      <c r="F778" s="53"/>
+      <c r="G778" s="53"/>
     </row>
     <row r="779">
-      <c r="F779" s="48"/>
-      <c r="G779" s="48"/>
+      <c r="F779" s="53"/>
+      <c r="G779" s="53"/>
     </row>
     <row r="780">
-      <c r="F780" s="48"/>
-      <c r="G780" s="48"/>
+      <c r="F780" s="53"/>
+      <c r="G780" s="53"/>
     </row>
     <row r="781">
-      <c r="F781" s="48"/>
-      <c r="G781" s="48"/>
+      <c r="F781" s="53"/>
+      <c r="G781" s="53"/>
     </row>
     <row r="782">
-      <c r="F782" s="48"/>
-      <c r="G782" s="48"/>
+      <c r="F782" s="53"/>
+      <c r="G782" s="53"/>
     </row>
     <row r="783">
-      <c r="F783" s="48"/>
-      <c r="G783" s="48"/>
+      <c r="F783" s="53"/>
+      <c r="G783" s="53"/>
     </row>
     <row r="784">
-      <c r="F784" s="48"/>
-      <c r="G784" s="48"/>
+      <c r="F784" s="53"/>
+      <c r="G784" s="53"/>
     </row>
     <row r="785">
-      <c r="F785" s="48"/>
-      <c r="G785" s="48"/>
+      <c r="F785" s="53"/>
+      <c r="G785" s="53"/>
     </row>
     <row r="786">
-      <c r="F786" s="48"/>
-      <c r="G786" s="48"/>
+      <c r="F786" s="53"/>
+      <c r="G786" s="53"/>
     </row>
     <row r="787">
-      <c r="F787" s="48"/>
-      <c r="G787" s="48"/>
+      <c r="F787" s="53"/>
+      <c r="G787" s="53"/>
     </row>
     <row r="788">
-      <c r="F788" s="48"/>
-      <c r="G788" s="48"/>
+      <c r="F788" s="53"/>
+      <c r="G788" s="53"/>
     </row>
     <row r="789">
-      <c r="F789" s="48"/>
-      <c r="G789" s="48"/>
+      <c r="F789" s="53"/>
+      <c r="G789" s="53"/>
     </row>
     <row r="790">
-      <c r="F790" s="48"/>
-      <c r="G790" s="48"/>
+      <c r="F790" s="53"/>
+      <c r="G790" s="53"/>
     </row>
     <row r="791">
-      <c r="F791" s="48"/>
-      <c r="G791" s="48"/>
+      <c r="F791" s="53"/>
+      <c r="G791" s="53"/>
     </row>
     <row r="792">
-      <c r="F792" s="48"/>
-      <c r="G792" s="48"/>
+      <c r="F792" s="53"/>
+      <c r="G792" s="53"/>
     </row>
     <row r="793">
-      <c r="F793" s="48"/>
-      <c r="G793" s="48"/>
+      <c r="F793" s="53"/>
+      <c r="G793" s="53"/>
     </row>
     <row r="794">
-      <c r="F794" s="48"/>
-      <c r="G794" s="48"/>
+      <c r="F794" s="53"/>
+      <c r="G794" s="53"/>
     </row>
     <row r="795">
-      <c r="F795" s="48"/>
-      <c r="G795" s="48"/>
+      <c r="F795" s="53"/>
+      <c r="G795" s="53"/>
     </row>
     <row r="796">
-      <c r="F796" s="48"/>
-      <c r="G796" s="48"/>
+      <c r="F796" s="53"/>
+      <c r="G796" s="53"/>
     </row>
     <row r="797">
-      <c r="F797" s="48"/>
-      <c r="G797" s="48"/>
+      <c r="F797" s="53"/>
+      <c r="G797" s="53"/>
     </row>
     <row r="798">
-      <c r="F798" s="48"/>
-      <c r="G798" s="48"/>
+      <c r="F798" s="53"/>
+      <c r="G798" s="53"/>
     </row>
     <row r="799">
-      <c r="F799" s="48"/>
-      <c r="G799" s="48"/>
+      <c r="F799" s="53"/>
+      <c r="G799" s="53"/>
     </row>
     <row r="800">
-      <c r="F800" s="48"/>
-      <c r="G800" s="48"/>
+      <c r="F800" s="53"/>
+      <c r="G800" s="53"/>
     </row>
     <row r="801">
-      <c r="F801" s="48"/>
-      <c r="G801" s="48"/>
+      <c r="F801" s="53"/>
+      <c r="G801" s="53"/>
     </row>
     <row r="802">
-      <c r="F802" s="48"/>
-      <c r="G802" s="48"/>
+      <c r="F802" s="53"/>
+      <c r="G802" s="53"/>
     </row>
     <row r="803">
-      <c r="F803" s="48"/>
-      <c r="G803" s="48"/>
+      <c r="F803" s="53"/>
+      <c r="G803" s="53"/>
     </row>
     <row r="804">
-      <c r="F804" s="48"/>
-      <c r="G804" s="48"/>
+      <c r="F804" s="53"/>
+      <c r="G804" s="53"/>
     </row>
     <row r="805">
-      <c r="F805" s="48"/>
-      <c r="G805" s="48"/>
+      <c r="F805" s="53"/>
+      <c r="G805" s="53"/>
     </row>
     <row r="806">
-      <c r="F806" s="48"/>
-      <c r="G806" s="48"/>
+      <c r="F806" s="53"/>
+      <c r="G806" s="53"/>
     </row>
     <row r="807">
-      <c r="F807" s="48"/>
-      <c r="G807" s="48"/>
+      <c r="F807" s="53"/>
+      <c r="G807" s="53"/>
     </row>
     <row r="808">
-      <c r="F808" s="48"/>
-      <c r="G808" s="48"/>
+      <c r="F808" s="53"/>
+      <c r="G808" s="53"/>
     </row>
     <row r="809">
-      <c r="F809" s="48"/>
-      <c r="G809" s="48"/>
+      <c r="F809" s="53"/>
+      <c r="G809" s="53"/>
     </row>
     <row r="810">
-      <c r="F810" s="48"/>
-      <c r="G810" s="48"/>
+      <c r="F810" s="53"/>
+      <c r="G810" s="53"/>
     </row>
     <row r="811">
-      <c r="F811" s="48"/>
-      <c r="G811" s="48"/>
+      <c r="F811" s="53"/>
+      <c r="G811" s="53"/>
     </row>
     <row r="812">
-      <c r="F812" s="48"/>
-      <c r="G812" s="48"/>
+      <c r="F812" s="53"/>
+      <c r="G812" s="53"/>
     </row>
     <row r="813">
-      <c r="F813" s="48"/>
-      <c r="G813" s="48"/>
+      <c r="F813" s="53"/>
+      <c r="G813" s="53"/>
     </row>
     <row r="814">
-      <c r="F814" s="48"/>
-      <c r="G814" s="48"/>
+      <c r="F814" s="53"/>
+      <c r="G814" s="53"/>
     </row>
     <row r="815">
-      <c r="F815" s="48"/>
-      <c r="G815" s="48"/>
+      <c r="F815" s="53"/>
+      <c r="G815" s="53"/>
     </row>
     <row r="816">
-      <c r="F816" s="48"/>
-      <c r="G816" s="48"/>
+      <c r="F816" s="53"/>
+      <c r="G816" s="53"/>
     </row>
     <row r="817">
-      <c r="F817" s="48"/>
-      <c r="G817" s="48"/>
+      <c r="F817" s="53"/>
+      <c r="G817" s="53"/>
     </row>
     <row r="818">
-      <c r="F818" s="48"/>
-      <c r="G818" s="48"/>
+      <c r="F818" s="53"/>
+      <c r="G818" s="53"/>
     </row>
     <row r="819">
-      <c r="F819" s="48"/>
-      <c r="G819" s="48"/>
+      <c r="F819" s="53"/>
+      <c r="G819" s="53"/>
     </row>
     <row r="820">
-      <c r="F820" s="48"/>
-      <c r="G820" s="48"/>
+      <c r="F820" s="53"/>
+      <c r="G820" s="53"/>
     </row>
     <row r="821">
-      <c r="F821" s="48"/>
-      <c r="G821" s="48"/>
+      <c r="F821" s="53"/>
+      <c r="G821" s="53"/>
     </row>
     <row r="822">
-      <c r="F822" s="48"/>
-      <c r="G822" s="48"/>
+      <c r="F822" s="53"/>
+      <c r="G822" s="53"/>
     </row>
     <row r="823">
-      <c r="F823" s="48"/>
-      <c r="G823" s="48"/>
+      <c r="F823" s="53"/>
+      <c r="G823" s="53"/>
     </row>
     <row r="824">
-      <c r="F824" s="48"/>
-      <c r="G824" s="48"/>
+      <c r="F824" s="53"/>
+      <c r="G824" s="53"/>
     </row>
     <row r="825">
-      <c r="F825" s="48"/>
-      <c r="G825" s="48"/>
+      <c r="F825" s="53"/>
+      <c r="G825" s="53"/>
     </row>
     <row r="826">
-      <c r="F826" s="48"/>
-      <c r="G826" s="48"/>
+      <c r="F826" s="53"/>
+      <c r="G826" s="53"/>
     </row>
     <row r="827">
-      <c r="F827" s="48"/>
-      <c r="G827" s="48"/>
+      <c r="F827" s="53"/>
+      <c r="G827" s="53"/>
     </row>
     <row r="828">
-      <c r="F828" s="48"/>
-      <c r="G828" s="48"/>
+      <c r="F828" s="53"/>
+      <c r="G828" s="53"/>
     </row>
     <row r="829">
-      <c r="F829" s="48"/>
-      <c r="G829" s="48"/>
+      <c r="F829" s="53"/>
+      <c r="G829" s="53"/>
     </row>
     <row r="830">
-      <c r="F830" s="48"/>
-      <c r="G830" s="48"/>
+      <c r="F830" s="53"/>
+      <c r="G830" s="53"/>
     </row>
     <row r="831">
-      <c r="F831" s="48"/>
-      <c r="G831" s="48"/>
+      <c r="F831" s="53"/>
+      <c r="G831" s="53"/>
     </row>
     <row r="832">
-      <c r="F832" s="48"/>
-      <c r="G832" s="48"/>
+      <c r="F832" s="53"/>
+      <c r="G832" s="53"/>
     </row>
     <row r="833">
-      <c r="F833" s="48"/>
-      <c r="G833" s="48"/>
+      <c r="F833" s="53"/>
+      <c r="G833" s="53"/>
     </row>
     <row r="834">
-      <c r="F834" s="48"/>
-      <c r="G834" s="48"/>
+      <c r="F834" s="53"/>
+      <c r="G834" s="53"/>
     </row>
     <row r="835">
-      <c r="F835" s="48"/>
-      <c r="G835" s="48"/>
+      <c r="F835" s="53"/>
+      <c r="G835" s="53"/>
     </row>
     <row r="836">
-      <c r="F836" s="48"/>
-      <c r="G836" s="48"/>
+      <c r="F836" s="53"/>
+      <c r="G836" s="53"/>
     </row>
     <row r="837">
-      <c r="F837" s="48"/>
-      <c r="G837" s="48"/>
+      <c r="F837" s="53"/>
+      <c r="G837" s="53"/>
     </row>
     <row r="838">
-      <c r="F838" s="48"/>
-      <c r="G838" s="48"/>
+      <c r="F838" s="53"/>
+      <c r="G838" s="53"/>
     </row>
     <row r="839">
-      <c r="F839" s="48"/>
-      <c r="G839" s="48"/>
+      <c r="F839" s="53"/>
+      <c r="G839" s="53"/>
     </row>
     <row r="840">
-      <c r="F840" s="48"/>
-      <c r="G840" s="48"/>
+      <c r="F840" s="53"/>
+      <c r="G840" s="53"/>
     </row>
     <row r="841">
-      <c r="F841" s="48"/>
-      <c r="G841" s="48"/>
+      <c r="F841" s="53"/>
+      <c r="G841" s="53"/>
     </row>
     <row r="842">
-      <c r="F842" s="48"/>
-      <c r="G842" s="48"/>
+      <c r="F842" s="53"/>
+      <c r="G842" s="53"/>
     </row>
     <row r="843">
-      <c r="F843" s="48"/>
-      <c r="G843" s="48"/>
+      <c r="F843" s="53"/>
+      <c r="G843" s="53"/>
     </row>
     <row r="844">
-      <c r="F844" s="48"/>
-      <c r="G844" s="48"/>
+      <c r="F844" s="53"/>
+      <c r="G844" s="53"/>
     </row>
     <row r="845">
-      <c r="F845" s="48"/>
-      <c r="G845" s="48"/>
+      <c r="F845" s="53"/>
+      <c r="G845" s="53"/>
     </row>
     <row r="846">
-      <c r="F846" s="48"/>
-      <c r="G846" s="48"/>
+      <c r="F846" s="53"/>
+      <c r="G846" s="53"/>
     </row>
     <row r="847">
-      <c r="F847" s="48"/>
-      <c r="G847" s="48"/>
+      <c r="F847" s="53"/>
+      <c r="G847" s="53"/>
     </row>
     <row r="848">
-      <c r="F848" s="48"/>
-      <c r="G848" s="48"/>
+      <c r="F848" s="53"/>
+      <c r="G848" s="53"/>
     </row>
     <row r="849">
-      <c r="F849" s="48"/>
-      <c r="G849" s="48"/>
+      <c r="F849" s="53"/>
+      <c r="G849" s="53"/>
     </row>
     <row r="850">
-      <c r="F850" s="48"/>
-      <c r="G850" s="48"/>
+      <c r="F850" s="53"/>
+      <c r="G850" s="53"/>
     </row>
     <row r="851">
-      <c r="F851" s="48"/>
-      <c r="G851" s="48"/>
+      <c r="F851" s="53"/>
+      <c r="G851" s="53"/>
     </row>
     <row r="852">
-      <c r="F852" s="48"/>
-      <c r="G852" s="48"/>
+      <c r="F852" s="53"/>
+      <c r="G852" s="53"/>
     </row>
     <row r="853">
-      <c r="F853" s="48"/>
-      <c r="G853" s="48"/>
+      <c r="F853" s="53"/>
+      <c r="G853" s="53"/>
     </row>
     <row r="854">
-      <c r="F854" s="48"/>
-      <c r="G854" s="48"/>
+      <c r="F854" s="53"/>
+      <c r="G854" s="53"/>
     </row>
     <row r="855">
-      <c r="F855" s="48"/>
-      <c r="G855" s="48"/>
+      <c r="F855" s="53"/>
+      <c r="G855" s="53"/>
     </row>
     <row r="856">
-      <c r="F856" s="48"/>
-      <c r="G856" s="48"/>
+      <c r="F856" s="53"/>
+      <c r="G856" s="53"/>
     </row>
     <row r="857">
-      <c r="F857" s="48"/>
-      <c r="G857" s="48"/>
+      <c r="F857" s="53"/>
+      <c r="G857" s="53"/>
     </row>
     <row r="858">
-      <c r="F858" s="48"/>
-      <c r="G858" s="48"/>
+      <c r="F858" s="53"/>
+      <c r="G858" s="53"/>
     </row>
     <row r="859">
-      <c r="F859" s="48"/>
-      <c r="G859" s="48"/>
+      <c r="F859" s="53"/>
+      <c r="G859" s="53"/>
     </row>
     <row r="860">
-      <c r="F860" s="48"/>
-      <c r="G860" s="48"/>
+      <c r="F860" s="53"/>
+      <c r="G860" s="53"/>
     </row>
     <row r="861">
-      <c r="F861" s="48"/>
-      <c r="G861" s="48"/>
+      <c r="F861" s="53"/>
+      <c r="G861" s="53"/>
     </row>
     <row r="862">
-      <c r="F862" s="48"/>
-      <c r="G862" s="48"/>
+      <c r="F862" s="53"/>
+      <c r="G862" s="53"/>
     </row>
     <row r="863">
-      <c r="F863" s="48"/>
-      <c r="G863" s="48"/>
+      <c r="F863" s="53"/>
+      <c r="G863" s="53"/>
     </row>
     <row r="864">
-      <c r="F864" s="48"/>
-      <c r="G864" s="48"/>
+      <c r="F864" s="53"/>
+      <c r="G864" s="53"/>
     </row>
     <row r="865">
-      <c r="F865" s="48"/>
-      <c r="G865" s="48"/>
+      <c r="F865" s="53"/>
+      <c r="G865" s="53"/>
     </row>
     <row r="866">
-      <c r="F866" s="48"/>
-      <c r="G866" s="48"/>
+      <c r="F866" s="53"/>
+      <c r="G866" s="53"/>
     </row>
     <row r="867">
-      <c r="F867" s="48"/>
-      <c r="G867" s="48"/>
+      <c r="F867" s="53"/>
+      <c r="G867" s="53"/>
     </row>
     <row r="868">
-      <c r="F868" s="48"/>
-      <c r="G868" s="48"/>
+      <c r="F868" s="53"/>
+      <c r="G868" s="53"/>
     </row>
     <row r="869">
-      <c r="F869" s="48"/>
-      <c r="G869" s="48"/>
+      <c r="F869" s="53"/>
+      <c r="G869" s="53"/>
     </row>
     <row r="870">
-      <c r="F870" s="48"/>
-      <c r="G870" s="48"/>
+      <c r="F870" s="53"/>
+      <c r="G870" s="53"/>
     </row>
     <row r="871">
-      <c r="F871" s="48"/>
-      <c r="G871" s="48"/>
+      <c r="F871" s="53"/>
+      <c r="G871" s="53"/>
     </row>
     <row r="872">
-      <c r="F872" s="48"/>
-      <c r="G872" s="48"/>
+      <c r="F872" s="53"/>
+      <c r="G872" s="53"/>
     </row>
     <row r="873">
-      <c r="F873" s="48"/>
-      <c r="G873" s="48"/>
+      <c r="F873" s="53"/>
+      <c r="G873" s="53"/>
     </row>
     <row r="874">
-      <c r="F874" s="48"/>
-      <c r="G874" s="48"/>
+      <c r="F874" s="53"/>
+      <c r="G874" s="53"/>
     </row>
     <row r="875">
-      <c r="F875" s="48"/>
-      <c r="G875" s="48"/>
+      <c r="F875" s="53"/>
+      <c r="G875" s="53"/>
     </row>
     <row r="876">
-      <c r="F876" s="48"/>
-      <c r="G876" s="48"/>
+      <c r="F876" s="53"/>
+      <c r="G876" s="53"/>
     </row>
     <row r="877">
-      <c r="F877" s="48"/>
-      <c r="G877" s="48"/>
+      <c r="F877" s="53"/>
+      <c r="G877" s="53"/>
     </row>
     <row r="878">
-      <c r="F878" s="48"/>
-      <c r="G878" s="48"/>
+      <c r="F878" s="53"/>
+      <c r="G878" s="53"/>
     </row>
     <row r="879">
-      <c r="F879" s="48"/>
-      <c r="G879" s="48"/>
+      <c r="F879" s="53"/>
+      <c r="G879" s="53"/>
     </row>
     <row r="880">
-      <c r="F880" s="48"/>
-      <c r="G880" s="48"/>
+      <c r="F880" s="53"/>
+      <c r="G880" s="53"/>
     </row>
     <row r="881">
-      <c r="F881" s="48"/>
-      <c r="G881" s="48"/>
+      <c r="F881" s="53"/>
+      <c r="G881" s="53"/>
     </row>
     <row r="882">
-      <c r="F882" s="48"/>
-      <c r="G882" s="48"/>
+      <c r="F882" s="53"/>
+      <c r="G882" s="53"/>
     </row>
     <row r="883">
-      <c r="F883" s="48"/>
-      <c r="G883" s="48"/>
+      <c r="F883" s="53"/>
+      <c r="G883" s="53"/>
     </row>
     <row r="884">
-      <c r="F884" s="48"/>
-      <c r="G884" s="48"/>
+      <c r="F884" s="53"/>
+      <c r="G884" s="53"/>
     </row>
     <row r="885">
-      <c r="F885" s="48"/>
-      <c r="G885" s="48"/>
+      <c r="F885" s="53"/>
+      <c r="G885" s="53"/>
     </row>
     <row r="886">
-      <c r="F886" s="48"/>
-      <c r="G886" s="48"/>
+      <c r="F886" s="53"/>
+      <c r="G886" s="53"/>
     </row>
     <row r="887">
-      <c r="F887" s="48"/>
-      <c r="G887" s="48"/>
+      <c r="F887" s="53"/>
+      <c r="G887" s="53"/>
     </row>
     <row r="888">
-      <c r="F888" s="48"/>
-      <c r="G888" s="48"/>
+      <c r="F888" s="53"/>
+      <c r="G888" s="53"/>
     </row>
     <row r="889">
-      <c r="F889" s="48"/>
-      <c r="G889" s="48"/>
+      <c r="F889" s="53"/>
+      <c r="G889" s="53"/>
     </row>
     <row r="890">
-      <c r="F890" s="48"/>
-      <c r="G890" s="48"/>
+      <c r="F890" s="53"/>
+      <c r="G890" s="53"/>
     </row>
     <row r="891">
-      <c r="F891" s="48"/>
-      <c r="G891" s="48"/>
+      <c r="F891" s="53"/>
+      <c r="G891" s="53"/>
     </row>
     <row r="892">
-      <c r="F892" s="48"/>
-      <c r="G892" s="48"/>
+      <c r="F892" s="53"/>
+      <c r="G892" s="53"/>
     </row>
     <row r="893">
-      <c r="F893" s="48"/>
-      <c r="G893" s="48"/>
+      <c r="F893" s="53"/>
+      <c r="G893" s="53"/>
     </row>
     <row r="894">
-      <c r="F894" s="48"/>
-      <c r="G894" s="48"/>
+      <c r="F894" s="53"/>
+      <c r="G894" s="53"/>
     </row>
     <row r="895">
-      <c r="F895" s="48"/>
-      <c r="G895" s="48"/>
+      <c r="F895" s="53"/>
+      <c r="G895" s="53"/>
     </row>
     <row r="896">
-      <c r="F896" s="48"/>
-      <c r="G896" s="48"/>
+      <c r="F896" s="53"/>
+      <c r="G896" s="53"/>
     </row>
     <row r="897">
-      <c r="F897" s="48"/>
-      <c r="G897" s="48"/>
+      <c r="F897" s="53"/>
+      <c r="G897" s="53"/>
     </row>
     <row r="898">
-      <c r="F898" s="48"/>
-      <c r="G898" s="48"/>
+      <c r="F898" s="53"/>
+      <c r="G898" s="53"/>
     </row>
     <row r="899">
-      <c r="F899" s="48"/>
-      <c r="G899" s="48"/>
+      <c r="F899" s="53"/>
+      <c r="G899" s="53"/>
     </row>
     <row r="900">
-      <c r="F900" s="48"/>
-      <c r="G900" s="48"/>
+      <c r="F900" s="53"/>
+      <c r="G900" s="53"/>
     </row>
     <row r="901">
-      <c r="F901" s="48"/>
-      <c r="G901" s="48"/>
+      <c r="F901" s="53"/>
+      <c r="G901" s="53"/>
     </row>
     <row r="902">
-      <c r="F902" s="48"/>
-      <c r="G902" s="48"/>
+      <c r="F902" s="53"/>
+      <c r="G902" s="53"/>
     </row>
     <row r="903">
-      <c r="F903" s="48"/>
-      <c r="G903" s="48"/>
+      <c r="F903" s="53"/>
+      <c r="G903" s="53"/>
     </row>
     <row r="904">
-      <c r="F904" s="48"/>
-      <c r="G904" s="48"/>
+      <c r="F904" s="53"/>
+      <c r="G904" s="53"/>
     </row>
     <row r="905">
-      <c r="F905" s="48"/>
-      <c r="G905" s="48"/>
+      <c r="F905" s="53"/>
+      <c r="G905" s="53"/>
     </row>
     <row r="906">
-      <c r="F906" s="48"/>
-      <c r="G906" s="48"/>
+      <c r="F906" s="53"/>
+      <c r="G906" s="53"/>
     </row>
     <row r="907">
-      <c r="F907" s="48"/>
-      <c r="G907" s="48"/>
+      <c r="F907" s="53"/>
+      <c r="G907" s="53"/>
     </row>
     <row r="908">
-      <c r="F908" s="48"/>
-      <c r="G908" s="48"/>
+      <c r="F908" s="53"/>
+      <c r="G908" s="53"/>
     </row>
     <row r="909">
-      <c r="F909" s="48"/>
-      <c r="G909" s="48"/>
+      <c r="F909" s="53"/>
+      <c r="G909" s="53"/>
     </row>
     <row r="910">
-      <c r="F910" s="48"/>
-      <c r="G910" s="48"/>
+      <c r="F910" s="53"/>
+      <c r="G910" s="53"/>
     </row>
     <row r="911">
-      <c r="F911" s="48"/>
-      <c r="G911" s="48"/>
+      <c r="F911" s="53"/>
+      <c r="G911" s="53"/>
     </row>
     <row r="912">
-      <c r="F912" s="48"/>
-      <c r="G912" s="48"/>
+      <c r="F912" s="53"/>
+      <c r="G912" s="53"/>
     </row>
     <row r="913">
-      <c r="F913" s="48"/>
-      <c r="G913" s="48"/>
+      <c r="F913" s="53"/>
+      <c r="G913" s="53"/>
     </row>
     <row r="914">
-      <c r="F914" s="48"/>
-      <c r="G914" s="48"/>
+      <c r="F914" s="53"/>
+      <c r="G914" s="53"/>
     </row>
     <row r="915">
-      <c r="F915" s="48"/>
-      <c r="G915" s="48"/>
+      <c r="F915" s="53"/>
+      <c r="G915" s="53"/>
     </row>
     <row r="916">
-      <c r="F916" s="48"/>
-      <c r="G916" s="48"/>
+      <c r="F916" s="53"/>
+      <c r="G916" s="53"/>
     </row>
     <row r="917">
-      <c r="F917" s="48"/>
-      <c r="G917" s="48"/>
+      <c r="F917" s="53"/>
+      <c r="G917" s="53"/>
     </row>
     <row r="918">
-      <c r="F918" s="48"/>
-      <c r="G918" s="48"/>
+      <c r="F918" s="53"/>
+      <c r="G918" s="53"/>
     </row>
     <row r="919">
-      <c r="F919" s="48"/>
-      <c r="G919" s="48"/>
+      <c r="F919" s="53"/>
+      <c r="G919" s="53"/>
     </row>
     <row r="920">
-      <c r="F920" s="48"/>
-      <c r="G920" s="48"/>
+      <c r="F920" s="53"/>
+      <c r="G920" s="53"/>
     </row>
     <row r="921">
-      <c r="F921" s="48"/>
-      <c r="G921" s="48"/>
+      <c r="F921" s="53"/>
+      <c r="G921" s="53"/>
     </row>
     <row r="922">
-      <c r="F922" s="48"/>
-      <c r="G922" s="48"/>
+      <c r="F922" s="53"/>
+      <c r="G922" s="53"/>
     </row>
     <row r="923">
-      <c r="F923" s="48"/>
-      <c r="G923" s="48"/>
+      <c r="F923" s="53"/>
+      <c r="G923" s="53"/>
     </row>
     <row r="924">
-      <c r="F924" s="48"/>
-      <c r="G924" s="48"/>
+      <c r="F924" s="53"/>
+      <c r="G924" s="53"/>
     </row>
     <row r="925">
-      <c r="F925" s="48"/>
-      <c r="G925" s="48"/>
+      <c r="F925" s="53"/>
+      <c r="G925" s="53"/>
     </row>
     <row r="926">
-      <c r="F926" s="48"/>
-      <c r="G926" s="48"/>
+      <c r="F926" s="53"/>
+      <c r="G926" s="53"/>
     </row>
     <row r="927">
-      <c r="F927" s="48"/>
-      <c r="G927" s="48"/>
+      <c r="F927" s="53"/>
+      <c r="G927" s="53"/>
     </row>
     <row r="928">
-      <c r="F928" s="48"/>
-      <c r="G928" s="48"/>
+      <c r="F928" s="53"/>
+      <c r="G928" s="53"/>
     </row>
     <row r="929">
-      <c r="F929" s="48"/>
-      <c r="G929" s="48"/>
+      <c r="F929" s="53"/>
+      <c r="G929" s="53"/>
     </row>
     <row r="930">
-      <c r="F930" s="48"/>
-      <c r="G930" s="48"/>
+      <c r="F930" s="53"/>
+      <c r="G930" s="53"/>
     </row>
     <row r="931">
-      <c r="F931" s="48"/>
-      <c r="G931" s="48"/>
+      <c r="F931" s="53"/>
+      <c r="G931" s="53"/>
     </row>
     <row r="932">
-      <c r="F932" s="48"/>
-      <c r="G932" s="48"/>
+      <c r="F932" s="53"/>
+      <c r="G932" s="53"/>
     </row>
     <row r="933">
-      <c r="F933" s="48"/>
-      <c r="G933" s="48"/>
+      <c r="F933" s="53"/>
+      <c r="G933" s="53"/>
     </row>
     <row r="934">
-      <c r="F934" s="48"/>
-      <c r="G934" s="48"/>
+      <c r="F934" s="53"/>
+      <c r="G934" s="53"/>
     </row>
     <row r="935">
-      <c r="F935" s="48"/>
-      <c r="G935" s="48"/>
+      <c r="F935" s="53"/>
+      <c r="G935" s="53"/>
     </row>
     <row r="936">
-      <c r="F936" s="48"/>
-      <c r="G936" s="48"/>
+      <c r="F936" s="53"/>
+      <c r="G936" s="53"/>
     </row>
     <row r="937">
-      <c r="F937" s="48"/>
-      <c r="G937" s="48"/>
+      <c r="F937" s="53"/>
+      <c r="G937" s="53"/>
     </row>
     <row r="938">
-      <c r="F938" s="48"/>
-      <c r="G938" s="48"/>
+      <c r="F938" s="53"/>
+      <c r="G938" s="53"/>
     </row>
     <row r="939">
-      <c r="F939" s="48"/>
-      <c r="G939" s="48"/>
+      <c r="F939" s="53"/>
+      <c r="G939" s="53"/>
     </row>
     <row r="940">
-      <c r="F940" s="48"/>
-      <c r="G940" s="48"/>
+      <c r="F940" s="53"/>
+      <c r="G940" s="53"/>
     </row>
     <row r="941">
-      <c r="F941" s="48"/>
-      <c r="G941" s="48"/>
+      <c r="F941" s="53"/>
+      <c r="G941" s="53"/>
     </row>
     <row r="942">
-      <c r="F942" s="48"/>
-      <c r="G942" s="48"/>
+      <c r="F942" s="53"/>
+      <c r="G942" s="53"/>
     </row>
     <row r="943">
-      <c r="F943" s="48"/>
-      <c r="G943" s="48"/>
+      <c r="F943" s="53"/>
+      <c r="G943" s="53"/>
     </row>
     <row r="944">
-      <c r="F944" s="48"/>
-      <c r="G944" s="48"/>
+      <c r="F944" s="53"/>
+      <c r="G944" s="53"/>
     </row>
     <row r="945">
-      <c r="F945" s="48"/>
-      <c r="G945" s="48"/>
+      <c r="F945" s="53"/>
+      <c r="G945" s="53"/>
     </row>
     <row r="946">
-      <c r="F946" s="48"/>
-      <c r="G946" s="48"/>
+      <c r="F946" s="53"/>
+      <c r="G946" s="53"/>
     </row>
     <row r="947">
-      <c r="F947" s="48"/>
-      <c r="G947" s="48"/>
+      <c r="F947" s="53"/>
+      <c r="G947" s="53"/>
     </row>
     <row r="948">
-      <c r="F948" s="48"/>
-      <c r="G948" s="48"/>
+      <c r="F948" s="53"/>
+      <c r="G948" s="53"/>
     </row>
     <row r="949">
-      <c r="F949" s="48"/>
-      <c r="G949" s="48"/>
+      <c r="F949" s="53"/>
+      <c r="G949" s="53"/>
     </row>
     <row r="950">
-      <c r="F950" s="48"/>
-      <c r="G950" s="48"/>
+      <c r="F950" s="53"/>
+      <c r="G950" s="53"/>
     </row>
     <row r="951">
-      <c r="F951" s="48"/>
-      <c r="G951" s="48"/>
+      <c r="F951" s="53"/>
+      <c r="G951" s="53"/>
     </row>
     <row r="952">
-      <c r="F952" s="48"/>
-      <c r="G952" s="48"/>
+      <c r="F952" s="53"/>
+      <c r="G952" s="53"/>
     </row>
     <row r="953">
-      <c r="F953" s="48"/>
-      <c r="G953" s="48"/>
+      <c r="F953" s="53"/>
+      <c r="G953" s="53"/>
     </row>
     <row r="954">
-      <c r="F954" s="48"/>
-      <c r="G954" s="48"/>
+      <c r="F954" s="53"/>
+      <c r="G954" s="53"/>
     </row>
     <row r="955">
-      <c r="F955" s="48"/>
-      <c r="G955" s="48"/>
+      <c r="F955" s="53"/>
+      <c r="G955" s="53"/>
     </row>
     <row r="956">
-      <c r="F956" s="48"/>
-      <c r="G956" s="48"/>
+      <c r="F956" s="53"/>
+      <c r="G956" s="53"/>
     </row>
     <row r="957">
-      <c r="F957" s="48"/>
-      <c r="G957" s="48"/>
+      <c r="F957" s="53"/>
+      <c r="G957" s="53"/>
     </row>
     <row r="958">
-      <c r="F958" s="48"/>
-      <c r="G958" s="48"/>
+      <c r="F958" s="53"/>
+      <c r="G958" s="53"/>
     </row>
     <row r="959">
-      <c r="F959" s="48"/>
-      <c r="G959" s="48"/>
+      <c r="F959" s="53"/>
+      <c r="G959" s="53"/>
     </row>
     <row r="960">
-      <c r="F960" s="48"/>
-      <c r="G960" s="48"/>
+      <c r="F960" s="53"/>
+      <c r="G960" s="53"/>
     </row>
     <row r="961">
-      <c r="F961" s="48"/>
-      <c r="G961" s="48"/>
+      <c r="F961" s="53"/>
+      <c r="G961" s="53"/>
     </row>
     <row r="962">
-      <c r="F962" s="48"/>
-      <c r="G962" s="48"/>
+      <c r="F962" s="53"/>
+      <c r="G962" s="53"/>
     </row>
     <row r="963">
-      <c r="F963" s="48"/>
-      <c r="G963" s="48"/>
+      <c r="F963" s="53"/>
+      <c r="G963" s="53"/>
     </row>
     <row r="964">
-      <c r="F964" s="48"/>
-      <c r="G964" s="48"/>
+      <c r="F964" s="53"/>
+      <c r="G964" s="53"/>
     </row>
     <row r="965">
-      <c r="F965" s="48"/>
-      <c r="G965" s="48"/>
+      <c r="F965" s="53"/>
+      <c r="G965" s="53"/>
     </row>
     <row r="966">
-      <c r="F966" s="48"/>
-      <c r="G966" s="48"/>
+      <c r="F966" s="53"/>
+      <c r="G966" s="53"/>
     </row>
     <row r="967">
-      <c r="F967" s="48"/>
-      <c r="G967" s="48"/>
+      <c r="F967" s="53"/>
+      <c r="G967" s="53"/>
     </row>
     <row r="968">
-      <c r="F968" s="48"/>
-      <c r="G968" s="48"/>
+      <c r="F968" s="53"/>
+      <c r="G968" s="53"/>
     </row>
     <row r="969">
-      <c r="F969" s="48"/>
-      <c r="G969" s="48"/>
+      <c r="F969" s="53"/>
+      <c r="G969" s="53"/>
     </row>
     <row r="970">
-      <c r="F970" s="48"/>
-      <c r="G970" s="48"/>
+      <c r="F970" s="53"/>
+      <c r="G970" s="53"/>
     </row>
     <row r="971">
-      <c r="F971" s="48"/>
-      <c r="G971" s="48"/>
+      <c r="F971" s="53"/>
+      <c r="G971" s="53"/>
     </row>
     <row r="972">
-      <c r="F972" s="48"/>
-      <c r="G972" s="48"/>
+      <c r="F972" s="53"/>
+      <c r="G972" s="53"/>
     </row>
     <row r="973">
-      <c r="F973" s="48"/>
-      <c r="G973" s="48"/>
+      <c r="F973" s="53"/>
+      <c r="G973" s="53"/>
     </row>
     <row r="974">
-      <c r="F974" s="48"/>
-      <c r="G974" s="48"/>
+      <c r="F974" s="53"/>
+      <c r="G974" s="53"/>
     </row>
     <row r="975">
-      <c r="F975" s="48"/>
-      <c r="G975" s="48"/>
+      <c r="F975" s="53"/>
+      <c r="G975" s="53"/>
     </row>
     <row r="976">
-      <c r="F976" s="48"/>
-      <c r="G976" s="48"/>
+      <c r="F976" s="53"/>
+      <c r="G976" s="53"/>
     </row>
     <row r="977">
-      <c r="F977" s="48"/>
-      <c r="G977" s="48"/>
+      <c r="F977" s="53"/>
+      <c r="G977" s="53"/>
     </row>
     <row r="978">
-      <c r="F978" s="48"/>
-      <c r="G978" s="48"/>
+      <c r="F978" s="53"/>
+      <c r="G978" s="53"/>
     </row>
     <row r="979">
-      <c r="F979" s="48"/>
-      <c r="G979" s="48"/>
+      <c r="F979" s="53"/>
+      <c r="G979" s="53"/>
     </row>
     <row r="980">
-      <c r="F980" s="48"/>
-      <c r="G980" s="48"/>
+      <c r="F980" s="53"/>
+      <c r="G980" s="53"/>
     </row>
     <row r="981">
-      <c r="F981" s="48"/>
-      <c r="G981" s="48"/>
+      <c r="F981" s="53"/>
+      <c r="G981" s="53"/>
     </row>
     <row r="982">
-      <c r="F982" s="48"/>
-      <c r="G982" s="48"/>
+      <c r="F982" s="53"/>
+      <c r="G982" s="53"/>
     </row>
     <row r="983">
-      <c r="F983" s="48"/>
-      <c r="G983" s="48"/>
+      <c r="F983" s="53"/>
+      <c r="G983" s="53"/>
     </row>
     <row r="984">
-      <c r="F984" s="48"/>
-      <c r="G984" s="48"/>
+      <c r="F984" s="53"/>
+      <c r="G984" s="53"/>
     </row>
     <row r="985">
-      <c r="F985" s="48"/>
-      <c r="G985" s="48"/>
+      <c r="F985" s="53"/>
+      <c r="G985" s="53"/>
     </row>
     <row r="986">
-      <c r="F986" s="48"/>
-      <c r="G986" s="48"/>
+      <c r="F986" s="53"/>
+      <c r="G986" s="53"/>
     </row>
     <row r="987">
-      <c r="F987" s="48"/>
-      <c r="G987" s="48"/>
+      <c r="F987" s="53"/>
+      <c r="G987" s="53"/>
     </row>
     <row r="988">
-      <c r="F988" s="48"/>
-      <c r="G988" s="48"/>
+      <c r="F988" s="53"/>
+      <c r="G988" s="53"/>
     </row>
     <row r="989">
-      <c r="F989" s="48"/>
-      <c r="G989" s="48"/>
+      <c r="F989" s="53"/>
+      <c r="G989" s="53"/>
     </row>
     <row r="990">
-      <c r="F990" s="48"/>
-      <c r="G990" s="48"/>
+      <c r="F990" s="53"/>
+      <c r="G990" s="53"/>
     </row>
     <row r="991">
-      <c r="F991" s="48"/>
-      <c r="G991" s="48"/>
+      <c r="F991" s="53"/>
+      <c r="G991" s="53"/>
     </row>
     <row r="992">
-      <c r="F992" s="48"/>
-      <c r="G992" s="48"/>
+      <c r="F992" s="53"/>
+      <c r="G992" s="53"/>
     </row>
     <row r="993">
-      <c r="F993" s="48"/>
-      <c r="G993" s="48"/>
+      <c r="F993" s="53"/>
+      <c r="G993" s="53"/>
     </row>
     <row r="994">
-      <c r="F994" s="48"/>
-      <c r="G994" s="48"/>
+      <c r="F994" s="53"/>
+      <c r="G994" s="53"/>
     </row>
     <row r="995">
-      <c r="F995" s="48"/>
-      <c r="G995" s="48"/>
+      <c r="F995" s="53"/>
+      <c r="G995" s="53"/>
     </row>
     <row r="996">
-      <c r="F996" s="48"/>
-      <c r="G996" s="48"/>
+      <c r="F996" s="53"/>
+      <c r="G996" s="53"/>
     </row>
     <row r="997">
-      <c r="F997" s="48"/>
-      <c r="G997" s="48"/>
+      <c r="F997" s="53"/>
+      <c r="G997" s="53"/>
     </row>
     <row r="998">
-      <c r="F998" s="48"/>
-      <c r="G998" s="48"/>
+      <c r="F998" s="53"/>
+      <c r="G998" s="53"/>
     </row>
     <row r="999">
-      <c r="F999" s="48"/>
-      <c r="G999" s="48"/>
+      <c r="F999" s="53"/>
+      <c r="G999" s="53"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="48"/>
-      <c r="G1000" s="48"/>
+      <c r="F1000" s="53"/>
+      <c r="G1000" s="53"/>
     </row>
     <row r="1001">
-      <c r="F1001" s="48"/>
-      <c r="G1001" s="48"/>
+      <c r="F1001" s="53"/>
+      <c r="G1001" s="53"/>
     </row>
     <row r="1002">
-      <c r="F1002" s="48"/>
-      <c r="G1002" s="48"/>
+      <c r="F1002" s="53"/>
+      <c r="G1002" s="53"/>
     </row>
     <row r="1003">
-      <c r="F1003" s="48"/>
-      <c r="G1003" s="48"/>
+      <c r="F1003" s="53"/>
+      <c r="G1003" s="53"/>
     </row>
     <row r="1004">
-      <c r="F1004" s="48"/>
-      <c r="G1004" s="48"/>
+      <c r="F1004" s="53"/>
+      <c r="G1004" s="53"/>
     </row>
     <row r="1005">
-      <c r="F1005" s="48"/>
-      <c r="G1005" s="48"/>
+      <c r="F1005" s="53"/>
+      <c r="G1005" s="53"/>
     </row>
     <row r="1006">
-      <c r="F1006" s="48"/>
-      <c r="G1006" s="48"/>
+      <c r="F1006" s="53"/>
+      <c r="G1006" s="53"/>
     </row>
     <row r="1007">
-      <c r="F1007" s="48"/>
-      <c r="G1007" s="48"/>
+      <c r="F1007" s="53"/>
+      <c r="G1007" s="53"/>
     </row>
     <row r="1008">
-      <c r="F1008" s="48"/>
-      <c r="G1008" s="48"/>
+      <c r="F1008" s="53"/>
+      <c r="G1008" s="53"/>
     </row>
     <row r="1009">
-      <c r="F1009" s="48"/>
-      <c r="G1009" s="48"/>
+      <c r="F1009" s="53"/>
+      <c r="G1009" s="53"/>
     </row>
     <row r="1010">
-      <c r="F1010" s="48"/>
-      <c r="G1010" s="48"/>
+      <c r="F1010" s="53"/>
+      <c r="G1010" s="53"/>
     </row>
     <row r="1011">
-      <c r="F1011" s="48"/>
-      <c r="G1011" s="48"/>
+      <c r="F1011" s="53"/>
+      <c r="G1011" s="53"/>
     </row>
     <row r="1012">
-      <c r="F1012" s="48"/>
-      <c r="G1012" s="48"/>
+      <c r="F1012" s="53"/>
+      <c r="G1012" s="53"/>
     </row>
     <row r="1013">
-      <c r="F1013" s="48"/>
-      <c r="G1013" s="48"/>
+      <c r="F1013" s="53"/>
+      <c r="G1013" s="53"/>
     </row>
     <row r="1014">
-      <c r="F1014" s="48"/>
-      <c r="G1014" s="48"/>
+      <c r="F1014" s="53"/>
+      <c r="G1014" s="53"/>
     </row>
     <row r="1015">
-      <c r="F1015" s="48"/>
-      <c r="G1015" s="48"/>
+      <c r="F1015" s="53"/>
+      <c r="G1015" s="53"/>
     </row>
     <row r="1016">
-      <c r="F1016" s="48"/>
-      <c r="G1016" s="48"/>
+      <c r="F1016" s="53"/>
+      <c r="G1016" s="53"/>
+    </row>
+    <row r="1017">
+      <c r="F1017" s="53"/>
+      <c r="G1017" s="53"/>
+    </row>
+    <row r="1018">
+      <c r="F1018" s="53"/>
+      <c r="G1018" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C57:H57"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -6171,8 +6383,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D34"/>
+    <hyperlink r:id="rId2" ref="D46"/>
+    <hyperlink r:id="rId3" ref="D48"/>
+    <hyperlink r:id="rId4" ref="D50"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Desarrollo/MindSoft/Gestión/AMSM-CP.xlsx
+++ b/Desarrollo/MindSoft/Gestión/AMSM-CP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="145">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -298,7 +298,7 @@
     <t>UI del login y registro</t>
   </si>
   <si>
-    <t>//AMSM-UI-LR</t>
+    <t>//Frontend</t>
   </si>
   <si>
     <t>Codificar controladores necesarios para manejar login y registro</t>
@@ -307,32 +307,7 @@
     <t>API para manejar lógica del login y registro</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>login.controller.py</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">
-login.route.py
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>user.repository.py</t>
-    </r>
+    <t>//Backend</t>
   </si>
   <si>
     <t>Gomez/Programador Backend</t>
@@ -347,20 +322,12 @@
     <t>UI de la HU01</t>
   </si>
   <si>
-    <t>//Frontend</t>
-  </si>
-  <si>
     <t>Codificar controladores necesarios para manejar la lógica del caso de uso 1</t>
   </si>
   <si>
     <t>API de la HU01</t>
   </si>
   <si>
-    <t>daily_rating.repository.py
-daily_rating.route.py
-daily_rating.controller.y</t>
-  </si>
-  <si>
     <t>Alquizar/Programador Backend</t>
   </si>
   <si>
@@ -379,30 +346,10 @@
     <t>API de la HU05</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">goal.repository.py
-goal.controller.py
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>goal.route.py</t>
-    </r>
-  </si>
-  <si>
     <t>Pruebas unitarias</t>
   </si>
   <si>
-    <t>//AMSM-PU</t>
+    <t>//Pruebas</t>
   </si>
   <si>
     <t>Salazar, Ladera, Victor / Tester</t>
@@ -414,9 +361,6 @@
     <t>Pruebas de integración</t>
   </si>
   <si>
-    <t>AMSM-PI.py</t>
-  </si>
-  <si>
     <t>Reporte del Segundo Sprint</t>
   </si>
   <si>
@@ -438,27 +382,6 @@
     <t>API de la HU02</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">mood_rating.controller.py
-mood_rating.route.py
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
-      </rPr>
-      <t>mood_rating.repository.py</t>
-    </r>
-  </si>
-  <si>
     <t>Codificación de la interfaz grafica de los casos de uso 3</t>
   </si>
   <si>
@@ -471,42 +394,28 @@
     <t>API de la HU03</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
-      </rPr>
-      <t>journal.controller.py
-journal.repositor</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">y.py
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
-      </rPr>
-      <t>journal.route.py</t>
-    </r>
-  </si>
-  <si>
-    <t>Codificación de la interfaz gráfica del caso de uso 4</t>
+    <t xml:space="preserve">Codificación de la interfaz gráfica del caso de uso 7 </t>
+  </si>
+  <si>
+    <t>UI de la HU07</t>
+  </si>
+  <si>
+    <t>Caceres/Cisneros/Salazar/Programador Front</t>
+  </si>
+  <si>
+    <t>Codificar controladores necesarios para manejar la lógica del caso de uso 7</t>
+  </si>
+  <si>
+    <t>API de la HU07</t>
+  </si>
+  <si>
+    <t>Codificación de la interfaz gráfica del caso de uso 4 ,Perfil y Menú</t>
   </si>
   <si>
     <t>UI de la HU04</t>
   </si>
   <si>
-    <t>//AMSM-UI-CU04</t>
+    <t>Alquizar/Ladera/Programador Front</t>
   </si>
   <si>
     <t>Codificar controladores necesarios para manejar la lógica del caso de uso 4</t>
@@ -515,24 +424,10 @@
     <t>API de la HU04</t>
   </si>
   <si>
-    <t>ai.service.py
-recomendation.controller.py
-recomendation.route.py</t>
-  </si>
-  <si>
-    <t>Salazar / Tester</t>
-  </si>
-  <si>
-    <t>//AMSM-PI</t>
-  </si>
-  <si>
-    <t>Despliegue</t>
-  </si>
-  <si>
-    <t>Documento de despliegue</t>
-  </si>
-  <si>
-    <t>AMSM-DD.docx</t>
+    <t>Deyvi/Programador Backend</t>
+  </si>
+  <si>
+    <t>Salazar,Caceres/ Tester</t>
   </si>
   <si>
     <t>Reporte del Tercer Sprint</t>
@@ -562,7 +457,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/MM/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -628,18 +523,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -745,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -848,12 +731,6 @@
     <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -869,20 +746,17 @@
     <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -890,16 +764,16 @@
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1121,7 +995,7 @@
     <col customWidth="1" min="2" max="2" width="42.75"/>
     <col customWidth="1" min="3" max="3" width="52.13"/>
     <col customWidth="1" min="4" max="4" width="24.13"/>
-    <col customWidth="1" min="5" max="5" width="27.0"/>
+    <col customWidth="1" min="5" max="5" width="29.63"/>
     <col customWidth="1" min="6" max="8" width="16.5"/>
   </cols>
   <sheetData>
@@ -1292,7 +1166,7 @@
         <v>45528.0</v>
       </c>
       <c r="H13" s="19">
-        <v>30.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="14">
@@ -1886,7 +1760,7 @@
         <v>102</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>92</v>
@@ -1918,16 +1792,16 @@
     <row r="36">
       <c r="A36" s="29"/>
       <c r="B36" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="D36" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="F36" s="20">
         <v>45562.0</v>
@@ -1956,16 +1830,16 @@
     <row r="37">
       <c r="A37" s="29"/>
       <c r="B37" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="F37" s="20">
         <v>45572.0</v>
@@ -1974,7 +1848,7 @@
         <v>45580.0</v>
       </c>
       <c r="H37" s="19">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
@@ -1994,16 +1868,16 @@
     <row r="38">
       <c r="A38" s="29"/>
       <c r="B38" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F38" s="20">
         <v>45572.0</v>
@@ -2012,7 +1886,7 @@
         <v>45580.0</v>
       </c>
       <c r="H38" s="19">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
@@ -2032,16 +1906,16 @@
     <row r="39">
       <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F39" s="20">
         <v>45580.0</v>
@@ -2050,7 +1924,7 @@
         <v>45584.0</v>
       </c>
       <c r="H39" s="19">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
@@ -2070,16 +1944,16 @@
     <row r="40">
       <c r="A40" s="29"/>
       <c r="B40" s="33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F40" s="20">
         <v>45582.0</v>
@@ -2088,7 +1962,7 @@
         <v>45584.0</v>
       </c>
       <c r="H40" s="19">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
@@ -2126,7 +2000,7 @@
         <v>45587.0</v>
       </c>
       <c r="H41" s="19">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
@@ -2149,10 +2023,10 @@
         <v>80</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>20</v>
@@ -2164,7 +2038,7 @@
         <v>45589.0</v>
       </c>
       <c r="H42" s="19">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
@@ -2185,10 +2059,10 @@
       <c r="A43" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="39">
+      <c r="B43" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="37">
         <v>45589.0</v>
       </c>
       <c r="D43" s="27"/>
@@ -2202,7 +2076,7 @@
       <c r="B44" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="38" t="s">
         <v>86</v>
       </c>
       <c r="D44" s="21" t="s">
@@ -2211,4168 +2085,4192 @@
       <c r="E44" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="39">
         <v>45590.0</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="39">
         <v>45592.0</v>
       </c>
-      <c r="H44" s="42">
-        <v>0.0</v>
+      <c r="H44" s="40">
+        <v>100.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="41">
+        <v>108</v>
+      </c>
+      <c r="F45" s="39">
         <v>45592.0</v>
       </c>
-      <c r="G45" s="41">
-        <v>45596.0</v>
-      </c>
-      <c r="H45" s="42">
-        <v>0.0</v>
+      <c r="G45" s="39">
+        <v>45598.0</v>
+      </c>
+      <c r="H45" s="40">
+        <v>100.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="41">
+      <c r="F46" s="39">
         <v>45592.0</v>
       </c>
-      <c r="G46" s="41">
-        <v>45596.0</v>
-      </c>
-      <c r="H46" s="42">
-        <v>0.0</v>
+      <c r="G46" s="39">
+        <v>45598.0</v>
+      </c>
+      <c r="H46" s="40">
+        <v>100.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="41">
-        <v>45597.0</v>
-      </c>
-      <c r="G47" s="41">
-        <v>45600.0</v>
-      </c>
-      <c r="H47" s="42">
-        <v>0.0</v>
+      <c r="F47" s="39">
+        <v>45598.0</v>
+      </c>
+      <c r="G47" s="39">
+        <v>45602.0</v>
+      </c>
+      <c r="H47" s="40">
+        <v>100.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="41">
-        <v>45597.0</v>
-      </c>
-      <c r="G48" s="41">
-        <v>45600.0</v>
-      </c>
-      <c r="H48" s="42">
-        <v>0.0</v>
+      <c r="F48" s="39">
+        <v>45598.0</v>
+      </c>
+      <c r="G48" s="39">
+        <v>45602.0</v>
+      </c>
+      <c r="H48" s="40">
+        <v>100.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>134</v>
+      <c r="B49" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="41">
+        <v>95</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="39">
         <v>45600.0</v>
       </c>
-      <c r="G49" s="41">
-        <v>45603.0</v>
-      </c>
-      <c r="H49" s="42">
-        <v>0.0</v>
+      <c r="G49" s="39">
+        <v>45604.0</v>
+      </c>
+      <c r="H49" s="40">
+        <v>100.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>138</v>
+      <c r="B50" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="41">
+        <v>105</v>
+      </c>
+      <c r="F50" s="39">
         <v>45600.0</v>
       </c>
-      <c r="G50" s="41">
-        <v>45603.0</v>
+      <c r="G50" s="39">
+        <v>45604.0</v>
       </c>
       <c r="H50" s="19">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>114</v>
+      <c r="B51" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>133</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="41">
-        <v>45603.0</v>
-      </c>
-      <c r="G51" s="41">
-        <v>45603.0</v>
-      </c>
-      <c r="H51" s="42">
-        <v>0.0</v>
+        <v>95</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="39">
+        <v>45600.0</v>
+      </c>
+      <c r="G51" s="39">
+        <v>45604.0</v>
+      </c>
+      <c r="H51" s="40">
+        <v>100.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>140</v>
+      <c r="B52" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" s="41">
-        <v>45572.0</v>
-      </c>
-      <c r="G52" s="41">
-        <v>45573.0</v>
-      </c>
-      <c r="H52" s="42">
-        <v>0.0</v>
+        <v>137</v>
+      </c>
+      <c r="F52" s="39">
+        <v>45600.0</v>
+      </c>
+      <c r="G52" s="39">
+        <v>45604.0</v>
+      </c>
+      <c r="H52" s="19">
+        <v>100.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="33" t="s">
-        <v>141</v>
+      <c r="B53" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>143</v>
+        <v>111</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="41">
-        <v>45573.0</v>
-      </c>
-      <c r="G53" s="41">
-        <v>45575.0</v>
-      </c>
-      <c r="H53" s="42">
-        <v>0.0</v>
+        <v>138</v>
+      </c>
+      <c r="F53" s="39">
+        <v>45605.0</v>
+      </c>
+      <c r="G53" s="39">
+        <v>45608.0</v>
+      </c>
+      <c r="H53" s="40">
+        <v>60.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>77</v>
+      <c r="B54" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="41">
-        <v>45576.0</v>
-      </c>
-      <c r="G54" s="41">
-        <v>45577.0</v>
-      </c>
-      <c r="H54" s="47">
-        <v>0.0</v>
+        <v>138</v>
+      </c>
+      <c r="F54" s="39">
+        <v>45605.0</v>
+      </c>
+      <c r="G54" s="39">
+        <v>45608.0</v>
+      </c>
+      <c r="H54" s="40">
+        <v>60.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="39">
+        <v>45607.0</v>
+      </c>
+      <c r="G55" s="39">
+        <v>45608.0</v>
+      </c>
+      <c r="H55" s="40">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1"/>
+      <c r="B56" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C56" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="39">
+        <v>45609.0</v>
+      </c>
+      <c r="G56" s="39">
+        <v>45610.0</v>
+      </c>
+      <c r="H56" s="40">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="45"/>
+      <c r="B57" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="48">
+        <v>45609.0</v>
+      </c>
+      <c r="G57" s="48">
+        <v>45610.0</v>
+      </c>
+      <c r="H57" s="49"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="41">
-        <v>45577.0</v>
-      </c>
-      <c r="G55" s="41">
-        <v>45578.0</v>
-      </c>
-      <c r="H55" s="47">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="51">
-        <v>45609.0</v>
-      </c>
-      <c r="G56" s="51">
+      <c r="C58" s="37">
         <v>45610.0</v>
       </c>
-      <c r="H56" s="52"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="39">
-        <v>45610.0</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-    </row>
-    <row r="58">
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
     </row>
     <row r="59">
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
     </row>
     <row r="60">
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
     </row>
     <row r="61">
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
     </row>
     <row r="62">
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
     </row>
     <row r="63">
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
     </row>
     <row r="64">
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
     </row>
     <row r="65">
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
     </row>
     <row r="66">
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
     </row>
     <row r="67">
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
     </row>
     <row r="68">
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
     </row>
     <row r="69">
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
     </row>
     <row r="70">
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
     </row>
     <row r="71">
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
     </row>
     <row r="72">
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
     </row>
     <row r="73">
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
     </row>
     <row r="74">
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
     </row>
     <row r="75">
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
     </row>
     <row r="76">
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
     </row>
     <row r="77">
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
     </row>
     <row r="78">
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
     </row>
     <row r="79">
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
     </row>
     <row r="80">
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
     </row>
     <row r="81">
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
     </row>
     <row r="82">
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
     </row>
     <row r="83">
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
     </row>
     <row r="84">
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
     </row>
     <row r="85">
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
     </row>
     <row r="86">
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
     </row>
     <row r="87">
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
     </row>
     <row r="88">
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
     </row>
     <row r="89">
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
     </row>
     <row r="90">
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
     </row>
     <row r="91">
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
     </row>
     <row r="92">
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
     </row>
     <row r="93">
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
     </row>
     <row r="94">
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
     </row>
     <row r="95">
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
     </row>
     <row r="96">
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
     </row>
     <row r="97">
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
     </row>
     <row r="98">
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
     </row>
     <row r="99">
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
     </row>
     <row r="100">
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
     </row>
     <row r="101">
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="50"/>
     </row>
     <row r="102">
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
     </row>
     <row r="103">
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="50"/>
     </row>
     <row r="104">
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
     </row>
     <row r="105">
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
     </row>
     <row r="106">
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="50"/>
     </row>
     <row r="107">
-      <c r="F107" s="53"/>
-      <c r="G107" s="53"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
     </row>
     <row r="108">
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
     </row>
     <row r="109">
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
     </row>
     <row r="110">
-      <c r="F110" s="53"/>
-      <c r="G110" s="53"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
     </row>
     <row r="111">
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
     </row>
     <row r="112">
-      <c r="F112" s="53"/>
-      <c r="G112" s="53"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
     </row>
     <row r="113">
-      <c r="F113" s="53"/>
-      <c r="G113" s="53"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
     </row>
     <row r="114">
-      <c r="F114" s="53"/>
-      <c r="G114" s="53"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
     </row>
     <row r="115">
-      <c r="F115" s="53"/>
-      <c r="G115" s="53"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="50"/>
     </row>
     <row r="116">
-      <c r="F116" s="53"/>
-      <c r="G116" s="53"/>
+      <c r="F116" s="50"/>
+      <c r="G116" s="50"/>
     </row>
     <row r="117">
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="50"/>
     </row>
     <row r="118">
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="50"/>
     </row>
     <row r="119">
-      <c r="F119" s="53"/>
-      <c r="G119" s="53"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="50"/>
     </row>
     <row r="120">
-      <c r="F120" s="53"/>
-      <c r="G120" s="53"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
     </row>
     <row r="121">
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
     </row>
     <row r="122">
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
     </row>
     <row r="123">
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
     </row>
     <row r="124">
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
     </row>
     <row r="125">
-      <c r="F125" s="53"/>
-      <c r="G125" s="53"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
     </row>
     <row r="126">
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
     </row>
     <row r="127">
-      <c r="F127" s="53"/>
-      <c r="G127" s="53"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
     </row>
     <row r="128">
-      <c r="F128" s="53"/>
-      <c r="G128" s="53"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="50"/>
     </row>
     <row r="129">
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="50"/>
     </row>
     <row r="130">
-      <c r="F130" s="53"/>
-      <c r="G130" s="53"/>
+      <c r="F130" s="50"/>
+      <c r="G130" s="50"/>
     </row>
     <row r="131">
-      <c r="F131" s="53"/>
-      <c r="G131" s="53"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="50"/>
     </row>
     <row r="132">
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
     </row>
     <row r="133">
-      <c r="F133" s="53"/>
-      <c r="G133" s="53"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
     </row>
     <row r="134">
-      <c r="F134" s="53"/>
-      <c r="G134" s="53"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="50"/>
     </row>
     <row r="135">
-      <c r="F135" s="53"/>
-      <c r="G135" s="53"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="50"/>
     </row>
     <row r="136">
-      <c r="F136" s="53"/>
-      <c r="G136" s="53"/>
+      <c r="F136" s="50"/>
+      <c r="G136" s="50"/>
     </row>
     <row r="137">
-      <c r="F137" s="53"/>
-      <c r="G137" s="53"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="50"/>
     </row>
     <row r="138">
-      <c r="F138" s="53"/>
-      <c r="G138" s="53"/>
+      <c r="F138" s="50"/>
+      <c r="G138" s="50"/>
     </row>
     <row r="139">
-      <c r="F139" s="53"/>
-      <c r="G139" s="53"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="50"/>
     </row>
     <row r="140">
-      <c r="F140" s="53"/>
-      <c r="G140" s="53"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="50"/>
     </row>
     <row r="141">
-      <c r="F141" s="53"/>
-      <c r="G141" s="53"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="50"/>
     </row>
     <row r="142">
-      <c r="F142" s="53"/>
-      <c r="G142" s="53"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="50"/>
     </row>
     <row r="143">
-      <c r="F143" s="53"/>
-      <c r="G143" s="53"/>
+      <c r="F143" s="50"/>
+      <c r="G143" s="50"/>
     </row>
     <row r="144">
-      <c r="F144" s="53"/>
-      <c r="G144" s="53"/>
+      <c r="F144" s="50"/>
+      <c r="G144" s="50"/>
     </row>
     <row r="145">
-      <c r="F145" s="53"/>
-      <c r="G145" s="53"/>
+      <c r="F145" s="50"/>
+      <c r="G145" s="50"/>
     </row>
     <row r="146">
-      <c r="F146" s="53"/>
-      <c r="G146" s="53"/>
+      <c r="F146" s="50"/>
+      <c r="G146" s="50"/>
     </row>
     <row r="147">
-      <c r="F147" s="53"/>
-      <c r="G147" s="53"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="50"/>
     </row>
     <row r="148">
-      <c r="F148" s="53"/>
-      <c r="G148" s="53"/>
+      <c r="F148" s="50"/>
+      <c r="G148" s="50"/>
     </row>
     <row r="149">
-      <c r="F149" s="53"/>
-      <c r="G149" s="53"/>
+      <c r="F149" s="50"/>
+      <c r="G149" s="50"/>
     </row>
     <row r="150">
-      <c r="F150" s="53"/>
-      <c r="G150" s="53"/>
+      <c r="F150" s="50"/>
+      <c r="G150" s="50"/>
     </row>
     <row r="151">
-      <c r="F151" s="53"/>
-      <c r="G151" s="53"/>
+      <c r="F151" s="50"/>
+      <c r="G151" s="50"/>
     </row>
     <row r="152">
-      <c r="F152" s="53"/>
-      <c r="G152" s="53"/>
+      <c r="F152" s="50"/>
+      <c r="G152" s="50"/>
     </row>
     <row r="153">
-      <c r="F153" s="53"/>
-      <c r="G153" s="53"/>
+      <c r="F153" s="50"/>
+      <c r="G153" s="50"/>
     </row>
     <row r="154">
-      <c r="F154" s="53"/>
-      <c r="G154" s="53"/>
+      <c r="F154" s="50"/>
+      <c r="G154" s="50"/>
     </row>
     <row r="155">
-      <c r="F155" s="53"/>
-      <c r="G155" s="53"/>
+      <c r="F155" s="50"/>
+      <c r="G155" s="50"/>
     </row>
     <row r="156">
-      <c r="F156" s="53"/>
-      <c r="G156" s="53"/>
+      <c r="F156" s="50"/>
+      <c r="G156" s="50"/>
     </row>
     <row r="157">
-      <c r="F157" s="53"/>
-      <c r="G157" s="53"/>
+      <c r="F157" s="50"/>
+      <c r="G157" s="50"/>
     </row>
     <row r="158">
-      <c r="F158" s="53"/>
-      <c r="G158" s="53"/>
+      <c r="F158" s="50"/>
+      <c r="G158" s="50"/>
     </row>
     <row r="159">
-      <c r="F159" s="53"/>
-      <c r="G159" s="53"/>
+      <c r="F159" s="50"/>
+      <c r="G159" s="50"/>
     </row>
     <row r="160">
-      <c r="F160" s="53"/>
-      <c r="G160" s="53"/>
+      <c r="F160" s="50"/>
+      <c r="G160" s="50"/>
     </row>
     <row r="161">
-      <c r="F161" s="53"/>
-      <c r="G161" s="53"/>
+      <c r="F161" s="50"/>
+      <c r="G161" s="50"/>
     </row>
     <row r="162">
-      <c r="F162" s="53"/>
-      <c r="G162" s="53"/>
+      <c r="F162" s="50"/>
+      <c r="G162" s="50"/>
     </row>
     <row r="163">
-      <c r="F163" s="53"/>
-      <c r="G163" s="53"/>
+      <c r="F163" s="50"/>
+      <c r="G163" s="50"/>
     </row>
     <row r="164">
-      <c r="F164" s="53"/>
-      <c r="G164" s="53"/>
+      <c r="F164" s="50"/>
+      <c r="G164" s="50"/>
     </row>
     <row r="165">
-      <c r="F165" s="53"/>
-      <c r="G165" s="53"/>
+      <c r="F165" s="50"/>
+      <c r="G165" s="50"/>
     </row>
     <row r="166">
-      <c r="F166" s="53"/>
-      <c r="G166" s="53"/>
+      <c r="F166" s="50"/>
+      <c r="G166" s="50"/>
     </row>
     <row r="167">
-      <c r="F167" s="53"/>
-      <c r="G167" s="53"/>
+      <c r="F167" s="50"/>
+      <c r="G167" s="50"/>
     </row>
     <row r="168">
-      <c r="F168" s="53"/>
-      <c r="G168" s="53"/>
+      <c r="F168" s="50"/>
+      <c r="G168" s="50"/>
     </row>
     <row r="169">
-      <c r="F169" s="53"/>
-      <c r="G169" s="53"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="50"/>
     </row>
     <row r="170">
-      <c r="F170" s="53"/>
-      <c r="G170" s="53"/>
+      <c r="F170" s="50"/>
+      <c r="G170" s="50"/>
     </row>
     <row r="171">
-      <c r="F171" s="53"/>
-      <c r="G171" s="53"/>
+      <c r="F171" s="50"/>
+      <c r="G171" s="50"/>
     </row>
     <row r="172">
-      <c r="F172" s="53"/>
-      <c r="G172" s="53"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
     </row>
     <row r="173">
-      <c r="F173" s="53"/>
-      <c r="G173" s="53"/>
+      <c r="F173" s="50"/>
+      <c r="G173" s="50"/>
     </row>
     <row r="174">
-      <c r="F174" s="53"/>
-      <c r="G174" s="53"/>
+      <c r="F174" s="50"/>
+      <c r="G174" s="50"/>
     </row>
     <row r="175">
-      <c r="F175" s="53"/>
-      <c r="G175" s="53"/>
+      <c r="F175" s="50"/>
+      <c r="G175" s="50"/>
     </row>
     <row r="176">
-      <c r="F176" s="53"/>
-      <c r="G176" s="53"/>
+      <c r="F176" s="50"/>
+      <c r="G176" s="50"/>
     </row>
     <row r="177">
-      <c r="F177" s="53"/>
-      <c r="G177" s="53"/>
+      <c r="F177" s="50"/>
+      <c r="G177" s="50"/>
     </row>
     <row r="178">
-      <c r="F178" s="53"/>
-      <c r="G178" s="53"/>
+      <c r="F178" s="50"/>
+      <c r="G178" s="50"/>
     </row>
     <row r="179">
-      <c r="F179" s="53"/>
-      <c r="G179" s="53"/>
+      <c r="F179" s="50"/>
+      <c r="G179" s="50"/>
     </row>
     <row r="180">
-      <c r="F180" s="53"/>
-      <c r="G180" s="53"/>
+      <c r="F180" s="50"/>
+      <c r="G180" s="50"/>
     </row>
     <row r="181">
-      <c r="F181" s="53"/>
-      <c r="G181" s="53"/>
+      <c r="F181" s="50"/>
+      <c r="G181" s="50"/>
     </row>
     <row r="182">
-      <c r="F182" s="53"/>
-      <c r="G182" s="53"/>
+      <c r="F182" s="50"/>
+      <c r="G182" s="50"/>
     </row>
     <row r="183">
-      <c r="F183" s="53"/>
-      <c r="G183" s="53"/>
+      <c r="F183" s="50"/>
+      <c r="G183" s="50"/>
     </row>
     <row r="184">
-      <c r="F184" s="53"/>
-      <c r="G184" s="53"/>
+      <c r="F184" s="50"/>
+      <c r="G184" s="50"/>
     </row>
     <row r="185">
-      <c r="F185" s="53"/>
-      <c r="G185" s="53"/>
+      <c r="F185" s="50"/>
+      <c r="G185" s="50"/>
     </row>
     <row r="186">
-      <c r="F186" s="53"/>
-      <c r="G186" s="53"/>
+      <c r="F186" s="50"/>
+      <c r="G186" s="50"/>
     </row>
     <row r="187">
-      <c r="F187" s="53"/>
-      <c r="G187" s="53"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="50"/>
     </row>
     <row r="188">
-      <c r="F188" s="53"/>
-      <c r="G188" s="53"/>
+      <c r="F188" s="50"/>
+      <c r="G188" s="50"/>
     </row>
     <row r="189">
-      <c r="F189" s="53"/>
-      <c r="G189" s="53"/>
+      <c r="F189" s="50"/>
+      <c r="G189" s="50"/>
     </row>
     <row r="190">
-      <c r="F190" s="53"/>
-      <c r="G190" s="53"/>
+      <c r="F190" s="50"/>
+      <c r="G190" s="50"/>
     </row>
     <row r="191">
-      <c r="F191" s="53"/>
-      <c r="G191" s="53"/>
+      <c r="F191" s="50"/>
+      <c r="G191" s="50"/>
     </row>
     <row r="192">
-      <c r="F192" s="53"/>
-      <c r="G192" s="53"/>
+      <c r="F192" s="50"/>
+      <c r="G192" s="50"/>
     </row>
     <row r="193">
-      <c r="F193" s="53"/>
-      <c r="G193" s="53"/>
+      <c r="F193" s="50"/>
+      <c r="G193" s="50"/>
     </row>
     <row r="194">
-      <c r="F194" s="53"/>
-      <c r="G194" s="53"/>
+      <c r="F194" s="50"/>
+      <c r="G194" s="50"/>
     </row>
     <row r="195">
-      <c r="F195" s="53"/>
-      <c r="G195" s="53"/>
+      <c r="F195" s="50"/>
+      <c r="G195" s="50"/>
     </row>
     <row r="196">
-      <c r="F196" s="53"/>
-      <c r="G196" s="53"/>
+      <c r="F196" s="50"/>
+      <c r="G196" s="50"/>
     </row>
     <row r="197">
-      <c r="F197" s="53"/>
-      <c r="G197" s="53"/>
+      <c r="F197" s="50"/>
+      <c r="G197" s="50"/>
     </row>
     <row r="198">
-      <c r="F198" s="53"/>
-      <c r="G198" s="53"/>
+      <c r="F198" s="50"/>
+      <c r="G198" s="50"/>
     </row>
     <row r="199">
-      <c r="F199" s="53"/>
-      <c r="G199" s="53"/>
+      <c r="F199" s="50"/>
+      <c r="G199" s="50"/>
     </row>
     <row r="200">
-      <c r="F200" s="53"/>
-      <c r="G200" s="53"/>
+      <c r="F200" s="50"/>
+      <c r="G200" s="50"/>
     </row>
     <row r="201">
-      <c r="F201" s="53"/>
-      <c r="G201" s="53"/>
+      <c r="F201" s="50"/>
+      <c r="G201" s="50"/>
     </row>
     <row r="202">
-      <c r="F202" s="53"/>
-      <c r="G202" s="53"/>
+      <c r="F202" s="50"/>
+      <c r="G202" s="50"/>
     </row>
     <row r="203">
-      <c r="F203" s="53"/>
-      <c r="G203" s="53"/>
+      <c r="F203" s="50"/>
+      <c r="G203" s="50"/>
     </row>
     <row r="204">
-      <c r="F204" s="53"/>
-      <c r="G204" s="53"/>
+      <c r="F204" s="50"/>
+      <c r="G204" s="50"/>
     </row>
     <row r="205">
-      <c r="F205" s="53"/>
-      <c r="G205" s="53"/>
+      <c r="F205" s="50"/>
+      <c r="G205" s="50"/>
     </row>
     <row r="206">
-      <c r="F206" s="53"/>
-      <c r="G206" s="53"/>
+      <c r="F206" s="50"/>
+      <c r="G206" s="50"/>
     </row>
     <row r="207">
-      <c r="F207" s="53"/>
-      <c r="G207" s="53"/>
+      <c r="F207" s="50"/>
+      <c r="G207" s="50"/>
     </row>
     <row r="208">
-      <c r="F208" s="53"/>
-      <c r="G208" s="53"/>
+      <c r="F208" s="50"/>
+      <c r="G208" s="50"/>
     </row>
     <row r="209">
-      <c r="F209" s="53"/>
-      <c r="G209" s="53"/>
+      <c r="F209" s="50"/>
+      <c r="G209" s="50"/>
     </row>
     <row r="210">
-      <c r="F210" s="53"/>
-      <c r="G210" s="53"/>
+      <c r="F210" s="50"/>
+      <c r="G210" s="50"/>
     </row>
     <row r="211">
-      <c r="F211" s="53"/>
-      <c r="G211" s="53"/>
+      <c r="F211" s="50"/>
+      <c r="G211" s="50"/>
     </row>
     <row r="212">
-      <c r="F212" s="53"/>
-      <c r="G212" s="53"/>
+      <c r="F212" s="50"/>
+      <c r="G212" s="50"/>
     </row>
     <row r="213">
-      <c r="F213" s="53"/>
-      <c r="G213" s="53"/>
+      <c r="F213" s="50"/>
+      <c r="G213" s="50"/>
     </row>
     <row r="214">
-      <c r="F214" s="53"/>
-      <c r="G214" s="53"/>
+      <c r="F214" s="50"/>
+      <c r="G214" s="50"/>
     </row>
     <row r="215">
-      <c r="F215" s="53"/>
-      <c r="G215" s="53"/>
+      <c r="F215" s="50"/>
+      <c r="G215" s="50"/>
     </row>
     <row r="216">
-      <c r="F216" s="53"/>
-      <c r="G216" s="53"/>
+      <c r="F216" s="50"/>
+      <c r="G216" s="50"/>
     </row>
     <row r="217">
-      <c r="F217" s="53"/>
-      <c r="G217" s="53"/>
+      <c r="F217" s="50"/>
+      <c r="G217" s="50"/>
     </row>
     <row r="218">
-      <c r="F218" s="53"/>
-      <c r="G218" s="53"/>
+      <c r="F218" s="50"/>
+      <c r="G218" s="50"/>
     </row>
     <row r="219">
-      <c r="F219" s="53"/>
-      <c r="G219" s="53"/>
+      <c r="F219" s="50"/>
+      <c r="G219" s="50"/>
     </row>
     <row r="220">
-      <c r="F220" s="53"/>
-      <c r="G220" s="53"/>
+      <c r="F220" s="50"/>
+      <c r="G220" s="50"/>
     </row>
     <row r="221">
-      <c r="F221" s="53"/>
-      <c r="G221" s="53"/>
+      <c r="F221" s="50"/>
+      <c r="G221" s="50"/>
     </row>
     <row r="222">
-      <c r="F222" s="53"/>
-      <c r="G222" s="53"/>
+      <c r="F222" s="50"/>
+      <c r="G222" s="50"/>
     </row>
     <row r="223">
-      <c r="F223" s="53"/>
-      <c r="G223" s="53"/>
+      <c r="F223" s="50"/>
+      <c r="G223" s="50"/>
     </row>
     <row r="224">
-      <c r="F224" s="53"/>
-      <c r="G224" s="53"/>
+      <c r="F224" s="50"/>
+      <c r="G224" s="50"/>
     </row>
     <row r="225">
-      <c r="F225" s="53"/>
-      <c r="G225" s="53"/>
+      <c r="F225" s="50"/>
+      <c r="G225" s="50"/>
     </row>
     <row r="226">
-      <c r="F226" s="53"/>
-      <c r="G226" s="53"/>
+      <c r="F226" s="50"/>
+      <c r="G226" s="50"/>
     </row>
     <row r="227">
-      <c r="F227" s="53"/>
-      <c r="G227" s="53"/>
+      <c r="F227" s="50"/>
+      <c r="G227" s="50"/>
     </row>
     <row r="228">
-      <c r="F228" s="53"/>
-      <c r="G228" s="53"/>
+      <c r="F228" s="50"/>
+      <c r="G228" s="50"/>
     </row>
     <row r="229">
-      <c r="F229" s="53"/>
-      <c r="G229" s="53"/>
+      <c r="F229" s="50"/>
+      <c r="G229" s="50"/>
     </row>
     <row r="230">
-      <c r="F230" s="53"/>
-      <c r="G230" s="53"/>
+      <c r="F230" s="50"/>
+      <c r="G230" s="50"/>
     </row>
     <row r="231">
-      <c r="F231" s="53"/>
-      <c r="G231" s="53"/>
+      <c r="F231" s="50"/>
+      <c r="G231" s="50"/>
     </row>
     <row r="232">
-      <c r="F232" s="53"/>
-      <c r="G232" s="53"/>
+      <c r="F232" s="50"/>
+      <c r="G232" s="50"/>
     </row>
     <row r="233">
-      <c r="F233" s="53"/>
-      <c r="G233" s="53"/>
+      <c r="F233" s="50"/>
+      <c r="G233" s="50"/>
     </row>
     <row r="234">
-      <c r="F234" s="53"/>
-      <c r="G234" s="53"/>
+      <c r="F234" s="50"/>
+      <c r="G234" s="50"/>
     </row>
     <row r="235">
-      <c r="F235" s="53"/>
-      <c r="G235" s="53"/>
+      <c r="F235" s="50"/>
+      <c r="G235" s="50"/>
     </row>
     <row r="236">
-      <c r="F236" s="53"/>
-      <c r="G236" s="53"/>
+      <c r="F236" s="50"/>
+      <c r="G236" s="50"/>
     </row>
     <row r="237">
-      <c r="F237" s="53"/>
-      <c r="G237" s="53"/>
+      <c r="F237" s="50"/>
+      <c r="G237" s="50"/>
     </row>
     <row r="238">
-      <c r="F238" s="53"/>
-      <c r="G238" s="53"/>
+      <c r="F238" s="50"/>
+      <c r="G238" s="50"/>
     </row>
     <row r="239">
-      <c r="F239" s="53"/>
-      <c r="G239" s="53"/>
+      <c r="F239" s="50"/>
+      <c r="G239" s="50"/>
     </row>
     <row r="240">
-      <c r="F240" s="53"/>
-      <c r="G240" s="53"/>
+      <c r="F240" s="50"/>
+      <c r="G240" s="50"/>
     </row>
     <row r="241">
-      <c r="F241" s="53"/>
-      <c r="G241" s="53"/>
+      <c r="F241" s="50"/>
+      <c r="G241" s="50"/>
     </row>
     <row r="242">
-      <c r="F242" s="53"/>
-      <c r="G242" s="53"/>
+      <c r="F242" s="50"/>
+      <c r="G242" s="50"/>
     </row>
     <row r="243">
-      <c r="F243" s="53"/>
-      <c r="G243" s="53"/>
+      <c r="F243" s="50"/>
+      <c r="G243" s="50"/>
     </row>
     <row r="244">
-      <c r="F244" s="53"/>
-      <c r="G244" s="53"/>
+      <c r="F244" s="50"/>
+      <c r="G244" s="50"/>
     </row>
     <row r="245">
-      <c r="F245" s="53"/>
-      <c r="G245" s="53"/>
+      <c r="F245" s="50"/>
+      <c r="G245" s="50"/>
     </row>
     <row r="246">
-      <c r="F246" s="53"/>
-      <c r="G246" s="53"/>
+      <c r="F246" s="50"/>
+      <c r="G246" s="50"/>
     </row>
     <row r="247">
-      <c r="F247" s="53"/>
-      <c r="G247" s="53"/>
+      <c r="F247" s="50"/>
+      <c r="G247" s="50"/>
     </row>
     <row r="248">
-      <c r="F248" s="53"/>
-      <c r="G248" s="53"/>
+      <c r="F248" s="50"/>
+      <c r="G248" s="50"/>
     </row>
     <row r="249">
-      <c r="F249" s="53"/>
-      <c r="G249" s="53"/>
+      <c r="F249" s="50"/>
+      <c r="G249" s="50"/>
     </row>
     <row r="250">
-      <c r="F250" s="53"/>
-      <c r="G250" s="53"/>
+      <c r="F250" s="50"/>
+      <c r="G250" s="50"/>
     </row>
     <row r="251">
-      <c r="F251" s="53"/>
-      <c r="G251" s="53"/>
+      <c r="F251" s="50"/>
+      <c r="G251" s="50"/>
     </row>
     <row r="252">
-      <c r="F252" s="53"/>
-      <c r="G252" s="53"/>
+      <c r="F252" s="50"/>
+      <c r="G252" s="50"/>
     </row>
     <row r="253">
-      <c r="F253" s="53"/>
-      <c r="G253" s="53"/>
+      <c r="F253" s="50"/>
+      <c r="G253" s="50"/>
     </row>
     <row r="254">
-      <c r="F254" s="53"/>
-      <c r="G254" s="53"/>
+      <c r="F254" s="50"/>
+      <c r="G254" s="50"/>
     </row>
     <row r="255">
-      <c r="F255" s="53"/>
-      <c r="G255" s="53"/>
+      <c r="F255" s="50"/>
+      <c r="G255" s="50"/>
     </row>
     <row r="256">
-      <c r="F256" s="53"/>
-      <c r="G256" s="53"/>
+      <c r="F256" s="50"/>
+      <c r="G256" s="50"/>
     </row>
     <row r="257">
-      <c r="F257" s="53"/>
-      <c r="G257" s="53"/>
+      <c r="F257" s="50"/>
+      <c r="G257" s="50"/>
     </row>
     <row r="258">
-      <c r="F258" s="53"/>
-      <c r="G258" s="53"/>
+      <c r="F258" s="50"/>
+      <c r="G258" s="50"/>
     </row>
     <row r="259">
-      <c r="F259" s="53"/>
-      <c r="G259" s="53"/>
+      <c r="F259" s="50"/>
+      <c r="G259" s="50"/>
     </row>
     <row r="260">
-      <c r="F260" s="53"/>
-      <c r="G260" s="53"/>
+      <c r="F260" s="50"/>
+      <c r="G260" s="50"/>
     </row>
     <row r="261">
-      <c r="F261" s="53"/>
-      <c r="G261" s="53"/>
+      <c r="F261" s="50"/>
+      <c r="G261" s="50"/>
     </row>
     <row r="262">
-      <c r="F262" s="53"/>
-      <c r="G262" s="53"/>
+      <c r="F262" s="50"/>
+      <c r="G262" s="50"/>
     </row>
     <row r="263">
-      <c r="F263" s="53"/>
-      <c r="G263" s="53"/>
+      <c r="F263" s="50"/>
+      <c r="G263" s="50"/>
     </row>
     <row r="264">
-      <c r="F264" s="53"/>
-      <c r="G264" s="53"/>
+      <c r="F264" s="50"/>
+      <c r="G264" s="50"/>
     </row>
     <row r="265">
-      <c r="F265" s="53"/>
-      <c r="G265" s="53"/>
+      <c r="F265" s="50"/>
+      <c r="G265" s="50"/>
     </row>
     <row r="266">
-      <c r="F266" s="53"/>
-      <c r="G266" s="53"/>
+      <c r="F266" s="50"/>
+      <c r="G266" s="50"/>
     </row>
     <row r="267">
-      <c r="F267" s="53"/>
-      <c r="G267" s="53"/>
+      <c r="F267" s="50"/>
+      <c r="G267" s="50"/>
     </row>
     <row r="268">
-      <c r="F268" s="53"/>
-      <c r="G268" s="53"/>
+      <c r="F268" s="50"/>
+      <c r="G268" s="50"/>
     </row>
     <row r="269">
-      <c r="F269" s="53"/>
-      <c r="G269" s="53"/>
+      <c r="F269" s="50"/>
+      <c r="G269" s="50"/>
     </row>
     <row r="270">
-      <c r="F270" s="53"/>
-      <c r="G270" s="53"/>
+      <c r="F270" s="50"/>
+      <c r="G270" s="50"/>
     </row>
     <row r="271">
-      <c r="F271" s="53"/>
-      <c r="G271" s="53"/>
+      <c r="F271" s="50"/>
+      <c r="G271" s="50"/>
     </row>
     <row r="272">
-      <c r="F272" s="53"/>
-      <c r="G272" s="53"/>
+      <c r="F272" s="50"/>
+      <c r="G272" s="50"/>
     </row>
     <row r="273">
-      <c r="F273" s="53"/>
-      <c r="G273" s="53"/>
+      <c r="F273" s="50"/>
+      <c r="G273" s="50"/>
     </row>
     <row r="274">
-      <c r="F274" s="53"/>
-      <c r="G274" s="53"/>
+      <c r="F274" s="50"/>
+      <c r="G274" s="50"/>
     </row>
     <row r="275">
-      <c r="F275" s="53"/>
-      <c r="G275" s="53"/>
+      <c r="F275" s="50"/>
+      <c r="G275" s="50"/>
     </row>
     <row r="276">
-      <c r="F276" s="53"/>
-      <c r="G276" s="53"/>
+      <c r="F276" s="50"/>
+      <c r="G276" s="50"/>
     </row>
     <row r="277">
-      <c r="F277" s="53"/>
-      <c r="G277" s="53"/>
+      <c r="F277" s="50"/>
+      <c r="G277" s="50"/>
     </row>
     <row r="278">
-      <c r="F278" s="53"/>
-      <c r="G278" s="53"/>
+      <c r="F278" s="50"/>
+      <c r="G278" s="50"/>
     </row>
     <row r="279">
-      <c r="F279" s="53"/>
-      <c r="G279" s="53"/>
+      <c r="F279" s="50"/>
+      <c r="G279" s="50"/>
     </row>
     <row r="280">
-      <c r="F280" s="53"/>
-      <c r="G280" s="53"/>
+      <c r="F280" s="50"/>
+      <c r="G280" s="50"/>
     </row>
     <row r="281">
-      <c r="F281" s="53"/>
-      <c r="G281" s="53"/>
+      <c r="F281" s="50"/>
+      <c r="G281" s="50"/>
     </row>
     <row r="282">
-      <c r="F282" s="53"/>
-      <c r="G282" s="53"/>
+      <c r="F282" s="50"/>
+      <c r="G282" s="50"/>
     </row>
     <row r="283">
-      <c r="F283" s="53"/>
-      <c r="G283" s="53"/>
+      <c r="F283" s="50"/>
+      <c r="G283" s="50"/>
     </row>
     <row r="284">
-      <c r="F284" s="53"/>
-      <c r="G284" s="53"/>
+      <c r="F284" s="50"/>
+      <c r="G284" s="50"/>
     </row>
     <row r="285">
-      <c r="F285" s="53"/>
-      <c r="G285" s="53"/>
+      <c r="F285" s="50"/>
+      <c r="G285" s="50"/>
     </row>
     <row r="286">
-      <c r="F286" s="53"/>
-      <c r="G286" s="53"/>
+      <c r="F286" s="50"/>
+      <c r="G286" s="50"/>
     </row>
     <row r="287">
-      <c r="F287" s="53"/>
-      <c r="G287" s="53"/>
+      <c r="F287" s="50"/>
+      <c r="G287" s="50"/>
     </row>
     <row r="288">
-      <c r="F288" s="53"/>
-      <c r="G288" s="53"/>
+      <c r="F288" s="50"/>
+      <c r="G288" s="50"/>
     </row>
     <row r="289">
-      <c r="F289" s="53"/>
-      <c r="G289" s="53"/>
+      <c r="F289" s="50"/>
+      <c r="G289" s="50"/>
     </row>
     <row r="290">
-      <c r="F290" s="53"/>
-      <c r="G290" s="53"/>
+      <c r="F290" s="50"/>
+      <c r="G290" s="50"/>
     </row>
     <row r="291">
-      <c r="F291" s="53"/>
-      <c r="G291" s="53"/>
+      <c r="F291" s="50"/>
+      <c r="G291" s="50"/>
     </row>
     <row r="292">
-      <c r="F292" s="53"/>
-      <c r="G292" s="53"/>
+      <c r="F292" s="50"/>
+      <c r="G292" s="50"/>
     </row>
     <row r="293">
-      <c r="F293" s="53"/>
-      <c r="G293" s="53"/>
+      <c r="F293" s="50"/>
+      <c r="G293" s="50"/>
     </row>
     <row r="294">
-      <c r="F294" s="53"/>
-      <c r="G294" s="53"/>
+      <c r="F294" s="50"/>
+      <c r="G294" s="50"/>
     </row>
     <row r="295">
-      <c r="F295" s="53"/>
-      <c r="G295" s="53"/>
+      <c r="F295" s="50"/>
+      <c r="G295" s="50"/>
     </row>
     <row r="296">
-      <c r="F296" s="53"/>
-      <c r="G296" s="53"/>
+      <c r="F296" s="50"/>
+      <c r="G296" s="50"/>
     </row>
     <row r="297">
-      <c r="F297" s="53"/>
-      <c r="G297" s="53"/>
+      <c r="F297" s="50"/>
+      <c r="G297" s="50"/>
     </row>
     <row r="298">
-      <c r="F298" s="53"/>
-      <c r="G298" s="53"/>
+      <c r="F298" s="50"/>
+      <c r="G298" s="50"/>
     </row>
     <row r="299">
-      <c r="F299" s="53"/>
-      <c r="G299" s="53"/>
+      <c r="F299" s="50"/>
+      <c r="G299" s="50"/>
     </row>
     <row r="300">
-      <c r="F300" s="53"/>
-      <c r="G300" s="53"/>
+      <c r="F300" s="50"/>
+      <c r="G300" s="50"/>
     </row>
     <row r="301">
-      <c r="F301" s="53"/>
-      <c r="G301" s="53"/>
+      <c r="F301" s="50"/>
+      <c r="G301" s="50"/>
     </row>
     <row r="302">
-      <c r="F302" s="53"/>
-      <c r="G302" s="53"/>
+      <c r="F302" s="50"/>
+      <c r="G302" s="50"/>
     </row>
     <row r="303">
-      <c r="F303" s="53"/>
-      <c r="G303" s="53"/>
+      <c r="F303" s="50"/>
+      <c r="G303" s="50"/>
     </row>
     <row r="304">
-      <c r="F304" s="53"/>
-      <c r="G304" s="53"/>
+      <c r="F304" s="50"/>
+      <c r="G304" s="50"/>
     </row>
     <row r="305">
-      <c r="F305" s="53"/>
-      <c r="G305" s="53"/>
+      <c r="F305" s="50"/>
+      <c r="G305" s="50"/>
     </row>
     <row r="306">
-      <c r="F306" s="53"/>
-      <c r="G306" s="53"/>
+      <c r="F306" s="50"/>
+      <c r="G306" s="50"/>
     </row>
     <row r="307">
-      <c r="F307" s="53"/>
-      <c r="G307" s="53"/>
+      <c r="F307" s="50"/>
+      <c r="G307" s="50"/>
     </row>
     <row r="308">
-      <c r="F308" s="53"/>
-      <c r="G308" s="53"/>
+      <c r="F308" s="50"/>
+      <c r="G308" s="50"/>
     </row>
     <row r="309">
-      <c r="F309" s="53"/>
-      <c r="G309" s="53"/>
+      <c r="F309" s="50"/>
+      <c r="G309" s="50"/>
     </row>
     <row r="310">
-      <c r="F310" s="53"/>
-      <c r="G310" s="53"/>
+      <c r="F310" s="50"/>
+      <c r="G310" s="50"/>
     </row>
     <row r="311">
-      <c r="F311" s="53"/>
-      <c r="G311" s="53"/>
+      <c r="F311" s="50"/>
+      <c r="G311" s="50"/>
     </row>
     <row r="312">
-      <c r="F312" s="53"/>
-      <c r="G312" s="53"/>
+      <c r="F312" s="50"/>
+      <c r="G312" s="50"/>
     </row>
     <row r="313">
-      <c r="F313" s="53"/>
-      <c r="G313" s="53"/>
+      <c r="F313" s="50"/>
+      <c r="G313" s="50"/>
     </row>
     <row r="314">
-      <c r="F314" s="53"/>
-      <c r="G314" s="53"/>
+      <c r="F314" s="50"/>
+      <c r="G314" s="50"/>
     </row>
     <row r="315">
-      <c r="F315" s="53"/>
-      <c r="G315" s="53"/>
+      <c r="F315" s="50"/>
+      <c r="G315" s="50"/>
     </row>
     <row r="316">
-      <c r="F316" s="53"/>
-      <c r="G316" s="53"/>
+      <c r="F316" s="50"/>
+      <c r="G316" s="50"/>
     </row>
     <row r="317">
-      <c r="F317" s="53"/>
-      <c r="G317" s="53"/>
+      <c r="F317" s="50"/>
+      <c r="G317" s="50"/>
     </row>
     <row r="318">
-      <c r="F318" s="53"/>
-      <c r="G318" s="53"/>
+      <c r="F318" s="50"/>
+      <c r="G318" s="50"/>
     </row>
     <row r="319">
-      <c r="F319" s="53"/>
-      <c r="G319" s="53"/>
+      <c r="F319" s="50"/>
+      <c r="G319" s="50"/>
     </row>
     <row r="320">
-      <c r="F320" s="53"/>
-      <c r="G320" s="53"/>
+      <c r="F320" s="50"/>
+      <c r="G320" s="50"/>
     </row>
     <row r="321">
-      <c r="F321" s="53"/>
-      <c r="G321" s="53"/>
+      <c r="F321" s="50"/>
+      <c r="G321" s="50"/>
     </row>
     <row r="322">
-      <c r="F322" s="53"/>
-      <c r="G322" s="53"/>
+      <c r="F322" s="50"/>
+      <c r="G322" s="50"/>
     </row>
     <row r="323">
-      <c r="F323" s="53"/>
-      <c r="G323" s="53"/>
+      <c r="F323" s="50"/>
+      <c r="G323" s="50"/>
     </row>
     <row r="324">
-      <c r="F324" s="53"/>
-      <c r="G324" s="53"/>
+      <c r="F324" s="50"/>
+      <c r="G324" s="50"/>
     </row>
     <row r="325">
-      <c r="F325" s="53"/>
-      <c r="G325" s="53"/>
+      <c r="F325" s="50"/>
+      <c r="G325" s="50"/>
     </row>
     <row r="326">
-      <c r="F326" s="53"/>
-      <c r="G326" s="53"/>
+      <c r="F326" s="50"/>
+      <c r="G326" s="50"/>
     </row>
     <row r="327">
-      <c r="F327" s="53"/>
-      <c r="G327" s="53"/>
+      <c r="F327" s="50"/>
+      <c r="G327" s="50"/>
     </row>
     <row r="328">
-      <c r="F328" s="53"/>
-      <c r="G328" s="53"/>
+      <c r="F328" s="50"/>
+      <c r="G328" s="50"/>
     </row>
     <row r="329">
-      <c r="F329" s="53"/>
-      <c r="G329" s="53"/>
+      <c r="F329" s="50"/>
+      <c r="G329" s="50"/>
     </row>
     <row r="330">
-      <c r="F330" s="53"/>
-      <c r="G330" s="53"/>
+      <c r="F330" s="50"/>
+      <c r="G330" s="50"/>
     </row>
     <row r="331">
-      <c r="F331" s="53"/>
-      <c r="G331" s="53"/>
+      <c r="F331" s="50"/>
+      <c r="G331" s="50"/>
     </row>
     <row r="332">
-      <c r="F332" s="53"/>
-      <c r="G332" s="53"/>
+      <c r="F332" s="50"/>
+      <c r="G332" s="50"/>
     </row>
     <row r="333">
-      <c r="F333" s="53"/>
-      <c r="G333" s="53"/>
+      <c r="F333" s="50"/>
+      <c r="G333" s="50"/>
     </row>
     <row r="334">
-      <c r="F334" s="53"/>
-      <c r="G334" s="53"/>
+      <c r="F334" s="50"/>
+      <c r="G334" s="50"/>
     </row>
     <row r="335">
-      <c r="F335" s="53"/>
-      <c r="G335" s="53"/>
+      <c r="F335" s="50"/>
+      <c r="G335" s="50"/>
     </row>
     <row r="336">
-      <c r="F336" s="53"/>
-      <c r="G336" s="53"/>
+      <c r="F336" s="50"/>
+      <c r="G336" s="50"/>
     </row>
     <row r="337">
-      <c r="F337" s="53"/>
-      <c r="G337" s="53"/>
+      <c r="F337" s="50"/>
+      <c r="G337" s="50"/>
     </row>
     <row r="338">
-      <c r="F338" s="53"/>
-      <c r="G338" s="53"/>
+      <c r="F338" s="50"/>
+      <c r="G338" s="50"/>
     </row>
     <row r="339">
-      <c r="F339" s="53"/>
-      <c r="G339" s="53"/>
+      <c r="F339" s="50"/>
+      <c r="G339" s="50"/>
     </row>
     <row r="340">
-      <c r="F340" s="53"/>
-      <c r="G340" s="53"/>
+      <c r="F340" s="50"/>
+      <c r="G340" s="50"/>
     </row>
     <row r="341">
-      <c r="F341" s="53"/>
-      <c r="G341" s="53"/>
+      <c r="F341" s="50"/>
+      <c r="G341" s="50"/>
     </row>
     <row r="342">
-      <c r="F342" s="53"/>
-      <c r="G342" s="53"/>
+      <c r="F342" s="50"/>
+      <c r="G342" s="50"/>
     </row>
     <row r="343">
-      <c r="F343" s="53"/>
-      <c r="G343" s="53"/>
+      <c r="F343" s="50"/>
+      <c r="G343" s="50"/>
     </row>
     <row r="344">
-      <c r="F344" s="53"/>
-      <c r="G344" s="53"/>
+      <c r="F344" s="50"/>
+      <c r="G344" s="50"/>
     </row>
     <row r="345">
-      <c r="F345" s="53"/>
-      <c r="G345" s="53"/>
+      <c r="F345" s="50"/>
+      <c r="G345" s="50"/>
     </row>
     <row r="346">
-      <c r="F346" s="53"/>
-      <c r="G346" s="53"/>
+      <c r="F346" s="50"/>
+      <c r="G346" s="50"/>
     </row>
     <row r="347">
-      <c r="F347" s="53"/>
-      <c r="G347" s="53"/>
+      <c r="F347" s="50"/>
+      <c r="G347" s="50"/>
     </row>
     <row r="348">
-      <c r="F348" s="53"/>
-      <c r="G348" s="53"/>
+      <c r="F348" s="50"/>
+      <c r="G348" s="50"/>
     </row>
     <row r="349">
-      <c r="F349" s="53"/>
-      <c r="G349" s="53"/>
+      <c r="F349" s="50"/>
+      <c r="G349" s="50"/>
     </row>
     <row r="350">
-      <c r="F350" s="53"/>
-      <c r="G350" s="53"/>
+      <c r="F350" s="50"/>
+      <c r="G350" s="50"/>
     </row>
     <row r="351">
-      <c r="F351" s="53"/>
-      <c r="G351" s="53"/>
+      <c r="F351" s="50"/>
+      <c r="G351" s="50"/>
     </row>
     <row r="352">
-      <c r="F352" s="53"/>
-      <c r="G352" s="53"/>
+      <c r="F352" s="50"/>
+      <c r="G352" s="50"/>
     </row>
     <row r="353">
-      <c r="F353" s="53"/>
-      <c r="G353" s="53"/>
+      <c r="F353" s="50"/>
+      <c r="G353" s="50"/>
     </row>
     <row r="354">
-      <c r="F354" s="53"/>
-      <c r="G354" s="53"/>
+      <c r="F354" s="50"/>
+      <c r="G354" s="50"/>
     </row>
     <row r="355">
-      <c r="F355" s="53"/>
-      <c r="G355" s="53"/>
+      <c r="F355" s="50"/>
+      <c r="G355" s="50"/>
     </row>
     <row r="356">
-      <c r="F356" s="53"/>
-      <c r="G356" s="53"/>
+      <c r="F356" s="50"/>
+      <c r="G356" s="50"/>
     </row>
     <row r="357">
-      <c r="F357" s="53"/>
-      <c r="G357" s="53"/>
+      <c r="F357" s="50"/>
+      <c r="G357" s="50"/>
     </row>
     <row r="358">
-      <c r="F358" s="53"/>
-      <c r="G358" s="53"/>
+      <c r="F358" s="50"/>
+      <c r="G358" s="50"/>
     </row>
     <row r="359">
-      <c r="F359" s="53"/>
-      <c r="G359" s="53"/>
+      <c r="F359" s="50"/>
+      <c r="G359" s="50"/>
     </row>
     <row r="360">
-      <c r="F360" s="53"/>
-      <c r="G360" s="53"/>
+      <c r="F360" s="50"/>
+      <c r="G360" s="50"/>
     </row>
     <row r="361">
-      <c r="F361" s="53"/>
-      <c r="G361" s="53"/>
+      <c r="F361" s="50"/>
+      <c r="G361" s="50"/>
     </row>
     <row r="362">
-      <c r="F362" s="53"/>
-      <c r="G362" s="53"/>
+      <c r="F362" s="50"/>
+      <c r="G362" s="50"/>
     </row>
     <row r="363">
-      <c r="F363" s="53"/>
-      <c r="G363" s="53"/>
+      <c r="F363" s="50"/>
+      <c r="G363" s="50"/>
     </row>
     <row r="364">
-      <c r="F364" s="53"/>
-      <c r="G364" s="53"/>
+      <c r="F364" s="50"/>
+      <c r="G364" s="50"/>
     </row>
     <row r="365">
-      <c r="F365" s="53"/>
-      <c r="G365" s="53"/>
+      <c r="F365" s="50"/>
+      <c r="G365" s="50"/>
     </row>
     <row r="366">
-      <c r="F366" s="53"/>
-      <c r="G366" s="53"/>
+      <c r="F366" s="50"/>
+      <c r="G366" s="50"/>
     </row>
     <row r="367">
-      <c r="F367" s="53"/>
-      <c r="G367" s="53"/>
+      <c r="F367" s="50"/>
+      <c r="G367" s="50"/>
     </row>
     <row r="368">
-      <c r="F368" s="53"/>
-      <c r="G368" s="53"/>
+      <c r="F368" s="50"/>
+      <c r="G368" s="50"/>
     </row>
     <row r="369">
-      <c r="F369" s="53"/>
-      <c r="G369" s="53"/>
+      <c r="F369" s="50"/>
+      <c r="G369" s="50"/>
     </row>
     <row r="370">
-      <c r="F370" s="53"/>
-      <c r="G370" s="53"/>
+      <c r="F370" s="50"/>
+      <c r="G370" s="50"/>
     </row>
     <row r="371">
-      <c r="F371" s="53"/>
-      <c r="G371" s="53"/>
+      <c r="F371" s="50"/>
+      <c r="G371" s="50"/>
     </row>
     <row r="372">
-      <c r="F372" s="53"/>
-      <c r="G372" s="53"/>
+      <c r="F372" s="50"/>
+      <c r="G372" s="50"/>
     </row>
     <row r="373">
-      <c r="F373" s="53"/>
-      <c r="G373" s="53"/>
+      <c r="F373" s="50"/>
+      <c r="G373" s="50"/>
     </row>
     <row r="374">
-      <c r="F374" s="53"/>
-      <c r="G374" s="53"/>
+      <c r="F374" s="50"/>
+      <c r="G374" s="50"/>
     </row>
     <row r="375">
-      <c r="F375" s="53"/>
-      <c r="G375" s="53"/>
+      <c r="F375" s="50"/>
+      <c r="G375" s="50"/>
     </row>
     <row r="376">
-      <c r="F376" s="53"/>
-      <c r="G376" s="53"/>
+      <c r="F376" s="50"/>
+      <c r="G376" s="50"/>
     </row>
     <row r="377">
-      <c r="F377" s="53"/>
-      <c r="G377" s="53"/>
+      <c r="F377" s="50"/>
+      <c r="G377" s="50"/>
     </row>
     <row r="378">
-      <c r="F378" s="53"/>
-      <c r="G378" s="53"/>
+      <c r="F378" s="50"/>
+      <c r="G378" s="50"/>
     </row>
     <row r="379">
-      <c r="F379" s="53"/>
-      <c r="G379" s="53"/>
+      <c r="F379" s="50"/>
+      <c r="G379" s="50"/>
     </row>
     <row r="380">
-      <c r="F380" s="53"/>
-      <c r="G380" s="53"/>
+      <c r="F380" s="50"/>
+      <c r="G380" s="50"/>
     </row>
     <row r="381">
-      <c r="F381" s="53"/>
-      <c r="G381" s="53"/>
+      <c r="F381" s="50"/>
+      <c r="G381" s="50"/>
     </row>
     <row r="382">
-      <c r="F382" s="53"/>
-      <c r="G382" s="53"/>
+      <c r="F382" s="50"/>
+      <c r="G382" s="50"/>
     </row>
     <row r="383">
-      <c r="F383" s="53"/>
-      <c r="G383" s="53"/>
+      <c r="F383" s="50"/>
+      <c r="G383" s="50"/>
     </row>
     <row r="384">
-      <c r="F384" s="53"/>
-      <c r="G384" s="53"/>
+      <c r="F384" s="50"/>
+      <c r="G384" s="50"/>
     </row>
     <row r="385">
-      <c r="F385" s="53"/>
-      <c r="G385" s="53"/>
+      <c r="F385" s="50"/>
+      <c r="G385" s="50"/>
     </row>
     <row r="386">
-      <c r="F386" s="53"/>
-      <c r="G386" s="53"/>
+      <c r="F386" s="50"/>
+      <c r="G386" s="50"/>
     </row>
     <row r="387">
-      <c r="F387" s="53"/>
-      <c r="G387" s="53"/>
+      <c r="F387" s="50"/>
+      <c r="G387" s="50"/>
     </row>
     <row r="388">
-      <c r="F388" s="53"/>
-      <c r="G388" s="53"/>
+      <c r="F388" s="50"/>
+      <c r="G388" s="50"/>
     </row>
     <row r="389">
-      <c r="F389" s="53"/>
-      <c r="G389" s="53"/>
+      <c r="F389" s="50"/>
+      <c r="G389" s="50"/>
     </row>
     <row r="390">
-      <c r="F390" s="53"/>
-      <c r="G390" s="53"/>
+      <c r="F390" s="50"/>
+      <c r="G390" s="50"/>
     </row>
     <row r="391">
-      <c r="F391" s="53"/>
-      <c r="G391" s="53"/>
+      <c r="F391" s="50"/>
+      <c r="G391" s="50"/>
     </row>
     <row r="392">
-      <c r="F392" s="53"/>
-      <c r="G392" s="53"/>
+      <c r="F392" s="50"/>
+      <c r="G392" s="50"/>
     </row>
     <row r="393">
-      <c r="F393" s="53"/>
-      <c r="G393" s="53"/>
+      <c r="F393" s="50"/>
+      <c r="G393" s="50"/>
     </row>
     <row r="394">
-      <c r="F394" s="53"/>
-      <c r="G394" s="53"/>
+      <c r="F394" s="50"/>
+      <c r="G394" s="50"/>
     </row>
     <row r="395">
-      <c r="F395" s="53"/>
-      <c r="G395" s="53"/>
+      <c r="F395" s="50"/>
+      <c r="G395" s="50"/>
     </row>
     <row r="396">
-      <c r="F396" s="53"/>
-      <c r="G396" s="53"/>
+      <c r="F396" s="50"/>
+      <c r="G396" s="50"/>
     </row>
     <row r="397">
-      <c r="F397" s="53"/>
-      <c r="G397" s="53"/>
+      <c r="F397" s="50"/>
+      <c r="G397" s="50"/>
     </row>
     <row r="398">
-      <c r="F398" s="53"/>
-      <c r="G398" s="53"/>
+      <c r="F398" s="50"/>
+      <c r="G398" s="50"/>
     </row>
     <row r="399">
-      <c r="F399" s="53"/>
-      <c r="G399" s="53"/>
+      <c r="F399" s="50"/>
+      <c r="G399" s="50"/>
     </row>
     <row r="400">
-      <c r="F400" s="53"/>
-      <c r="G400" s="53"/>
+      <c r="F400" s="50"/>
+      <c r="G400" s="50"/>
     </row>
     <row r="401">
-      <c r="F401" s="53"/>
-      <c r="G401" s="53"/>
+      <c r="F401" s="50"/>
+      <c r="G401" s="50"/>
     </row>
     <row r="402">
-      <c r="F402" s="53"/>
-      <c r="G402" s="53"/>
+      <c r="F402" s="50"/>
+      <c r="G402" s="50"/>
     </row>
     <row r="403">
-      <c r="F403" s="53"/>
-      <c r="G403" s="53"/>
+      <c r="F403" s="50"/>
+      <c r="G403" s="50"/>
     </row>
     <row r="404">
-      <c r="F404" s="53"/>
-      <c r="G404" s="53"/>
+      <c r="F404" s="50"/>
+      <c r="G404" s="50"/>
     </row>
     <row r="405">
-      <c r="F405" s="53"/>
-      <c r="G405" s="53"/>
+      <c r="F405" s="50"/>
+      <c r="G405" s="50"/>
     </row>
     <row r="406">
-      <c r="F406" s="53"/>
-      <c r="G406" s="53"/>
+      <c r="F406" s="50"/>
+      <c r="G406" s="50"/>
     </row>
     <row r="407">
-      <c r="F407" s="53"/>
-      <c r="G407" s="53"/>
+      <c r="F407" s="50"/>
+      <c r="G407" s="50"/>
     </row>
     <row r="408">
-      <c r="F408" s="53"/>
-      <c r="G408" s="53"/>
+      <c r="F408" s="50"/>
+      <c r="G408" s="50"/>
     </row>
     <row r="409">
-      <c r="F409" s="53"/>
-      <c r="G409" s="53"/>
+      <c r="F409" s="50"/>
+      <c r="G409" s="50"/>
     </row>
     <row r="410">
-      <c r="F410" s="53"/>
-      <c r="G410" s="53"/>
+      <c r="F410" s="50"/>
+      <c r="G410" s="50"/>
     </row>
     <row r="411">
-      <c r="F411" s="53"/>
-      <c r="G411" s="53"/>
+      <c r="F411" s="50"/>
+      <c r="G411" s="50"/>
     </row>
     <row r="412">
-      <c r="F412" s="53"/>
-      <c r="G412" s="53"/>
+      <c r="F412" s="50"/>
+      <c r="G412" s="50"/>
     </row>
     <row r="413">
-      <c r="F413" s="53"/>
-      <c r="G413" s="53"/>
+      <c r="F413" s="50"/>
+      <c r="G413" s="50"/>
     </row>
     <row r="414">
-      <c r="F414" s="53"/>
-      <c r="G414" s="53"/>
+      <c r="F414" s="50"/>
+      <c r="G414" s="50"/>
     </row>
     <row r="415">
-      <c r="F415" s="53"/>
-      <c r="G415" s="53"/>
+      <c r="F415" s="50"/>
+      <c r="G415" s="50"/>
     </row>
     <row r="416">
-      <c r="F416" s="53"/>
-      <c r="G416" s="53"/>
+      <c r="F416" s="50"/>
+      <c r="G416" s="50"/>
     </row>
     <row r="417">
-      <c r="F417" s="53"/>
-      <c r="G417" s="53"/>
+      <c r="F417" s="50"/>
+      <c r="G417" s="50"/>
     </row>
     <row r="418">
-      <c r="F418" s="53"/>
-      <c r="G418" s="53"/>
+      <c r="F418" s="50"/>
+      <c r="G418" s="50"/>
     </row>
     <row r="419">
-      <c r="F419" s="53"/>
-      <c r="G419" s="53"/>
+      <c r="F419" s="50"/>
+      <c r="G419" s="50"/>
     </row>
     <row r="420">
-      <c r="F420" s="53"/>
-      <c r="G420" s="53"/>
+      <c r="F420" s="50"/>
+      <c r="G420" s="50"/>
     </row>
     <row r="421">
-      <c r="F421" s="53"/>
-      <c r="G421" s="53"/>
+      <c r="F421" s="50"/>
+      <c r="G421" s="50"/>
     </row>
     <row r="422">
-      <c r="F422" s="53"/>
-      <c r="G422" s="53"/>
+      <c r="F422" s="50"/>
+      <c r="G422" s="50"/>
     </row>
     <row r="423">
-      <c r="F423" s="53"/>
-      <c r="G423" s="53"/>
+      <c r="F423" s="50"/>
+      <c r="G423" s="50"/>
     </row>
     <row r="424">
-      <c r="F424" s="53"/>
-      <c r="G424" s="53"/>
+      <c r="F424" s="50"/>
+      <c r="G424" s="50"/>
     </row>
     <row r="425">
-      <c r="F425" s="53"/>
-      <c r="G425" s="53"/>
+      <c r="F425" s="50"/>
+      <c r="G425" s="50"/>
     </row>
     <row r="426">
-      <c r="F426" s="53"/>
-      <c r="G426" s="53"/>
+      <c r="F426" s="50"/>
+      <c r="G426" s="50"/>
     </row>
     <row r="427">
-      <c r="F427" s="53"/>
-      <c r="G427" s="53"/>
+      <c r="F427" s="50"/>
+      <c r="G427" s="50"/>
     </row>
     <row r="428">
-      <c r="F428" s="53"/>
-      <c r="G428" s="53"/>
+      <c r="F428" s="50"/>
+      <c r="G428" s="50"/>
     </row>
     <row r="429">
-      <c r="F429" s="53"/>
-      <c r="G429" s="53"/>
+      <c r="F429" s="50"/>
+      <c r="G429" s="50"/>
     </row>
     <row r="430">
-      <c r="F430" s="53"/>
-      <c r="G430" s="53"/>
+      <c r="F430" s="50"/>
+      <c r="G430" s="50"/>
     </row>
     <row r="431">
-      <c r="F431" s="53"/>
-      <c r="G431" s="53"/>
+      <c r="F431" s="50"/>
+      <c r="G431" s="50"/>
     </row>
     <row r="432">
-      <c r="F432" s="53"/>
-      <c r="G432" s="53"/>
+      <c r="F432" s="50"/>
+      <c r="G432" s="50"/>
     </row>
     <row r="433">
-      <c r="F433" s="53"/>
-      <c r="G433" s="53"/>
+      <c r="F433" s="50"/>
+      <c r="G433" s="50"/>
     </row>
     <row r="434">
-      <c r="F434" s="53"/>
-      <c r="G434" s="53"/>
+      <c r="F434" s="50"/>
+      <c r="G434" s="50"/>
     </row>
     <row r="435">
-      <c r="F435" s="53"/>
-      <c r="G435" s="53"/>
+      <c r="F435" s="50"/>
+      <c r="G435" s="50"/>
     </row>
     <row r="436">
-      <c r="F436" s="53"/>
-      <c r="G436" s="53"/>
+      <c r="F436" s="50"/>
+      <c r="G436" s="50"/>
     </row>
     <row r="437">
-      <c r="F437" s="53"/>
-      <c r="G437" s="53"/>
+      <c r="F437" s="50"/>
+      <c r="G437" s="50"/>
     </row>
     <row r="438">
-      <c r="F438" s="53"/>
-      <c r="G438" s="53"/>
+      <c r="F438" s="50"/>
+      <c r="G438" s="50"/>
     </row>
     <row r="439">
-      <c r="F439" s="53"/>
-      <c r="G439" s="53"/>
+      <c r="F439" s="50"/>
+      <c r="G439" s="50"/>
     </row>
     <row r="440">
-      <c r="F440" s="53"/>
-      <c r="G440" s="53"/>
+      <c r="F440" s="50"/>
+      <c r="G440" s="50"/>
     </row>
     <row r="441">
-      <c r="F441" s="53"/>
-      <c r="G441" s="53"/>
+      <c r="F441" s="50"/>
+      <c r="G441" s="50"/>
     </row>
     <row r="442">
-      <c r="F442" s="53"/>
-      <c r="G442" s="53"/>
+      <c r="F442" s="50"/>
+      <c r="G442" s="50"/>
     </row>
     <row r="443">
-      <c r="F443" s="53"/>
-      <c r="G443" s="53"/>
+      <c r="F443" s="50"/>
+      <c r="G443" s="50"/>
     </row>
     <row r="444">
-      <c r="F444" s="53"/>
-      <c r="G444" s="53"/>
+      <c r="F444" s="50"/>
+      <c r="G444" s="50"/>
     </row>
     <row r="445">
-      <c r="F445" s="53"/>
-      <c r="G445" s="53"/>
+      <c r="F445" s="50"/>
+      <c r="G445" s="50"/>
     </row>
     <row r="446">
-      <c r="F446" s="53"/>
-      <c r="G446" s="53"/>
+      <c r="F446" s="50"/>
+      <c r="G446" s="50"/>
     </row>
     <row r="447">
-      <c r="F447" s="53"/>
-      <c r="G447" s="53"/>
+      <c r="F447" s="50"/>
+      <c r="G447" s="50"/>
     </row>
     <row r="448">
-      <c r="F448" s="53"/>
-      <c r="G448" s="53"/>
+      <c r="F448" s="50"/>
+      <c r="G448" s="50"/>
     </row>
     <row r="449">
-      <c r="F449" s="53"/>
-      <c r="G449" s="53"/>
+      <c r="F449" s="50"/>
+      <c r="G449" s="50"/>
     </row>
     <row r="450">
-      <c r="F450" s="53"/>
-      <c r="G450" s="53"/>
+      <c r="F450" s="50"/>
+      <c r="G450" s="50"/>
     </row>
     <row r="451">
-      <c r="F451" s="53"/>
-      <c r="G451" s="53"/>
+      <c r="F451" s="50"/>
+      <c r="G451" s="50"/>
     </row>
     <row r="452">
-      <c r="F452" s="53"/>
-      <c r="G452" s="53"/>
+      <c r="F452" s="50"/>
+      <c r="G452" s="50"/>
     </row>
     <row r="453">
-      <c r="F453" s="53"/>
-      <c r="G453" s="53"/>
+      <c r="F453" s="50"/>
+      <c r="G453" s="50"/>
     </row>
     <row r="454">
-      <c r="F454" s="53"/>
-      <c r="G454" s="53"/>
+      <c r="F454" s="50"/>
+      <c r="G454" s="50"/>
     </row>
     <row r="455">
-      <c r="F455" s="53"/>
-      <c r="G455" s="53"/>
+      <c r="F455" s="50"/>
+      <c r="G455" s="50"/>
     </row>
     <row r="456">
-      <c r="F456" s="53"/>
-      <c r="G456" s="53"/>
+      <c r="F456" s="50"/>
+      <c r="G456" s="50"/>
     </row>
     <row r="457">
-      <c r="F457" s="53"/>
-      <c r="G457" s="53"/>
+      <c r="F457" s="50"/>
+      <c r="G457" s="50"/>
     </row>
     <row r="458">
-      <c r="F458" s="53"/>
-      <c r="G458" s="53"/>
+      <c r="F458" s="50"/>
+      <c r="G458" s="50"/>
     </row>
     <row r="459">
-      <c r="F459" s="53"/>
-      <c r="G459" s="53"/>
+      <c r="F459" s="50"/>
+      <c r="G459" s="50"/>
     </row>
     <row r="460">
-      <c r="F460" s="53"/>
-      <c r="G460" s="53"/>
+      <c r="F460" s="50"/>
+      <c r="G460" s="50"/>
     </row>
     <row r="461">
-      <c r="F461" s="53"/>
-      <c r="G461" s="53"/>
+      <c r="F461" s="50"/>
+      <c r="G461" s="50"/>
     </row>
     <row r="462">
-      <c r="F462" s="53"/>
-      <c r="G462" s="53"/>
+      <c r="F462" s="50"/>
+      <c r="G462" s="50"/>
     </row>
     <row r="463">
-      <c r="F463" s="53"/>
-      <c r="G463" s="53"/>
+      <c r="F463" s="50"/>
+      <c r="G463" s="50"/>
     </row>
     <row r="464">
-      <c r="F464" s="53"/>
-      <c r="G464" s="53"/>
+      <c r="F464" s="50"/>
+      <c r="G464" s="50"/>
     </row>
     <row r="465">
-      <c r="F465" s="53"/>
-      <c r="G465" s="53"/>
+      <c r="F465" s="50"/>
+      <c r="G465" s="50"/>
     </row>
     <row r="466">
-      <c r="F466" s="53"/>
-      <c r="G466" s="53"/>
+      <c r="F466" s="50"/>
+      <c r="G466" s="50"/>
     </row>
     <row r="467">
-      <c r="F467" s="53"/>
-      <c r="G467" s="53"/>
+      <c r="F467" s="50"/>
+      <c r="G467" s="50"/>
     </row>
     <row r="468">
-      <c r="F468" s="53"/>
-      <c r="G468" s="53"/>
+      <c r="F468" s="50"/>
+      <c r="G468" s="50"/>
     </row>
     <row r="469">
-      <c r="F469" s="53"/>
-      <c r="G469" s="53"/>
+      <c r="F469" s="50"/>
+      <c r="G469" s="50"/>
     </row>
     <row r="470">
-      <c r="F470" s="53"/>
-      <c r="G470" s="53"/>
+      <c r="F470" s="50"/>
+      <c r="G470" s="50"/>
     </row>
     <row r="471">
-      <c r="F471" s="53"/>
-      <c r="G471" s="53"/>
+      <c r="F471" s="50"/>
+      <c r="G471" s="50"/>
     </row>
     <row r="472">
-      <c r="F472" s="53"/>
-      <c r="G472" s="53"/>
+      <c r="F472" s="50"/>
+      <c r="G472" s="50"/>
     </row>
     <row r="473">
-      <c r="F473" s="53"/>
-      <c r="G473" s="53"/>
+      <c r="F473" s="50"/>
+      <c r="G473" s="50"/>
     </row>
     <row r="474">
-      <c r="F474" s="53"/>
-      <c r="G474" s="53"/>
+      <c r="F474" s="50"/>
+      <c r="G474" s="50"/>
     </row>
     <row r="475">
-      <c r="F475" s="53"/>
-      <c r="G475" s="53"/>
+      <c r="F475" s="50"/>
+      <c r="G475" s="50"/>
     </row>
     <row r="476">
-      <c r="F476" s="53"/>
-      <c r="G476" s="53"/>
+      <c r="F476" s="50"/>
+      <c r="G476" s="50"/>
     </row>
     <row r="477">
-      <c r="F477" s="53"/>
-      <c r="G477" s="53"/>
+      <c r="F477" s="50"/>
+      <c r="G477" s="50"/>
     </row>
     <row r="478">
-      <c r="F478" s="53"/>
-      <c r="G478" s="53"/>
+      <c r="F478" s="50"/>
+      <c r="G478" s="50"/>
     </row>
     <row r="479">
-      <c r="F479" s="53"/>
-      <c r="G479" s="53"/>
+      <c r="F479" s="50"/>
+      <c r="G479" s="50"/>
     </row>
     <row r="480">
-      <c r="F480" s="53"/>
-      <c r="G480" s="53"/>
+      <c r="F480" s="50"/>
+      <c r="G480" s="50"/>
     </row>
     <row r="481">
-      <c r="F481" s="53"/>
-      <c r="G481" s="53"/>
+      <c r="F481" s="50"/>
+      <c r="G481" s="50"/>
     </row>
     <row r="482">
-      <c r="F482" s="53"/>
-      <c r="G482" s="53"/>
+      <c r="F482" s="50"/>
+      <c r="G482" s="50"/>
     </row>
     <row r="483">
-      <c r="F483" s="53"/>
-      <c r="G483" s="53"/>
+      <c r="F483" s="50"/>
+      <c r="G483" s="50"/>
     </row>
     <row r="484">
-      <c r="F484" s="53"/>
-      <c r="G484" s="53"/>
+      <c r="F484" s="50"/>
+      <c r="G484" s="50"/>
     </row>
     <row r="485">
-      <c r="F485" s="53"/>
-      <c r="G485" s="53"/>
+      <c r="F485" s="50"/>
+      <c r="G485" s="50"/>
     </row>
     <row r="486">
-      <c r="F486" s="53"/>
-      <c r="G486" s="53"/>
+      <c r="F486" s="50"/>
+      <c r="G486" s="50"/>
     </row>
     <row r="487">
-      <c r="F487" s="53"/>
-      <c r="G487" s="53"/>
+      <c r="F487" s="50"/>
+      <c r="G487" s="50"/>
     </row>
     <row r="488">
-      <c r="F488" s="53"/>
-      <c r="G488" s="53"/>
+      <c r="F488" s="50"/>
+      <c r="G488" s="50"/>
     </row>
     <row r="489">
-      <c r="F489" s="53"/>
-      <c r="G489" s="53"/>
+      <c r="F489" s="50"/>
+      <c r="G489" s="50"/>
     </row>
     <row r="490">
-      <c r="F490" s="53"/>
-      <c r="G490" s="53"/>
+      <c r="F490" s="50"/>
+      <c r="G490" s="50"/>
     </row>
     <row r="491">
-      <c r="F491" s="53"/>
-      <c r="G491" s="53"/>
+      <c r="F491" s="50"/>
+      <c r="G491" s="50"/>
     </row>
     <row r="492">
-      <c r="F492" s="53"/>
-      <c r="G492" s="53"/>
+      <c r="F492" s="50"/>
+      <c r="G492" s="50"/>
     </row>
     <row r="493">
-      <c r="F493" s="53"/>
-      <c r="G493" s="53"/>
+      <c r="F493" s="50"/>
+      <c r="G493" s="50"/>
     </row>
     <row r="494">
-      <c r="F494" s="53"/>
-      <c r="G494" s="53"/>
+      <c r="F494" s="50"/>
+      <c r="G494" s="50"/>
     </row>
     <row r="495">
-      <c r="F495" s="53"/>
-      <c r="G495" s="53"/>
+      <c r="F495" s="50"/>
+      <c r="G495" s="50"/>
     </row>
     <row r="496">
-      <c r="F496" s="53"/>
-      <c r="G496" s="53"/>
+      <c r="F496" s="50"/>
+      <c r="G496" s="50"/>
     </row>
     <row r="497">
-      <c r="F497" s="53"/>
-      <c r="G497" s="53"/>
+      <c r="F497" s="50"/>
+      <c r="G497" s="50"/>
     </row>
     <row r="498">
-      <c r="F498" s="53"/>
-      <c r="G498" s="53"/>
+      <c r="F498" s="50"/>
+      <c r="G498" s="50"/>
     </row>
     <row r="499">
-      <c r="F499" s="53"/>
-      <c r="G499" s="53"/>
+      <c r="F499" s="50"/>
+      <c r="G499" s="50"/>
     </row>
     <row r="500">
-      <c r="F500" s="53"/>
-      <c r="G500" s="53"/>
+      <c r="F500" s="50"/>
+      <c r="G500" s="50"/>
     </row>
     <row r="501">
-      <c r="F501" s="53"/>
-      <c r="G501" s="53"/>
+      <c r="F501" s="50"/>
+      <c r="G501" s="50"/>
     </row>
     <row r="502">
-      <c r="F502" s="53"/>
-      <c r="G502" s="53"/>
+      <c r="F502" s="50"/>
+      <c r="G502" s="50"/>
     </row>
     <row r="503">
-      <c r="F503" s="53"/>
-      <c r="G503" s="53"/>
+      <c r="F503" s="50"/>
+      <c r="G503" s="50"/>
     </row>
     <row r="504">
-      <c r="F504" s="53"/>
-      <c r="G504" s="53"/>
+      <c r="F504" s="50"/>
+      <c r="G504" s="50"/>
     </row>
     <row r="505">
-      <c r="F505" s="53"/>
-      <c r="G505" s="53"/>
+      <c r="F505" s="50"/>
+      <c r="G505" s="50"/>
     </row>
     <row r="506">
-      <c r="F506" s="53"/>
-      <c r="G506" s="53"/>
+      <c r="F506" s="50"/>
+      <c r="G506" s="50"/>
     </row>
     <row r="507">
-      <c r="F507" s="53"/>
-      <c r="G507" s="53"/>
+      <c r="F507" s="50"/>
+      <c r="G507" s="50"/>
     </row>
     <row r="508">
-      <c r="F508" s="53"/>
-      <c r="G508" s="53"/>
+      <c r="F508" s="50"/>
+      <c r="G508" s="50"/>
     </row>
     <row r="509">
-      <c r="F509" s="53"/>
-      <c r="G509" s="53"/>
+      <c r="F509" s="50"/>
+      <c r="G509" s="50"/>
     </row>
     <row r="510">
-      <c r="F510" s="53"/>
-      <c r="G510" s="53"/>
+      <c r="F510" s="50"/>
+      <c r="G510" s="50"/>
     </row>
     <row r="511">
-      <c r="F511" s="53"/>
-      <c r="G511" s="53"/>
+      <c r="F511" s="50"/>
+      <c r="G511" s="50"/>
     </row>
     <row r="512">
-      <c r="F512" s="53"/>
-      <c r="G512" s="53"/>
+      <c r="F512" s="50"/>
+      <c r="G512" s="50"/>
     </row>
     <row r="513">
-      <c r="F513" s="53"/>
-      <c r="G513" s="53"/>
+      <c r="F513" s="50"/>
+      <c r="G513" s="50"/>
     </row>
     <row r="514">
-      <c r="F514" s="53"/>
-      <c r="G514" s="53"/>
+      <c r="F514" s="50"/>
+      <c r="G514" s="50"/>
     </row>
     <row r="515">
-      <c r="F515" s="53"/>
-      <c r="G515" s="53"/>
+      <c r="F515" s="50"/>
+      <c r="G515" s="50"/>
     </row>
     <row r="516">
-      <c r="F516" s="53"/>
-      <c r="G516" s="53"/>
+      <c r="F516" s="50"/>
+      <c r="G516" s="50"/>
     </row>
     <row r="517">
-      <c r="F517" s="53"/>
-      <c r="G517" s="53"/>
+      <c r="F517" s="50"/>
+      <c r="G517" s="50"/>
     </row>
     <row r="518">
-      <c r="F518" s="53"/>
-      <c r="G518" s="53"/>
+      <c r="F518" s="50"/>
+      <c r="G518" s="50"/>
     </row>
     <row r="519">
-      <c r="F519" s="53"/>
-      <c r="G519" s="53"/>
+      <c r="F519" s="50"/>
+      <c r="G519" s="50"/>
     </row>
     <row r="520">
-      <c r="F520" s="53"/>
-      <c r="G520" s="53"/>
+      <c r="F520" s="50"/>
+      <c r="G520" s="50"/>
     </row>
     <row r="521">
-      <c r="F521" s="53"/>
-      <c r="G521" s="53"/>
+      <c r="F521" s="50"/>
+      <c r="G521" s="50"/>
     </row>
     <row r="522">
-      <c r="F522" s="53"/>
-      <c r="G522" s="53"/>
+      <c r="F522" s="50"/>
+      <c r="G522" s="50"/>
     </row>
     <row r="523">
-      <c r="F523" s="53"/>
-      <c r="G523" s="53"/>
+      <c r="F523" s="50"/>
+      <c r="G523" s="50"/>
     </row>
     <row r="524">
-      <c r="F524" s="53"/>
-      <c r="G524" s="53"/>
+      <c r="F524" s="50"/>
+      <c r="G524" s="50"/>
     </row>
     <row r="525">
-      <c r="F525" s="53"/>
-      <c r="G525" s="53"/>
+      <c r="F525" s="50"/>
+      <c r="G525" s="50"/>
     </row>
     <row r="526">
-      <c r="F526" s="53"/>
-      <c r="G526" s="53"/>
+      <c r="F526" s="50"/>
+      <c r="G526" s="50"/>
     </row>
     <row r="527">
-      <c r="F527" s="53"/>
-      <c r="G527" s="53"/>
+      <c r="F527" s="50"/>
+      <c r="G527" s="50"/>
     </row>
     <row r="528">
-      <c r="F528" s="53"/>
-      <c r="G528" s="53"/>
+      <c r="F528" s="50"/>
+      <c r="G528" s="50"/>
     </row>
     <row r="529">
-      <c r="F529" s="53"/>
-      <c r="G529" s="53"/>
+      <c r="F529" s="50"/>
+      <c r="G529" s="50"/>
     </row>
     <row r="530">
-      <c r="F530" s="53"/>
-      <c r="G530" s="53"/>
+      <c r="F530" s="50"/>
+      <c r="G530" s="50"/>
     </row>
     <row r="531">
-      <c r="F531" s="53"/>
-      <c r="G531" s="53"/>
+      <c r="F531" s="50"/>
+      <c r="G531" s="50"/>
     </row>
     <row r="532">
-      <c r="F532" s="53"/>
-      <c r="G532" s="53"/>
+      <c r="F532" s="50"/>
+      <c r="G532" s="50"/>
     </row>
     <row r="533">
-      <c r="F533" s="53"/>
-      <c r="G533" s="53"/>
+      <c r="F533" s="50"/>
+      <c r="G533" s="50"/>
     </row>
     <row r="534">
-      <c r="F534" s="53"/>
-      <c r="G534" s="53"/>
+      <c r="F534" s="50"/>
+      <c r="G534" s="50"/>
     </row>
     <row r="535">
-      <c r="F535" s="53"/>
-      <c r="G535" s="53"/>
+      <c r="F535" s="50"/>
+      <c r="G535" s="50"/>
     </row>
     <row r="536">
-      <c r="F536" s="53"/>
-      <c r="G536" s="53"/>
+      <c r="F536" s="50"/>
+      <c r="G536" s="50"/>
     </row>
     <row r="537">
-      <c r="F537" s="53"/>
-      <c r="G537" s="53"/>
+      <c r="F537" s="50"/>
+      <c r="G537" s="50"/>
     </row>
     <row r="538">
-      <c r="F538" s="53"/>
-      <c r="G538" s="53"/>
+      <c r="F538" s="50"/>
+      <c r="G538" s="50"/>
     </row>
     <row r="539">
-      <c r="F539" s="53"/>
-      <c r="G539" s="53"/>
+      <c r="F539" s="50"/>
+      <c r="G539" s="50"/>
     </row>
     <row r="540">
-      <c r="F540" s="53"/>
-      <c r="G540" s="53"/>
+      <c r="F540" s="50"/>
+      <c r="G540" s="50"/>
     </row>
     <row r="541">
-      <c r="F541" s="53"/>
-      <c r="G541" s="53"/>
+      <c r="F541" s="50"/>
+      <c r="G541" s="50"/>
     </row>
     <row r="542">
-      <c r="F542" s="53"/>
-      <c r="G542" s="53"/>
+      <c r="F542" s="50"/>
+      <c r="G542" s="50"/>
     </row>
     <row r="543">
-      <c r="F543" s="53"/>
-      <c r="G543" s="53"/>
+      <c r="F543" s="50"/>
+      <c r="G543" s="50"/>
     </row>
     <row r="544">
-      <c r="F544" s="53"/>
-      <c r="G544" s="53"/>
+      <c r="F544" s="50"/>
+      <c r="G544" s="50"/>
     </row>
     <row r="545">
-      <c r="F545" s="53"/>
-      <c r="G545" s="53"/>
+      <c r="F545" s="50"/>
+      <c r="G545" s="50"/>
     </row>
     <row r="546">
-      <c r="F546" s="53"/>
-      <c r="G546" s="53"/>
+      <c r="F546" s="50"/>
+      <c r="G546" s="50"/>
     </row>
     <row r="547">
-      <c r="F547" s="53"/>
-      <c r="G547" s="53"/>
+      <c r="F547" s="50"/>
+      <c r="G547" s="50"/>
     </row>
     <row r="548">
-      <c r="F548" s="53"/>
-      <c r="G548" s="53"/>
+      <c r="F548" s="50"/>
+      <c r="G548" s="50"/>
     </row>
     <row r="549">
-      <c r="F549" s="53"/>
-      <c r="G549" s="53"/>
+      <c r="F549" s="50"/>
+      <c r="G549" s="50"/>
     </row>
     <row r="550">
-      <c r="F550" s="53"/>
-      <c r="G550" s="53"/>
+      <c r="F550" s="50"/>
+      <c r="G550" s="50"/>
     </row>
     <row r="551">
-      <c r="F551" s="53"/>
-      <c r="G551" s="53"/>
+      <c r="F551" s="50"/>
+      <c r="G551" s="50"/>
     </row>
     <row r="552">
-      <c r="F552" s="53"/>
-      <c r="G552" s="53"/>
+      <c r="F552" s="50"/>
+      <c r="G552" s="50"/>
     </row>
     <row r="553">
-      <c r="F553" s="53"/>
-      <c r="G553" s="53"/>
+      <c r="F553" s="50"/>
+      <c r="G553" s="50"/>
     </row>
     <row r="554">
-      <c r="F554" s="53"/>
-      <c r="G554" s="53"/>
+      <c r="F554" s="50"/>
+      <c r="G554" s="50"/>
     </row>
     <row r="555">
-      <c r="F555" s="53"/>
-      <c r="G555" s="53"/>
+      <c r="F555" s="50"/>
+      <c r="G555" s="50"/>
     </row>
     <row r="556">
-      <c r="F556" s="53"/>
-      <c r="G556" s="53"/>
+      <c r="F556" s="50"/>
+      <c r="G556" s="50"/>
     </row>
     <row r="557">
-      <c r="F557" s="53"/>
-      <c r="G557" s="53"/>
+      <c r="F557" s="50"/>
+      <c r="G557" s="50"/>
     </row>
     <row r="558">
-      <c r="F558" s="53"/>
-      <c r="G558" s="53"/>
+      <c r="F558" s="50"/>
+      <c r="G558" s="50"/>
     </row>
     <row r="559">
-      <c r="F559" s="53"/>
-      <c r="G559" s="53"/>
+      <c r="F559" s="50"/>
+      <c r="G559" s="50"/>
     </row>
     <row r="560">
-      <c r="F560" s="53"/>
-      <c r="G560" s="53"/>
+      <c r="F560" s="50"/>
+      <c r="G560" s="50"/>
     </row>
     <row r="561">
-      <c r="F561" s="53"/>
-      <c r="G561" s="53"/>
+      <c r="F561" s="50"/>
+      <c r="G561" s="50"/>
     </row>
     <row r="562">
-      <c r="F562" s="53"/>
-      <c r="G562" s="53"/>
+      <c r="F562" s="50"/>
+      <c r="G562" s="50"/>
     </row>
     <row r="563">
-      <c r="F563" s="53"/>
-      <c r="G563" s="53"/>
+      <c r="F563" s="50"/>
+      <c r="G563" s="50"/>
     </row>
     <row r="564">
-      <c r="F564" s="53"/>
-      <c r="G564" s="53"/>
+      <c r="F564" s="50"/>
+      <c r="G564" s="50"/>
     </row>
     <row r="565">
-      <c r="F565" s="53"/>
-      <c r="G565" s="53"/>
+      <c r="F565" s="50"/>
+      <c r="G565" s="50"/>
     </row>
     <row r="566">
-      <c r="F566" s="53"/>
-      <c r="G566" s="53"/>
+      <c r="F566" s="50"/>
+      <c r="G566" s="50"/>
     </row>
     <row r="567">
-      <c r="F567" s="53"/>
-      <c r="G567" s="53"/>
+      <c r="F567" s="50"/>
+      <c r="G567" s="50"/>
     </row>
     <row r="568">
-      <c r="F568" s="53"/>
-      <c r="G568" s="53"/>
+      <c r="F568" s="50"/>
+      <c r="G568" s="50"/>
     </row>
     <row r="569">
-      <c r="F569" s="53"/>
-      <c r="G569" s="53"/>
+      <c r="F569" s="50"/>
+      <c r="G569" s="50"/>
     </row>
     <row r="570">
-      <c r="F570" s="53"/>
-      <c r="G570" s="53"/>
+      <c r="F570" s="50"/>
+      <c r="G570" s="50"/>
     </row>
     <row r="571">
-      <c r="F571" s="53"/>
-      <c r="G571" s="53"/>
+      <c r="F571" s="50"/>
+      <c r="G571" s="50"/>
     </row>
     <row r="572">
-      <c r="F572" s="53"/>
-      <c r="G572" s="53"/>
+      <c r="F572" s="50"/>
+      <c r="G572" s="50"/>
     </row>
     <row r="573">
-      <c r="F573" s="53"/>
-      <c r="G573" s="53"/>
+      <c r="F573" s="50"/>
+      <c r="G573" s="50"/>
     </row>
     <row r="574">
-      <c r="F574" s="53"/>
-      <c r="G574" s="53"/>
+      <c r="F574" s="50"/>
+      <c r="G574" s="50"/>
     </row>
     <row r="575">
-      <c r="F575" s="53"/>
-      <c r="G575" s="53"/>
+      <c r="F575" s="50"/>
+      <c r="G575" s="50"/>
     </row>
     <row r="576">
-      <c r="F576" s="53"/>
-      <c r="G576" s="53"/>
+      <c r="F576" s="50"/>
+      <c r="G576" s="50"/>
     </row>
     <row r="577">
-      <c r="F577" s="53"/>
-      <c r="G577" s="53"/>
+      <c r="F577" s="50"/>
+      <c r="G577" s="50"/>
     </row>
     <row r="578">
-      <c r="F578" s="53"/>
-      <c r="G578" s="53"/>
+      <c r="F578" s="50"/>
+      <c r="G578" s="50"/>
     </row>
     <row r="579">
-      <c r="F579" s="53"/>
-      <c r="G579" s="53"/>
+      <c r="F579" s="50"/>
+      <c r="G579" s="50"/>
     </row>
     <row r="580">
-      <c r="F580" s="53"/>
-      <c r="G580" s="53"/>
+      <c r="F580" s="50"/>
+      <c r="G580" s="50"/>
     </row>
     <row r="581">
-      <c r="F581" s="53"/>
-      <c r="G581" s="53"/>
+      <c r="F581" s="50"/>
+      <c r="G581" s="50"/>
     </row>
     <row r="582">
-      <c r="F582" s="53"/>
-      <c r="G582" s="53"/>
+      <c r="F582" s="50"/>
+      <c r="G582" s="50"/>
     </row>
     <row r="583">
-      <c r="F583" s="53"/>
-      <c r="G583" s="53"/>
+      <c r="F583" s="50"/>
+      <c r="G583" s="50"/>
     </row>
     <row r="584">
-      <c r="F584" s="53"/>
-      <c r="G584" s="53"/>
+      <c r="F584" s="50"/>
+      <c r="G584" s="50"/>
     </row>
     <row r="585">
-      <c r="F585" s="53"/>
-      <c r="G585" s="53"/>
+      <c r="F585" s="50"/>
+      <c r="G585" s="50"/>
     </row>
     <row r="586">
-      <c r="F586" s="53"/>
-      <c r="G586" s="53"/>
+      <c r="F586" s="50"/>
+      <c r="G586" s="50"/>
     </row>
     <row r="587">
-      <c r="F587" s="53"/>
-      <c r="G587" s="53"/>
+      <c r="F587" s="50"/>
+      <c r="G587" s="50"/>
     </row>
     <row r="588">
-      <c r="F588" s="53"/>
-      <c r="G588" s="53"/>
+      <c r="F588" s="50"/>
+      <c r="G588" s="50"/>
     </row>
     <row r="589">
-      <c r="F589" s="53"/>
-      <c r="G589" s="53"/>
+      <c r="F589" s="50"/>
+      <c r="G589" s="50"/>
     </row>
     <row r="590">
-      <c r="F590" s="53"/>
-      <c r="G590" s="53"/>
+      <c r="F590" s="50"/>
+      <c r="G590" s="50"/>
     </row>
     <row r="591">
-      <c r="F591" s="53"/>
-      <c r="G591" s="53"/>
+      <c r="F591" s="50"/>
+      <c r="G591" s="50"/>
     </row>
     <row r="592">
-      <c r="F592" s="53"/>
-      <c r="G592" s="53"/>
+      <c r="F592" s="50"/>
+      <c r="G592" s="50"/>
     </row>
     <row r="593">
-      <c r="F593" s="53"/>
-      <c r="G593" s="53"/>
+      <c r="F593" s="50"/>
+      <c r="G593" s="50"/>
     </row>
     <row r="594">
-      <c r="F594" s="53"/>
-      <c r="G594" s="53"/>
+      <c r="F594" s="50"/>
+      <c r="G594" s="50"/>
     </row>
     <row r="595">
-      <c r="F595" s="53"/>
-      <c r="G595" s="53"/>
+      <c r="F595" s="50"/>
+      <c r="G595" s="50"/>
     </row>
     <row r="596">
-      <c r="F596" s="53"/>
-      <c r="G596" s="53"/>
+      <c r="F596" s="50"/>
+      <c r="G596" s="50"/>
     </row>
     <row r="597">
-      <c r="F597" s="53"/>
-      <c r="G597" s="53"/>
+      <c r="F597" s="50"/>
+      <c r="G597" s="50"/>
     </row>
     <row r="598">
-      <c r="F598" s="53"/>
-      <c r="G598" s="53"/>
+      <c r="F598" s="50"/>
+      <c r="G598" s="50"/>
     </row>
     <row r="599">
-      <c r="F599" s="53"/>
-      <c r="G599" s="53"/>
+      <c r="F599" s="50"/>
+      <c r="G599" s="50"/>
     </row>
     <row r="600">
-      <c r="F600" s="53"/>
-      <c r="G600" s="53"/>
+      <c r="F600" s="50"/>
+      <c r="G600" s="50"/>
     </row>
     <row r="601">
-      <c r="F601" s="53"/>
-      <c r="G601" s="53"/>
+      <c r="F601" s="50"/>
+      <c r="G601" s="50"/>
     </row>
     <row r="602">
-      <c r="F602" s="53"/>
-      <c r="G602" s="53"/>
+      <c r="F602" s="50"/>
+      <c r="G602" s="50"/>
     </row>
     <row r="603">
-      <c r="F603" s="53"/>
-      <c r="G603" s="53"/>
+      <c r="F603" s="50"/>
+      <c r="G603" s="50"/>
     </row>
     <row r="604">
-      <c r="F604" s="53"/>
-      <c r="G604" s="53"/>
+      <c r="F604" s="50"/>
+      <c r="G604" s="50"/>
     </row>
     <row r="605">
-      <c r="F605" s="53"/>
-      <c r="G605" s="53"/>
+      <c r="F605" s="50"/>
+      <c r="G605" s="50"/>
     </row>
     <row r="606">
-      <c r="F606" s="53"/>
-      <c r="G606" s="53"/>
+      <c r="F606" s="50"/>
+      <c r="G606" s="50"/>
     </row>
     <row r="607">
-      <c r="F607" s="53"/>
-      <c r="G607" s="53"/>
+      <c r="F607" s="50"/>
+      <c r="G607" s="50"/>
     </row>
     <row r="608">
-      <c r="F608" s="53"/>
-      <c r="G608" s="53"/>
+      <c r="F608" s="50"/>
+      <c r="G608" s="50"/>
     </row>
     <row r="609">
-      <c r="F609" s="53"/>
-      <c r="G609" s="53"/>
+      <c r="F609" s="50"/>
+      <c r="G609" s="50"/>
     </row>
     <row r="610">
-      <c r="F610" s="53"/>
-      <c r="G610" s="53"/>
+      <c r="F610" s="50"/>
+      <c r="G610" s="50"/>
     </row>
     <row r="611">
-      <c r="F611" s="53"/>
-      <c r="G611" s="53"/>
+      <c r="F611" s="50"/>
+      <c r="G611" s="50"/>
     </row>
     <row r="612">
-      <c r="F612" s="53"/>
-      <c r="G612" s="53"/>
+      <c r="F612" s="50"/>
+      <c r="G612" s="50"/>
     </row>
     <row r="613">
-      <c r="F613" s="53"/>
-      <c r="G613" s="53"/>
+      <c r="F613" s="50"/>
+      <c r="G613" s="50"/>
     </row>
     <row r="614">
-      <c r="F614" s="53"/>
-      <c r="G614" s="53"/>
+      <c r="F614" s="50"/>
+      <c r="G614" s="50"/>
     </row>
     <row r="615">
-      <c r="F615" s="53"/>
-      <c r="G615" s="53"/>
+      <c r="F615" s="50"/>
+      <c r="G615" s="50"/>
     </row>
     <row r="616">
-      <c r="F616" s="53"/>
-      <c r="G616" s="53"/>
+      <c r="F616" s="50"/>
+      <c r="G616" s="50"/>
     </row>
     <row r="617">
-      <c r="F617" s="53"/>
-      <c r="G617" s="53"/>
+      <c r="F617" s="50"/>
+      <c r="G617" s="50"/>
     </row>
     <row r="618">
-      <c r="F618" s="53"/>
-      <c r="G618" s="53"/>
+      <c r="F618" s="50"/>
+      <c r="G618" s="50"/>
     </row>
     <row r="619">
-      <c r="F619" s="53"/>
-      <c r="G619" s="53"/>
+      <c r="F619" s="50"/>
+      <c r="G619" s="50"/>
     </row>
     <row r="620">
-      <c r="F620" s="53"/>
-      <c r="G620" s="53"/>
+      <c r="F620" s="50"/>
+      <c r="G620" s="50"/>
     </row>
     <row r="621">
-      <c r="F621" s="53"/>
-      <c r="G621" s="53"/>
+      <c r="F621" s="50"/>
+      <c r="G621" s="50"/>
     </row>
     <row r="622">
-      <c r="F622" s="53"/>
-      <c r="G622" s="53"/>
+      <c r="F622" s="50"/>
+      <c r="G622" s="50"/>
     </row>
     <row r="623">
-      <c r="F623" s="53"/>
-      <c r="G623" s="53"/>
+      <c r="F623" s="50"/>
+      <c r="G623" s="50"/>
     </row>
     <row r="624">
-      <c r="F624" s="53"/>
-      <c r="G624" s="53"/>
+      <c r="F624" s="50"/>
+      <c r="G624" s="50"/>
     </row>
     <row r="625">
-      <c r="F625" s="53"/>
-      <c r="G625" s="53"/>
+      <c r="F625" s="50"/>
+      <c r="G625" s="50"/>
     </row>
     <row r="626">
-      <c r="F626" s="53"/>
-      <c r="G626" s="53"/>
+      <c r="F626" s="50"/>
+      <c r="G626" s="50"/>
     </row>
     <row r="627">
-      <c r="F627" s="53"/>
-      <c r="G627" s="53"/>
+      <c r="F627" s="50"/>
+      <c r="G627" s="50"/>
     </row>
     <row r="628">
-      <c r="F628" s="53"/>
-      <c r="G628" s="53"/>
+      <c r="F628" s="50"/>
+      <c r="G628" s="50"/>
     </row>
     <row r="629">
-      <c r="F629" s="53"/>
-      <c r="G629" s="53"/>
+      <c r="F629" s="50"/>
+      <c r="G629" s="50"/>
     </row>
     <row r="630">
-      <c r="F630" s="53"/>
-      <c r="G630" s="53"/>
+      <c r="F630" s="50"/>
+      <c r="G630" s="50"/>
     </row>
     <row r="631">
-      <c r="F631" s="53"/>
-      <c r="G631" s="53"/>
+      <c r="F631" s="50"/>
+      <c r="G631" s="50"/>
     </row>
     <row r="632">
-      <c r="F632" s="53"/>
-      <c r="G632" s="53"/>
+      <c r="F632" s="50"/>
+      <c r="G632" s="50"/>
     </row>
     <row r="633">
-      <c r="F633" s="53"/>
-      <c r="G633" s="53"/>
+      <c r="F633" s="50"/>
+      <c r="G633" s="50"/>
     </row>
     <row r="634">
-      <c r="F634" s="53"/>
-      <c r="G634" s="53"/>
+      <c r="F634" s="50"/>
+      <c r="G634" s="50"/>
     </row>
     <row r="635">
-      <c r="F635" s="53"/>
-      <c r="G635" s="53"/>
+      <c r="F635" s="50"/>
+      <c r="G635" s="50"/>
     </row>
     <row r="636">
-      <c r="F636" s="53"/>
-      <c r="G636" s="53"/>
+      <c r="F636" s="50"/>
+      <c r="G636" s="50"/>
     </row>
     <row r="637">
-      <c r="F637" s="53"/>
-      <c r="G637" s="53"/>
+      <c r="F637" s="50"/>
+      <c r="G637" s="50"/>
     </row>
     <row r="638">
-      <c r="F638" s="53"/>
-      <c r="G638" s="53"/>
+      <c r="F638" s="50"/>
+      <c r="G638" s="50"/>
     </row>
     <row r="639">
-      <c r="F639" s="53"/>
-      <c r="G639" s="53"/>
+      <c r="F639" s="50"/>
+      <c r="G639" s="50"/>
     </row>
     <row r="640">
-      <c r="F640" s="53"/>
-      <c r="G640" s="53"/>
+      <c r="F640" s="50"/>
+      <c r="G640" s="50"/>
     </row>
     <row r="641">
-      <c r="F641" s="53"/>
-      <c r="G641" s="53"/>
+      <c r="F641" s="50"/>
+      <c r="G641" s="50"/>
     </row>
     <row r="642">
-      <c r="F642" s="53"/>
-      <c r="G642" s="53"/>
+      <c r="F642" s="50"/>
+      <c r="G642" s="50"/>
     </row>
     <row r="643">
-      <c r="F643" s="53"/>
-      <c r="G643" s="53"/>
+      <c r="F643" s="50"/>
+      <c r="G643" s="50"/>
     </row>
     <row r="644">
-      <c r="F644" s="53"/>
-      <c r="G644" s="53"/>
+      <c r="F644" s="50"/>
+      <c r="G644" s="50"/>
     </row>
     <row r="645">
-      <c r="F645" s="53"/>
-      <c r="G645" s="53"/>
+      <c r="F645" s="50"/>
+      <c r="G645" s="50"/>
     </row>
     <row r="646">
-      <c r="F646" s="53"/>
-      <c r="G646" s="53"/>
+      <c r="F646" s="50"/>
+      <c r="G646" s="50"/>
     </row>
     <row r="647">
-      <c r="F647" s="53"/>
-      <c r="G647" s="53"/>
+      <c r="F647" s="50"/>
+      <c r="G647" s="50"/>
     </row>
     <row r="648">
-      <c r="F648" s="53"/>
-      <c r="G648" s="53"/>
+      <c r="F648" s="50"/>
+      <c r="G648" s="50"/>
     </row>
     <row r="649">
-      <c r="F649" s="53"/>
-      <c r="G649" s="53"/>
+      <c r="F649" s="50"/>
+      <c r="G649" s="50"/>
     </row>
     <row r="650">
-      <c r="F650" s="53"/>
-      <c r="G650" s="53"/>
+      <c r="F650" s="50"/>
+      <c r="G650" s="50"/>
     </row>
     <row r="651">
-      <c r="F651" s="53"/>
-      <c r="G651" s="53"/>
+      <c r="F651" s="50"/>
+      <c r="G651" s="50"/>
     </row>
     <row r="652">
-      <c r="F652" s="53"/>
-      <c r="G652" s="53"/>
+      <c r="F652" s="50"/>
+      <c r="G652" s="50"/>
     </row>
     <row r="653">
-      <c r="F653" s="53"/>
-      <c r="G653" s="53"/>
+      <c r="F653" s="50"/>
+      <c r="G653" s="50"/>
     </row>
     <row r="654">
-      <c r="F654" s="53"/>
-      <c r="G654" s="53"/>
+      <c r="F654" s="50"/>
+      <c r="G654" s="50"/>
     </row>
     <row r="655">
-      <c r="F655" s="53"/>
-      <c r="G655" s="53"/>
+      <c r="F655" s="50"/>
+      <c r="G655" s="50"/>
     </row>
     <row r="656">
-      <c r="F656" s="53"/>
-      <c r="G656" s="53"/>
+      <c r="F656" s="50"/>
+      <c r="G656" s="50"/>
     </row>
     <row r="657">
-      <c r="F657" s="53"/>
-      <c r="G657" s="53"/>
+      <c r="F657" s="50"/>
+      <c r="G657" s="50"/>
     </row>
     <row r="658">
-      <c r="F658" s="53"/>
-      <c r="G658" s="53"/>
+      <c r="F658" s="50"/>
+      <c r="G658" s="50"/>
     </row>
     <row r="659">
-      <c r="F659" s="53"/>
-      <c r="G659" s="53"/>
+      <c r="F659" s="50"/>
+      <c r="G659" s="50"/>
     </row>
     <row r="660">
-      <c r="F660" s="53"/>
-      <c r="G660" s="53"/>
+      <c r="F660" s="50"/>
+      <c r="G660" s="50"/>
     </row>
     <row r="661">
-      <c r="F661" s="53"/>
-      <c r="G661" s="53"/>
+      <c r="F661" s="50"/>
+      <c r="G661" s="50"/>
     </row>
     <row r="662">
-      <c r="F662" s="53"/>
-      <c r="G662" s="53"/>
+      <c r="F662" s="50"/>
+      <c r="G662" s="50"/>
     </row>
     <row r="663">
-      <c r="F663" s="53"/>
-      <c r="G663" s="53"/>
+      <c r="F663" s="50"/>
+      <c r="G663" s="50"/>
     </row>
     <row r="664">
-      <c r="F664" s="53"/>
-      <c r="G664" s="53"/>
+      <c r="F664" s="50"/>
+      <c r="G664" s="50"/>
     </row>
     <row r="665">
-      <c r="F665" s="53"/>
-      <c r="G665" s="53"/>
+      <c r="F665" s="50"/>
+      <c r="G665" s="50"/>
     </row>
     <row r="666">
-      <c r="F666" s="53"/>
-      <c r="G666" s="53"/>
+      <c r="F666" s="50"/>
+      <c r="G666" s="50"/>
     </row>
     <row r="667">
-      <c r="F667" s="53"/>
-      <c r="G667" s="53"/>
+      <c r="F667" s="50"/>
+      <c r="G667" s="50"/>
     </row>
     <row r="668">
-      <c r="F668" s="53"/>
-      <c r="G668" s="53"/>
+      <c r="F668" s="50"/>
+      <c r="G668" s="50"/>
     </row>
     <row r="669">
-      <c r="F669" s="53"/>
-      <c r="G669" s="53"/>
+      <c r="F669" s="50"/>
+      <c r="G669" s="50"/>
     </row>
     <row r="670">
-      <c r="F670" s="53"/>
-      <c r="G670" s="53"/>
+      <c r="F670" s="50"/>
+      <c r="G670" s="50"/>
     </row>
     <row r="671">
-      <c r="F671" s="53"/>
-      <c r="G671" s="53"/>
+      <c r="F671" s="50"/>
+      <c r="G671" s="50"/>
     </row>
     <row r="672">
-      <c r="F672" s="53"/>
-      <c r="G672" s="53"/>
+      <c r="F672" s="50"/>
+      <c r="G672" s="50"/>
     </row>
     <row r="673">
-      <c r="F673" s="53"/>
-      <c r="G673" s="53"/>
+      <c r="F673" s="50"/>
+      <c r="G673" s="50"/>
     </row>
     <row r="674">
-      <c r="F674" s="53"/>
-      <c r="G674" s="53"/>
+      <c r="F674" s="50"/>
+      <c r="G674" s="50"/>
     </row>
     <row r="675">
-      <c r="F675" s="53"/>
-      <c r="G675" s="53"/>
+      <c r="F675" s="50"/>
+      <c r="G675" s="50"/>
     </row>
     <row r="676">
-      <c r="F676" s="53"/>
-      <c r="G676" s="53"/>
+      <c r="F676" s="50"/>
+      <c r="G676" s="50"/>
     </row>
     <row r="677">
-      <c r="F677" s="53"/>
-      <c r="G677" s="53"/>
+      <c r="F677" s="50"/>
+      <c r="G677" s="50"/>
     </row>
     <row r="678">
-      <c r="F678" s="53"/>
-      <c r="G678" s="53"/>
+      <c r="F678" s="50"/>
+      <c r="G678" s="50"/>
     </row>
     <row r="679">
-      <c r="F679" s="53"/>
-      <c r="G679" s="53"/>
+      <c r="F679" s="50"/>
+      <c r="G679" s="50"/>
     </row>
     <row r="680">
-      <c r="F680" s="53"/>
-      <c r="G680" s="53"/>
+      <c r="F680" s="50"/>
+      <c r="G680" s="50"/>
     </row>
     <row r="681">
-      <c r="F681" s="53"/>
-      <c r="G681" s="53"/>
+      <c r="F681" s="50"/>
+      <c r="G681" s="50"/>
     </row>
     <row r="682">
-      <c r="F682" s="53"/>
-      <c r="G682" s="53"/>
+      <c r="F682" s="50"/>
+      <c r="G682" s="50"/>
     </row>
     <row r="683">
-      <c r="F683" s="53"/>
-      <c r="G683" s="53"/>
+      <c r="F683" s="50"/>
+      <c r="G683" s="50"/>
     </row>
     <row r="684">
-      <c r="F684" s="53"/>
-      <c r="G684" s="53"/>
+      <c r="F684" s="50"/>
+      <c r="G684" s="50"/>
     </row>
     <row r="685">
-      <c r="F685" s="53"/>
-      <c r="G685" s="53"/>
+      <c r="F685" s="50"/>
+      <c r="G685" s="50"/>
     </row>
     <row r="686">
-      <c r="F686" s="53"/>
-      <c r="G686" s="53"/>
+      <c r="F686" s="50"/>
+      <c r="G686" s="50"/>
     </row>
     <row r="687">
-      <c r="F687" s="53"/>
-      <c r="G687" s="53"/>
+      <c r="F687" s="50"/>
+      <c r="G687" s="50"/>
     </row>
     <row r="688">
-      <c r="F688" s="53"/>
-      <c r="G688" s="53"/>
+      <c r="F688" s="50"/>
+      <c r="G688" s="50"/>
     </row>
     <row r="689">
-      <c r="F689" s="53"/>
-      <c r="G689" s="53"/>
+      <c r="F689" s="50"/>
+      <c r="G689" s="50"/>
     </row>
     <row r="690">
-      <c r="F690" s="53"/>
-      <c r="G690" s="53"/>
+      <c r="F690" s="50"/>
+      <c r="G690" s="50"/>
     </row>
     <row r="691">
-      <c r="F691" s="53"/>
-      <c r="G691" s="53"/>
+      <c r="F691" s="50"/>
+      <c r="G691" s="50"/>
     </row>
     <row r="692">
-      <c r="F692" s="53"/>
-      <c r="G692" s="53"/>
+      <c r="F692" s="50"/>
+      <c r="G692" s="50"/>
     </row>
     <row r="693">
-      <c r="F693" s="53"/>
-      <c r="G693" s="53"/>
+      <c r="F693" s="50"/>
+      <c r="G693" s="50"/>
     </row>
     <row r="694">
-      <c r="F694" s="53"/>
-      <c r="G694" s="53"/>
+      <c r="F694" s="50"/>
+      <c r="G694" s="50"/>
     </row>
     <row r="695">
-      <c r="F695" s="53"/>
-      <c r="G695" s="53"/>
+      <c r="F695" s="50"/>
+      <c r="G695" s="50"/>
     </row>
     <row r="696">
-      <c r="F696" s="53"/>
-      <c r="G696" s="53"/>
+      <c r="F696" s="50"/>
+      <c r="G696" s="50"/>
     </row>
     <row r="697">
-      <c r="F697" s="53"/>
-      <c r="G697" s="53"/>
+      <c r="F697" s="50"/>
+      <c r="G697" s="50"/>
     </row>
     <row r="698">
-      <c r="F698" s="53"/>
-      <c r="G698" s="53"/>
+      <c r="F698" s="50"/>
+      <c r="G698" s="50"/>
     </row>
     <row r="699">
-      <c r="F699" s="53"/>
-      <c r="G699" s="53"/>
+      <c r="F699" s="50"/>
+      <c r="G699" s="50"/>
     </row>
     <row r="700">
-      <c r="F700" s="53"/>
-      <c r="G700" s="53"/>
+      <c r="F700" s="50"/>
+      <c r="G700" s="50"/>
     </row>
     <row r="701">
-      <c r="F701" s="53"/>
-      <c r="G701" s="53"/>
+      <c r="F701" s="50"/>
+      <c r="G701" s="50"/>
     </row>
     <row r="702">
-      <c r="F702" s="53"/>
-      <c r="G702" s="53"/>
+      <c r="F702" s="50"/>
+      <c r="G702" s="50"/>
     </row>
     <row r="703">
-      <c r="F703" s="53"/>
-      <c r="G703" s="53"/>
+      <c r="F703" s="50"/>
+      <c r="G703" s="50"/>
     </row>
     <row r="704">
-      <c r="F704" s="53"/>
-      <c r="G704" s="53"/>
+      <c r="F704" s="50"/>
+      <c r="G704" s="50"/>
     </row>
     <row r="705">
-      <c r="F705" s="53"/>
-      <c r="G705" s="53"/>
+      <c r="F705" s="50"/>
+      <c r="G705" s="50"/>
     </row>
     <row r="706">
-      <c r="F706" s="53"/>
-      <c r="G706" s="53"/>
+      <c r="F706" s="50"/>
+      <c r="G706" s="50"/>
     </row>
     <row r="707">
-      <c r="F707" s="53"/>
-      <c r="G707" s="53"/>
+      <c r="F707" s="50"/>
+      <c r="G707" s="50"/>
     </row>
     <row r="708">
-      <c r="F708" s="53"/>
-      <c r="G708" s="53"/>
+      <c r="F708" s="50"/>
+      <c r="G708" s="50"/>
     </row>
     <row r="709">
-      <c r="F709" s="53"/>
-      <c r="G709" s="53"/>
+      <c r="F709" s="50"/>
+      <c r="G709" s="50"/>
     </row>
     <row r="710">
-      <c r="F710" s="53"/>
-      <c r="G710" s="53"/>
+      <c r="F710" s="50"/>
+      <c r="G710" s="50"/>
     </row>
     <row r="711">
-      <c r="F711" s="53"/>
-      <c r="G711" s="53"/>
+      <c r="F711" s="50"/>
+      <c r="G711" s="50"/>
     </row>
     <row r="712">
-      <c r="F712" s="53"/>
-      <c r="G712" s="53"/>
+      <c r="F712" s="50"/>
+      <c r="G712" s="50"/>
     </row>
     <row r="713">
-      <c r="F713" s="53"/>
-      <c r="G713" s="53"/>
+      <c r="F713" s="50"/>
+      <c r="G713" s="50"/>
     </row>
     <row r="714">
-      <c r="F714" s="53"/>
-      <c r="G714" s="53"/>
+      <c r="F714" s="50"/>
+      <c r="G714" s="50"/>
     </row>
     <row r="715">
-      <c r="F715" s="53"/>
-      <c r="G715" s="53"/>
+      <c r="F715" s="50"/>
+      <c r="G715" s="50"/>
     </row>
     <row r="716">
-      <c r="F716" s="53"/>
-      <c r="G716" s="53"/>
+      <c r="F716" s="50"/>
+      <c r="G716" s="50"/>
     </row>
     <row r="717">
-      <c r="F717" s="53"/>
-      <c r="G717" s="53"/>
+      <c r="F717" s="50"/>
+      <c r="G717" s="50"/>
     </row>
     <row r="718">
-      <c r="F718" s="53"/>
-      <c r="G718" s="53"/>
+      <c r="F718" s="50"/>
+      <c r="G718" s="50"/>
     </row>
     <row r="719">
-      <c r="F719" s="53"/>
-      <c r="G719" s="53"/>
+      <c r="F719" s="50"/>
+      <c r="G719" s="50"/>
     </row>
     <row r="720">
-      <c r="F720" s="53"/>
-      <c r="G720" s="53"/>
+      <c r="F720" s="50"/>
+      <c r="G720" s="50"/>
     </row>
     <row r="721">
-      <c r="F721" s="53"/>
-      <c r="G721" s="53"/>
+      <c r="F721" s="50"/>
+      <c r="G721" s="50"/>
     </row>
     <row r="722">
-      <c r="F722" s="53"/>
-      <c r="G722" s="53"/>
+      <c r="F722" s="50"/>
+      <c r="G722" s="50"/>
     </row>
     <row r="723">
-      <c r="F723" s="53"/>
-      <c r="G723" s="53"/>
+      <c r="F723" s="50"/>
+      <c r="G723" s="50"/>
     </row>
     <row r="724">
-      <c r="F724" s="53"/>
-      <c r="G724" s="53"/>
+      <c r="F724" s="50"/>
+      <c r="G724" s="50"/>
     </row>
     <row r="725">
-      <c r="F725" s="53"/>
-      <c r="G725" s="53"/>
+      <c r="F725" s="50"/>
+      <c r="G725" s="50"/>
     </row>
     <row r="726">
-      <c r="F726" s="53"/>
-      <c r="G726" s="53"/>
+      <c r="F726" s="50"/>
+      <c r="G726" s="50"/>
     </row>
     <row r="727">
-      <c r="F727" s="53"/>
-      <c r="G727" s="53"/>
+      <c r="F727" s="50"/>
+      <c r="G727" s="50"/>
     </row>
     <row r="728">
-      <c r="F728" s="53"/>
-      <c r="G728" s="53"/>
+      <c r="F728" s="50"/>
+      <c r="G728" s="50"/>
     </row>
     <row r="729">
-      <c r="F729" s="53"/>
-      <c r="G729" s="53"/>
+      <c r="F729" s="50"/>
+      <c r="G729" s="50"/>
     </row>
     <row r="730">
-      <c r="F730" s="53"/>
-      <c r="G730" s="53"/>
+      <c r="F730" s="50"/>
+      <c r="G730" s="50"/>
     </row>
     <row r="731">
-      <c r="F731" s="53"/>
-      <c r="G731" s="53"/>
+      <c r="F731" s="50"/>
+      <c r="G731" s="50"/>
     </row>
     <row r="732">
-      <c r="F732" s="53"/>
-      <c r="G732" s="53"/>
+      <c r="F732" s="50"/>
+      <c r="G732" s="50"/>
     </row>
     <row r="733">
-      <c r="F733" s="53"/>
-      <c r="G733" s="53"/>
+      <c r="F733" s="50"/>
+      <c r="G733" s="50"/>
     </row>
     <row r="734">
-      <c r="F734" s="53"/>
-      <c r="G734" s="53"/>
+      <c r="F734" s="50"/>
+      <c r="G734" s="50"/>
     </row>
     <row r="735">
-      <c r="F735" s="53"/>
-      <c r="G735" s="53"/>
+      <c r="F735" s="50"/>
+      <c r="G735" s="50"/>
     </row>
     <row r="736">
-      <c r="F736" s="53"/>
-      <c r="G736" s="53"/>
+      <c r="F736" s="50"/>
+      <c r="G736" s="50"/>
     </row>
     <row r="737">
-      <c r="F737" s="53"/>
-      <c r="G737" s="53"/>
+      <c r="F737" s="50"/>
+      <c r="G737" s="50"/>
     </row>
     <row r="738">
-      <c r="F738" s="53"/>
-      <c r="G738" s="53"/>
+      <c r="F738" s="50"/>
+      <c r="G738" s="50"/>
     </row>
     <row r="739">
-      <c r="F739" s="53"/>
-      <c r="G739" s="53"/>
+      <c r="F739" s="50"/>
+      <c r="G739" s="50"/>
     </row>
     <row r="740">
-      <c r="F740" s="53"/>
-      <c r="G740" s="53"/>
+      <c r="F740" s="50"/>
+      <c r="G740" s="50"/>
     </row>
     <row r="741">
-      <c r="F741" s="53"/>
-      <c r="G741" s="53"/>
+      <c r="F741" s="50"/>
+      <c r="G741" s="50"/>
     </row>
     <row r="742">
-      <c r="F742" s="53"/>
-      <c r="G742" s="53"/>
+      <c r="F742" s="50"/>
+      <c r="G742" s="50"/>
     </row>
     <row r="743">
-      <c r="F743" s="53"/>
-      <c r="G743" s="53"/>
+      <c r="F743" s="50"/>
+      <c r="G743" s="50"/>
     </row>
     <row r="744">
-      <c r="F744" s="53"/>
-      <c r="G744" s="53"/>
+      <c r="F744" s="50"/>
+      <c r="G744" s="50"/>
     </row>
     <row r="745">
-      <c r="F745" s="53"/>
-      <c r="G745" s="53"/>
+      <c r="F745" s="50"/>
+      <c r="G745" s="50"/>
     </row>
     <row r="746">
-      <c r="F746" s="53"/>
-      <c r="G746" s="53"/>
+      <c r="F746" s="50"/>
+      <c r="G746" s="50"/>
     </row>
     <row r="747">
-      <c r="F747" s="53"/>
-      <c r="G747" s="53"/>
+      <c r="F747" s="50"/>
+      <c r="G747" s="50"/>
     </row>
     <row r="748">
-      <c r="F748" s="53"/>
-      <c r="G748" s="53"/>
+      <c r="F748" s="50"/>
+      <c r="G748" s="50"/>
     </row>
     <row r="749">
-      <c r="F749" s="53"/>
-      <c r="G749" s="53"/>
+      <c r="F749" s="50"/>
+      <c r="G749" s="50"/>
     </row>
     <row r="750">
-      <c r="F750" s="53"/>
-      <c r="G750" s="53"/>
+      <c r="F750" s="50"/>
+      <c r="G750" s="50"/>
     </row>
     <row r="751">
-      <c r="F751" s="53"/>
-      <c r="G751" s="53"/>
+      <c r="F751" s="50"/>
+      <c r="G751" s="50"/>
     </row>
     <row r="752">
-      <c r="F752" s="53"/>
-      <c r="G752" s="53"/>
+      <c r="F752" s="50"/>
+      <c r="G752" s="50"/>
     </row>
     <row r="753">
-      <c r="F753" s="53"/>
-      <c r="G753" s="53"/>
+      <c r="F753" s="50"/>
+      <c r="G753" s="50"/>
     </row>
     <row r="754">
-      <c r="F754" s="53"/>
-      <c r="G754" s="53"/>
+      <c r="F754" s="50"/>
+      <c r="G754" s="50"/>
     </row>
     <row r="755">
-      <c r="F755" s="53"/>
-      <c r="G755" s="53"/>
+      <c r="F755" s="50"/>
+      <c r="G755" s="50"/>
     </row>
     <row r="756">
-      <c r="F756" s="53"/>
-      <c r="G756" s="53"/>
+      <c r="F756" s="50"/>
+      <c r="G756" s="50"/>
     </row>
     <row r="757">
-      <c r="F757" s="53"/>
-      <c r="G757" s="53"/>
+      <c r="F757" s="50"/>
+      <c r="G757" s="50"/>
     </row>
     <row r="758">
-      <c r="F758" s="53"/>
-      <c r="G758" s="53"/>
+      <c r="F758" s="50"/>
+      <c r="G758" s="50"/>
     </row>
     <row r="759">
-      <c r="F759" s="53"/>
-      <c r="G759" s="53"/>
+      <c r="F759" s="50"/>
+      <c r="G759" s="50"/>
     </row>
     <row r="760">
-      <c r="F760" s="53"/>
-      <c r="G760" s="53"/>
+      <c r="F760" s="50"/>
+      <c r="G760" s="50"/>
     </row>
     <row r="761">
-      <c r="F761" s="53"/>
-      <c r="G761" s="53"/>
+      <c r="F761" s="50"/>
+      <c r="G761" s="50"/>
     </row>
     <row r="762">
-      <c r="F762" s="53"/>
-      <c r="G762" s="53"/>
+      <c r="F762" s="50"/>
+      <c r="G762" s="50"/>
     </row>
     <row r="763">
-      <c r="F763" s="53"/>
-      <c r="G763" s="53"/>
+      <c r="F763" s="50"/>
+      <c r="G763" s="50"/>
     </row>
     <row r="764">
-      <c r="F764" s="53"/>
-      <c r="G764" s="53"/>
+      <c r="F764" s="50"/>
+      <c r="G764" s="50"/>
     </row>
     <row r="765">
-      <c r="F765" s="53"/>
-      <c r="G765" s="53"/>
+      <c r="F765" s="50"/>
+      <c r="G765" s="50"/>
     </row>
     <row r="766">
-      <c r="F766" s="53"/>
-      <c r="G766" s="53"/>
+      <c r="F766" s="50"/>
+      <c r="G766" s="50"/>
     </row>
     <row r="767">
-      <c r="F767" s="53"/>
-      <c r="G767" s="53"/>
+      <c r="F767" s="50"/>
+      <c r="G767" s="50"/>
     </row>
     <row r="768">
-      <c r="F768" s="53"/>
-      <c r="G768" s="53"/>
+      <c r="F768" s="50"/>
+      <c r="G768" s="50"/>
     </row>
     <row r="769">
-      <c r="F769" s="53"/>
-      <c r="G769" s="53"/>
+      <c r="F769" s="50"/>
+      <c r="G769" s="50"/>
     </row>
     <row r="770">
-      <c r="F770" s="53"/>
-      <c r="G770" s="53"/>
+      <c r="F770" s="50"/>
+      <c r="G770" s="50"/>
     </row>
     <row r="771">
-      <c r="F771" s="53"/>
-      <c r="G771" s="53"/>
+      <c r="F771" s="50"/>
+      <c r="G771" s="50"/>
     </row>
     <row r="772">
-      <c r="F772" s="53"/>
-      <c r="G772" s="53"/>
+      <c r="F772" s="50"/>
+      <c r="G772" s="50"/>
     </row>
     <row r="773">
-      <c r="F773" s="53"/>
-      <c r="G773" s="53"/>
+      <c r="F773" s="50"/>
+      <c r="G773" s="50"/>
     </row>
     <row r="774">
-      <c r="F774" s="53"/>
-      <c r="G774" s="53"/>
+      <c r="F774" s="50"/>
+      <c r="G774" s="50"/>
     </row>
     <row r="775">
-      <c r="F775" s="53"/>
-      <c r="G775" s="53"/>
+      <c r="F775" s="50"/>
+      <c r="G775" s="50"/>
     </row>
     <row r="776">
-      <c r="F776" s="53"/>
-      <c r="G776" s="53"/>
+      <c r="F776" s="50"/>
+      <c r="G776" s="50"/>
     </row>
     <row r="777">
-      <c r="F777" s="53"/>
-      <c r="G777" s="53"/>
+      <c r="F777" s="50"/>
+      <c r="G777" s="50"/>
     </row>
     <row r="778">
-      <c r="F778" s="53"/>
-      <c r="G778" s="53"/>
+      <c r="F778" s="50"/>
+      <c r="G778" s="50"/>
     </row>
     <row r="779">
-      <c r="F779" s="53"/>
-      <c r="G779" s="53"/>
+      <c r="F779" s="50"/>
+      <c r="G779" s="50"/>
     </row>
     <row r="780">
-      <c r="F780" s="53"/>
-      <c r="G780" s="53"/>
+      <c r="F780" s="50"/>
+      <c r="G780" s="50"/>
     </row>
     <row r="781">
-      <c r="F781" s="53"/>
-      <c r="G781" s="53"/>
+      <c r="F781" s="50"/>
+      <c r="G781" s="50"/>
     </row>
     <row r="782">
-      <c r="F782" s="53"/>
-      <c r="G782" s="53"/>
+      <c r="F782" s="50"/>
+      <c r="G782" s="50"/>
     </row>
     <row r="783">
-      <c r="F783" s="53"/>
-      <c r="G783" s="53"/>
+      <c r="F783" s="50"/>
+      <c r="G783" s="50"/>
     </row>
     <row r="784">
-      <c r="F784" s="53"/>
-      <c r="G784" s="53"/>
+      <c r="F784" s="50"/>
+      <c r="G784" s="50"/>
     </row>
     <row r="785">
-      <c r="F785" s="53"/>
-      <c r="G785" s="53"/>
+      <c r="F785" s="50"/>
+      <c r="G785" s="50"/>
     </row>
     <row r="786">
-      <c r="F786" s="53"/>
-      <c r="G786" s="53"/>
+      <c r="F786" s="50"/>
+      <c r="G786" s="50"/>
     </row>
     <row r="787">
-      <c r="F787" s="53"/>
-      <c r="G787" s="53"/>
+      <c r="F787" s="50"/>
+      <c r="G787" s="50"/>
     </row>
     <row r="788">
-      <c r="F788" s="53"/>
-      <c r="G788" s="53"/>
+      <c r="F788" s="50"/>
+      <c r="G788" s="50"/>
     </row>
     <row r="789">
-      <c r="F789" s="53"/>
-      <c r="G789" s="53"/>
+      <c r="F789" s="50"/>
+      <c r="G789" s="50"/>
     </row>
     <row r="790">
-      <c r="F790" s="53"/>
-      <c r="G790" s="53"/>
+      <c r="F790" s="50"/>
+      <c r="G790" s="50"/>
     </row>
     <row r="791">
-      <c r="F791" s="53"/>
-      <c r="G791" s="53"/>
+      <c r="F791" s="50"/>
+      <c r="G791" s="50"/>
     </row>
     <row r="792">
-      <c r="F792" s="53"/>
-      <c r="G792" s="53"/>
+      <c r="F792" s="50"/>
+      <c r="G792" s="50"/>
     </row>
     <row r="793">
-      <c r="F793" s="53"/>
-      <c r="G793" s="53"/>
+      <c r="F793" s="50"/>
+      <c r="G793" s="50"/>
     </row>
     <row r="794">
-      <c r="F794" s="53"/>
-      <c r="G794" s="53"/>
+      <c r="F794" s="50"/>
+      <c r="G794" s="50"/>
     </row>
     <row r="795">
-      <c r="F795" s="53"/>
-      <c r="G795" s="53"/>
+      <c r="F795" s="50"/>
+      <c r="G795" s="50"/>
     </row>
     <row r="796">
-      <c r="F796" s="53"/>
-      <c r="G796" s="53"/>
+      <c r="F796" s="50"/>
+      <c r="G796" s="50"/>
     </row>
     <row r="797">
-      <c r="F797" s="53"/>
-      <c r="G797" s="53"/>
+      <c r="F797" s="50"/>
+      <c r="G797" s="50"/>
     </row>
     <row r="798">
-      <c r="F798" s="53"/>
-      <c r="G798" s="53"/>
+      <c r="F798" s="50"/>
+      <c r="G798" s="50"/>
     </row>
     <row r="799">
-      <c r="F799" s="53"/>
-      <c r="G799" s="53"/>
+      <c r="F799" s="50"/>
+      <c r="G799" s="50"/>
     </row>
     <row r="800">
-      <c r="F800" s="53"/>
-      <c r="G800" s="53"/>
+      <c r="F800" s="50"/>
+      <c r="G800" s="50"/>
     </row>
     <row r="801">
-      <c r="F801" s="53"/>
-      <c r="G801" s="53"/>
+      <c r="F801" s="50"/>
+      <c r="G801" s="50"/>
     </row>
     <row r="802">
-      <c r="F802" s="53"/>
-      <c r="G802" s="53"/>
+      <c r="F802" s="50"/>
+      <c r="G802" s="50"/>
     </row>
     <row r="803">
-      <c r="F803" s="53"/>
-      <c r="G803" s="53"/>
+      <c r="F803" s="50"/>
+      <c r="G803" s="50"/>
     </row>
     <row r="804">
-      <c r="F804" s="53"/>
-      <c r="G804" s="53"/>
+      <c r="F804" s="50"/>
+      <c r="G804" s="50"/>
     </row>
     <row r="805">
-      <c r="F805" s="53"/>
-      <c r="G805" s="53"/>
+      <c r="F805" s="50"/>
+      <c r="G805" s="50"/>
     </row>
     <row r="806">
-      <c r="F806" s="53"/>
-      <c r="G806" s="53"/>
+      <c r="F806" s="50"/>
+      <c r="G806" s="50"/>
     </row>
     <row r="807">
-      <c r="F807" s="53"/>
-      <c r="G807" s="53"/>
+      <c r="F807" s="50"/>
+      <c r="G807" s="50"/>
     </row>
     <row r="808">
-      <c r="F808" s="53"/>
-      <c r="G808" s="53"/>
+      <c r="F808" s="50"/>
+      <c r="G808" s="50"/>
     </row>
     <row r="809">
-      <c r="F809" s="53"/>
-      <c r="G809" s="53"/>
+      <c r="F809" s="50"/>
+      <c r="G809" s="50"/>
     </row>
     <row r="810">
-      <c r="F810" s="53"/>
-      <c r="G810" s="53"/>
+      <c r="F810" s="50"/>
+      <c r="G810" s="50"/>
     </row>
     <row r="811">
-      <c r="F811" s="53"/>
-      <c r="G811" s="53"/>
+      <c r="F811" s="50"/>
+      <c r="G811" s="50"/>
     </row>
     <row r="812">
-      <c r="F812" s="53"/>
-      <c r="G812" s="53"/>
+      <c r="F812" s="50"/>
+      <c r="G812" s="50"/>
     </row>
     <row r="813">
-      <c r="F813" s="53"/>
-      <c r="G813" s="53"/>
+      <c r="F813" s="50"/>
+      <c r="G813" s="50"/>
     </row>
     <row r="814">
-      <c r="F814" s="53"/>
-      <c r="G814" s="53"/>
+      <c r="F814" s="50"/>
+      <c r="G814" s="50"/>
     </row>
     <row r="815">
-      <c r="F815" s="53"/>
-      <c r="G815" s="53"/>
+      <c r="F815" s="50"/>
+      <c r="G815" s="50"/>
     </row>
     <row r="816">
-      <c r="F816" s="53"/>
-      <c r="G816" s="53"/>
+      <c r="F816" s="50"/>
+      <c r="G816" s="50"/>
     </row>
     <row r="817">
-      <c r="F817" s="53"/>
-      <c r="G817" s="53"/>
+      <c r="F817" s="50"/>
+      <c r="G817" s="50"/>
     </row>
     <row r="818">
-      <c r="F818" s="53"/>
-      <c r="G818" s="53"/>
+      <c r="F818" s="50"/>
+      <c r="G818" s="50"/>
     </row>
     <row r="819">
-      <c r="F819" s="53"/>
-      <c r="G819" s="53"/>
+      <c r="F819" s="50"/>
+      <c r="G819" s="50"/>
     </row>
     <row r="820">
-      <c r="F820" s="53"/>
-      <c r="G820" s="53"/>
+      <c r="F820" s="50"/>
+      <c r="G820" s="50"/>
     </row>
     <row r="821">
-      <c r="F821" s="53"/>
-      <c r="G821" s="53"/>
+      <c r="F821" s="50"/>
+      <c r="G821" s="50"/>
     </row>
     <row r="822">
-      <c r="F822" s="53"/>
-      <c r="G822" s="53"/>
+      <c r="F822" s="50"/>
+      <c r="G822" s="50"/>
     </row>
     <row r="823">
-      <c r="F823" s="53"/>
-      <c r="G823" s="53"/>
+      <c r="F823" s="50"/>
+      <c r="G823" s="50"/>
     </row>
     <row r="824">
-      <c r="F824" s="53"/>
-      <c r="G824" s="53"/>
+      <c r="F824" s="50"/>
+      <c r="G824" s="50"/>
     </row>
     <row r="825">
-      <c r="F825" s="53"/>
-      <c r="G825" s="53"/>
+      <c r="F825" s="50"/>
+      <c r="G825" s="50"/>
     </row>
     <row r="826">
-      <c r="F826" s="53"/>
-      <c r="G826" s="53"/>
+      <c r="F826" s="50"/>
+      <c r="G826" s="50"/>
     </row>
     <row r="827">
-      <c r="F827" s="53"/>
-      <c r="G827" s="53"/>
+      <c r="F827" s="50"/>
+      <c r="G827" s="50"/>
     </row>
     <row r="828">
-      <c r="F828" s="53"/>
-      <c r="G828" s="53"/>
+      <c r="F828" s="50"/>
+      <c r="G828" s="50"/>
     </row>
     <row r="829">
-      <c r="F829" s="53"/>
-      <c r="G829" s="53"/>
+      <c r="F829" s="50"/>
+      <c r="G829" s="50"/>
     </row>
     <row r="830">
-      <c r="F830" s="53"/>
-      <c r="G830" s="53"/>
+      <c r="F830" s="50"/>
+      <c r="G830" s="50"/>
     </row>
     <row r="831">
-      <c r="F831" s="53"/>
-      <c r="G831" s="53"/>
+      <c r="F831" s="50"/>
+      <c r="G831" s="50"/>
     </row>
     <row r="832">
-      <c r="F832" s="53"/>
-      <c r="G832" s="53"/>
+      <c r="F832" s="50"/>
+      <c r="G832" s="50"/>
     </row>
     <row r="833">
-      <c r="F833" s="53"/>
-      <c r="G833" s="53"/>
+      <c r="F833" s="50"/>
+      <c r="G833" s="50"/>
     </row>
     <row r="834">
-      <c r="F834" s="53"/>
-      <c r="G834" s="53"/>
+      <c r="F834" s="50"/>
+      <c r="G834" s="50"/>
     </row>
     <row r="835">
-      <c r="F835" s="53"/>
-      <c r="G835" s="53"/>
+      <c r="F835" s="50"/>
+      <c r="G835" s="50"/>
     </row>
     <row r="836">
-      <c r="F836" s="53"/>
-      <c r="G836" s="53"/>
+      <c r="F836" s="50"/>
+      <c r="G836" s="50"/>
     </row>
     <row r="837">
-      <c r="F837" s="53"/>
-      <c r="G837" s="53"/>
+      <c r="F837" s="50"/>
+      <c r="G837" s="50"/>
     </row>
     <row r="838">
-      <c r="F838" s="53"/>
-      <c r="G838" s="53"/>
+      <c r="F838" s="50"/>
+      <c r="G838" s="50"/>
     </row>
     <row r="839">
-      <c r="F839" s="53"/>
-      <c r="G839" s="53"/>
+      <c r="F839" s="50"/>
+      <c r="G839" s="50"/>
     </row>
     <row r="840">
-      <c r="F840" s="53"/>
-      <c r="G840" s="53"/>
+      <c r="F840" s="50"/>
+      <c r="G840" s="50"/>
     </row>
     <row r="841">
-      <c r="F841" s="53"/>
-      <c r="G841" s="53"/>
+      <c r="F841" s="50"/>
+      <c r="G841" s="50"/>
     </row>
     <row r="842">
-      <c r="F842" s="53"/>
-      <c r="G842" s="53"/>
+      <c r="F842" s="50"/>
+      <c r="G842" s="50"/>
     </row>
     <row r="843">
-      <c r="F843" s="53"/>
-      <c r="G843" s="53"/>
+      <c r="F843" s="50"/>
+      <c r="G843" s="50"/>
     </row>
     <row r="844">
-      <c r="F844" s="53"/>
-      <c r="G844" s="53"/>
+      <c r="F844" s="50"/>
+      <c r="G844" s="50"/>
     </row>
     <row r="845">
-      <c r="F845" s="53"/>
-      <c r="G845" s="53"/>
+      <c r="F845" s="50"/>
+      <c r="G845" s="50"/>
     </row>
     <row r="846">
-      <c r="F846" s="53"/>
-      <c r="G846" s="53"/>
+      <c r="F846" s="50"/>
+      <c r="G846" s="50"/>
     </row>
     <row r="847">
-      <c r="F847" s="53"/>
-      <c r="G847" s="53"/>
+      <c r="F847" s="50"/>
+      <c r="G847" s="50"/>
     </row>
     <row r="848">
-      <c r="F848" s="53"/>
-      <c r="G848" s="53"/>
+      <c r="F848" s="50"/>
+      <c r="G848" s="50"/>
     </row>
     <row r="849">
-      <c r="F849" s="53"/>
-      <c r="G849" s="53"/>
+      <c r="F849" s="50"/>
+      <c r="G849" s="50"/>
     </row>
     <row r="850">
-      <c r="F850" s="53"/>
-      <c r="G850" s="53"/>
+      <c r="F850" s="50"/>
+      <c r="G850" s="50"/>
     </row>
     <row r="851">
-      <c r="F851" s="53"/>
-      <c r="G851" s="53"/>
+      <c r="F851" s="50"/>
+      <c r="G851" s="50"/>
     </row>
     <row r="852">
-      <c r="F852" s="53"/>
-      <c r="G852" s="53"/>
+      <c r="F852" s="50"/>
+      <c r="G852" s="50"/>
     </row>
     <row r="853">
-      <c r="F853" s="53"/>
-      <c r="G853" s="53"/>
+      <c r="F853" s="50"/>
+      <c r="G853" s="50"/>
     </row>
     <row r="854">
-      <c r="F854" s="53"/>
-      <c r="G854" s="53"/>
+      <c r="F854" s="50"/>
+      <c r="G854" s="50"/>
     </row>
     <row r="855">
-      <c r="F855" s="53"/>
-      <c r="G855" s="53"/>
+      <c r="F855" s="50"/>
+      <c r="G855" s="50"/>
     </row>
     <row r="856">
-      <c r="F856" s="53"/>
-      <c r="G856" s="53"/>
+      <c r="F856" s="50"/>
+      <c r="G856" s="50"/>
     </row>
     <row r="857">
-      <c r="F857" s="53"/>
-      <c r="G857" s="53"/>
+      <c r="F857" s="50"/>
+      <c r="G857" s="50"/>
     </row>
     <row r="858">
-      <c r="F858" s="53"/>
-      <c r="G858" s="53"/>
+      <c r="F858" s="50"/>
+      <c r="G858" s="50"/>
     </row>
     <row r="859">
-      <c r="F859" s="53"/>
-      <c r="G859" s="53"/>
+      <c r="F859" s="50"/>
+      <c r="G859" s="50"/>
     </row>
     <row r="860">
-      <c r="F860" s="53"/>
-      <c r="G860" s="53"/>
+      <c r="F860" s="50"/>
+      <c r="G860" s="50"/>
     </row>
     <row r="861">
-      <c r="F861" s="53"/>
-      <c r="G861" s="53"/>
+      <c r="F861" s="50"/>
+      <c r="G861" s="50"/>
     </row>
     <row r="862">
-      <c r="F862" s="53"/>
-      <c r="G862" s="53"/>
+      <c r="F862" s="50"/>
+      <c r="G862" s="50"/>
     </row>
     <row r="863">
-      <c r="F863" s="53"/>
-      <c r="G863" s="53"/>
+      <c r="F863" s="50"/>
+      <c r="G863" s="50"/>
     </row>
     <row r="864">
-      <c r="F864" s="53"/>
-      <c r="G864" s="53"/>
+      <c r="F864" s="50"/>
+      <c r="G864" s="50"/>
     </row>
     <row r="865">
-      <c r="F865" s="53"/>
-      <c r="G865" s="53"/>
+      <c r="F865" s="50"/>
+      <c r="G865" s="50"/>
     </row>
     <row r="866">
-      <c r="F866" s="53"/>
-      <c r="G866" s="53"/>
+      <c r="F866" s="50"/>
+      <c r="G866" s="50"/>
     </row>
     <row r="867">
-      <c r="F867" s="53"/>
-      <c r="G867" s="53"/>
+      <c r="F867" s="50"/>
+      <c r="G867" s="50"/>
     </row>
     <row r="868">
-      <c r="F868" s="53"/>
-      <c r="G868" s="53"/>
+      <c r="F868" s="50"/>
+      <c r="G868" s="50"/>
     </row>
     <row r="869">
-      <c r="F869" s="53"/>
-      <c r="G869" s="53"/>
+      <c r="F869" s="50"/>
+      <c r="G869" s="50"/>
     </row>
     <row r="870">
-      <c r="F870" s="53"/>
-      <c r="G870" s="53"/>
+      <c r="F870" s="50"/>
+      <c r="G870" s="50"/>
     </row>
     <row r="871">
-      <c r="F871" s="53"/>
-      <c r="G871" s="53"/>
+      <c r="F871" s="50"/>
+      <c r="G871" s="50"/>
     </row>
     <row r="872">
-      <c r="F872" s="53"/>
-      <c r="G872" s="53"/>
+      <c r="F872" s="50"/>
+      <c r="G872" s="50"/>
     </row>
     <row r="873">
-      <c r="F873" s="53"/>
-      <c r="G873" s="53"/>
+      <c r="F873" s="50"/>
+      <c r="G873" s="50"/>
     </row>
     <row r="874">
-      <c r="F874" s="53"/>
-      <c r="G874" s="53"/>
+      <c r="F874" s="50"/>
+      <c r="G874" s="50"/>
     </row>
     <row r="875">
-      <c r="F875" s="53"/>
-      <c r="G875" s="53"/>
+      <c r="F875" s="50"/>
+      <c r="G875" s="50"/>
     </row>
     <row r="876">
-      <c r="F876" s="53"/>
-      <c r="G876" s="53"/>
+      <c r="F876" s="50"/>
+      <c r="G876" s="50"/>
     </row>
     <row r="877">
-      <c r="F877" s="53"/>
-      <c r="G877" s="53"/>
+      <c r="F877" s="50"/>
+      <c r="G877" s="50"/>
     </row>
     <row r="878">
-      <c r="F878" s="53"/>
-      <c r="G878" s="53"/>
+      <c r="F878" s="50"/>
+      <c r="G878" s="50"/>
     </row>
     <row r="879">
-      <c r="F879" s="53"/>
-      <c r="G879" s="53"/>
+      <c r="F879" s="50"/>
+      <c r="G879" s="50"/>
     </row>
     <row r="880">
-      <c r="F880" s="53"/>
-      <c r="G880" s="53"/>
+      <c r="F880" s="50"/>
+      <c r="G880" s="50"/>
     </row>
     <row r="881">
-      <c r="F881" s="53"/>
-      <c r="G881" s="53"/>
+      <c r="F881" s="50"/>
+      <c r="G881" s="50"/>
     </row>
     <row r="882">
-      <c r="F882" s="53"/>
-      <c r="G882" s="53"/>
+      <c r="F882" s="50"/>
+      <c r="G882" s="50"/>
     </row>
     <row r="883">
-      <c r="F883" s="53"/>
-      <c r="G883" s="53"/>
+      <c r="F883" s="50"/>
+      <c r="G883" s="50"/>
     </row>
     <row r="884">
-      <c r="F884" s="53"/>
-      <c r="G884" s="53"/>
+      <c r="F884" s="50"/>
+      <c r="G884" s="50"/>
     </row>
     <row r="885">
-      <c r="F885" s="53"/>
-      <c r="G885" s="53"/>
+      <c r="F885" s="50"/>
+      <c r="G885" s="50"/>
     </row>
     <row r="886">
-      <c r="F886" s="53"/>
-      <c r="G886" s="53"/>
+      <c r="F886" s="50"/>
+      <c r="G886" s="50"/>
     </row>
     <row r="887">
-      <c r="F887" s="53"/>
-      <c r="G887" s="53"/>
+      <c r="F887" s="50"/>
+      <c r="G887" s="50"/>
     </row>
     <row r="888">
-      <c r="F888" s="53"/>
-      <c r="G888" s="53"/>
+      <c r="F888" s="50"/>
+      <c r="G888" s="50"/>
     </row>
     <row r="889">
-      <c r="F889" s="53"/>
-      <c r="G889" s="53"/>
+      <c r="F889" s="50"/>
+      <c r="G889" s="50"/>
     </row>
     <row r="890">
-      <c r="F890" s="53"/>
-      <c r="G890" s="53"/>
+      <c r="F890" s="50"/>
+      <c r="G890" s="50"/>
     </row>
     <row r="891">
-      <c r="F891" s="53"/>
-      <c r="G891" s="53"/>
+      <c r="F891" s="50"/>
+      <c r="G891" s="50"/>
     </row>
     <row r="892">
-      <c r="F892" s="53"/>
-      <c r="G892" s="53"/>
+      <c r="F892" s="50"/>
+      <c r="G892" s="50"/>
     </row>
     <row r="893">
-      <c r="F893" s="53"/>
-      <c r="G893" s="53"/>
+      <c r="F893" s="50"/>
+      <c r="G893" s="50"/>
     </row>
     <row r="894">
-      <c r="F894" s="53"/>
-      <c r="G894" s="53"/>
+      <c r="F894" s="50"/>
+      <c r="G894" s="50"/>
     </row>
     <row r="895">
-      <c r="F895" s="53"/>
-      <c r="G895" s="53"/>
+      <c r="F895" s="50"/>
+      <c r="G895" s="50"/>
     </row>
     <row r="896">
-      <c r="F896" s="53"/>
-      <c r="G896" s="53"/>
+      <c r="F896" s="50"/>
+      <c r="G896" s="50"/>
     </row>
     <row r="897">
-      <c r="F897" s="53"/>
-      <c r="G897" s="53"/>
+      <c r="F897" s="50"/>
+      <c r="G897" s="50"/>
     </row>
     <row r="898">
-      <c r="F898" s="53"/>
-      <c r="G898" s="53"/>
+      <c r="F898" s="50"/>
+      <c r="G898" s="50"/>
     </row>
     <row r="899">
-      <c r="F899" s="53"/>
-      <c r="G899" s="53"/>
+      <c r="F899" s="50"/>
+      <c r="G899" s="50"/>
     </row>
     <row r="900">
-      <c r="F900" s="53"/>
-      <c r="G900" s="53"/>
+      <c r="F900" s="50"/>
+      <c r="G900" s="50"/>
     </row>
     <row r="901">
-      <c r="F901" s="53"/>
-      <c r="G901" s="53"/>
+      <c r="F901" s="50"/>
+      <c r="G901" s="50"/>
     </row>
     <row r="902">
-      <c r="F902" s="53"/>
-      <c r="G902" s="53"/>
+      <c r="F902" s="50"/>
+      <c r="G902" s="50"/>
     </row>
     <row r="903">
-      <c r="F903" s="53"/>
-      <c r="G903" s="53"/>
+      <c r="F903" s="50"/>
+      <c r="G903" s="50"/>
     </row>
     <row r="904">
-      <c r="F904" s="53"/>
-      <c r="G904" s="53"/>
+      <c r="F904" s="50"/>
+      <c r="G904" s="50"/>
     </row>
     <row r="905">
-      <c r="F905" s="53"/>
-      <c r="G905" s="53"/>
+      <c r="F905" s="50"/>
+      <c r="G905" s="50"/>
     </row>
     <row r="906">
-      <c r="F906" s="53"/>
-      <c r="G906" s="53"/>
+      <c r="F906" s="50"/>
+      <c r="G906" s="50"/>
     </row>
     <row r="907">
-      <c r="F907" s="53"/>
-      <c r="G907" s="53"/>
+      <c r="F907" s="50"/>
+      <c r="G907" s="50"/>
     </row>
     <row r="908">
-      <c r="F908" s="53"/>
-      <c r="G908" s="53"/>
+      <c r="F908" s="50"/>
+      <c r="G908" s="50"/>
     </row>
     <row r="909">
-      <c r="F909" s="53"/>
-      <c r="G909" s="53"/>
+      <c r="F909" s="50"/>
+      <c r="G909" s="50"/>
     </row>
     <row r="910">
-      <c r="F910" s="53"/>
-      <c r="G910" s="53"/>
+      <c r="F910" s="50"/>
+      <c r="G910" s="50"/>
     </row>
     <row r="911">
-      <c r="F911" s="53"/>
-      <c r="G911" s="53"/>
+      <c r="F911" s="50"/>
+      <c r="G911" s="50"/>
     </row>
     <row r="912">
-      <c r="F912" s="53"/>
-      <c r="G912" s="53"/>
+      <c r="F912" s="50"/>
+      <c r="G912" s="50"/>
     </row>
     <row r="913">
-      <c r="F913" s="53"/>
-      <c r="G913" s="53"/>
+      <c r="F913" s="50"/>
+      <c r="G913" s="50"/>
     </row>
     <row r="914">
-      <c r="F914" s="53"/>
-      <c r="G914" s="53"/>
+      <c r="F914" s="50"/>
+      <c r="G914" s="50"/>
     </row>
     <row r="915">
-      <c r="F915" s="53"/>
-      <c r="G915" s="53"/>
+      <c r="F915" s="50"/>
+      <c r="G915" s="50"/>
     </row>
     <row r="916">
-      <c r="F916" s="53"/>
-      <c r="G916" s="53"/>
+      <c r="F916" s="50"/>
+      <c r="G916" s="50"/>
     </row>
     <row r="917">
-      <c r="F917" s="53"/>
-      <c r="G917" s="53"/>
+      <c r="F917" s="50"/>
+      <c r="G917" s="50"/>
     </row>
     <row r="918">
-      <c r="F918" s="53"/>
-      <c r="G918" s="53"/>
+      <c r="F918" s="50"/>
+      <c r="G918" s="50"/>
     </row>
     <row r="919">
-      <c r="F919" s="53"/>
-      <c r="G919" s="53"/>
+      <c r="F919" s="50"/>
+      <c r="G919" s="50"/>
     </row>
     <row r="920">
-      <c r="F920" s="53"/>
-      <c r="G920" s="53"/>
+      <c r="F920" s="50"/>
+      <c r="G920" s="50"/>
     </row>
     <row r="921">
-      <c r="F921" s="53"/>
-      <c r="G921" s="53"/>
+      <c r="F921" s="50"/>
+      <c r="G921" s="50"/>
     </row>
     <row r="922">
-      <c r="F922" s="53"/>
-      <c r="G922" s="53"/>
+      <c r="F922" s="50"/>
+      <c r="G922" s="50"/>
     </row>
     <row r="923">
-      <c r="F923" s="53"/>
-      <c r="G923" s="53"/>
+      <c r="F923" s="50"/>
+      <c r="G923" s="50"/>
     </row>
     <row r="924">
-      <c r="F924" s="53"/>
-      <c r="G924" s="53"/>
+      <c r="F924" s="50"/>
+      <c r="G924" s="50"/>
     </row>
     <row r="925">
-      <c r="F925" s="53"/>
-      <c r="G925" s="53"/>
+      <c r="F925" s="50"/>
+      <c r="G925" s="50"/>
     </row>
     <row r="926">
-      <c r="F926" s="53"/>
-      <c r="G926" s="53"/>
+      <c r="F926" s="50"/>
+      <c r="G926" s="50"/>
     </row>
     <row r="927">
-      <c r="F927" s="53"/>
-      <c r="G927" s="53"/>
+      <c r="F927" s="50"/>
+      <c r="G927" s="50"/>
     </row>
     <row r="928">
-      <c r="F928" s="53"/>
-      <c r="G928" s="53"/>
+      <c r="F928" s="50"/>
+      <c r="G928" s="50"/>
     </row>
     <row r="929">
-      <c r="F929" s="53"/>
-      <c r="G929" s="53"/>
+      <c r="F929" s="50"/>
+      <c r="G929" s="50"/>
     </row>
     <row r="930">
-      <c r="F930" s="53"/>
-      <c r="G930" s="53"/>
+      <c r="F930" s="50"/>
+      <c r="G930" s="50"/>
     </row>
     <row r="931">
-      <c r="F931" s="53"/>
-      <c r="G931" s="53"/>
+      <c r="F931" s="50"/>
+      <c r="G931" s="50"/>
     </row>
     <row r="932">
-      <c r="F932" s="53"/>
-      <c r="G932" s="53"/>
+      <c r="F932" s="50"/>
+      <c r="G932" s="50"/>
     </row>
     <row r="933">
-      <c r="F933" s="53"/>
-      <c r="G933" s="53"/>
+      <c r="F933" s="50"/>
+      <c r="G933" s="50"/>
     </row>
     <row r="934">
-      <c r="F934" s="53"/>
-      <c r="G934" s="53"/>
+      <c r="F934" s="50"/>
+      <c r="G934" s="50"/>
     </row>
     <row r="935">
-      <c r="F935" s="53"/>
-      <c r="G935" s="53"/>
+      <c r="F935" s="50"/>
+      <c r="G935" s="50"/>
     </row>
     <row r="936">
-      <c r="F936" s="53"/>
-      <c r="G936" s="53"/>
+      <c r="F936" s="50"/>
+      <c r="G936" s="50"/>
     </row>
     <row r="937">
-      <c r="F937" s="53"/>
-      <c r="G937" s="53"/>
+      <c r="F937" s="50"/>
+      <c r="G937" s="50"/>
     </row>
     <row r="938">
-      <c r="F938" s="53"/>
-      <c r="G938" s="53"/>
+      <c r="F938" s="50"/>
+      <c r="G938" s="50"/>
     </row>
     <row r="939">
-      <c r="F939" s="53"/>
-      <c r="G939" s="53"/>
+      <c r="F939" s="50"/>
+      <c r="G939" s="50"/>
     </row>
     <row r="940">
-      <c r="F940" s="53"/>
-      <c r="G940" s="53"/>
+      <c r="F940" s="50"/>
+      <c r="G940" s="50"/>
     </row>
     <row r="941">
-      <c r="F941" s="53"/>
-      <c r="G941" s="53"/>
+      <c r="F941" s="50"/>
+      <c r="G941" s="50"/>
     </row>
     <row r="942">
-      <c r="F942" s="53"/>
-      <c r="G942" s="53"/>
+      <c r="F942" s="50"/>
+      <c r="G942" s="50"/>
     </row>
     <row r="943">
-      <c r="F943" s="53"/>
-      <c r="G943" s="53"/>
+      <c r="F943" s="50"/>
+      <c r="G943" s="50"/>
     </row>
     <row r="944">
-      <c r="F944" s="53"/>
-      <c r="G944" s="53"/>
+      <c r="F944" s="50"/>
+      <c r="G944" s="50"/>
     </row>
     <row r="945">
-      <c r="F945" s="53"/>
-      <c r="G945" s="53"/>
+      <c r="F945" s="50"/>
+      <c r="G945" s="50"/>
     </row>
     <row r="946">
-      <c r="F946" s="53"/>
-      <c r="G946" s="53"/>
+      <c r="F946" s="50"/>
+      <c r="G946" s="50"/>
     </row>
     <row r="947">
-      <c r="F947" s="53"/>
-      <c r="G947" s="53"/>
+      <c r="F947" s="50"/>
+      <c r="G947" s="50"/>
     </row>
     <row r="948">
-      <c r="F948" s="53"/>
-      <c r="G948" s="53"/>
+      <c r="F948" s="50"/>
+      <c r="G948" s="50"/>
     </row>
     <row r="949">
-      <c r="F949" s="53"/>
-      <c r="G949" s="53"/>
+      <c r="F949" s="50"/>
+      <c r="G949" s="50"/>
     </row>
     <row r="950">
-      <c r="F950" s="53"/>
-      <c r="G950" s="53"/>
+      <c r="F950" s="50"/>
+      <c r="G950" s="50"/>
     </row>
     <row r="951">
-      <c r="F951" s="53"/>
-      <c r="G951" s="53"/>
+      <c r="F951" s="50"/>
+      <c r="G951" s="50"/>
     </row>
     <row r="952">
-      <c r="F952" s="53"/>
-      <c r="G952" s="53"/>
+      <c r="F952" s="50"/>
+      <c r="G952" s="50"/>
     </row>
     <row r="953">
-      <c r="F953" s="53"/>
-      <c r="G953" s="53"/>
+      <c r="F953" s="50"/>
+      <c r="G953" s="50"/>
     </row>
     <row r="954">
-      <c r="F954" s="53"/>
-      <c r="G954" s="53"/>
+      <c r="F954" s="50"/>
+      <c r="G954" s="50"/>
     </row>
     <row r="955">
-      <c r="F955" s="53"/>
-      <c r="G955" s="53"/>
+      <c r="F955" s="50"/>
+      <c r="G955" s="50"/>
     </row>
     <row r="956">
-      <c r="F956" s="53"/>
-      <c r="G956" s="53"/>
+      <c r="F956" s="50"/>
+      <c r="G956" s="50"/>
     </row>
     <row r="957">
-      <c r="F957" s="53"/>
-      <c r="G957" s="53"/>
+      <c r="F957" s="50"/>
+      <c r="G957" s="50"/>
     </row>
     <row r="958">
-      <c r="F958" s="53"/>
-      <c r="G958" s="53"/>
+      <c r="F958" s="50"/>
+      <c r="G958" s="50"/>
     </row>
     <row r="959">
-      <c r="F959" s="53"/>
-      <c r="G959" s="53"/>
+      <c r="F959" s="50"/>
+      <c r="G959" s="50"/>
     </row>
     <row r="960">
-      <c r="F960" s="53"/>
-      <c r="G960" s="53"/>
+      <c r="F960" s="50"/>
+      <c r="G960" s="50"/>
     </row>
     <row r="961">
-      <c r="F961" s="53"/>
-      <c r="G961" s="53"/>
+      <c r="F961" s="50"/>
+      <c r="G961" s="50"/>
     </row>
     <row r="962">
-      <c r="F962" s="53"/>
-      <c r="G962" s="53"/>
+      <c r="F962" s="50"/>
+      <c r="G962" s="50"/>
     </row>
     <row r="963">
-      <c r="F963" s="53"/>
-      <c r="G963" s="53"/>
+      <c r="F963" s="50"/>
+      <c r="G963" s="50"/>
     </row>
     <row r="964">
-      <c r="F964" s="53"/>
-      <c r="G964" s="53"/>
+      <c r="F964" s="50"/>
+      <c r="G964" s="50"/>
     </row>
     <row r="965">
-      <c r="F965" s="53"/>
-      <c r="G965" s="53"/>
+      <c r="F965" s="50"/>
+      <c r="G965" s="50"/>
     </row>
     <row r="966">
-      <c r="F966" s="53"/>
-      <c r="G966" s="53"/>
+      <c r="F966" s="50"/>
+      <c r="G966" s="50"/>
     </row>
     <row r="967">
-      <c r="F967" s="53"/>
-      <c r="G967" s="53"/>
+      <c r="F967" s="50"/>
+      <c r="G967" s="50"/>
     </row>
     <row r="968">
-      <c r="F968" s="53"/>
-      <c r="G968" s="53"/>
+      <c r="F968" s="50"/>
+      <c r="G968" s="50"/>
     </row>
     <row r="969">
-      <c r="F969" s="53"/>
-      <c r="G969" s="53"/>
+      <c r="F969" s="50"/>
+      <c r="G969" s="50"/>
     </row>
     <row r="970">
-      <c r="F970" s="53"/>
-      <c r="G970" s="53"/>
+      <c r="F970" s="50"/>
+      <c r="G970" s="50"/>
     </row>
     <row r="971">
-      <c r="F971" s="53"/>
-      <c r="G971" s="53"/>
+      <c r="F971" s="50"/>
+      <c r="G971" s="50"/>
     </row>
     <row r="972">
-      <c r="F972" s="53"/>
-      <c r="G972" s="53"/>
+      <c r="F972" s="50"/>
+      <c r="G972" s="50"/>
     </row>
     <row r="973">
-      <c r="F973" s="53"/>
-      <c r="G973" s="53"/>
+      <c r="F973" s="50"/>
+      <c r="G973" s="50"/>
     </row>
     <row r="974">
-      <c r="F974" s="53"/>
-      <c r="G974" s="53"/>
+      <c r="F974" s="50"/>
+      <c r="G974" s="50"/>
     </row>
     <row r="975">
-      <c r="F975" s="53"/>
-      <c r="G975" s="53"/>
+      <c r="F975" s="50"/>
+      <c r="G975" s="50"/>
     </row>
     <row r="976">
-      <c r="F976" s="53"/>
-      <c r="G976" s="53"/>
+      <c r="F976" s="50"/>
+      <c r="G976" s="50"/>
     </row>
     <row r="977">
-      <c r="F977" s="53"/>
-      <c r="G977" s="53"/>
+      <c r="F977" s="50"/>
+      <c r="G977" s="50"/>
     </row>
     <row r="978">
-      <c r="F978" s="53"/>
-      <c r="G978" s="53"/>
+      <c r="F978" s="50"/>
+      <c r="G978" s="50"/>
     </row>
     <row r="979">
-      <c r="F979" s="53"/>
-      <c r="G979" s="53"/>
+      <c r="F979" s="50"/>
+      <c r="G979" s="50"/>
     </row>
     <row r="980">
-      <c r="F980" s="53"/>
-      <c r="G980" s="53"/>
+      <c r="F980" s="50"/>
+      <c r="G980" s="50"/>
     </row>
     <row r="981">
-      <c r="F981" s="53"/>
-      <c r="G981" s="53"/>
+      <c r="F981" s="50"/>
+      <c r="G981" s="50"/>
     </row>
     <row r="982">
-      <c r="F982" s="53"/>
-      <c r="G982" s="53"/>
+      <c r="F982" s="50"/>
+      <c r="G982" s="50"/>
     </row>
     <row r="983">
-      <c r="F983" s="53"/>
-      <c r="G983" s="53"/>
+      <c r="F983" s="50"/>
+      <c r="G983" s="50"/>
     </row>
     <row r="984">
-      <c r="F984" s="53"/>
-      <c r="G984" s="53"/>
+      <c r="F984" s="50"/>
+      <c r="G984" s="50"/>
     </row>
     <row r="985">
-      <c r="F985" s="53"/>
-      <c r="G985" s="53"/>
+      <c r="F985" s="50"/>
+      <c r="G985" s="50"/>
     </row>
     <row r="986">
-      <c r="F986" s="53"/>
-      <c r="G986" s="53"/>
+      <c r="F986" s="50"/>
+      <c r="G986" s="50"/>
     </row>
     <row r="987">
-      <c r="F987" s="53"/>
-      <c r="G987" s="53"/>
+      <c r="F987" s="50"/>
+      <c r="G987" s="50"/>
     </row>
     <row r="988">
-      <c r="F988" s="53"/>
-      <c r="G988" s="53"/>
+      <c r="F988" s="50"/>
+      <c r="G988" s="50"/>
     </row>
     <row r="989">
-      <c r="F989" s="53"/>
-      <c r="G989" s="53"/>
+      <c r="F989" s="50"/>
+      <c r="G989" s="50"/>
     </row>
     <row r="990">
-      <c r="F990" s="53"/>
-      <c r="G990" s="53"/>
+      <c r="F990" s="50"/>
+      <c r="G990" s="50"/>
     </row>
     <row r="991">
-      <c r="F991" s="53"/>
-      <c r="G991" s="53"/>
+      <c r="F991" s="50"/>
+      <c r="G991" s="50"/>
     </row>
     <row r="992">
-      <c r="F992" s="53"/>
-      <c r="G992" s="53"/>
+      <c r="F992" s="50"/>
+      <c r="G992" s="50"/>
     </row>
     <row r="993">
-      <c r="F993" s="53"/>
-      <c r="G993" s="53"/>
+      <c r="F993" s="50"/>
+      <c r="G993" s="50"/>
     </row>
     <row r="994">
-      <c r="F994" s="53"/>
-      <c r="G994" s="53"/>
+      <c r="F994" s="50"/>
+      <c r="G994" s="50"/>
     </row>
     <row r="995">
-      <c r="F995" s="53"/>
-      <c r="G995" s="53"/>
+      <c r="F995" s="50"/>
+      <c r="G995" s="50"/>
     </row>
     <row r="996">
-      <c r="F996" s="53"/>
-      <c r="G996" s="53"/>
+      <c r="F996" s="50"/>
+      <c r="G996" s="50"/>
     </row>
     <row r="997">
-      <c r="F997" s="53"/>
-      <c r="G997" s="53"/>
+      <c r="F997" s="50"/>
+      <c r="G997" s="50"/>
     </row>
     <row r="998">
-      <c r="F998" s="53"/>
-      <c r="G998" s="53"/>
+      <c r="F998" s="50"/>
+      <c r="G998" s="50"/>
     </row>
     <row r="999">
-      <c r="F999" s="53"/>
-      <c r="G999" s="53"/>
+      <c r="F999" s="50"/>
+      <c r="G999" s="50"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="53"/>
-      <c r="G1000" s="53"/>
+      <c r="F1000" s="50"/>
+      <c r="G1000" s="50"/>
     </row>
     <row r="1001">
-      <c r="F1001" s="53"/>
-      <c r="G1001" s="53"/>
+      <c r="F1001" s="50"/>
+      <c r="G1001" s="50"/>
     </row>
     <row r="1002">
-      <c r="F1002" s="53"/>
-      <c r="G1002" s="53"/>
+      <c r="F1002" s="50"/>
+      <c r="G1002" s="50"/>
     </row>
     <row r="1003">
-      <c r="F1003" s="53"/>
-      <c r="G1003" s="53"/>
+      <c r="F1003" s="50"/>
+      <c r="G1003" s="50"/>
     </row>
     <row r="1004">
-      <c r="F1004" s="53"/>
-      <c r="G1004" s="53"/>
+      <c r="F1004" s="50"/>
+      <c r="G1004" s="50"/>
     </row>
     <row r="1005">
-      <c r="F1005" s="53"/>
-      <c r="G1005" s="53"/>
+      <c r="F1005" s="50"/>
+      <c r="G1005" s="50"/>
     </row>
     <row r="1006">
-      <c r="F1006" s="53"/>
-      <c r="G1006" s="53"/>
+      <c r="F1006" s="50"/>
+      <c r="G1006" s="50"/>
     </row>
     <row r="1007">
-      <c r="F1007" s="53"/>
-      <c r="G1007" s="53"/>
+      <c r="F1007" s="50"/>
+      <c r="G1007" s="50"/>
     </row>
     <row r="1008">
-      <c r="F1008" s="53"/>
-      <c r="G1008" s="53"/>
+      <c r="F1008" s="50"/>
+      <c r="G1008" s="50"/>
     </row>
     <row r="1009">
-      <c r="F1009" s="53"/>
-      <c r="G1009" s="53"/>
+      <c r="F1009" s="50"/>
+      <c r="G1009" s="50"/>
     </row>
     <row r="1010">
-      <c r="F1010" s="53"/>
-      <c r="G1010" s="53"/>
+      <c r="F1010" s="50"/>
+      <c r="G1010" s="50"/>
     </row>
     <row r="1011">
-      <c r="F1011" s="53"/>
-      <c r="G1011" s="53"/>
+      <c r="F1011" s="50"/>
+      <c r="G1011" s="50"/>
     </row>
     <row r="1012">
-      <c r="F1012" s="53"/>
-      <c r="G1012" s="53"/>
+      <c r="F1012" s="50"/>
+      <c r="G1012" s="50"/>
     </row>
     <row r="1013">
-      <c r="F1013" s="53"/>
-      <c r="G1013" s="53"/>
+      <c r="F1013" s="50"/>
+      <c r="G1013" s="50"/>
     </row>
     <row r="1014">
-      <c r="F1014" s="53"/>
-      <c r="G1014" s="53"/>
+      <c r="F1014" s="50"/>
+      <c r="G1014" s="50"/>
     </row>
     <row r="1015">
-      <c r="F1015" s="53"/>
-      <c r="G1015" s="53"/>
+      <c r="F1015" s="50"/>
+      <c r="G1015" s="50"/>
     </row>
     <row r="1016">
-      <c r="F1016" s="53"/>
-      <c r="G1016" s="53"/>
+      <c r="F1016" s="50"/>
+      <c r="G1016" s="50"/>
     </row>
     <row r="1017">
-      <c r="F1017" s="53"/>
-      <c r="G1017" s="53"/>
+      <c r="F1017" s="50"/>
+      <c r="G1017" s="50"/>
     </row>
     <row r="1018">
-      <c r="F1018" s="53"/>
-      <c r="G1018" s="53"/>
+      <c r="F1018" s="50"/>
+      <c r="G1018" s="50"/>
+    </row>
+    <row r="1019">
+      <c r="F1019" s="50"/>
+      <c r="G1019" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -6383,10 +6281,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D46"/>
-    <hyperlink r:id="rId3" ref="D48"/>
-    <hyperlink r:id="rId4" ref="D50"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Desarrollo/MindSoft/Gestión/AMSM-CP.xlsx
+++ b/Desarrollo/MindSoft/Gestión/AMSM-CP.xlsx
@@ -367,7 +367,7 @@
     <t>AMSM-RSS.docx</t>
   </si>
   <si>
-    <t>Hito 2: Fin del sprint #2</t>
+    <t>Hito 2: Fin del Sprint #2</t>
   </si>
   <si>
     <t>Codificación de la interfaz grafica de los casos de uso 2</t>
@@ -445,7 +445,7 @@
     <t>AMSM-ACP.docx</t>
   </si>
   <si>
-    <t>Hito 3: Desarrollo y Despliegue</t>
+    <t>Hito 3: Fin del Sprint #3</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/MM/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -473,23 +473,23 @@
       <b/>
       <sz val="13.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="13.0"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
       <sz val="13.0"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="13.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -497,10 +497,19 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b/>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -512,28 +521,28 @@
       <b/>
       <sz val="14.0"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
     </font>
     <font/>
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12.0"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="14.0"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <color theme="1"/>
@@ -628,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -674,106 +683,113 @@
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="4" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1079,5191 +1095,5194 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="22">
         <v>45526.0</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="22">
         <v>45527.0</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="22">
         <v>45527.0</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="22">
         <v>45528.0</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="22">
         <v>45527.0</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="22">
         <v>45528.0</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="22">
         <v>45529.0</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="22">
         <v>45531.0</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="22">
         <v>45532.0</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="22">
         <v>45534.0</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="22">
         <v>45532.0</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="22">
         <v>45534.0</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="22">
         <v>45532.0</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="22">
         <v>45534.0</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="22">
         <v>45532.0</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="22">
         <v>45534.0</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="22">
         <v>45532.0</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="22">
         <v>45534.0</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="22">
         <v>45532.0</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="22">
         <v>45534.0</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="22">
         <v>45532.0</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="22">
         <v>45534.0</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="22">
         <v>45534.0</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="22">
         <v>45539.0</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="22">
         <v>45540.0</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="24">
         <v>45542.0</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="22">
         <v>45543.0</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="22">
         <v>45545.0</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="22">
         <v>45546.0</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="22">
         <v>45548.0</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="22">
         <v>45549.0</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="22">
         <v>45551.0</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="22">
         <v>45552.0</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="22">
         <v>45553.0</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="22">
         <v>45554.0</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="22">
         <v>45555.0</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="21">
         <v>100.0</v>
       </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
     </row>
     <row r="29">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="28">
         <v>45555.0</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="22">
         <v>45556.0</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="22">
         <v>45559.0</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="34">
         <v>100.0</v>
       </c>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
     </row>
     <row r="31">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="22">
         <v>45559.0</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="22">
         <v>45561.0</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="34">
         <v>100.0</v>
       </c>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
     </row>
     <row r="32">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="22">
         <v>45561.0</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="22">
         <v>45562.0</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="34">
         <v>100.0</v>
       </c>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
     </row>
     <row r="33">
-      <c r="A33" s="29"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="22">
         <v>45562.0</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="22">
         <v>45571.0</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="34">
         <v>100.0</v>
       </c>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
     </row>
     <row r="34">
-      <c r="A34" s="29"/>
-      <c r="B34" s="33" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="22">
         <v>45562.0</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="22">
         <v>45571.0</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="34">
         <v>100.0</v>
       </c>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
     </row>
     <row r="35">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="22">
         <v>45562.0</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="22">
         <v>45571.0</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="34">
         <v>100.0</v>
       </c>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
     </row>
     <row r="36">
-      <c r="A36" s="29"/>
-      <c r="B36" s="33" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="22">
         <v>45562.0</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="22">
         <v>45571.0</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="34">
         <v>100.0</v>
       </c>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
     </row>
     <row r="37">
-      <c r="A37" s="29"/>
-      <c r="B37" s="33" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="22">
         <v>45572.0</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="22">
         <v>45580.0</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="21">
         <v>100.0</v>
       </c>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
     </row>
     <row r="38">
-      <c r="A38" s="29"/>
-      <c r="B38" s="33" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="22">
         <v>45572.0</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="22">
         <v>45580.0</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="21">
         <v>100.0</v>
       </c>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
     </row>
     <row r="39">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="22">
         <v>45580.0</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="22">
         <v>45584.0</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="21">
         <v>100.0</v>
       </c>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
     </row>
     <row r="40">
-      <c r="A40" s="29"/>
-      <c r="B40" s="33" t="s">
+      <c r="A40" s="31"/>
+      <c r="B40" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="22">
         <v>45582.0</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="22">
         <v>45584.0</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="21">
         <v>100.0</v>
       </c>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
     </row>
     <row r="41">
-      <c r="A41" s="29"/>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="22">
         <v>45585.0</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="22">
         <v>45587.0</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="21">
         <v>100.0</v>
       </c>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
     </row>
     <row r="42">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="22">
         <v>45588.0</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G42" s="22">
         <v>45589.0</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="21">
         <v>100.0</v>
       </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
     </row>
     <row r="43">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="40">
         <v>45589.0</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
     </row>
     <row r="44">
-      <c r="A44" s="1"/>
-      <c r="B44" s="30" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="42">
         <v>45590.0</v>
       </c>
-      <c r="G44" s="39">
+      <c r="G44" s="42">
         <v>45592.0</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="43">
         <v>100.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="33" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F45" s="39">
+      <c r="F45" s="42">
         <v>45592.0</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="42">
         <v>45598.0</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="43">
         <v>100.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1"/>
-      <c r="B46" s="33" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="39">
+      <c r="F46" s="42">
         <v>45592.0</v>
       </c>
-      <c r="G46" s="39">
+      <c r="G46" s="42">
         <v>45598.0</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="43">
         <v>100.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1"/>
-      <c r="B47" s="33" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F47" s="42">
         <v>45598.0</v>
       </c>
-      <c r="G47" s="39">
+      <c r="G47" s="42">
         <v>45602.0</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H47" s="43">
         <v>100.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1"/>
-      <c r="B48" s="33" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="39">
+      <c r="F48" s="42">
         <v>45598.0</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G48" s="42">
         <v>45602.0</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="43">
         <v>100.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1"/>
-      <c r="B49" s="41" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F49" s="39">
+      <c r="F49" s="42">
         <v>45600.0</v>
       </c>
-      <c r="G49" s="39">
+      <c r="G49" s="42">
         <v>45604.0</v>
       </c>
-      <c r="H49" s="40">
+      <c r="H49" s="43">
         <v>100.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1"/>
-      <c r="B50" s="44" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="39">
+      <c r="F50" s="42">
         <v>45600.0</v>
       </c>
-      <c r="G50" s="39">
+      <c r="G50" s="42">
         <v>45604.0</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1"/>
-      <c r="B51" s="41" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="39">
+      <c r="F51" s="42">
         <v>45600.0</v>
       </c>
-      <c r="G51" s="39">
+      <c r="G51" s="42">
         <v>45604.0</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="43">
         <v>100.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1"/>
-      <c r="B52" s="44" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F52" s="39">
+      <c r="F52" s="42">
         <v>45600.0</v>
       </c>
-      <c r="G52" s="39">
+      <c r="G52" s="42">
         <v>45604.0</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="21">
         <v>100.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1"/>
-      <c r="B53" s="30" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="39">
+      <c r="F53" s="42">
         <v>45605.0</v>
       </c>
-      <c r="G53" s="39">
+      <c r="G53" s="42">
         <v>45608.0</v>
       </c>
-      <c r="H53" s="40">
-        <v>60.0</v>
+      <c r="H53" s="21">
+        <v>100.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="33" t="s">
+      <c r="A54" s="15"/>
+      <c r="B54" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F54" s="39">
+      <c r="F54" s="42">
         <v>45605.0</v>
       </c>
-      <c r="G54" s="39">
+      <c r="G54" s="42">
         <v>45608.0</v>
       </c>
-      <c r="H54" s="40">
-        <v>60.0</v>
+      <c r="H54" s="21">
+        <v>100.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1"/>
-      <c r="B55" s="42" t="s">
+      <c r="A55" s="15"/>
+      <c r="B55" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="39">
+      <c r="F55" s="42">
         <v>45607.0</v>
       </c>
-      <c r="G55" s="39">
+      <c r="G55" s="42">
         <v>45608.0</v>
       </c>
-      <c r="H55" s="40">
-        <v>40.0</v>
+      <c r="H55" s="21">
+        <v>100.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1"/>
-      <c r="B56" s="42" t="s">
+      <c r="A56" s="15"/>
+      <c r="B56" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="39">
+      <c r="F56" s="42">
         <v>45609.0</v>
       </c>
-      <c r="G56" s="39">
+      <c r="G56" s="42">
         <v>45610.0</v>
       </c>
-      <c r="H56" s="40">
-        <v>0.0</v>
+      <c r="H56" s="21">
+        <v>100.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="45"/>
-      <c r="B57" s="46" t="s">
+      <c r="A57" s="48"/>
+      <c r="B57" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="48">
+      <c r="F57" s="51">
         <v>45609.0</v>
       </c>
-      <c r="G57" s="48">
+      <c r="G57" s="51">
         <v>45610.0</v>
       </c>
-      <c r="H57" s="49"/>
+      <c r="H57" s="52">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="40">
         <v>45610.0</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="30"/>
     </row>
     <row r="59">
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
     </row>
     <row r="60">
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
     </row>
     <row r="61">
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
     </row>
     <row r="62">
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
     </row>
     <row r="63">
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
     </row>
     <row r="64">
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
     </row>
     <row r="65">
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
     </row>
     <row r="66">
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
     </row>
     <row r="67">
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
     </row>
     <row r="68">
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
     </row>
     <row r="69">
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
     </row>
     <row r="70">
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
     </row>
     <row r="71">
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
     </row>
     <row r="72">
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
     </row>
     <row r="73">
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
     </row>
     <row r="74">
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
     </row>
     <row r="75">
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
     </row>
     <row r="76">
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
     </row>
     <row r="77">
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
     </row>
     <row r="78">
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
     </row>
     <row r="79">
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
     </row>
     <row r="80">
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
     </row>
     <row r="81">
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
     </row>
     <row r="82">
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
     </row>
     <row r="83">
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="53"/>
     </row>
     <row r="84">
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
     </row>
     <row r="85">
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
     </row>
     <row r="86">
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
     </row>
     <row r="87">
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="53"/>
     </row>
     <row r="88">
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
     </row>
     <row r="89">
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
     </row>
     <row r="90">
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
     </row>
     <row r="91">
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
     </row>
     <row r="92">
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
     </row>
     <row r="93">
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
     </row>
     <row r="94">
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53"/>
     </row>
     <row r="95">
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
     </row>
     <row r="96">
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
     </row>
     <row r="97">
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53"/>
     </row>
     <row r="98">
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="53"/>
     </row>
     <row r="99">
-      <c r="F99" s="50"/>
-      <c r="G99" s="50"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
     </row>
     <row r="100">
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
     </row>
     <row r="101">
-      <c r="F101" s="50"/>
-      <c r="G101" s="50"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
     </row>
     <row r="102">
-      <c r="F102" s="50"/>
-      <c r="G102" s="50"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
     </row>
     <row r="103">
-      <c r="F103" s="50"/>
-      <c r="G103" s="50"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
     </row>
     <row r="104">
-      <c r="F104" s="50"/>
-      <c r="G104" s="50"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
     </row>
     <row r="105">
-      <c r="F105" s="50"/>
-      <c r="G105" s="50"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
     </row>
     <row r="106">
-      <c r="F106" s="50"/>
-      <c r="G106" s="50"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53"/>
     </row>
     <row r="107">
-      <c r="F107" s="50"/>
-      <c r="G107" s="50"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53"/>
     </row>
     <row r="108">
-      <c r="F108" s="50"/>
-      <c r="G108" s="50"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="53"/>
     </row>
     <row r="109">
-      <c r="F109" s="50"/>
-      <c r="G109" s="50"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="53"/>
     </row>
     <row r="110">
-      <c r="F110" s="50"/>
-      <c r="G110" s="50"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53"/>
     </row>
     <row r="111">
-      <c r="F111" s="50"/>
-      <c r="G111" s="50"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
     </row>
     <row r="112">
-      <c r="F112" s="50"/>
-      <c r="G112" s="50"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
     </row>
     <row r="113">
-      <c r="F113" s="50"/>
-      <c r="G113" s="50"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="53"/>
     </row>
     <row r="114">
-      <c r="F114" s="50"/>
-      <c r="G114" s="50"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="53"/>
     </row>
     <row r="115">
-      <c r="F115" s="50"/>
-      <c r="G115" s="50"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="53"/>
     </row>
     <row r="116">
-      <c r="F116" s="50"/>
-      <c r="G116" s="50"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="53"/>
     </row>
     <row r="117">
-      <c r="F117" s="50"/>
-      <c r="G117" s="50"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
     </row>
     <row r="118">
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="53"/>
     </row>
     <row r="119">
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="53"/>
     </row>
     <row r="120">
-      <c r="F120" s="50"/>
-      <c r="G120" s="50"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
     </row>
     <row r="121">
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="53"/>
     </row>
     <row r="122">
-      <c r="F122" s="50"/>
-      <c r="G122" s="50"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
     </row>
     <row r="123">
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="53"/>
     </row>
     <row r="124">
-      <c r="F124" s="50"/>
-      <c r="G124" s="50"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
     </row>
     <row r="125">
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="53"/>
     </row>
     <row r="126">
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
     </row>
     <row r="127">
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="53"/>
     </row>
     <row r="128">
-      <c r="F128" s="50"/>
-      <c r="G128" s="50"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
     </row>
     <row r="129">
-      <c r="F129" s="50"/>
-      <c r="G129" s="50"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
     </row>
     <row r="130">
-      <c r="F130" s="50"/>
-      <c r="G130" s="50"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="53"/>
     </row>
     <row r="131">
-      <c r="F131" s="50"/>
-      <c r="G131" s="50"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="53"/>
     </row>
     <row r="132">
-      <c r="F132" s="50"/>
-      <c r="G132" s="50"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
     </row>
     <row r="133">
-      <c r="F133" s="50"/>
-      <c r="G133" s="50"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="53"/>
     </row>
     <row r="134">
-      <c r="F134" s="50"/>
-      <c r="G134" s="50"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="53"/>
     </row>
     <row r="135">
-      <c r="F135" s="50"/>
-      <c r="G135" s="50"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53"/>
     </row>
     <row r="136">
-      <c r="F136" s="50"/>
-      <c r="G136" s="50"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="53"/>
     </row>
     <row r="137">
-      <c r="F137" s="50"/>
-      <c r="G137" s="50"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53"/>
     </row>
     <row r="138">
-      <c r="F138" s="50"/>
-      <c r="G138" s="50"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="53"/>
     </row>
     <row r="139">
-      <c r="F139" s="50"/>
-      <c r="G139" s="50"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="53"/>
     </row>
     <row r="140">
-      <c r="F140" s="50"/>
-      <c r="G140" s="50"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="53"/>
     </row>
     <row r="141">
-      <c r="F141" s="50"/>
-      <c r="G141" s="50"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="53"/>
     </row>
     <row r="142">
-      <c r="F142" s="50"/>
-      <c r="G142" s="50"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="53"/>
     </row>
     <row r="143">
-      <c r="F143" s="50"/>
-      <c r="G143" s="50"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="53"/>
     </row>
     <row r="144">
-      <c r="F144" s="50"/>
-      <c r="G144" s="50"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="53"/>
     </row>
     <row r="145">
-      <c r="F145" s="50"/>
-      <c r="G145" s="50"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="53"/>
     </row>
     <row r="146">
-      <c r="F146" s="50"/>
-      <c r="G146" s="50"/>
+      <c r="F146" s="53"/>
+      <c r="G146" s="53"/>
     </row>
     <row r="147">
-      <c r="F147" s="50"/>
-      <c r="G147" s="50"/>
+      <c r="F147" s="53"/>
+      <c r="G147" s="53"/>
     </row>
     <row r="148">
-      <c r="F148" s="50"/>
-      <c r="G148" s="50"/>
+      <c r="F148" s="53"/>
+      <c r="G148" s="53"/>
     </row>
     <row r="149">
-      <c r="F149" s="50"/>
-      <c r="G149" s="50"/>
+      <c r="F149" s="53"/>
+      <c r="G149" s="53"/>
     </row>
     <row r="150">
-      <c r="F150" s="50"/>
-      <c r="G150" s="50"/>
+      <c r="F150" s="53"/>
+      <c r="G150" s="53"/>
     </row>
     <row r="151">
-      <c r="F151" s="50"/>
-      <c r="G151" s="50"/>
+      <c r="F151" s="53"/>
+      <c r="G151" s="53"/>
     </row>
     <row r="152">
-      <c r="F152" s="50"/>
-      <c r="G152" s="50"/>
+      <c r="F152" s="53"/>
+      <c r="G152" s="53"/>
     </row>
     <row r="153">
-      <c r="F153" s="50"/>
-      <c r="G153" s="50"/>
+      <c r="F153" s="53"/>
+      <c r="G153" s="53"/>
     </row>
     <row r="154">
-      <c r="F154" s="50"/>
-      <c r="G154" s="50"/>
+      <c r="F154" s="53"/>
+      <c r="G154" s="53"/>
     </row>
     <row r="155">
-      <c r="F155" s="50"/>
-      <c r="G155" s="50"/>
+      <c r="F155" s="53"/>
+      <c r="G155" s="53"/>
     </row>
     <row r="156">
-      <c r="F156" s="50"/>
-      <c r="G156" s="50"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="53"/>
     </row>
     <row r="157">
-      <c r="F157" s="50"/>
-      <c r="G157" s="50"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="53"/>
     </row>
     <row r="158">
-      <c r="F158" s="50"/>
-      <c r="G158" s="50"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="53"/>
     </row>
     <row r="159">
-      <c r="F159" s="50"/>
-      <c r="G159" s="50"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="53"/>
     </row>
     <row r="160">
-      <c r="F160" s="50"/>
-      <c r="G160" s="50"/>
+      <c r="F160" s="53"/>
+      <c r="G160" s="53"/>
     </row>
     <row r="161">
-      <c r="F161" s="50"/>
-      <c r="G161" s="50"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="53"/>
     </row>
     <row r="162">
-      <c r="F162" s="50"/>
-      <c r="G162" s="50"/>
+      <c r="F162" s="53"/>
+      <c r="G162" s="53"/>
     </row>
     <row r="163">
-      <c r="F163" s="50"/>
-      <c r="G163" s="50"/>
+      <c r="F163" s="53"/>
+      <c r="G163" s="53"/>
     </row>
     <row r="164">
-      <c r="F164" s="50"/>
-      <c r="G164" s="50"/>
+      <c r="F164" s="53"/>
+      <c r="G164" s="53"/>
     </row>
     <row r="165">
-      <c r="F165" s="50"/>
-      <c r="G165" s="50"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="53"/>
     </row>
     <row r="166">
-      <c r="F166" s="50"/>
-      <c r="G166" s="50"/>
+      <c r="F166" s="53"/>
+      <c r="G166" s="53"/>
     </row>
     <row r="167">
-      <c r="F167" s="50"/>
-      <c r="G167" s="50"/>
+      <c r="F167" s="53"/>
+      <c r="G167" s="53"/>
     </row>
     <row r="168">
-      <c r="F168" s="50"/>
-      <c r="G168" s="50"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="53"/>
     </row>
     <row r="169">
-      <c r="F169" s="50"/>
-      <c r="G169" s="50"/>
+      <c r="F169" s="53"/>
+      <c r="G169" s="53"/>
     </row>
     <row r="170">
-      <c r="F170" s="50"/>
-      <c r="G170" s="50"/>
+      <c r="F170" s="53"/>
+      <c r="G170" s="53"/>
     </row>
     <row r="171">
-      <c r="F171" s="50"/>
-      <c r="G171" s="50"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="53"/>
     </row>
     <row r="172">
-      <c r="F172" s="50"/>
-      <c r="G172" s="50"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="53"/>
     </row>
     <row r="173">
-      <c r="F173" s="50"/>
-      <c r="G173" s="50"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="53"/>
     </row>
     <row r="174">
-      <c r="F174" s="50"/>
-      <c r="G174" s="50"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="53"/>
     </row>
     <row r="175">
-      <c r="F175" s="50"/>
-      <c r="G175" s="50"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="53"/>
     </row>
     <row r="176">
-      <c r="F176" s="50"/>
-      <c r="G176" s="50"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="53"/>
     </row>
     <row r="177">
-      <c r="F177" s="50"/>
-      <c r="G177" s="50"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="53"/>
     </row>
     <row r="178">
-      <c r="F178" s="50"/>
-      <c r="G178" s="50"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="53"/>
     </row>
     <row r="179">
-      <c r="F179" s="50"/>
-      <c r="G179" s="50"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="53"/>
     </row>
     <row r="180">
-      <c r="F180" s="50"/>
-      <c r="G180" s="50"/>
+      <c r="F180" s="53"/>
+      <c r="G180" s="53"/>
     </row>
     <row r="181">
-      <c r="F181" s="50"/>
-      <c r="G181" s="50"/>
+      <c r="F181" s="53"/>
+      <c r="G181" s="53"/>
     </row>
     <row r="182">
-      <c r="F182" s="50"/>
-      <c r="G182" s="50"/>
+      <c r="F182" s="53"/>
+      <c r="G182" s="53"/>
     </row>
     <row r="183">
-      <c r="F183" s="50"/>
-      <c r="G183" s="50"/>
+      <c r="F183" s="53"/>
+      <c r="G183" s="53"/>
     </row>
     <row r="184">
-      <c r="F184" s="50"/>
-      <c r="G184" s="50"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="53"/>
     </row>
     <row r="185">
-      <c r="F185" s="50"/>
-      <c r="G185" s="50"/>
+      <c r="F185" s="53"/>
+      <c r="G185" s="53"/>
     </row>
     <row r="186">
-      <c r="F186" s="50"/>
-      <c r="G186" s="50"/>
+      <c r="F186" s="53"/>
+      <c r="G186" s="53"/>
     </row>
     <row r="187">
-      <c r="F187" s="50"/>
-      <c r="G187" s="50"/>
+      <c r="F187" s="53"/>
+      <c r="G187" s="53"/>
     </row>
     <row r="188">
-      <c r="F188" s="50"/>
-      <c r="G188" s="50"/>
+      <c r="F188" s="53"/>
+      <c r="G188" s="53"/>
     </row>
     <row r="189">
-      <c r="F189" s="50"/>
-      <c r="G189" s="50"/>
+      <c r="F189" s="53"/>
+      <c r="G189" s="53"/>
     </row>
     <row r="190">
-      <c r="F190" s="50"/>
-      <c r="G190" s="50"/>
+      <c r="F190" s="53"/>
+      <c r="G190" s="53"/>
     </row>
     <row r="191">
-      <c r="F191" s="50"/>
-      <c r="G191" s="50"/>
+      <c r="F191" s="53"/>
+      <c r="G191" s="53"/>
     </row>
     <row r="192">
-      <c r="F192" s="50"/>
-      <c r="G192" s="50"/>
+      <c r="F192" s="53"/>
+      <c r="G192" s="53"/>
     </row>
     <row r="193">
-      <c r="F193" s="50"/>
-      <c r="G193" s="50"/>
+      <c r="F193" s="53"/>
+      <c r="G193" s="53"/>
     </row>
     <row r="194">
-      <c r="F194" s="50"/>
-      <c r="G194" s="50"/>
+      <c r="F194" s="53"/>
+      <c r="G194" s="53"/>
     </row>
     <row r="195">
-      <c r="F195" s="50"/>
-      <c r="G195" s="50"/>
+      <c r="F195" s="53"/>
+      <c r="G195" s="53"/>
     </row>
     <row r="196">
-      <c r="F196" s="50"/>
-      <c r="G196" s="50"/>
+      <c r="F196" s="53"/>
+      <c r="G196" s="53"/>
     </row>
     <row r="197">
-      <c r="F197" s="50"/>
-      <c r="G197" s="50"/>
+      <c r="F197" s="53"/>
+      <c r="G197" s="53"/>
     </row>
     <row r="198">
-      <c r="F198" s="50"/>
-      <c r="G198" s="50"/>
+      <c r="F198" s="53"/>
+      <c r="G198" s="53"/>
     </row>
     <row r="199">
-      <c r="F199" s="50"/>
-      <c r="G199" s="50"/>
+      <c r="F199" s="53"/>
+      <c r="G199" s="53"/>
     </row>
     <row r="200">
-      <c r="F200" s="50"/>
-      <c r="G200" s="50"/>
+      <c r="F200" s="53"/>
+      <c r="G200" s="53"/>
     </row>
     <row r="201">
-      <c r="F201" s="50"/>
-      <c r="G201" s="50"/>
+      <c r="F201" s="53"/>
+      <c r="G201" s="53"/>
     </row>
     <row r="202">
-      <c r="F202" s="50"/>
-      <c r="G202" s="50"/>
+      <c r="F202" s="53"/>
+      <c r="G202" s="53"/>
     </row>
     <row r="203">
-      <c r="F203" s="50"/>
-      <c r="G203" s="50"/>
+      <c r="F203" s="53"/>
+      <c r="G203" s="53"/>
     </row>
     <row r="204">
-      <c r="F204" s="50"/>
-      <c r="G204" s="50"/>
+      <c r="F204" s="53"/>
+      <c r="G204" s="53"/>
     </row>
     <row r="205">
-      <c r="F205" s="50"/>
-      <c r="G205" s="50"/>
+      <c r="F205" s="53"/>
+      <c r="G205" s="53"/>
     </row>
     <row r="206">
-      <c r="F206" s="50"/>
-      <c r="G206" s="50"/>
+      <c r="F206" s="53"/>
+      <c r="G206" s="53"/>
     </row>
     <row r="207">
-      <c r="F207" s="50"/>
-      <c r="G207" s="50"/>
+      <c r="F207" s="53"/>
+      <c r="G207" s="53"/>
     </row>
     <row r="208">
-      <c r="F208" s="50"/>
-      <c r="G208" s="50"/>
+      <c r="F208" s="53"/>
+      <c r="G208" s="53"/>
     </row>
     <row r="209">
-      <c r="F209" s="50"/>
-      <c r="G209" s="50"/>
+      <c r="F209" s="53"/>
+      <c r="G209" s="53"/>
     </row>
     <row r="210">
-      <c r="F210" s="50"/>
-      <c r="G210" s="50"/>
+      <c r="F210" s="53"/>
+      <c r="G210" s="53"/>
     </row>
     <row r="211">
-      <c r="F211" s="50"/>
-      <c r="G211" s="50"/>
+      <c r="F211" s="53"/>
+      <c r="G211" s="53"/>
     </row>
     <row r="212">
-      <c r="F212" s="50"/>
-      <c r="G212" s="50"/>
+      <c r="F212" s="53"/>
+      <c r="G212" s="53"/>
     </row>
     <row r="213">
-      <c r="F213" s="50"/>
-      <c r="G213" s="50"/>
+      <c r="F213" s="53"/>
+      <c r="G213" s="53"/>
     </row>
     <row r="214">
-      <c r="F214" s="50"/>
-      <c r="G214" s="50"/>
+      <c r="F214" s="53"/>
+      <c r="G214" s="53"/>
     </row>
     <row r="215">
-      <c r="F215" s="50"/>
-      <c r="G215" s="50"/>
+      <c r="F215" s="53"/>
+      <c r="G215" s="53"/>
     </row>
     <row r="216">
-      <c r="F216" s="50"/>
-      <c r="G216" s="50"/>
+      <c r="F216" s="53"/>
+      <c r="G216" s="53"/>
     </row>
     <row r="217">
-      <c r="F217" s="50"/>
-      <c r="G217" s="50"/>
+      <c r="F217" s="53"/>
+      <c r="G217" s="53"/>
     </row>
     <row r="218">
-      <c r="F218" s="50"/>
-      <c r="G218" s="50"/>
+      <c r="F218" s="53"/>
+      <c r="G218" s="53"/>
     </row>
     <row r="219">
-      <c r="F219" s="50"/>
-      <c r="G219" s="50"/>
+      <c r="F219" s="53"/>
+      <c r="G219" s="53"/>
     </row>
     <row r="220">
-      <c r="F220" s="50"/>
-      <c r="G220" s="50"/>
+      <c r="F220" s="53"/>
+      <c r="G220" s="53"/>
     </row>
     <row r="221">
-      <c r="F221" s="50"/>
-      <c r="G221" s="50"/>
+      <c r="F221" s="53"/>
+      <c r="G221" s="53"/>
     </row>
     <row r="222">
-      <c r="F222" s="50"/>
-      <c r="G222" s="50"/>
+      <c r="F222" s="53"/>
+      <c r="G222" s="53"/>
     </row>
     <row r="223">
-      <c r="F223" s="50"/>
-      <c r="G223" s="50"/>
+      <c r="F223" s="53"/>
+      <c r="G223" s="53"/>
     </row>
     <row r="224">
-      <c r="F224" s="50"/>
-      <c r="G224" s="50"/>
+      <c r="F224" s="53"/>
+      <c r="G224" s="53"/>
     </row>
     <row r="225">
-      <c r="F225" s="50"/>
-      <c r="G225" s="50"/>
+      <c r="F225" s="53"/>
+      <c r="G225" s="53"/>
     </row>
     <row r="226">
-      <c r="F226" s="50"/>
-      <c r="G226" s="50"/>
+      <c r="F226" s="53"/>
+      <c r="G226" s="53"/>
     </row>
     <row r="227">
-      <c r="F227" s="50"/>
-      <c r="G227" s="50"/>
+      <c r="F227" s="53"/>
+      <c r="G227" s="53"/>
     </row>
     <row r="228">
-      <c r="F228" s="50"/>
-      <c r="G228" s="50"/>
+      <c r="F228" s="53"/>
+      <c r="G228" s="53"/>
     </row>
     <row r="229">
-      <c r="F229" s="50"/>
-      <c r="G229" s="50"/>
+      <c r="F229" s="53"/>
+      <c r="G229" s="53"/>
     </row>
     <row r="230">
-      <c r="F230" s="50"/>
-      <c r="G230" s="50"/>
+      <c r="F230" s="53"/>
+      <c r="G230" s="53"/>
     </row>
     <row r="231">
-      <c r="F231" s="50"/>
-      <c r="G231" s="50"/>
+      <c r="F231" s="53"/>
+      <c r="G231" s="53"/>
     </row>
     <row r="232">
-      <c r="F232" s="50"/>
-      <c r="G232" s="50"/>
+      <c r="F232" s="53"/>
+      <c r="G232" s="53"/>
     </row>
     <row r="233">
-      <c r="F233" s="50"/>
-      <c r="G233" s="50"/>
+      <c r="F233" s="53"/>
+      <c r="G233" s="53"/>
     </row>
     <row r="234">
-      <c r="F234" s="50"/>
-      <c r="G234" s="50"/>
+      <c r="F234" s="53"/>
+      <c r="G234" s="53"/>
     </row>
     <row r="235">
-      <c r="F235" s="50"/>
-      <c r="G235" s="50"/>
+      <c r="F235" s="53"/>
+      <c r="G235" s="53"/>
     </row>
     <row r="236">
-      <c r="F236" s="50"/>
-      <c r="G236" s="50"/>
+      <c r="F236" s="53"/>
+      <c r="G236" s="53"/>
     </row>
     <row r="237">
-      <c r="F237" s="50"/>
-      <c r="G237" s="50"/>
+      <c r="F237" s="53"/>
+      <c r="G237" s="53"/>
     </row>
     <row r="238">
-      <c r="F238" s="50"/>
-      <c r="G238" s="50"/>
+      <c r="F238" s="53"/>
+      <c r="G238" s="53"/>
     </row>
     <row r="239">
-      <c r="F239" s="50"/>
-      <c r="G239" s="50"/>
+      <c r="F239" s="53"/>
+      <c r="G239" s="53"/>
     </row>
     <row r="240">
-      <c r="F240" s="50"/>
-      <c r="G240" s="50"/>
+      <c r="F240" s="53"/>
+      <c r="G240" s="53"/>
     </row>
     <row r="241">
-      <c r="F241" s="50"/>
-      <c r="G241" s="50"/>
+      <c r="F241" s="53"/>
+      <c r="G241" s="53"/>
     </row>
     <row r="242">
-      <c r="F242" s="50"/>
-      <c r="G242" s="50"/>
+      <c r="F242" s="53"/>
+      <c r="G242" s="53"/>
     </row>
     <row r="243">
-      <c r="F243" s="50"/>
-      <c r="G243" s="50"/>
+      <c r="F243" s="53"/>
+      <c r="G243" s="53"/>
     </row>
     <row r="244">
-      <c r="F244" s="50"/>
-      <c r="G244" s="50"/>
+      <c r="F244" s="53"/>
+      <c r="G244" s="53"/>
     </row>
     <row r="245">
-      <c r="F245" s="50"/>
-      <c r="G245" s="50"/>
+      <c r="F245" s="53"/>
+      <c r="G245" s="53"/>
     </row>
     <row r="246">
-      <c r="F246" s="50"/>
-      <c r="G246" s="50"/>
+      <c r="F246" s="53"/>
+      <c r="G246" s="53"/>
     </row>
     <row r="247">
-      <c r="F247" s="50"/>
-      <c r="G247" s="50"/>
+      <c r="F247" s="53"/>
+      <c r="G247" s="53"/>
     </row>
     <row r="248">
-      <c r="F248" s="50"/>
-      <c r="G248" s="50"/>
+      <c r="F248" s="53"/>
+      <c r="G248" s="53"/>
     </row>
     <row r="249">
-      <c r="F249" s="50"/>
-      <c r="G249" s="50"/>
+      <c r="F249" s="53"/>
+      <c r="G249" s="53"/>
     </row>
     <row r="250">
-      <c r="F250" s="50"/>
-      <c r="G250" s="50"/>
+      <c r="F250" s="53"/>
+      <c r="G250" s="53"/>
     </row>
     <row r="251">
-      <c r="F251" s="50"/>
-      <c r="G251" s="50"/>
+      <c r="F251" s="53"/>
+      <c r="G251" s="53"/>
     </row>
     <row r="252">
-      <c r="F252" s="50"/>
-      <c r="G252" s="50"/>
+      <c r="F252" s="53"/>
+      <c r="G252" s="53"/>
     </row>
     <row r="253">
-      <c r="F253" s="50"/>
-      <c r="G253" s="50"/>
+      <c r="F253" s="53"/>
+      <c r="G253" s="53"/>
     </row>
     <row r="254">
-      <c r="F254" s="50"/>
-      <c r="G254" s="50"/>
+      <c r="F254" s="53"/>
+      <c r="G254" s="53"/>
     </row>
     <row r="255">
-      <c r="F255" s="50"/>
-      <c r="G255" s="50"/>
+      <c r="F255" s="53"/>
+      <c r="G255" s="53"/>
     </row>
     <row r="256">
-      <c r="F256" s="50"/>
-      <c r="G256" s="50"/>
+      <c r="F256" s="53"/>
+      <c r="G256" s="53"/>
     </row>
     <row r="257">
-      <c r="F257" s="50"/>
-      <c r="G257" s="50"/>
+      <c r="F257" s="53"/>
+      <c r="G257" s="53"/>
     </row>
     <row r="258">
-      <c r="F258" s="50"/>
-      <c r="G258" s="50"/>
+      <c r="F258" s="53"/>
+      <c r="G258" s="53"/>
     </row>
     <row r="259">
-      <c r="F259" s="50"/>
-      <c r="G259" s="50"/>
+      <c r="F259" s="53"/>
+      <c r="G259" s="53"/>
     </row>
     <row r="260">
-      <c r="F260" s="50"/>
-      <c r="G260" s="50"/>
+      <c r="F260" s="53"/>
+      <c r="G260" s="53"/>
     </row>
     <row r="261">
-      <c r="F261" s="50"/>
-      <c r="G261" s="50"/>
+      <c r="F261" s="53"/>
+      <c r="G261" s="53"/>
     </row>
     <row r="262">
-      <c r="F262" s="50"/>
-      <c r="G262" s="50"/>
+      <c r="F262" s="53"/>
+      <c r="G262" s="53"/>
     </row>
     <row r="263">
-      <c r="F263" s="50"/>
-      <c r="G263" s="50"/>
+      <c r="F263" s="53"/>
+      <c r="G263" s="53"/>
     </row>
     <row r="264">
-      <c r="F264" s="50"/>
-      <c r="G264" s="50"/>
+      <c r="F264" s="53"/>
+      <c r="G264" s="53"/>
     </row>
     <row r="265">
-      <c r="F265" s="50"/>
-      <c r="G265" s="50"/>
+      <c r="F265" s="53"/>
+      <c r="G265" s="53"/>
     </row>
     <row r="266">
-      <c r="F266" s="50"/>
-      <c r="G266" s="50"/>
+      <c r="F266" s="53"/>
+      <c r="G266" s="53"/>
     </row>
     <row r="267">
-      <c r="F267" s="50"/>
-      <c r="G267" s="50"/>
+      <c r="F267" s="53"/>
+      <c r="G267" s="53"/>
     </row>
     <row r="268">
-      <c r="F268" s="50"/>
-      <c r="G268" s="50"/>
+      <c r="F268" s="53"/>
+      <c r="G268" s="53"/>
     </row>
     <row r="269">
-      <c r="F269" s="50"/>
-      <c r="G269" s="50"/>
+      <c r="F269" s="53"/>
+      <c r="G269" s="53"/>
     </row>
     <row r="270">
-      <c r="F270" s="50"/>
-      <c r="G270" s="50"/>
+      <c r="F270" s="53"/>
+      <c r="G270" s="53"/>
     </row>
     <row r="271">
-      <c r="F271" s="50"/>
-      <c r="G271" s="50"/>
+      <c r="F271" s="53"/>
+      <c r="G271" s="53"/>
     </row>
     <row r="272">
-      <c r="F272" s="50"/>
-      <c r="G272" s="50"/>
+      <c r="F272" s="53"/>
+      <c r="G272" s="53"/>
     </row>
     <row r="273">
-      <c r="F273" s="50"/>
-      <c r="G273" s="50"/>
+      <c r="F273" s="53"/>
+      <c r="G273" s="53"/>
     </row>
     <row r="274">
-      <c r="F274" s="50"/>
-      <c r="G274" s="50"/>
+      <c r="F274" s="53"/>
+      <c r="G274" s="53"/>
     </row>
     <row r="275">
-      <c r="F275" s="50"/>
-      <c r="G275" s="50"/>
+      <c r="F275" s="53"/>
+      <c r="G275" s="53"/>
     </row>
     <row r="276">
-      <c r="F276" s="50"/>
-      <c r="G276" s="50"/>
+      <c r="F276" s="53"/>
+      <c r="G276" s="53"/>
     </row>
     <row r="277">
-      <c r="F277" s="50"/>
-      <c r="G277" s="50"/>
+      <c r="F277" s="53"/>
+      <c r="G277" s="53"/>
     </row>
     <row r="278">
-      <c r="F278" s="50"/>
-      <c r="G278" s="50"/>
+      <c r="F278" s="53"/>
+      <c r="G278" s="53"/>
     </row>
     <row r="279">
-      <c r="F279" s="50"/>
-      <c r="G279" s="50"/>
+      <c r="F279" s="53"/>
+      <c r="G279" s="53"/>
     </row>
     <row r="280">
-      <c r="F280" s="50"/>
-      <c r="G280" s="50"/>
+      <c r="F280" s="53"/>
+      <c r="G280" s="53"/>
     </row>
     <row r="281">
-      <c r="F281" s="50"/>
-      <c r="G281" s="50"/>
+      <c r="F281" s="53"/>
+      <c r="G281" s="53"/>
     </row>
     <row r="282">
-      <c r="F282" s="50"/>
-      <c r="G282" s="50"/>
+      <c r="F282" s="53"/>
+      <c r="G282" s="53"/>
     </row>
     <row r="283">
-      <c r="F283" s="50"/>
-      <c r="G283" s="50"/>
+      <c r="F283" s="53"/>
+      <c r="G283" s="53"/>
     </row>
     <row r="284">
-      <c r="F284" s="50"/>
-      <c r="G284" s="50"/>
+      <c r="F284" s="53"/>
+      <c r="G284" s="53"/>
     </row>
     <row r="285">
-      <c r="F285" s="50"/>
-      <c r="G285" s="50"/>
+      <c r="F285" s="53"/>
+      <c r="G285" s="53"/>
     </row>
     <row r="286">
-      <c r="F286" s="50"/>
-      <c r="G286" s="50"/>
+      <c r="F286" s="53"/>
+      <c r="G286" s="53"/>
     </row>
     <row r="287">
-      <c r="F287" s="50"/>
-      <c r="G287" s="50"/>
+      <c r="F287" s="53"/>
+      <c r="G287" s="53"/>
     </row>
     <row r="288">
-      <c r="F288" s="50"/>
-      <c r="G288" s="50"/>
+      <c r="F288" s="53"/>
+      <c r="G288" s="53"/>
     </row>
     <row r="289">
-      <c r="F289" s="50"/>
-      <c r="G289" s="50"/>
+      <c r="F289" s="53"/>
+      <c r="G289" s="53"/>
     </row>
     <row r="290">
-      <c r="F290" s="50"/>
-      <c r="G290" s="50"/>
+      <c r="F290" s="53"/>
+      <c r="G290" s="53"/>
     </row>
     <row r="291">
-      <c r="F291" s="50"/>
-      <c r="G291" s="50"/>
+      <c r="F291" s="53"/>
+      <c r="G291" s="53"/>
     </row>
     <row r="292">
-      <c r="F292" s="50"/>
-      <c r="G292" s="50"/>
+      <c r="F292" s="53"/>
+      <c r="G292" s="53"/>
     </row>
     <row r="293">
-      <c r="F293" s="50"/>
-      <c r="G293" s="50"/>
+      <c r="F293" s="53"/>
+      <c r="G293" s="53"/>
     </row>
     <row r="294">
-      <c r="F294" s="50"/>
-      <c r="G294" s="50"/>
+      <c r="F294" s="53"/>
+      <c r="G294" s="53"/>
     </row>
     <row r="295">
-      <c r="F295" s="50"/>
-      <c r="G295" s="50"/>
+      <c r="F295" s="53"/>
+      <c r="G295" s="53"/>
     </row>
     <row r="296">
-      <c r="F296" s="50"/>
-      <c r="G296" s="50"/>
+      <c r="F296" s="53"/>
+      <c r="G296" s="53"/>
     </row>
     <row r="297">
-      <c r="F297" s="50"/>
-      <c r="G297" s="50"/>
+      <c r="F297" s="53"/>
+      <c r="G297" s="53"/>
     </row>
     <row r="298">
-      <c r="F298" s="50"/>
-      <c r="G298" s="50"/>
+      <c r="F298" s="53"/>
+      <c r="G298" s="53"/>
     </row>
     <row r="299">
-      <c r="F299" s="50"/>
-      <c r="G299" s="50"/>
+      <c r="F299" s="53"/>
+      <c r="G299" s="53"/>
     </row>
     <row r="300">
-      <c r="F300" s="50"/>
-      <c r="G300" s="50"/>
+      <c r="F300" s="53"/>
+      <c r="G300" s="53"/>
     </row>
     <row r="301">
-      <c r="F301" s="50"/>
-      <c r="G301" s="50"/>
+      <c r="F301" s="53"/>
+      <c r="G301" s="53"/>
     </row>
     <row r="302">
-      <c r="F302" s="50"/>
-      <c r="G302" s="50"/>
+      <c r="F302" s="53"/>
+      <c r="G302" s="53"/>
     </row>
     <row r="303">
-      <c r="F303" s="50"/>
-      <c r="G303" s="50"/>
+      <c r="F303" s="53"/>
+      <c r="G303" s="53"/>
     </row>
     <row r="304">
-      <c r="F304" s="50"/>
-      <c r="G304" s="50"/>
+      <c r="F304" s="53"/>
+      <c r="G304" s="53"/>
     </row>
     <row r="305">
-      <c r="F305" s="50"/>
-      <c r="G305" s="50"/>
+      <c r="F305" s="53"/>
+      <c r="G305" s="53"/>
     </row>
     <row r="306">
-      <c r="F306" s="50"/>
-      <c r="G306" s="50"/>
+      <c r="F306" s="53"/>
+      <c r="G306" s="53"/>
     </row>
     <row r="307">
-      <c r="F307" s="50"/>
-      <c r="G307" s="50"/>
+      <c r="F307" s="53"/>
+      <c r="G307" s="53"/>
     </row>
     <row r="308">
-      <c r="F308" s="50"/>
-      <c r="G308" s="50"/>
+      <c r="F308" s="53"/>
+      <c r="G308" s="53"/>
     </row>
     <row r="309">
-      <c r="F309" s="50"/>
-      <c r="G309" s="50"/>
+      <c r="F309" s="53"/>
+      <c r="G309" s="53"/>
     </row>
     <row r="310">
-      <c r="F310" s="50"/>
-      <c r="G310" s="50"/>
+      <c r="F310" s="53"/>
+      <c r="G310" s="53"/>
     </row>
     <row r="311">
-      <c r="F311" s="50"/>
-      <c r="G311" s="50"/>
+      <c r="F311" s="53"/>
+      <c r="G311" s="53"/>
     </row>
     <row r="312">
-      <c r="F312" s="50"/>
-      <c r="G312" s="50"/>
+      <c r="F312" s="53"/>
+      <c r="G312" s="53"/>
     </row>
     <row r="313">
-      <c r="F313" s="50"/>
-      <c r="G313" s="50"/>
+      <c r="F313" s="53"/>
+      <c r="G313" s="53"/>
     </row>
     <row r="314">
-      <c r="F314" s="50"/>
-      <c r="G314" s="50"/>
+      <c r="F314" s="53"/>
+      <c r="G314" s="53"/>
     </row>
     <row r="315">
-      <c r="F315" s="50"/>
-      <c r="G315" s="50"/>
+      <c r="F315" s="53"/>
+      <c r="G315" s="53"/>
     </row>
     <row r="316">
-      <c r="F316" s="50"/>
-      <c r="G316" s="50"/>
+      <c r="F316" s="53"/>
+      <c r="G316" s="53"/>
     </row>
     <row r="317">
-      <c r="F317" s="50"/>
-      <c r="G317" s="50"/>
+      <c r="F317" s="53"/>
+      <c r="G317" s="53"/>
     </row>
     <row r="318">
-      <c r="F318" s="50"/>
-      <c r="G318" s="50"/>
+      <c r="F318" s="53"/>
+      <c r="G318" s="53"/>
     </row>
     <row r="319">
-      <c r="F319" s="50"/>
-      <c r="G319" s="50"/>
+      <c r="F319" s="53"/>
+      <c r="G319" s="53"/>
     </row>
     <row r="320">
-      <c r="F320" s="50"/>
-      <c r="G320" s="50"/>
+      <c r="F320" s="53"/>
+      <c r="G320" s="53"/>
     </row>
     <row r="321">
-      <c r="F321" s="50"/>
-      <c r="G321" s="50"/>
+      <c r="F321" s="53"/>
+      <c r="G321" s="53"/>
     </row>
     <row r="322">
-      <c r="F322" s="50"/>
-      <c r="G322" s="50"/>
+      <c r="F322" s="53"/>
+      <c r="G322" s="53"/>
     </row>
     <row r="323">
-      <c r="F323" s="50"/>
-      <c r="G323" s="50"/>
+      <c r="F323" s="53"/>
+      <c r="G323" s="53"/>
     </row>
     <row r="324">
-      <c r="F324" s="50"/>
-      <c r="G324" s="50"/>
+      <c r="F324" s="53"/>
+      <c r="G324" s="53"/>
     </row>
     <row r="325">
-      <c r="F325" s="50"/>
-      <c r="G325" s="50"/>
+      <c r="F325" s="53"/>
+      <c r="G325" s="53"/>
     </row>
     <row r="326">
-      <c r="F326" s="50"/>
-      <c r="G326" s="50"/>
+      <c r="F326" s="53"/>
+      <c r="G326" s="53"/>
     </row>
     <row r="327">
-      <c r="F327" s="50"/>
-      <c r="G327" s="50"/>
+      <c r="F327" s="53"/>
+      <c r="G327" s="53"/>
     </row>
     <row r="328">
-      <c r="F328" s="50"/>
-      <c r="G328" s="50"/>
+      <c r="F328" s="53"/>
+      <c r="G328" s="53"/>
     </row>
     <row r="329">
-      <c r="F329" s="50"/>
-      <c r="G329" s="50"/>
+      <c r="F329" s="53"/>
+      <c r="G329" s="53"/>
     </row>
     <row r="330">
-      <c r="F330" s="50"/>
-      <c r="G330" s="50"/>
+      <c r="F330" s="53"/>
+      <c r="G330" s="53"/>
     </row>
     <row r="331">
-      <c r="F331" s="50"/>
-      <c r="G331" s="50"/>
+      <c r="F331" s="53"/>
+      <c r="G331" s="53"/>
     </row>
     <row r="332">
-      <c r="F332" s="50"/>
-      <c r="G332" s="50"/>
+      <c r="F332" s="53"/>
+      <c r="G332" s="53"/>
     </row>
     <row r="333">
-      <c r="F333" s="50"/>
-      <c r="G333" s="50"/>
+      <c r="F333" s="53"/>
+      <c r="G333" s="53"/>
     </row>
     <row r="334">
-      <c r="F334" s="50"/>
-      <c r="G334" s="50"/>
+      <c r="F334" s="53"/>
+      <c r="G334" s="53"/>
     </row>
     <row r="335">
-      <c r="F335" s="50"/>
-      <c r="G335" s="50"/>
+      <c r="F335" s="53"/>
+      <c r="G335" s="53"/>
     </row>
     <row r="336">
-      <c r="F336" s="50"/>
-      <c r="G336" s="50"/>
+      <c r="F336" s="53"/>
+      <c r="G336" s="53"/>
     </row>
     <row r="337">
-      <c r="F337" s="50"/>
-      <c r="G337" s="50"/>
+      <c r="F337" s="53"/>
+      <c r="G337" s="53"/>
     </row>
     <row r="338">
-      <c r="F338" s="50"/>
-      <c r="G338" s="50"/>
+      <c r="F338" s="53"/>
+      <c r="G338" s="53"/>
     </row>
     <row r="339">
-      <c r="F339" s="50"/>
-      <c r="G339" s="50"/>
+      <c r="F339" s="53"/>
+      <c r="G339" s="53"/>
     </row>
     <row r="340">
-      <c r="F340" s="50"/>
-      <c r="G340" s="50"/>
+      <c r="F340" s="53"/>
+      <c r="G340" s="53"/>
     </row>
     <row r="341">
-      <c r="F341" s="50"/>
-      <c r="G341" s="50"/>
+      <c r="F341" s="53"/>
+      <c r="G341" s="53"/>
     </row>
     <row r="342">
-      <c r="F342" s="50"/>
-      <c r="G342" s="50"/>
+      <c r="F342" s="53"/>
+      <c r="G342" s="53"/>
     </row>
     <row r="343">
-      <c r="F343" s="50"/>
-      <c r="G343" s="50"/>
+      <c r="F343" s="53"/>
+      <c r="G343" s="53"/>
     </row>
     <row r="344">
-      <c r="F344" s="50"/>
-      <c r="G344" s="50"/>
+      <c r="F344" s="53"/>
+      <c r="G344" s="53"/>
     </row>
     <row r="345">
-      <c r="F345" s="50"/>
-      <c r="G345" s="50"/>
+      <c r="F345" s="53"/>
+      <c r="G345" s="53"/>
     </row>
     <row r="346">
-      <c r="F346" s="50"/>
-      <c r="G346" s="50"/>
+      <c r="F346" s="53"/>
+      <c r="G346" s="53"/>
     </row>
     <row r="347">
-      <c r="F347" s="50"/>
-      <c r="G347" s="50"/>
+      <c r="F347" s="53"/>
+      <c r="G347" s="53"/>
     </row>
     <row r="348">
-      <c r="F348" s="50"/>
-      <c r="G348" s="50"/>
+      <c r="F348" s="53"/>
+      <c r="G348" s="53"/>
     </row>
     <row r="349">
-      <c r="F349" s="50"/>
-      <c r="G349" s="50"/>
+      <c r="F349" s="53"/>
+      <c r="G349" s="53"/>
     </row>
     <row r="350">
-      <c r="F350" s="50"/>
-      <c r="G350" s="50"/>
+      <c r="F350" s="53"/>
+      <c r="G350" s="53"/>
     </row>
     <row r="351">
-      <c r="F351" s="50"/>
-      <c r="G351" s="50"/>
+      <c r="F351" s="53"/>
+      <c r="G351" s="53"/>
     </row>
     <row r="352">
-      <c r="F352" s="50"/>
-      <c r="G352" s="50"/>
+      <c r="F352" s="53"/>
+      <c r="G352" s="53"/>
     </row>
     <row r="353">
-      <c r="F353" s="50"/>
-      <c r="G353" s="50"/>
+      <c r="F353" s="53"/>
+      <c r="G353" s="53"/>
     </row>
     <row r="354">
-      <c r="F354" s="50"/>
-      <c r="G354" s="50"/>
+      <c r="F354" s="53"/>
+      <c r="G354" s="53"/>
     </row>
     <row r="355">
-      <c r="F355" s="50"/>
-      <c r="G355" s="50"/>
+      <c r="F355" s="53"/>
+      <c r="G355" s="53"/>
     </row>
     <row r="356">
-      <c r="F356" s="50"/>
-      <c r="G356" s="50"/>
+      <c r="F356" s="53"/>
+      <c r="G356" s="53"/>
     </row>
     <row r="357">
-      <c r="F357" s="50"/>
-      <c r="G357" s="50"/>
+      <c r="F357" s="53"/>
+      <c r="G357" s="53"/>
     </row>
     <row r="358">
-      <c r="F358" s="50"/>
-      <c r="G358" s="50"/>
+      <c r="F358" s="53"/>
+      <c r="G358" s="53"/>
     </row>
     <row r="359">
-      <c r="F359" s="50"/>
-      <c r="G359" s="50"/>
+      <c r="F359" s="53"/>
+      <c r="G359" s="53"/>
     </row>
     <row r="360">
-      <c r="F360" s="50"/>
-      <c r="G360" s="50"/>
+      <c r="F360" s="53"/>
+      <c r="G360" s="53"/>
     </row>
     <row r="361">
-      <c r="F361" s="50"/>
-      <c r="G361" s="50"/>
+      <c r="F361" s="53"/>
+      <c r="G361" s="53"/>
     </row>
     <row r="362">
-      <c r="F362" s="50"/>
-      <c r="G362" s="50"/>
+      <c r="F362" s="53"/>
+      <c r="G362" s="53"/>
     </row>
     <row r="363">
-      <c r="F363" s="50"/>
-      <c r="G363" s="50"/>
+      <c r="F363" s="53"/>
+      <c r="G363" s="53"/>
     </row>
     <row r="364">
-      <c r="F364" s="50"/>
-      <c r="G364" s="50"/>
+      <c r="F364" s="53"/>
+      <c r="G364" s="53"/>
     </row>
     <row r="365">
-      <c r="F365" s="50"/>
-      <c r="G365" s="50"/>
+      <c r="F365" s="53"/>
+      <c r="G365" s="53"/>
     </row>
     <row r="366">
-      <c r="F366" s="50"/>
-      <c r="G366" s="50"/>
+      <c r="F366" s="53"/>
+      <c r="G366" s="53"/>
     </row>
     <row r="367">
-      <c r="F367" s="50"/>
-      <c r="G367" s="50"/>
+      <c r="F367" s="53"/>
+      <c r="G367" s="53"/>
     </row>
     <row r="368">
-      <c r="F368" s="50"/>
-      <c r="G368" s="50"/>
+      <c r="F368" s="53"/>
+      <c r="G368" s="53"/>
     </row>
     <row r="369">
-      <c r="F369" s="50"/>
-      <c r="G369" s="50"/>
+      <c r="F369" s="53"/>
+      <c r="G369" s="53"/>
     </row>
     <row r="370">
-      <c r="F370" s="50"/>
-      <c r="G370" s="50"/>
+      <c r="F370" s="53"/>
+      <c r="G370" s="53"/>
     </row>
     <row r="371">
-      <c r="F371" s="50"/>
-      <c r="G371" s="50"/>
+      <c r="F371" s="53"/>
+      <c r="G371" s="53"/>
     </row>
     <row r="372">
-      <c r="F372" s="50"/>
-      <c r="G372" s="50"/>
+      <c r="F372" s="53"/>
+      <c r="G372" s="53"/>
     </row>
     <row r="373">
-      <c r="F373" s="50"/>
-      <c r="G373" s="50"/>
+      <c r="F373" s="53"/>
+      <c r="G373" s="53"/>
     </row>
     <row r="374">
-      <c r="F374" s="50"/>
-      <c r="G374" s="50"/>
+      <c r="F374" s="53"/>
+      <c r="G374" s="53"/>
     </row>
     <row r="375">
-      <c r="F375" s="50"/>
-      <c r="G375" s="50"/>
+      <c r="F375" s="53"/>
+      <c r="G375" s="53"/>
     </row>
     <row r="376">
-      <c r="F376" s="50"/>
-      <c r="G376" s="50"/>
+      <c r="F376" s="53"/>
+      <c r="G376" s="53"/>
     </row>
     <row r="377">
-      <c r="F377" s="50"/>
-      <c r="G377" s="50"/>
+      <c r="F377" s="53"/>
+      <c r="G377" s="53"/>
     </row>
     <row r="378">
-      <c r="F378" s="50"/>
-      <c r="G378" s="50"/>
+      <c r="F378" s="53"/>
+      <c r="G378" s="53"/>
     </row>
     <row r="379">
-      <c r="F379" s="50"/>
-      <c r="G379" s="50"/>
+      <c r="F379" s="53"/>
+      <c r="G379" s="53"/>
     </row>
     <row r="380">
-      <c r="F380" s="50"/>
-      <c r="G380" s="50"/>
+      <c r="F380" s="53"/>
+      <c r="G380" s="53"/>
     </row>
     <row r="381">
-      <c r="F381" s="50"/>
-      <c r="G381" s="50"/>
+      <c r="F381" s="53"/>
+      <c r="G381" s="53"/>
     </row>
     <row r="382">
-      <c r="F382" s="50"/>
-      <c r="G382" s="50"/>
+      <c r="F382" s="53"/>
+      <c r="G382" s="53"/>
     </row>
     <row r="383">
-      <c r="F383" s="50"/>
-      <c r="G383" s="50"/>
+      <c r="F383" s="53"/>
+      <c r="G383" s="53"/>
     </row>
     <row r="384">
-      <c r="F384" s="50"/>
-      <c r="G384" s="50"/>
+      <c r="F384" s="53"/>
+      <c r="G384" s="53"/>
     </row>
     <row r="385">
-      <c r="F385" s="50"/>
-      <c r="G385" s="50"/>
+      <c r="F385" s="53"/>
+      <c r="G385" s="53"/>
     </row>
     <row r="386">
-      <c r="F386" s="50"/>
-      <c r="G386" s="50"/>
+      <c r="F386" s="53"/>
+      <c r="G386" s="53"/>
     </row>
     <row r="387">
-      <c r="F387" s="50"/>
-      <c r="G387" s="50"/>
+      <c r="F387" s="53"/>
+      <c r="G387" s="53"/>
     </row>
     <row r="388">
-      <c r="F388" s="50"/>
-      <c r="G388" s="50"/>
+      <c r="F388" s="53"/>
+      <c r="G388" s="53"/>
     </row>
     <row r="389">
-      <c r="F389" s="50"/>
-      <c r="G389" s="50"/>
+      <c r="F389" s="53"/>
+      <c r="G389" s="53"/>
     </row>
     <row r="390">
-      <c r="F390" s="50"/>
-      <c r="G390" s="50"/>
+      <c r="F390" s="53"/>
+      <c r="G390" s="53"/>
     </row>
     <row r="391">
-      <c r="F391" s="50"/>
-      <c r="G391" s="50"/>
+      <c r="F391" s="53"/>
+      <c r="G391" s="53"/>
     </row>
     <row r="392">
-      <c r="F392" s="50"/>
-      <c r="G392" s="50"/>
+      <c r="F392" s="53"/>
+      <c r="G392" s="53"/>
     </row>
     <row r="393">
-      <c r="F393" s="50"/>
-      <c r="G393" s="50"/>
+      <c r="F393" s="53"/>
+      <c r="G393" s="53"/>
     </row>
     <row r="394">
-      <c r="F394" s="50"/>
-      <c r="G394" s="50"/>
+      <c r="F394" s="53"/>
+      <c r="G394" s="53"/>
     </row>
     <row r="395">
-      <c r="F395" s="50"/>
-      <c r="G395" s="50"/>
+      <c r="F395" s="53"/>
+      <c r="G395" s="53"/>
     </row>
     <row r="396">
-      <c r="F396" s="50"/>
-      <c r="G396" s="50"/>
+      <c r="F396" s="53"/>
+      <c r="G396" s="53"/>
     </row>
     <row r="397">
-      <c r="F397" s="50"/>
-      <c r="G397" s="50"/>
+      <c r="F397" s="53"/>
+      <c r="G397" s="53"/>
     </row>
     <row r="398">
-      <c r="F398" s="50"/>
-      <c r="G398" s="50"/>
+      <c r="F398" s="53"/>
+      <c r="G398" s="53"/>
     </row>
     <row r="399">
-      <c r="F399" s="50"/>
-      <c r="G399" s="50"/>
+      <c r="F399" s="53"/>
+      <c r="G399" s="53"/>
     </row>
     <row r="400">
-      <c r="F400" s="50"/>
-      <c r="G400" s="50"/>
+      <c r="F400" s="53"/>
+      <c r="G400" s="53"/>
     </row>
     <row r="401">
-      <c r="F401" s="50"/>
-      <c r="G401" s="50"/>
+      <c r="F401" s="53"/>
+      <c r="G401" s="53"/>
     </row>
     <row r="402">
-      <c r="F402" s="50"/>
-      <c r="G402" s="50"/>
+      <c r="F402" s="53"/>
+      <c r="G402" s="53"/>
     </row>
     <row r="403">
-      <c r="F403" s="50"/>
-      <c r="G403" s="50"/>
+      <c r="F403" s="53"/>
+      <c r="G403" s="53"/>
     </row>
     <row r="404">
-      <c r="F404" s="50"/>
-      <c r="G404" s="50"/>
+      <c r="F404" s="53"/>
+      <c r="G404" s="53"/>
     </row>
     <row r="405">
-      <c r="F405" s="50"/>
-      <c r="G405" s="50"/>
+      <c r="F405" s="53"/>
+      <c r="G405" s="53"/>
     </row>
     <row r="406">
-      <c r="F406" s="50"/>
-      <c r="G406" s="50"/>
+      <c r="F406" s="53"/>
+      <c r="G406" s="53"/>
     </row>
     <row r="407">
-      <c r="F407" s="50"/>
-      <c r="G407" s="50"/>
+      <c r="F407" s="53"/>
+      <c r="G407" s="53"/>
     </row>
     <row r="408">
-      <c r="F408" s="50"/>
-      <c r="G408" s="50"/>
+      <c r="F408" s="53"/>
+      <c r="G408" s="53"/>
     </row>
     <row r="409">
-      <c r="F409" s="50"/>
-      <c r="G409" s="50"/>
+      <c r="F409" s="53"/>
+      <c r="G409" s="53"/>
     </row>
     <row r="410">
-      <c r="F410" s="50"/>
-      <c r="G410" s="50"/>
+      <c r="F410" s="53"/>
+      <c r="G410" s="53"/>
     </row>
     <row r="411">
-      <c r="F411" s="50"/>
-      <c r="G411" s="50"/>
+      <c r="F411" s="53"/>
+      <c r="G411" s="53"/>
     </row>
     <row r="412">
-      <c r="F412" s="50"/>
-      <c r="G412" s="50"/>
+      <c r="F412" s="53"/>
+      <c r="G412" s="53"/>
     </row>
     <row r="413">
-      <c r="F413" s="50"/>
-      <c r="G413" s="50"/>
+      <c r="F413" s="53"/>
+      <c r="G413" s="53"/>
     </row>
     <row r="414">
-      <c r="F414" s="50"/>
-      <c r="G414" s="50"/>
+      <c r="F414" s="53"/>
+      <c r="G414" s="53"/>
     </row>
     <row r="415">
-      <c r="F415" s="50"/>
-      <c r="G415" s="50"/>
+      <c r="F415" s="53"/>
+      <c r="G415" s="53"/>
     </row>
     <row r="416">
-      <c r="F416" s="50"/>
-      <c r="G416" s="50"/>
+      <c r="F416" s="53"/>
+      <c r="G416" s="53"/>
     </row>
     <row r="417">
-      <c r="F417" s="50"/>
-      <c r="G417" s="50"/>
+      <c r="F417" s="53"/>
+      <c r="G417" s="53"/>
     </row>
     <row r="418">
-      <c r="F418" s="50"/>
-      <c r="G418" s="50"/>
+      <c r="F418" s="53"/>
+      <c r="G418" s="53"/>
     </row>
     <row r="419">
-      <c r="F419" s="50"/>
-      <c r="G419" s="50"/>
+      <c r="F419" s="53"/>
+      <c r="G419" s="53"/>
     </row>
     <row r="420">
-      <c r="F420" s="50"/>
-      <c r="G420" s="50"/>
+      <c r="F420" s="53"/>
+      <c r="G420" s="53"/>
     </row>
     <row r="421">
-      <c r="F421" s="50"/>
-      <c r="G421" s="50"/>
+      <c r="F421" s="53"/>
+      <c r="G421" s="53"/>
     </row>
     <row r="422">
-      <c r="F422" s="50"/>
-      <c r="G422" s="50"/>
+      <c r="F422" s="53"/>
+      <c r="G422" s="53"/>
     </row>
     <row r="423">
-      <c r="F423" s="50"/>
-      <c r="G423" s="50"/>
+      <c r="F423" s="53"/>
+      <c r="G423" s="53"/>
     </row>
     <row r="424">
-      <c r="F424" s="50"/>
-      <c r="G424" s="50"/>
+      <c r="F424" s="53"/>
+      <c r="G424" s="53"/>
     </row>
     <row r="425">
-      <c r="F425" s="50"/>
-      <c r="G425" s="50"/>
+      <c r="F425" s="53"/>
+      <c r="G425" s="53"/>
     </row>
     <row r="426">
-      <c r="F426" s="50"/>
-      <c r="G426" s="50"/>
+      <c r="F426" s="53"/>
+      <c r="G426" s="53"/>
     </row>
     <row r="427">
-      <c r="F427" s="50"/>
-      <c r="G427" s="50"/>
+      <c r="F427" s="53"/>
+      <c r="G427" s="53"/>
     </row>
     <row r="428">
-      <c r="F428" s="50"/>
-      <c r="G428" s="50"/>
+      <c r="F428" s="53"/>
+      <c r="G428" s="53"/>
     </row>
     <row r="429">
-      <c r="F429" s="50"/>
-      <c r="G429" s="50"/>
+      <c r="F429" s="53"/>
+      <c r="G429" s="53"/>
     </row>
     <row r="430">
-      <c r="F430" s="50"/>
-      <c r="G430" s="50"/>
+      <c r="F430" s="53"/>
+      <c r="G430" s="53"/>
     </row>
     <row r="431">
-      <c r="F431" s="50"/>
-      <c r="G431" s="50"/>
+      <c r="F431" s="53"/>
+      <c r="G431" s="53"/>
     </row>
     <row r="432">
-      <c r="F432" s="50"/>
-      <c r="G432" s="50"/>
+      <c r="F432" s="53"/>
+      <c r="G432" s="53"/>
     </row>
     <row r="433">
-      <c r="F433" s="50"/>
-      <c r="G433" s="50"/>
+      <c r="F433" s="53"/>
+      <c r="G433" s="53"/>
     </row>
     <row r="434">
-      <c r="F434" s="50"/>
-      <c r="G434" s="50"/>
+      <c r="F434" s="53"/>
+      <c r="G434" s="53"/>
     </row>
     <row r="435">
-      <c r="F435" s="50"/>
-      <c r="G435" s="50"/>
+      <c r="F435" s="53"/>
+      <c r="G435" s="53"/>
     </row>
     <row r="436">
-      <c r="F436" s="50"/>
-      <c r="G436" s="50"/>
+      <c r="F436" s="53"/>
+      <c r="G436" s="53"/>
     </row>
     <row r="437">
-      <c r="F437" s="50"/>
-      <c r="G437" s="50"/>
+      <c r="F437" s="53"/>
+      <c r="G437" s="53"/>
     </row>
     <row r="438">
-      <c r="F438" s="50"/>
-      <c r="G438" s="50"/>
+      <c r="F438" s="53"/>
+      <c r="G438" s="53"/>
     </row>
     <row r="439">
-      <c r="F439" s="50"/>
-      <c r="G439" s="50"/>
+      <c r="F439" s="53"/>
+      <c r="G439" s="53"/>
     </row>
     <row r="440">
-      <c r="F440" s="50"/>
-      <c r="G440" s="50"/>
+      <c r="F440" s="53"/>
+      <c r="G440" s="53"/>
     </row>
     <row r="441">
-      <c r="F441" s="50"/>
-      <c r="G441" s="50"/>
+      <c r="F441" s="53"/>
+      <c r="G441" s="53"/>
     </row>
     <row r="442">
-      <c r="F442" s="50"/>
-      <c r="G442" s="50"/>
+      <c r="F442" s="53"/>
+      <c r="G442" s="53"/>
     </row>
     <row r="443">
-      <c r="F443" s="50"/>
-      <c r="G443" s="50"/>
+      <c r="F443" s="53"/>
+      <c r="G443" s="53"/>
     </row>
     <row r="444">
-      <c r="F444" s="50"/>
-      <c r="G444" s="50"/>
+      <c r="F444" s="53"/>
+      <c r="G444" s="53"/>
     </row>
     <row r="445">
-      <c r="F445" s="50"/>
-      <c r="G445" s="50"/>
+      <c r="F445" s="53"/>
+      <c r="G445" s="53"/>
     </row>
     <row r="446">
-      <c r="F446" s="50"/>
-      <c r="G446" s="50"/>
+      <c r="F446" s="53"/>
+      <c r="G446" s="53"/>
     </row>
     <row r="447">
-      <c r="F447" s="50"/>
-      <c r="G447" s="50"/>
+      <c r="F447" s="53"/>
+      <c r="G447" s="53"/>
     </row>
     <row r="448">
-      <c r="F448" s="50"/>
-      <c r="G448" s="50"/>
+      <c r="F448" s="53"/>
+      <c r="G448" s="53"/>
     </row>
     <row r="449">
-      <c r="F449" s="50"/>
-      <c r="G449" s="50"/>
+      <c r="F449" s="53"/>
+      <c r="G449" s="53"/>
     </row>
     <row r="450">
-      <c r="F450" s="50"/>
-      <c r="G450" s="50"/>
+      <c r="F450" s="53"/>
+      <c r="G450" s="53"/>
     </row>
     <row r="451">
-      <c r="F451" s="50"/>
-      <c r="G451" s="50"/>
+      <c r="F451" s="53"/>
+      <c r="G451" s="53"/>
     </row>
     <row r="452">
-      <c r="F452" s="50"/>
-      <c r="G452" s="50"/>
+      <c r="F452" s="53"/>
+      <c r="G452" s="53"/>
     </row>
     <row r="453">
-      <c r="F453" s="50"/>
-      <c r="G453" s="50"/>
+      <c r="F453" s="53"/>
+      <c r="G453" s="53"/>
     </row>
     <row r="454">
-      <c r="F454" s="50"/>
-      <c r="G454" s="50"/>
+      <c r="F454" s="53"/>
+      <c r="G454" s="53"/>
     </row>
     <row r="455">
-      <c r="F455" s="50"/>
-      <c r="G455" s="50"/>
+      <c r="F455" s="53"/>
+      <c r="G455" s="53"/>
     </row>
     <row r="456">
-      <c r="F456" s="50"/>
-      <c r="G456" s="50"/>
+      <c r="F456" s="53"/>
+      <c r="G456" s="53"/>
     </row>
     <row r="457">
-      <c r="F457" s="50"/>
-      <c r="G457" s="50"/>
+      <c r="F457" s="53"/>
+      <c r="G457" s="53"/>
     </row>
     <row r="458">
-      <c r="F458" s="50"/>
-      <c r="G458" s="50"/>
+      <c r="F458" s="53"/>
+      <c r="G458" s="53"/>
     </row>
     <row r="459">
-      <c r="F459" s="50"/>
-      <c r="G459" s="50"/>
+      <c r="F459" s="53"/>
+      <c r="G459" s="53"/>
     </row>
     <row r="460">
-      <c r="F460" s="50"/>
-      <c r="G460" s="50"/>
+      <c r="F460" s="53"/>
+      <c r="G460" s="53"/>
     </row>
     <row r="461">
-      <c r="F461" s="50"/>
-      <c r="G461" s="50"/>
+      <c r="F461" s="53"/>
+      <c r="G461" s="53"/>
     </row>
     <row r="462">
-      <c r="F462" s="50"/>
-      <c r="G462" s="50"/>
+      <c r="F462" s="53"/>
+      <c r="G462" s="53"/>
     </row>
     <row r="463">
-      <c r="F463" s="50"/>
-      <c r="G463" s="50"/>
+      <c r="F463" s="53"/>
+      <c r="G463" s="53"/>
     </row>
     <row r="464">
-      <c r="F464" s="50"/>
-      <c r="G464" s="50"/>
+      <c r="F464" s="53"/>
+      <c r="G464" s="53"/>
     </row>
     <row r="465">
-      <c r="F465" s="50"/>
-      <c r="G465" s="50"/>
+      <c r="F465" s="53"/>
+      <c r="G465" s="53"/>
     </row>
     <row r="466">
-      <c r="F466" s="50"/>
-      <c r="G466" s="50"/>
+      <c r="F466" s="53"/>
+      <c r="G466" s="53"/>
     </row>
     <row r="467">
-      <c r="F467" s="50"/>
-      <c r="G467" s="50"/>
+      <c r="F467" s="53"/>
+      <c r="G467" s="53"/>
     </row>
     <row r="468">
-      <c r="F468" s="50"/>
-      <c r="G468" s="50"/>
+      <c r="F468" s="53"/>
+      <c r="G468" s="53"/>
     </row>
     <row r="469">
-      <c r="F469" s="50"/>
-      <c r="G469" s="50"/>
+      <c r="F469" s="53"/>
+      <c r="G469" s="53"/>
     </row>
     <row r="470">
-      <c r="F470" s="50"/>
-      <c r="G470" s="50"/>
+      <c r="F470" s="53"/>
+      <c r="G470" s="53"/>
     </row>
     <row r="471">
-      <c r="F471" s="50"/>
-      <c r="G471" s="50"/>
+      <c r="F471" s="53"/>
+      <c r="G471" s="53"/>
     </row>
     <row r="472">
-      <c r="F472" s="50"/>
-      <c r="G472" s="50"/>
+      <c r="F472" s="53"/>
+      <c r="G472" s="53"/>
     </row>
     <row r="473">
-      <c r="F473" s="50"/>
-      <c r="G473" s="50"/>
+      <c r="F473" s="53"/>
+      <c r="G473" s="53"/>
     </row>
     <row r="474">
-      <c r="F474" s="50"/>
-      <c r="G474" s="50"/>
+      <c r="F474" s="53"/>
+      <c r="G474" s="53"/>
     </row>
     <row r="475">
-      <c r="F475" s="50"/>
-      <c r="G475" s="50"/>
+      <c r="F475" s="53"/>
+      <c r="G475" s="53"/>
     </row>
     <row r="476">
-      <c r="F476" s="50"/>
-      <c r="G476" s="50"/>
+      <c r="F476" s="53"/>
+      <c r="G476" s="53"/>
     </row>
     <row r="477">
-      <c r="F477" s="50"/>
-      <c r="G477" s="50"/>
+      <c r="F477" s="53"/>
+      <c r="G477" s="53"/>
     </row>
     <row r="478">
-      <c r="F478" s="50"/>
-      <c r="G478" s="50"/>
+      <c r="F478" s="53"/>
+      <c r="G478" s="53"/>
     </row>
     <row r="479">
-      <c r="F479" s="50"/>
-      <c r="G479" s="50"/>
+      <c r="F479" s="53"/>
+      <c r="G479" s="53"/>
     </row>
     <row r="480">
-      <c r="F480" s="50"/>
-      <c r="G480" s="50"/>
+      <c r="F480" s="53"/>
+      <c r="G480" s="53"/>
     </row>
     <row r="481">
-      <c r="F481" s="50"/>
-      <c r="G481" s="50"/>
+      <c r="F481" s="53"/>
+      <c r="G481" s="53"/>
     </row>
     <row r="482">
-      <c r="F482" s="50"/>
-      <c r="G482" s="50"/>
+      <c r="F482" s="53"/>
+      <c r="G482" s="53"/>
     </row>
     <row r="483">
-      <c r="F483" s="50"/>
-      <c r="G483" s="50"/>
+      <c r="F483" s="53"/>
+      <c r="G483" s="53"/>
     </row>
     <row r="484">
-      <c r="F484" s="50"/>
-      <c r="G484" s="50"/>
+      <c r="F484" s="53"/>
+      <c r="G484" s="53"/>
     </row>
     <row r="485">
-      <c r="F485" s="50"/>
-      <c r="G485" s="50"/>
+      <c r="F485" s="53"/>
+      <c r="G485" s="53"/>
     </row>
     <row r="486">
-      <c r="F486" s="50"/>
-      <c r="G486" s="50"/>
+      <c r="F486" s="53"/>
+      <c r="G486" s="53"/>
     </row>
     <row r="487">
-      <c r="F487" s="50"/>
-      <c r="G487" s="50"/>
+      <c r="F487" s="53"/>
+      <c r="G487" s="53"/>
     </row>
     <row r="488">
-      <c r="F488" s="50"/>
-      <c r="G488" s="50"/>
+      <c r="F488" s="53"/>
+      <c r="G488" s="53"/>
     </row>
     <row r="489">
-      <c r="F489" s="50"/>
-      <c r="G489" s="50"/>
+      <c r="F489" s="53"/>
+      <c r="G489" s="53"/>
     </row>
     <row r="490">
-      <c r="F490" s="50"/>
-      <c r="G490" s="50"/>
+      <c r="F490" s="53"/>
+      <c r="G490" s="53"/>
     </row>
     <row r="491">
-      <c r="F491" s="50"/>
-      <c r="G491" s="50"/>
+      <c r="F491" s="53"/>
+      <c r="G491" s="53"/>
     </row>
     <row r="492">
-      <c r="F492" s="50"/>
-      <c r="G492" s="50"/>
+      <c r="F492" s="53"/>
+      <c r="G492" s="53"/>
     </row>
     <row r="493">
-      <c r="F493" s="50"/>
-      <c r="G493" s="50"/>
+      <c r="F493" s="53"/>
+      <c r="G493" s="53"/>
     </row>
     <row r="494">
-      <c r="F494" s="50"/>
-      <c r="G494" s="50"/>
+      <c r="F494" s="53"/>
+      <c r="G494" s="53"/>
     </row>
     <row r="495">
-      <c r="F495" s="50"/>
-      <c r="G495" s="50"/>
+      <c r="F495" s="53"/>
+      <c r="G495" s="53"/>
     </row>
     <row r="496">
-      <c r="F496" s="50"/>
-      <c r="G496" s="50"/>
+      <c r="F496" s="53"/>
+      <c r="G496" s="53"/>
     </row>
     <row r="497">
-      <c r="F497" s="50"/>
-      <c r="G497" s="50"/>
+      <c r="F497" s="53"/>
+      <c r="G497" s="53"/>
     </row>
     <row r="498">
-      <c r="F498" s="50"/>
-      <c r="G498" s="50"/>
+      <c r="F498" s="53"/>
+      <c r="G498" s="53"/>
     </row>
     <row r="499">
-      <c r="F499" s="50"/>
-      <c r="G499" s="50"/>
+      <c r="F499" s="53"/>
+      <c r="G499" s="53"/>
     </row>
     <row r="500">
-      <c r="F500" s="50"/>
-      <c r="G500" s="50"/>
+      <c r="F500" s="53"/>
+      <c r="G500" s="53"/>
     </row>
     <row r="501">
-      <c r="F501" s="50"/>
-      <c r="G501" s="50"/>
+      <c r="F501" s="53"/>
+      <c r="G501" s="53"/>
     </row>
     <row r="502">
-      <c r="F502" s="50"/>
-      <c r="G502" s="50"/>
+      <c r="F502" s="53"/>
+      <c r="G502" s="53"/>
     </row>
     <row r="503">
-      <c r="F503" s="50"/>
-      <c r="G503" s="50"/>
+      <c r="F503" s="53"/>
+      <c r="G503" s="53"/>
     </row>
     <row r="504">
-      <c r="F504" s="50"/>
-      <c r="G504" s="50"/>
+      <c r="F504" s="53"/>
+      <c r="G504" s="53"/>
     </row>
     <row r="505">
-      <c r="F505" s="50"/>
-      <c r="G505" s="50"/>
+      <c r="F505" s="53"/>
+      <c r="G505" s="53"/>
     </row>
     <row r="506">
-      <c r="F506" s="50"/>
-      <c r="G506" s="50"/>
+      <c r="F506" s="53"/>
+      <c r="G506" s="53"/>
     </row>
     <row r="507">
-      <c r="F507" s="50"/>
-      <c r="G507" s="50"/>
+      <c r="F507" s="53"/>
+      <c r="G507" s="53"/>
     </row>
     <row r="508">
-      <c r="F508" s="50"/>
-      <c r="G508" s="50"/>
+      <c r="F508" s="53"/>
+      <c r="G508" s="53"/>
     </row>
     <row r="509">
-      <c r="F509" s="50"/>
-      <c r="G509" s="50"/>
+      <c r="F509" s="53"/>
+      <c r="G509" s="53"/>
     </row>
     <row r="510">
-      <c r="F510" s="50"/>
-      <c r="G510" s="50"/>
+      <c r="F510" s="53"/>
+      <c r="G510" s="53"/>
     </row>
     <row r="511">
-      <c r="F511" s="50"/>
-      <c r="G511" s="50"/>
+      <c r="F511" s="53"/>
+      <c r="G511" s="53"/>
     </row>
     <row r="512">
-      <c r="F512" s="50"/>
-      <c r="G512" s="50"/>
+      <c r="F512" s="53"/>
+      <c r="G512" s="53"/>
     </row>
     <row r="513">
-      <c r="F513" s="50"/>
-      <c r="G513" s="50"/>
+      <c r="F513" s="53"/>
+      <c r="G513" s="53"/>
     </row>
     <row r="514">
-      <c r="F514" s="50"/>
-      <c r="G514" s="50"/>
+      <c r="F514" s="53"/>
+      <c r="G514" s="53"/>
     </row>
     <row r="515">
-      <c r="F515" s="50"/>
-      <c r="G515" s="50"/>
+      <c r="F515" s="53"/>
+      <c r="G515" s="53"/>
     </row>
     <row r="516">
-      <c r="F516" s="50"/>
-      <c r="G516" s="50"/>
+      <c r="F516" s="53"/>
+      <c r="G516" s="53"/>
     </row>
     <row r="517">
-      <c r="F517" s="50"/>
-      <c r="G517" s="50"/>
+      <c r="F517" s="53"/>
+      <c r="G517" s="53"/>
     </row>
     <row r="518">
-      <c r="F518" s="50"/>
-      <c r="G518" s="50"/>
+      <c r="F518" s="53"/>
+      <c r="G518" s="53"/>
     </row>
     <row r="519">
-      <c r="F519" s="50"/>
-      <c r="G519" s="50"/>
+      <c r="F519" s="53"/>
+      <c r="G519" s="53"/>
     </row>
     <row r="520">
-      <c r="F520" s="50"/>
-      <c r="G520" s="50"/>
+      <c r="F520" s="53"/>
+      <c r="G520" s="53"/>
     </row>
     <row r="521">
-      <c r="F521" s="50"/>
-      <c r="G521" s="50"/>
+      <c r="F521" s="53"/>
+      <c r="G521" s="53"/>
     </row>
     <row r="522">
-      <c r="F522" s="50"/>
-      <c r="G522" s="50"/>
+      <c r="F522" s="53"/>
+      <c r="G522" s="53"/>
     </row>
     <row r="523">
-      <c r="F523" s="50"/>
-      <c r="G523" s="50"/>
+      <c r="F523" s="53"/>
+      <c r="G523" s="53"/>
     </row>
     <row r="524">
-      <c r="F524" s="50"/>
-      <c r="G524" s="50"/>
+      <c r="F524" s="53"/>
+      <c r="G524" s="53"/>
     </row>
     <row r="525">
-      <c r="F525" s="50"/>
-      <c r="G525" s="50"/>
+      <c r="F525" s="53"/>
+      <c r="G525" s="53"/>
     </row>
     <row r="526">
-      <c r="F526" s="50"/>
-      <c r="G526" s="50"/>
+      <c r="F526" s="53"/>
+      <c r="G526" s="53"/>
     </row>
     <row r="527">
-      <c r="F527" s="50"/>
-      <c r="G527" s="50"/>
+      <c r="F527" s="53"/>
+      <c r="G527" s="53"/>
     </row>
     <row r="528">
-      <c r="F528" s="50"/>
-      <c r="G528" s="50"/>
+      <c r="F528" s="53"/>
+      <c r="G528" s="53"/>
     </row>
     <row r="529">
-      <c r="F529" s="50"/>
-      <c r="G529" s="50"/>
+      <c r="F529" s="53"/>
+      <c r="G529" s="53"/>
     </row>
     <row r="530">
-      <c r="F530" s="50"/>
-      <c r="G530" s="50"/>
+      <c r="F530" s="53"/>
+      <c r="G530" s="53"/>
     </row>
     <row r="531">
-      <c r="F531" s="50"/>
-      <c r="G531" s="50"/>
+      <c r="F531" s="53"/>
+      <c r="G531" s="53"/>
     </row>
     <row r="532">
-      <c r="F532" s="50"/>
-      <c r="G532" s="50"/>
+      <c r="F532" s="53"/>
+      <c r="G532" s="53"/>
     </row>
     <row r="533">
-      <c r="F533" s="50"/>
-      <c r="G533" s="50"/>
+      <c r="F533" s="53"/>
+      <c r="G533" s="53"/>
     </row>
     <row r="534">
-      <c r="F534" s="50"/>
-      <c r="G534" s="50"/>
+      <c r="F534" s="53"/>
+      <c r="G534" s="53"/>
     </row>
     <row r="535">
-      <c r="F535" s="50"/>
-      <c r="G535" s="50"/>
+      <c r="F535" s="53"/>
+      <c r="G535" s="53"/>
     </row>
     <row r="536">
-      <c r="F536" s="50"/>
-      <c r="G536" s="50"/>
+      <c r="F536" s="53"/>
+      <c r="G536" s="53"/>
     </row>
     <row r="537">
-      <c r="F537" s="50"/>
-      <c r="G537" s="50"/>
+      <c r="F537" s="53"/>
+      <c r="G537" s="53"/>
     </row>
     <row r="538">
-      <c r="F538" s="50"/>
-      <c r="G538" s="50"/>
+      <c r="F538" s="53"/>
+      <c r="G538" s="53"/>
     </row>
     <row r="539">
-      <c r="F539" s="50"/>
-      <c r="G539" s="50"/>
+      <c r="F539" s="53"/>
+      <c r="G539" s="53"/>
     </row>
     <row r="540">
-      <c r="F540" s="50"/>
-      <c r="G540" s="50"/>
+      <c r="F540" s="53"/>
+      <c r="G540" s="53"/>
     </row>
     <row r="541">
-      <c r="F541" s="50"/>
-      <c r="G541" s="50"/>
+      <c r="F541" s="53"/>
+      <c r="G541" s="53"/>
     </row>
     <row r="542">
-      <c r="F542" s="50"/>
-      <c r="G542" s="50"/>
+      <c r="F542" s="53"/>
+      <c r="G542" s="53"/>
     </row>
     <row r="543">
-      <c r="F543" s="50"/>
-      <c r="G543" s="50"/>
+      <c r="F543" s="53"/>
+      <c r="G543" s="53"/>
     </row>
     <row r="544">
-      <c r="F544" s="50"/>
-      <c r="G544" s="50"/>
+      <c r="F544" s="53"/>
+      <c r="G544" s="53"/>
     </row>
     <row r="545">
-      <c r="F545" s="50"/>
-      <c r="G545" s="50"/>
+      <c r="F545" s="53"/>
+      <c r="G545" s="53"/>
     </row>
     <row r="546">
-      <c r="F546" s="50"/>
-      <c r="G546" s="50"/>
+      <c r="F546" s="53"/>
+      <c r="G546" s="53"/>
     </row>
     <row r="547">
-      <c r="F547" s="50"/>
-      <c r="G547" s="50"/>
+      <c r="F547" s="53"/>
+      <c r="G547" s="53"/>
     </row>
     <row r="548">
-      <c r="F548" s="50"/>
-      <c r="G548" s="50"/>
+      <c r="F548" s="53"/>
+      <c r="G548" s="53"/>
     </row>
     <row r="549">
-      <c r="F549" s="50"/>
-      <c r="G549" s="50"/>
+      <c r="F549" s="53"/>
+      <c r="G549" s="53"/>
     </row>
     <row r="550">
-      <c r="F550" s="50"/>
-      <c r="G550" s="50"/>
+      <c r="F550" s="53"/>
+      <c r="G550" s="53"/>
     </row>
     <row r="551">
-      <c r="F551" s="50"/>
-      <c r="G551" s="50"/>
+      <c r="F551" s="53"/>
+      <c r="G551" s="53"/>
     </row>
     <row r="552">
-      <c r="F552" s="50"/>
-      <c r="G552" s="50"/>
+      <c r="F552" s="53"/>
+      <c r="G552" s="53"/>
     </row>
     <row r="553">
-      <c r="F553" s="50"/>
-      <c r="G553" s="50"/>
+      <c r="F553" s="53"/>
+      <c r="G553" s="53"/>
     </row>
     <row r="554">
-      <c r="F554" s="50"/>
-      <c r="G554" s="50"/>
+      <c r="F554" s="53"/>
+      <c r="G554" s="53"/>
     </row>
     <row r="555">
-      <c r="F555" s="50"/>
-      <c r="G555" s="50"/>
+      <c r="F555" s="53"/>
+      <c r="G555" s="53"/>
     </row>
     <row r="556">
-      <c r="F556" s="50"/>
-      <c r="G556" s="50"/>
+      <c r="F556" s="53"/>
+      <c r="G556" s="53"/>
     </row>
     <row r="557">
-      <c r="F557" s="50"/>
-      <c r="G557" s="50"/>
+      <c r="F557" s="53"/>
+      <c r="G557" s="53"/>
     </row>
     <row r="558">
-      <c r="F558" s="50"/>
-      <c r="G558" s="50"/>
+      <c r="F558" s="53"/>
+      <c r="G558" s="53"/>
     </row>
     <row r="559">
-      <c r="F559" s="50"/>
-      <c r="G559" s="50"/>
+      <c r="F559" s="53"/>
+      <c r="G559" s="53"/>
     </row>
     <row r="560">
-      <c r="F560" s="50"/>
-      <c r="G560" s="50"/>
+      <c r="F560" s="53"/>
+      <c r="G560" s="53"/>
     </row>
     <row r="561">
-      <c r="F561" s="50"/>
-      <c r="G561" s="50"/>
+      <c r="F561" s="53"/>
+      <c r="G561" s="53"/>
     </row>
     <row r="562">
-      <c r="F562" s="50"/>
-      <c r="G562" s="50"/>
+      <c r="F562" s="53"/>
+      <c r="G562" s="53"/>
     </row>
     <row r="563">
-      <c r="F563" s="50"/>
-      <c r="G563" s="50"/>
+      <c r="F563" s="53"/>
+      <c r="G563" s="53"/>
     </row>
     <row r="564">
-      <c r="F564" s="50"/>
-      <c r="G564" s="50"/>
+      <c r="F564" s="53"/>
+      <c r="G564" s="53"/>
     </row>
     <row r="565">
-      <c r="F565" s="50"/>
-      <c r="G565" s="50"/>
+      <c r="F565" s="53"/>
+      <c r="G565" s="53"/>
     </row>
     <row r="566">
-      <c r="F566" s="50"/>
-      <c r="G566" s="50"/>
+      <c r="F566" s="53"/>
+      <c r="G566" s="53"/>
     </row>
     <row r="567">
-      <c r="F567" s="50"/>
-      <c r="G567" s="50"/>
+      <c r="F567" s="53"/>
+      <c r="G567" s="53"/>
     </row>
     <row r="568">
-      <c r="F568" s="50"/>
-      <c r="G568" s="50"/>
+      <c r="F568" s="53"/>
+      <c r="G568" s="53"/>
     </row>
     <row r="569">
-      <c r="F569" s="50"/>
-      <c r="G569" s="50"/>
+      <c r="F569" s="53"/>
+      <c r="G569" s="53"/>
     </row>
     <row r="570">
-      <c r="F570" s="50"/>
-      <c r="G570" s="50"/>
+      <c r="F570" s="53"/>
+      <c r="G570" s="53"/>
     </row>
     <row r="571">
-      <c r="F571" s="50"/>
-      <c r="G571" s="50"/>
+      <c r="F571" s="53"/>
+      <c r="G571" s="53"/>
     </row>
     <row r="572">
-      <c r="F572" s="50"/>
-      <c r="G572" s="50"/>
+      <c r="F572" s="53"/>
+      <c r="G572" s="53"/>
     </row>
     <row r="573">
-      <c r="F573" s="50"/>
-      <c r="G573" s="50"/>
+      <c r="F573" s="53"/>
+      <c r="G573" s="53"/>
     </row>
     <row r="574">
-      <c r="F574" s="50"/>
-      <c r="G574" s="50"/>
+      <c r="F574" s="53"/>
+      <c r="G574" s="53"/>
     </row>
     <row r="575">
-      <c r="F575" s="50"/>
-      <c r="G575" s="50"/>
+      <c r="F575" s="53"/>
+      <c r="G575" s="53"/>
     </row>
     <row r="576">
-      <c r="F576" s="50"/>
-      <c r="G576" s="50"/>
+      <c r="F576" s="53"/>
+      <c r="G576" s="53"/>
     </row>
     <row r="577">
-      <c r="F577" s="50"/>
-      <c r="G577" s="50"/>
+      <c r="F577" s="53"/>
+      <c r="G577" s="53"/>
     </row>
     <row r="578">
-      <c r="F578" s="50"/>
-      <c r="G578" s="50"/>
+      <c r="F578" s="53"/>
+      <c r="G578" s="53"/>
     </row>
     <row r="579">
-      <c r="F579" s="50"/>
-      <c r="G579" s="50"/>
+      <c r="F579" s="53"/>
+      <c r="G579" s="53"/>
     </row>
     <row r="580">
-      <c r="F580" s="50"/>
-      <c r="G580" s="50"/>
+      <c r="F580" s="53"/>
+      <c r="G580" s="53"/>
     </row>
     <row r="581">
-      <c r="F581" s="50"/>
-      <c r="G581" s="50"/>
+      <c r="F581" s="53"/>
+      <c r="G581" s="53"/>
     </row>
     <row r="582">
-      <c r="F582" s="50"/>
-      <c r="G582" s="50"/>
+      <c r="F582" s="53"/>
+      <c r="G582" s="53"/>
     </row>
     <row r="583">
-      <c r="F583" s="50"/>
-      <c r="G583" s="50"/>
+      <c r="F583" s="53"/>
+      <c r="G583" s="53"/>
     </row>
     <row r="584">
-      <c r="F584" s="50"/>
-      <c r="G584" s="50"/>
+      <c r="F584" s="53"/>
+      <c r="G584" s="53"/>
     </row>
     <row r="585">
-      <c r="F585" s="50"/>
-      <c r="G585" s="50"/>
+      <c r="F585" s="53"/>
+      <c r="G585" s="53"/>
     </row>
     <row r="586">
-      <c r="F586" s="50"/>
-      <c r="G586" s="50"/>
+      <c r="F586" s="53"/>
+      <c r="G586" s="53"/>
     </row>
     <row r="587">
-      <c r="F587" s="50"/>
-      <c r="G587" s="50"/>
+      <c r="F587" s="53"/>
+      <c r="G587" s="53"/>
     </row>
     <row r="588">
-      <c r="F588" s="50"/>
-      <c r="G588" s="50"/>
+      <c r="F588" s="53"/>
+      <c r="G588" s="53"/>
     </row>
     <row r="589">
-      <c r="F589" s="50"/>
-      <c r="G589" s="50"/>
+      <c r="F589" s="53"/>
+      <c r="G589" s="53"/>
     </row>
     <row r="590">
-      <c r="F590" s="50"/>
-      <c r="G590" s="50"/>
+      <c r="F590" s="53"/>
+      <c r="G590" s="53"/>
     </row>
     <row r="591">
-      <c r="F591" s="50"/>
-      <c r="G591" s="50"/>
+      <c r="F591" s="53"/>
+      <c r="G591" s="53"/>
     </row>
     <row r="592">
-      <c r="F592" s="50"/>
-      <c r="G592" s="50"/>
+      <c r="F592" s="53"/>
+      <c r="G592" s="53"/>
     </row>
     <row r="593">
-      <c r="F593" s="50"/>
-      <c r="G593" s="50"/>
+      <c r="F593" s="53"/>
+      <c r="G593" s="53"/>
     </row>
     <row r="594">
-      <c r="F594" s="50"/>
-      <c r="G594" s="50"/>
+      <c r="F594" s="53"/>
+      <c r="G594" s="53"/>
     </row>
     <row r="595">
-      <c r="F595" s="50"/>
-      <c r="G595" s="50"/>
+      <c r="F595" s="53"/>
+      <c r="G595" s="53"/>
     </row>
     <row r="596">
-      <c r="F596" s="50"/>
-      <c r="G596" s="50"/>
+      <c r="F596" s="53"/>
+      <c r="G596" s="53"/>
     </row>
     <row r="597">
-      <c r="F597" s="50"/>
-      <c r="G597" s="50"/>
+      <c r="F597" s="53"/>
+      <c r="G597" s="53"/>
     </row>
     <row r="598">
-      <c r="F598" s="50"/>
-      <c r="G598" s="50"/>
+      <c r="F598" s="53"/>
+      <c r="G598" s="53"/>
     </row>
     <row r="599">
-      <c r="F599" s="50"/>
-      <c r="G599" s="50"/>
+      <c r="F599" s="53"/>
+      <c r="G599" s="53"/>
     </row>
     <row r="600">
-      <c r="F600" s="50"/>
-      <c r="G600" s="50"/>
+      <c r="F600" s="53"/>
+      <c r="G600" s="53"/>
     </row>
     <row r="601">
-      <c r="F601" s="50"/>
-      <c r="G601" s="50"/>
+      <c r="F601" s="53"/>
+      <c r="G601" s="53"/>
     </row>
     <row r="602">
-      <c r="F602" s="50"/>
-      <c r="G602" s="50"/>
+      <c r="F602" s="53"/>
+      <c r="G602" s="53"/>
     </row>
     <row r="603">
-      <c r="F603" s="50"/>
-      <c r="G603" s="50"/>
+      <c r="F603" s="53"/>
+      <c r="G603" s="53"/>
     </row>
     <row r="604">
-      <c r="F604" s="50"/>
-      <c r="G604" s="50"/>
+      <c r="F604" s="53"/>
+      <c r="G604" s="53"/>
     </row>
     <row r="605">
-      <c r="F605" s="50"/>
-      <c r="G605" s="50"/>
+      <c r="F605" s="53"/>
+      <c r="G605" s="53"/>
     </row>
     <row r="606">
-      <c r="F606" s="50"/>
-      <c r="G606" s="50"/>
+      <c r="F606" s="53"/>
+      <c r="G606" s="53"/>
     </row>
     <row r="607">
-      <c r="F607" s="50"/>
-      <c r="G607" s="50"/>
+      <c r="F607" s="53"/>
+      <c r="G607" s="53"/>
     </row>
     <row r="608">
-      <c r="F608" s="50"/>
-      <c r="G608" s="50"/>
+      <c r="F608" s="53"/>
+      <c r="G608" s="53"/>
     </row>
     <row r="609">
-      <c r="F609" s="50"/>
-      <c r="G609" s="50"/>
+      <c r="F609" s="53"/>
+      <c r="G609" s="53"/>
     </row>
     <row r="610">
-      <c r="F610" s="50"/>
-      <c r="G610" s="50"/>
+      <c r="F610" s="53"/>
+      <c r="G610" s="53"/>
     </row>
     <row r="611">
-      <c r="F611" s="50"/>
-      <c r="G611" s="50"/>
+      <c r="F611" s="53"/>
+      <c r="G611" s="53"/>
     </row>
     <row r="612">
-      <c r="F612" s="50"/>
-      <c r="G612" s="50"/>
+      <c r="F612" s="53"/>
+      <c r="G612" s="53"/>
     </row>
     <row r="613">
-      <c r="F613" s="50"/>
-      <c r="G613" s="50"/>
+      <c r="F613" s="53"/>
+      <c r="G613" s="53"/>
     </row>
     <row r="614">
-      <c r="F614" s="50"/>
-      <c r="G614" s="50"/>
+      <c r="F614" s="53"/>
+      <c r="G614" s="53"/>
     </row>
     <row r="615">
-      <c r="F615" s="50"/>
-      <c r="G615" s="50"/>
+      <c r="F615" s="53"/>
+      <c r="G615" s="53"/>
     </row>
     <row r="616">
-      <c r="F616" s="50"/>
-      <c r="G616" s="50"/>
+      <c r="F616" s="53"/>
+      <c r="G616" s="53"/>
     </row>
     <row r="617">
-      <c r="F617" s="50"/>
-      <c r="G617" s="50"/>
+      <c r="F617" s="53"/>
+      <c r="G617" s="53"/>
     </row>
     <row r="618">
-      <c r="F618" s="50"/>
-      <c r="G618" s="50"/>
+      <c r="F618" s="53"/>
+      <c r="G618" s="53"/>
     </row>
     <row r="619">
-      <c r="F619" s="50"/>
-      <c r="G619" s="50"/>
+      <c r="F619" s="53"/>
+      <c r="G619" s="53"/>
     </row>
     <row r="620">
-      <c r="F620" s="50"/>
-      <c r="G620" s="50"/>
+      <c r="F620" s="53"/>
+      <c r="G620" s="53"/>
     </row>
     <row r="621">
-      <c r="F621" s="50"/>
-      <c r="G621" s="50"/>
+      <c r="F621" s="53"/>
+      <c r="G621" s="53"/>
     </row>
     <row r="622">
-      <c r="F622" s="50"/>
-      <c r="G622" s="50"/>
+      <c r="F622" s="53"/>
+      <c r="G622" s="53"/>
     </row>
     <row r="623">
-      <c r="F623" s="50"/>
-      <c r="G623" s="50"/>
+      <c r="F623" s="53"/>
+      <c r="G623" s="53"/>
     </row>
     <row r="624">
-      <c r="F624" s="50"/>
-      <c r="G624" s="50"/>
+      <c r="F624" s="53"/>
+      <c r="G624" s="53"/>
     </row>
     <row r="625">
-      <c r="F625" s="50"/>
-      <c r="G625" s="50"/>
+      <c r="F625" s="53"/>
+      <c r="G625" s="53"/>
     </row>
     <row r="626">
-      <c r="F626" s="50"/>
-      <c r="G626" s="50"/>
+      <c r="F626" s="53"/>
+      <c r="G626" s="53"/>
     </row>
     <row r="627">
-      <c r="F627" s="50"/>
-      <c r="G627" s="50"/>
+      <c r="F627" s="53"/>
+      <c r="G627" s="53"/>
     </row>
     <row r="628">
-      <c r="F628" s="50"/>
-      <c r="G628" s="50"/>
+      <c r="F628" s="53"/>
+      <c r="G628" s="53"/>
     </row>
     <row r="629">
-      <c r="F629" s="50"/>
-      <c r="G629" s="50"/>
+      <c r="F629" s="53"/>
+      <c r="G629" s="53"/>
     </row>
     <row r="630">
-      <c r="F630" s="50"/>
-      <c r="G630" s="50"/>
+      <c r="F630" s="53"/>
+      <c r="G630" s="53"/>
     </row>
     <row r="631">
-      <c r="F631" s="50"/>
-      <c r="G631" s="50"/>
+      <c r="F631" s="53"/>
+      <c r="G631" s="53"/>
     </row>
     <row r="632">
-      <c r="F632" s="50"/>
-      <c r="G632" s="50"/>
+      <c r="F632" s="53"/>
+      <c r="G632" s="53"/>
     </row>
     <row r="633">
-      <c r="F633" s="50"/>
-      <c r="G633" s="50"/>
+      <c r="F633" s="53"/>
+      <c r="G633" s="53"/>
     </row>
     <row r="634">
-      <c r="F634" s="50"/>
-      <c r="G634" s="50"/>
+      <c r="F634" s="53"/>
+      <c r="G634" s="53"/>
     </row>
     <row r="635">
-      <c r="F635" s="50"/>
-      <c r="G635" s="50"/>
+      <c r="F635" s="53"/>
+      <c r="G635" s="53"/>
     </row>
     <row r="636">
-      <c r="F636" s="50"/>
-      <c r="G636" s="50"/>
+      <c r="F636" s="53"/>
+      <c r="G636" s="53"/>
     </row>
     <row r="637">
-      <c r="F637" s="50"/>
-      <c r="G637" s="50"/>
+      <c r="F637" s="53"/>
+      <c r="G637" s="53"/>
     </row>
     <row r="638">
-      <c r="F638" s="50"/>
-      <c r="G638" s="50"/>
+      <c r="F638" s="53"/>
+      <c r="G638" s="53"/>
     </row>
     <row r="639">
-      <c r="F639" s="50"/>
-      <c r="G639" s="50"/>
+      <c r="F639" s="53"/>
+      <c r="G639" s="53"/>
     </row>
     <row r="640">
-      <c r="F640" s="50"/>
-      <c r="G640" s="50"/>
+      <c r="F640" s="53"/>
+      <c r="G640" s="53"/>
     </row>
     <row r="641">
-      <c r="F641" s="50"/>
-      <c r="G641" s="50"/>
+      <c r="F641" s="53"/>
+      <c r="G641" s="53"/>
     </row>
     <row r="642">
-      <c r="F642" s="50"/>
-      <c r="G642" s="50"/>
+      <c r="F642" s="53"/>
+      <c r="G642" s="53"/>
     </row>
     <row r="643">
-      <c r="F643" s="50"/>
-      <c r="G643" s="50"/>
+      <c r="F643" s="53"/>
+      <c r="G643" s="53"/>
     </row>
     <row r="644">
-      <c r="F644" s="50"/>
-      <c r="G644" s="50"/>
+      <c r="F644" s="53"/>
+      <c r="G644" s="53"/>
     </row>
     <row r="645">
-      <c r="F645" s="50"/>
-      <c r="G645" s="50"/>
+      <c r="F645" s="53"/>
+      <c r="G645" s="53"/>
     </row>
     <row r="646">
-      <c r="F646" s="50"/>
-      <c r="G646" s="50"/>
+      <c r="F646" s="53"/>
+      <c r="G646" s="53"/>
     </row>
     <row r="647">
-      <c r="F647" s="50"/>
-      <c r="G647" s="50"/>
+      <c r="F647" s="53"/>
+      <c r="G647" s="53"/>
     </row>
     <row r="648">
-      <c r="F648" s="50"/>
-      <c r="G648" s="50"/>
+      <c r="F648" s="53"/>
+      <c r="G648" s="53"/>
     </row>
     <row r="649">
-      <c r="F649" s="50"/>
-      <c r="G649" s="50"/>
+      <c r="F649" s="53"/>
+      <c r="G649" s="53"/>
     </row>
     <row r="650">
-      <c r="F650" s="50"/>
-      <c r="G650" s="50"/>
+      <c r="F650" s="53"/>
+      <c r="G650" s="53"/>
     </row>
     <row r="651">
-      <c r="F651" s="50"/>
-      <c r="G651" s="50"/>
+      <c r="F651" s="53"/>
+      <c r="G651" s="53"/>
     </row>
     <row r="652">
-      <c r="F652" s="50"/>
-      <c r="G652" s="50"/>
+      <c r="F652" s="53"/>
+      <c r="G652" s="53"/>
     </row>
     <row r="653">
-      <c r="F653" s="50"/>
-      <c r="G653" s="50"/>
+      <c r="F653" s="53"/>
+      <c r="G653" s="53"/>
     </row>
     <row r="654">
-      <c r="F654" s="50"/>
-      <c r="G654" s="50"/>
+      <c r="F654" s="53"/>
+      <c r="G654" s="53"/>
     </row>
     <row r="655">
-      <c r="F655" s="50"/>
-      <c r="G655" s="50"/>
+      <c r="F655" s="53"/>
+      <c r="G655" s="53"/>
     </row>
     <row r="656">
-      <c r="F656" s="50"/>
-      <c r="G656" s="50"/>
+      <c r="F656" s="53"/>
+      <c r="G656" s="53"/>
     </row>
     <row r="657">
-      <c r="F657" s="50"/>
-      <c r="G657" s="50"/>
+      <c r="F657" s="53"/>
+      <c r="G657" s="53"/>
     </row>
     <row r="658">
-      <c r="F658" s="50"/>
-      <c r="G658" s="50"/>
+      <c r="F658" s="53"/>
+      <c r="G658" s="53"/>
     </row>
     <row r="659">
-      <c r="F659" s="50"/>
-      <c r="G659" s="50"/>
+      <c r="F659" s="53"/>
+      <c r="G659" s="53"/>
     </row>
     <row r="660">
-      <c r="F660" s="50"/>
-      <c r="G660" s="50"/>
+      <c r="F660" s="53"/>
+      <c r="G660" s="53"/>
     </row>
     <row r="661">
-      <c r="F661" s="50"/>
-      <c r="G661" s="50"/>
+      <c r="F661" s="53"/>
+      <c r="G661" s="53"/>
     </row>
     <row r="662">
-      <c r="F662" s="50"/>
-      <c r="G662" s="50"/>
+      <c r="F662" s="53"/>
+      <c r="G662" s="53"/>
     </row>
     <row r="663">
-      <c r="F663" s="50"/>
-      <c r="G663" s="50"/>
+      <c r="F663" s="53"/>
+      <c r="G663" s="53"/>
     </row>
     <row r="664">
-      <c r="F664" s="50"/>
-      <c r="G664" s="50"/>
+      <c r="F664" s="53"/>
+      <c r="G664" s="53"/>
     </row>
     <row r="665">
-      <c r="F665" s="50"/>
-      <c r="G665" s="50"/>
+      <c r="F665" s="53"/>
+      <c r="G665" s="53"/>
     </row>
     <row r="666">
-      <c r="F666" s="50"/>
-      <c r="G666" s="50"/>
+      <c r="F666" s="53"/>
+      <c r="G666" s="53"/>
     </row>
     <row r="667">
-      <c r="F667" s="50"/>
-      <c r="G667" s="50"/>
+      <c r="F667" s="53"/>
+      <c r="G667" s="53"/>
     </row>
     <row r="668">
-      <c r="F668" s="50"/>
-      <c r="G668" s="50"/>
+      <c r="F668" s="53"/>
+      <c r="G668" s="53"/>
     </row>
     <row r="669">
-      <c r="F669" s="50"/>
-      <c r="G669" s="50"/>
+      <c r="F669" s="53"/>
+      <c r="G669" s="53"/>
     </row>
     <row r="670">
-      <c r="F670" s="50"/>
-      <c r="G670" s="50"/>
+      <c r="F670" s="53"/>
+      <c r="G670" s="53"/>
     </row>
     <row r="671">
-      <c r="F671" s="50"/>
-      <c r="G671" s="50"/>
+      <c r="F671" s="53"/>
+      <c r="G671" s="53"/>
     </row>
     <row r="672">
-      <c r="F672" s="50"/>
-      <c r="G672" s="50"/>
+      <c r="F672" s="53"/>
+      <c r="G672" s="53"/>
     </row>
     <row r="673">
-      <c r="F673" s="50"/>
-      <c r="G673" s="50"/>
+      <c r="F673" s="53"/>
+      <c r="G673" s="53"/>
     </row>
     <row r="674">
-      <c r="F674" s="50"/>
-      <c r="G674" s="50"/>
+      <c r="F674" s="53"/>
+      <c r="G674" s="53"/>
     </row>
     <row r="675">
-      <c r="F675" s="50"/>
-      <c r="G675" s="50"/>
+      <c r="F675" s="53"/>
+      <c r="G675" s="53"/>
     </row>
     <row r="676">
-      <c r="F676" s="50"/>
-      <c r="G676" s="50"/>
+      <c r="F676" s="53"/>
+      <c r="G676" s="53"/>
     </row>
     <row r="677">
-      <c r="F677" s="50"/>
-      <c r="G677" s="50"/>
+      <c r="F677" s="53"/>
+      <c r="G677" s="53"/>
     </row>
     <row r="678">
-      <c r="F678" s="50"/>
-      <c r="G678" s="50"/>
+      <c r="F678" s="53"/>
+      <c r="G678" s="53"/>
     </row>
     <row r="679">
-      <c r="F679" s="50"/>
-      <c r="G679" s="50"/>
+      <c r="F679" s="53"/>
+      <c r="G679" s="53"/>
     </row>
     <row r="680">
-      <c r="F680" s="50"/>
-      <c r="G680" s="50"/>
+      <c r="F680" s="53"/>
+      <c r="G680" s="53"/>
     </row>
     <row r="681">
-      <c r="F681" s="50"/>
-      <c r="G681" s="50"/>
+      <c r="F681" s="53"/>
+      <c r="G681" s="53"/>
     </row>
     <row r="682">
-      <c r="F682" s="50"/>
-      <c r="G682" s="50"/>
+      <c r="F682" s="53"/>
+      <c r="G682" s="53"/>
     </row>
     <row r="683">
-      <c r="F683" s="50"/>
-      <c r="G683" s="50"/>
+      <c r="F683" s="53"/>
+      <c r="G683" s="53"/>
     </row>
     <row r="684">
-      <c r="F684" s="50"/>
-      <c r="G684" s="50"/>
+      <c r="F684" s="53"/>
+      <c r="G684" s="53"/>
     </row>
     <row r="685">
-      <c r="F685" s="50"/>
-      <c r="G685" s="50"/>
+      <c r="F685" s="53"/>
+      <c r="G685" s="53"/>
     </row>
     <row r="686">
-      <c r="F686" s="50"/>
-      <c r="G686" s="50"/>
+      <c r="F686" s="53"/>
+      <c r="G686" s="53"/>
     </row>
     <row r="687">
-      <c r="F687" s="50"/>
-      <c r="G687" s="50"/>
+      <c r="F687" s="53"/>
+      <c r="G687" s="53"/>
     </row>
     <row r="688">
-      <c r="F688" s="50"/>
-      <c r="G688" s="50"/>
+      <c r="F688" s="53"/>
+      <c r="G688" s="53"/>
     </row>
     <row r="689">
-      <c r="F689" s="50"/>
-      <c r="G689" s="50"/>
+      <c r="F689" s="53"/>
+      <c r="G689" s="53"/>
     </row>
     <row r="690">
-      <c r="F690" s="50"/>
-      <c r="G690" s="50"/>
+      <c r="F690" s="53"/>
+      <c r="G690" s="53"/>
     </row>
     <row r="691">
-      <c r="F691" s="50"/>
-      <c r="G691" s="50"/>
+      <c r="F691" s="53"/>
+      <c r="G691" s="53"/>
     </row>
     <row r="692">
-      <c r="F692" s="50"/>
-      <c r="G692" s="50"/>
+      <c r="F692" s="53"/>
+      <c r="G692" s="53"/>
     </row>
     <row r="693">
-      <c r="F693" s="50"/>
-      <c r="G693" s="50"/>
+      <c r="F693" s="53"/>
+      <c r="G693" s="53"/>
     </row>
     <row r="694">
-      <c r="F694" s="50"/>
-      <c r="G694" s="50"/>
+      <c r="F694" s="53"/>
+      <c r="G694" s="53"/>
     </row>
     <row r="695">
-      <c r="F695" s="50"/>
-      <c r="G695" s="50"/>
+      <c r="F695" s="53"/>
+      <c r="G695" s="53"/>
     </row>
     <row r="696">
-      <c r="F696" s="50"/>
-      <c r="G696" s="50"/>
+      <c r="F696" s="53"/>
+      <c r="G696" s="53"/>
     </row>
     <row r="697">
-      <c r="F697" s="50"/>
-      <c r="G697" s="50"/>
+      <c r="F697" s="53"/>
+      <c r="G697" s="53"/>
     </row>
     <row r="698">
-      <c r="F698" s="50"/>
-      <c r="G698" s="50"/>
+      <c r="F698" s="53"/>
+      <c r="G698" s="53"/>
     </row>
     <row r="699">
-      <c r="F699" s="50"/>
-      <c r="G699" s="50"/>
+      <c r="F699" s="53"/>
+      <c r="G699" s="53"/>
     </row>
     <row r="700">
-      <c r="F700" s="50"/>
-      <c r="G700" s="50"/>
+      <c r="F700" s="53"/>
+      <c r="G700" s="53"/>
     </row>
     <row r="701">
-      <c r="F701" s="50"/>
-      <c r="G701" s="50"/>
+      <c r="F701" s="53"/>
+      <c r="G701" s="53"/>
     </row>
     <row r="702">
-      <c r="F702" s="50"/>
-      <c r="G702" s="50"/>
+      <c r="F702" s="53"/>
+      <c r="G702" s="53"/>
     </row>
     <row r="703">
-      <c r="F703" s="50"/>
-      <c r="G703" s="50"/>
+      <c r="F703" s="53"/>
+      <c r="G703" s="53"/>
     </row>
     <row r="704">
-      <c r="F704" s="50"/>
-      <c r="G704" s="50"/>
+      <c r="F704" s="53"/>
+      <c r="G704" s="53"/>
     </row>
     <row r="705">
-      <c r="F705" s="50"/>
-      <c r="G705" s="50"/>
+      <c r="F705" s="53"/>
+      <c r="G705" s="53"/>
     </row>
     <row r="706">
-      <c r="F706" s="50"/>
-      <c r="G706" s="50"/>
+      <c r="F706" s="53"/>
+      <c r="G706" s="53"/>
     </row>
     <row r="707">
-      <c r="F707" s="50"/>
-      <c r="G707" s="50"/>
+      <c r="F707" s="53"/>
+      <c r="G707" s="53"/>
     </row>
     <row r="708">
-      <c r="F708" s="50"/>
-      <c r="G708" s="50"/>
+      <c r="F708" s="53"/>
+      <c r="G708" s="53"/>
     </row>
     <row r="709">
-      <c r="F709" s="50"/>
-      <c r="G709" s="50"/>
+      <c r="F709" s="53"/>
+      <c r="G709" s="53"/>
     </row>
     <row r="710">
-      <c r="F710" s="50"/>
-      <c r="G710" s="50"/>
+      <c r="F710" s="53"/>
+      <c r="G710" s="53"/>
     </row>
     <row r="711">
-      <c r="F711" s="50"/>
-      <c r="G711" s="50"/>
+      <c r="F711" s="53"/>
+      <c r="G711" s="53"/>
     </row>
     <row r="712">
-      <c r="F712" s="50"/>
-      <c r="G712" s="50"/>
+      <c r="F712" s="53"/>
+      <c r="G712" s="53"/>
     </row>
     <row r="713">
-      <c r="F713" s="50"/>
-      <c r="G713" s="50"/>
+      <c r="F713" s="53"/>
+      <c r="G713" s="53"/>
     </row>
     <row r="714">
-      <c r="F714" s="50"/>
-      <c r="G714" s="50"/>
+      <c r="F714" s="53"/>
+      <c r="G714" s="53"/>
     </row>
     <row r="715">
-      <c r="F715" s="50"/>
-      <c r="G715" s="50"/>
+      <c r="F715" s="53"/>
+      <c r="G715" s="53"/>
     </row>
     <row r="716">
-      <c r="F716" s="50"/>
-      <c r="G716" s="50"/>
+      <c r="F716" s="53"/>
+      <c r="G716" s="53"/>
     </row>
     <row r="717">
-      <c r="F717" s="50"/>
-      <c r="G717" s="50"/>
+      <c r="F717" s="53"/>
+      <c r="G717" s="53"/>
     </row>
     <row r="718">
-      <c r="F718" s="50"/>
-      <c r="G718" s="50"/>
+      <c r="F718" s="53"/>
+      <c r="G718" s="53"/>
     </row>
     <row r="719">
-      <c r="F719" s="50"/>
-      <c r="G719" s="50"/>
+      <c r="F719" s="53"/>
+      <c r="G719" s="53"/>
     </row>
     <row r="720">
-      <c r="F720" s="50"/>
-      <c r="G720" s="50"/>
+      <c r="F720" s="53"/>
+      <c r="G720" s="53"/>
     </row>
     <row r="721">
-      <c r="F721" s="50"/>
-      <c r="G721" s="50"/>
+      <c r="F721" s="53"/>
+      <c r="G721" s="53"/>
     </row>
     <row r="722">
-      <c r="F722" s="50"/>
-      <c r="G722" s="50"/>
+      <c r="F722" s="53"/>
+      <c r="G722" s="53"/>
     </row>
     <row r="723">
-      <c r="F723" s="50"/>
-      <c r="G723" s="50"/>
+      <c r="F723" s="53"/>
+      <c r="G723" s="53"/>
     </row>
     <row r="724">
-      <c r="F724" s="50"/>
-      <c r="G724" s="50"/>
+      <c r="F724" s="53"/>
+      <c r="G724" s="53"/>
     </row>
     <row r="725">
-      <c r="F725" s="50"/>
-      <c r="G725" s="50"/>
+      <c r="F725" s="53"/>
+      <c r="G725" s="53"/>
     </row>
     <row r="726">
-      <c r="F726" s="50"/>
-      <c r="G726" s="50"/>
+      <c r="F726" s="53"/>
+      <c r="G726" s="53"/>
     </row>
     <row r="727">
-      <c r="F727" s="50"/>
-      <c r="G727" s="50"/>
+      <c r="F727" s="53"/>
+      <c r="G727" s="53"/>
     </row>
     <row r="728">
-      <c r="F728" s="50"/>
-      <c r="G728" s="50"/>
+      <c r="F728" s="53"/>
+      <c r="G728" s="53"/>
     </row>
     <row r="729">
-      <c r="F729" s="50"/>
-      <c r="G729" s="50"/>
+      <c r="F729" s="53"/>
+      <c r="G729" s="53"/>
     </row>
     <row r="730">
-      <c r="F730" s="50"/>
-      <c r="G730" s="50"/>
+      <c r="F730" s="53"/>
+      <c r="G730" s="53"/>
     </row>
     <row r="731">
-      <c r="F731" s="50"/>
-      <c r="G731" s="50"/>
+      <c r="F731" s="53"/>
+      <c r="G731" s="53"/>
     </row>
     <row r="732">
-      <c r="F732" s="50"/>
-      <c r="G732" s="50"/>
+      <c r="F732" s="53"/>
+      <c r="G732" s="53"/>
     </row>
     <row r="733">
-      <c r="F733" s="50"/>
-      <c r="G733" s="50"/>
+      <c r="F733" s="53"/>
+      <c r="G733" s="53"/>
     </row>
     <row r="734">
-      <c r="F734" s="50"/>
-      <c r="G734" s="50"/>
+      <c r="F734" s="53"/>
+      <c r="G734" s="53"/>
     </row>
     <row r="735">
-      <c r="F735" s="50"/>
-      <c r="G735" s="50"/>
+      <c r="F735" s="53"/>
+      <c r="G735" s="53"/>
     </row>
     <row r="736">
-      <c r="F736" s="50"/>
-      <c r="G736" s="50"/>
+      <c r="F736" s="53"/>
+      <c r="G736" s="53"/>
     </row>
     <row r="737">
-      <c r="F737" s="50"/>
-      <c r="G737" s="50"/>
+      <c r="F737" s="53"/>
+      <c r="G737" s="53"/>
     </row>
     <row r="738">
-      <c r="F738" s="50"/>
-      <c r="G738" s="50"/>
+      <c r="F738" s="53"/>
+      <c r="G738" s="53"/>
     </row>
     <row r="739">
-      <c r="F739" s="50"/>
-      <c r="G739" s="50"/>
+      <c r="F739" s="53"/>
+      <c r="G739" s="53"/>
     </row>
     <row r="740">
-      <c r="F740" s="50"/>
-      <c r="G740" s="50"/>
+      <c r="F740" s="53"/>
+      <c r="G740" s="53"/>
     </row>
     <row r="741">
-      <c r="F741" s="50"/>
-      <c r="G741" s="50"/>
+      <c r="F741" s="53"/>
+      <c r="G741" s="53"/>
     </row>
     <row r="742">
-      <c r="F742" s="50"/>
-      <c r="G742" s="50"/>
+      <c r="F742" s="53"/>
+      <c r="G742" s="53"/>
     </row>
     <row r="743">
-      <c r="F743" s="50"/>
-      <c r="G743" s="50"/>
+      <c r="F743" s="53"/>
+      <c r="G743" s="53"/>
     </row>
     <row r="744">
-      <c r="F744" s="50"/>
-      <c r="G744" s="50"/>
+      <c r="F744" s="53"/>
+      <c r="G744" s="53"/>
     </row>
     <row r="745">
-      <c r="F745" s="50"/>
-      <c r="G745" s="50"/>
+      <c r="F745" s="53"/>
+      <c r="G745" s="53"/>
     </row>
     <row r="746">
-      <c r="F746" s="50"/>
-      <c r="G746" s="50"/>
+      <c r="F746" s="53"/>
+      <c r="G746" s="53"/>
     </row>
     <row r="747">
-      <c r="F747" s="50"/>
-      <c r="G747" s="50"/>
+      <c r="F747" s="53"/>
+      <c r="G747" s="53"/>
     </row>
     <row r="748">
-      <c r="F748" s="50"/>
-      <c r="G748" s="50"/>
+      <c r="F748" s="53"/>
+      <c r="G748" s="53"/>
     </row>
     <row r="749">
-      <c r="F749" s="50"/>
-      <c r="G749" s="50"/>
+      <c r="F749" s="53"/>
+      <c r="G749" s="53"/>
     </row>
     <row r="750">
-      <c r="F750" s="50"/>
-      <c r="G750" s="50"/>
+      <c r="F750" s="53"/>
+      <c r="G750" s="53"/>
     </row>
     <row r="751">
-      <c r="F751" s="50"/>
-      <c r="G751" s="50"/>
+      <c r="F751" s="53"/>
+      <c r="G751" s="53"/>
     </row>
     <row r="752">
-      <c r="F752" s="50"/>
-      <c r="G752" s="50"/>
+      <c r="F752" s="53"/>
+      <c r="G752" s="53"/>
     </row>
     <row r="753">
-      <c r="F753" s="50"/>
-      <c r="G753" s="50"/>
+      <c r="F753" s="53"/>
+      <c r="G753" s="53"/>
     </row>
     <row r="754">
-      <c r="F754" s="50"/>
-      <c r="G754" s="50"/>
+      <c r="F754" s="53"/>
+      <c r="G754" s="53"/>
     </row>
     <row r="755">
-      <c r="F755" s="50"/>
-      <c r="G755" s="50"/>
+      <c r="F755" s="53"/>
+      <c r="G755" s="53"/>
     </row>
     <row r="756">
-      <c r="F756" s="50"/>
-      <c r="G756" s="50"/>
+      <c r="F756" s="53"/>
+      <c r="G756" s="53"/>
     </row>
     <row r="757">
-      <c r="F757" s="50"/>
-      <c r="G757" s="50"/>
+      <c r="F757" s="53"/>
+      <c r="G757" s="53"/>
     </row>
     <row r="758">
-      <c r="F758" s="50"/>
-      <c r="G758" s="50"/>
+      <c r="F758" s="53"/>
+      <c r="G758" s="53"/>
     </row>
     <row r="759">
-      <c r="F759" s="50"/>
-      <c r="G759" s="50"/>
+      <c r="F759" s="53"/>
+      <c r="G759" s="53"/>
     </row>
     <row r="760">
-      <c r="F760" s="50"/>
-      <c r="G760" s="50"/>
+      <c r="F760" s="53"/>
+      <c r="G760" s="53"/>
     </row>
     <row r="761">
-      <c r="F761" s="50"/>
-      <c r="G761" s="50"/>
+      <c r="F761" s="53"/>
+      <c r="G761" s="53"/>
     </row>
     <row r="762">
-      <c r="F762" s="50"/>
-      <c r="G762" s="50"/>
+      <c r="F762" s="53"/>
+      <c r="G762" s="53"/>
     </row>
     <row r="763">
-      <c r="F763" s="50"/>
-      <c r="G763" s="50"/>
+      <c r="F763" s="53"/>
+      <c r="G763" s="53"/>
     </row>
     <row r="764">
-      <c r="F764" s="50"/>
-      <c r="G764" s="50"/>
+      <c r="F764" s="53"/>
+      <c r="G764" s="53"/>
     </row>
     <row r="765">
-      <c r="F765" s="50"/>
-      <c r="G765" s="50"/>
+      <c r="F765" s="53"/>
+      <c r="G765" s="53"/>
     </row>
     <row r="766">
-      <c r="F766" s="50"/>
-      <c r="G766" s="50"/>
+      <c r="F766" s="53"/>
+      <c r="G766" s="53"/>
     </row>
     <row r="767">
-      <c r="F767" s="50"/>
-      <c r="G767" s="50"/>
+      <c r="F767" s="53"/>
+      <c r="G767" s="53"/>
     </row>
     <row r="768">
-      <c r="F768" s="50"/>
-      <c r="G768" s="50"/>
+      <c r="F768" s="53"/>
+      <c r="G768" s="53"/>
     </row>
     <row r="769">
-      <c r="F769" s="50"/>
-      <c r="G769" s="50"/>
+      <c r="F769" s="53"/>
+      <c r="G769" s="53"/>
     </row>
     <row r="770">
-      <c r="F770" s="50"/>
-      <c r="G770" s="50"/>
+      <c r="F770" s="53"/>
+      <c r="G770" s="53"/>
     </row>
     <row r="771">
-      <c r="F771" s="50"/>
-      <c r="G771" s="50"/>
+      <c r="F771" s="53"/>
+      <c r="G771" s="53"/>
     </row>
     <row r="772">
-      <c r="F772" s="50"/>
-      <c r="G772" s="50"/>
+      <c r="F772" s="53"/>
+      <c r="G772" s="53"/>
     </row>
     <row r="773">
-      <c r="F773" s="50"/>
-      <c r="G773" s="50"/>
+      <c r="F773" s="53"/>
+      <c r="G773" s="53"/>
     </row>
     <row r="774">
-      <c r="F774" s="50"/>
-      <c r="G774" s="50"/>
+      <c r="F774" s="53"/>
+      <c r="G774" s="53"/>
     </row>
     <row r="775">
-      <c r="F775" s="50"/>
-      <c r="G775" s="50"/>
+      <c r="F775" s="53"/>
+      <c r="G775" s="53"/>
     </row>
     <row r="776">
-      <c r="F776" s="50"/>
-      <c r="G776" s="50"/>
+      <c r="F776" s="53"/>
+      <c r="G776" s="53"/>
     </row>
     <row r="777">
-      <c r="F777" s="50"/>
-      <c r="G777" s="50"/>
+      <c r="F777" s="53"/>
+      <c r="G777" s="53"/>
     </row>
     <row r="778">
-      <c r="F778" s="50"/>
-      <c r="G778" s="50"/>
+      <c r="F778" s="53"/>
+      <c r="G778" s="53"/>
     </row>
     <row r="779">
-      <c r="F779" s="50"/>
-      <c r="G779" s="50"/>
+      <c r="F779" s="53"/>
+      <c r="G779" s="53"/>
     </row>
     <row r="780">
-      <c r="F780" s="50"/>
-      <c r="G780" s="50"/>
+      <c r="F780" s="53"/>
+      <c r="G780" s="53"/>
     </row>
     <row r="781">
-      <c r="F781" s="50"/>
-      <c r="G781" s="50"/>
+      <c r="F781" s="53"/>
+      <c r="G781" s="53"/>
     </row>
     <row r="782">
-      <c r="F782" s="50"/>
-      <c r="G782" s="50"/>
+      <c r="F782" s="53"/>
+      <c r="G782" s="53"/>
     </row>
     <row r="783">
-      <c r="F783" s="50"/>
-      <c r="G783" s="50"/>
+      <c r="F783" s="53"/>
+      <c r="G783" s="53"/>
     </row>
     <row r="784">
-      <c r="F784" s="50"/>
-      <c r="G784" s="50"/>
+      <c r="F784" s="53"/>
+      <c r="G784" s="53"/>
     </row>
     <row r="785">
-      <c r="F785" s="50"/>
-      <c r="G785" s="50"/>
+      <c r="F785" s="53"/>
+      <c r="G785" s="53"/>
     </row>
     <row r="786">
-      <c r="F786" s="50"/>
-      <c r="G786" s="50"/>
+      <c r="F786" s="53"/>
+      <c r="G786" s="53"/>
     </row>
     <row r="787">
-      <c r="F787" s="50"/>
-      <c r="G787" s="50"/>
+      <c r="F787" s="53"/>
+      <c r="G787" s="53"/>
     </row>
     <row r="788">
-      <c r="F788" s="50"/>
-      <c r="G788" s="50"/>
+      <c r="F788" s="53"/>
+      <c r="G788" s="53"/>
     </row>
     <row r="789">
-      <c r="F789" s="50"/>
-      <c r="G789" s="50"/>
+      <c r="F789" s="53"/>
+      <c r="G789" s="53"/>
     </row>
     <row r="790">
-      <c r="F790" s="50"/>
-      <c r="G790" s="50"/>
+      <c r="F790" s="53"/>
+      <c r="G790" s="53"/>
     </row>
     <row r="791">
-      <c r="F791" s="50"/>
-      <c r="G791" s="50"/>
+      <c r="F791" s="53"/>
+      <c r="G791" s="53"/>
     </row>
     <row r="792">
-      <c r="F792" s="50"/>
-      <c r="G792" s="50"/>
+      <c r="F792" s="53"/>
+      <c r="G792" s="53"/>
     </row>
     <row r="793">
-      <c r="F793" s="50"/>
-      <c r="G793" s="50"/>
+      <c r="F793" s="53"/>
+      <c r="G793" s="53"/>
     </row>
     <row r="794">
-      <c r="F794" s="50"/>
-      <c r="G794" s="50"/>
+      <c r="F794" s="53"/>
+      <c r="G794" s="53"/>
     </row>
     <row r="795">
-      <c r="F795" s="50"/>
-      <c r="G795" s="50"/>
+      <c r="F795" s="53"/>
+      <c r="G795" s="53"/>
     </row>
     <row r="796">
-      <c r="F796" s="50"/>
-      <c r="G796" s="50"/>
+      <c r="F796" s="53"/>
+      <c r="G796" s="53"/>
     </row>
     <row r="797">
-      <c r="F797" s="50"/>
-      <c r="G797" s="50"/>
+      <c r="F797" s="53"/>
+      <c r="G797" s="53"/>
     </row>
     <row r="798">
-      <c r="F798" s="50"/>
-      <c r="G798" s="50"/>
+      <c r="F798" s="53"/>
+      <c r="G798" s="53"/>
     </row>
     <row r="799">
-      <c r="F799" s="50"/>
-      <c r="G799" s="50"/>
+      <c r="F799" s="53"/>
+      <c r="G799" s="53"/>
     </row>
     <row r="800">
-      <c r="F800" s="50"/>
-      <c r="G800" s="50"/>
+      <c r="F800" s="53"/>
+      <c r="G800" s="53"/>
     </row>
     <row r="801">
-      <c r="F801" s="50"/>
-      <c r="G801" s="50"/>
+      <c r="F801" s="53"/>
+      <c r="G801" s="53"/>
     </row>
     <row r="802">
-      <c r="F802" s="50"/>
-      <c r="G802" s="50"/>
+      <c r="F802" s="53"/>
+      <c r="G802" s="53"/>
     </row>
     <row r="803">
-      <c r="F803" s="50"/>
-      <c r="G803" s="50"/>
+      <c r="F803" s="53"/>
+      <c r="G803" s="53"/>
     </row>
     <row r="804">
-      <c r="F804" s="50"/>
-      <c r="G804" s="50"/>
+      <c r="F804" s="53"/>
+      <c r="G804" s="53"/>
     </row>
     <row r="805">
-      <c r="F805" s="50"/>
-      <c r="G805" s="50"/>
+      <c r="F805" s="53"/>
+      <c r="G805" s="53"/>
     </row>
     <row r="806">
-      <c r="F806" s="50"/>
-      <c r="G806" s="50"/>
+      <c r="F806" s="53"/>
+      <c r="G806" s="53"/>
     </row>
     <row r="807">
-      <c r="F807" s="50"/>
-      <c r="G807" s="50"/>
+      <c r="F807" s="53"/>
+      <c r="G807" s="53"/>
     </row>
     <row r="808">
-      <c r="F808" s="50"/>
-      <c r="G808" s="50"/>
+      <c r="F808" s="53"/>
+      <c r="G808" s="53"/>
     </row>
     <row r="809">
-      <c r="F809" s="50"/>
-      <c r="G809" s="50"/>
+      <c r="F809" s="53"/>
+      <c r="G809" s="53"/>
     </row>
     <row r="810">
-      <c r="F810" s="50"/>
-      <c r="G810" s="50"/>
+      <c r="F810" s="53"/>
+      <c r="G810" s="53"/>
     </row>
     <row r="811">
-      <c r="F811" s="50"/>
-      <c r="G811" s="50"/>
+      <c r="F811" s="53"/>
+      <c r="G811" s="53"/>
     </row>
     <row r="812">
-      <c r="F812" s="50"/>
-      <c r="G812" s="50"/>
+      <c r="F812" s="53"/>
+      <c r="G812" s="53"/>
     </row>
     <row r="813">
-      <c r="F813" s="50"/>
-      <c r="G813" s="50"/>
+      <c r="F813" s="53"/>
+      <c r="G813" s="53"/>
     </row>
     <row r="814">
-      <c r="F814" s="50"/>
-      <c r="G814" s="50"/>
+      <c r="F814" s="53"/>
+      <c r="G814" s="53"/>
     </row>
     <row r="815">
-      <c r="F815" s="50"/>
-      <c r="G815" s="50"/>
+      <c r="F815" s="53"/>
+      <c r="G815" s="53"/>
     </row>
     <row r="816">
-      <c r="F816" s="50"/>
-      <c r="G816" s="50"/>
+      <c r="F816" s="53"/>
+      <c r="G816" s="53"/>
     </row>
     <row r="817">
-      <c r="F817" s="50"/>
-      <c r="G817" s="50"/>
+      <c r="F817" s="53"/>
+      <c r="G817" s="53"/>
     </row>
     <row r="818">
-      <c r="F818" s="50"/>
-      <c r="G818" s="50"/>
+      <c r="F818" s="53"/>
+      <c r="G818" s="53"/>
     </row>
     <row r="819">
-      <c r="F819" s="50"/>
-      <c r="G819" s="50"/>
+      <c r="F819" s="53"/>
+      <c r="G819" s="53"/>
     </row>
     <row r="820">
-      <c r="F820" s="50"/>
-      <c r="G820" s="50"/>
+      <c r="F820" s="53"/>
+      <c r="G820" s="53"/>
     </row>
     <row r="821">
-      <c r="F821" s="50"/>
-      <c r="G821" s="50"/>
+      <c r="F821" s="53"/>
+      <c r="G821" s="53"/>
     </row>
     <row r="822">
-      <c r="F822" s="50"/>
-      <c r="G822" s="50"/>
+      <c r="F822" s="53"/>
+      <c r="G822" s="53"/>
     </row>
     <row r="823">
-      <c r="F823" s="50"/>
-      <c r="G823" s="50"/>
+      <c r="F823" s="53"/>
+      <c r="G823" s="53"/>
     </row>
     <row r="824">
-      <c r="F824" s="50"/>
-      <c r="G824" s="50"/>
+      <c r="F824" s="53"/>
+      <c r="G824" s="53"/>
     </row>
     <row r="825">
-      <c r="F825" s="50"/>
-      <c r="G825" s="50"/>
+      <c r="F825" s="53"/>
+      <c r="G825" s="53"/>
     </row>
     <row r="826">
-      <c r="F826" s="50"/>
-      <c r="G826" s="50"/>
+      <c r="F826" s="53"/>
+      <c r="G826" s="53"/>
     </row>
     <row r="827">
-      <c r="F827" s="50"/>
-      <c r="G827" s="50"/>
+      <c r="F827" s="53"/>
+      <c r="G827" s="53"/>
     </row>
     <row r="828">
-      <c r="F828" s="50"/>
-      <c r="G828" s="50"/>
+      <c r="F828" s="53"/>
+      <c r="G828" s="53"/>
     </row>
     <row r="829">
-      <c r="F829" s="50"/>
-      <c r="G829" s="50"/>
+      <c r="F829" s="53"/>
+      <c r="G829" s="53"/>
     </row>
     <row r="830">
-      <c r="F830" s="50"/>
-      <c r="G830" s="50"/>
+      <c r="F830" s="53"/>
+      <c r="G830" s="53"/>
     </row>
     <row r="831">
-      <c r="F831" s="50"/>
-      <c r="G831" s="50"/>
+      <c r="F831" s="53"/>
+      <c r="G831" s="53"/>
     </row>
     <row r="832">
-      <c r="F832" s="50"/>
-      <c r="G832" s="50"/>
+      <c r="F832" s="53"/>
+      <c r="G832" s="53"/>
     </row>
     <row r="833">
-      <c r="F833" s="50"/>
-      <c r="G833" s="50"/>
+      <c r="F833" s="53"/>
+      <c r="G833" s="53"/>
     </row>
     <row r="834">
-      <c r="F834" s="50"/>
-      <c r="G834" s="50"/>
+      <c r="F834" s="53"/>
+      <c r="G834" s="53"/>
     </row>
     <row r="835">
-      <c r="F835" s="50"/>
-      <c r="G835" s="50"/>
+      <c r="F835" s="53"/>
+      <c r="G835" s="53"/>
     </row>
     <row r="836">
-      <c r="F836" s="50"/>
-      <c r="G836" s="50"/>
+      <c r="F836" s="53"/>
+      <c r="G836" s="53"/>
     </row>
     <row r="837">
-      <c r="F837" s="50"/>
-      <c r="G837" s="50"/>
+      <c r="F837" s="53"/>
+      <c r="G837" s="53"/>
     </row>
     <row r="838">
-      <c r="F838" s="50"/>
-      <c r="G838" s="50"/>
+      <c r="F838" s="53"/>
+      <c r="G838" s="53"/>
     </row>
     <row r="839">
-      <c r="F839" s="50"/>
-      <c r="G839" s="50"/>
+      <c r="F839" s="53"/>
+      <c r="G839" s="53"/>
     </row>
     <row r="840">
-      <c r="F840" s="50"/>
-      <c r="G840" s="50"/>
+      <c r="F840" s="53"/>
+      <c r="G840" s="53"/>
     </row>
     <row r="841">
-      <c r="F841" s="50"/>
-      <c r="G841" s="50"/>
+      <c r="F841" s="53"/>
+      <c r="G841" s="53"/>
     </row>
     <row r="842">
-      <c r="F842" s="50"/>
-      <c r="G842" s="50"/>
+      <c r="F842" s="53"/>
+      <c r="G842" s="53"/>
     </row>
     <row r="843">
-      <c r="F843" s="50"/>
-      <c r="G843" s="50"/>
+      <c r="F843" s="53"/>
+      <c r="G843" s="53"/>
     </row>
     <row r="844">
-      <c r="F844" s="50"/>
-      <c r="G844" s="50"/>
+      <c r="F844" s="53"/>
+      <c r="G844" s="53"/>
     </row>
     <row r="845">
-      <c r="F845" s="50"/>
-      <c r="G845" s="50"/>
+      <c r="F845" s="53"/>
+      <c r="G845" s="53"/>
     </row>
     <row r="846">
-      <c r="F846" s="50"/>
-      <c r="G846" s="50"/>
+      <c r="F846" s="53"/>
+      <c r="G846" s="53"/>
     </row>
     <row r="847">
-      <c r="F847" s="50"/>
-      <c r="G847" s="50"/>
+      <c r="F847" s="53"/>
+      <c r="G847" s="53"/>
     </row>
     <row r="848">
-      <c r="F848" s="50"/>
-      <c r="G848" s="50"/>
+      <c r="F848" s="53"/>
+      <c r="G848" s="53"/>
     </row>
     <row r="849">
-      <c r="F849" s="50"/>
-      <c r="G849" s="50"/>
+      <c r="F849" s="53"/>
+      <c r="G849" s="53"/>
     </row>
     <row r="850">
-      <c r="F850" s="50"/>
-      <c r="G850" s="50"/>
+      <c r="F850" s="53"/>
+      <c r="G850" s="53"/>
     </row>
     <row r="851">
-      <c r="F851" s="50"/>
-      <c r="G851" s="50"/>
+      <c r="F851" s="53"/>
+      <c r="G851" s="53"/>
     </row>
     <row r="852">
-      <c r="F852" s="50"/>
-      <c r="G852" s="50"/>
+      <c r="F852" s="53"/>
+      <c r="G852" s="53"/>
     </row>
     <row r="853">
-      <c r="F853" s="50"/>
-      <c r="G853" s="50"/>
+      <c r="F853" s="53"/>
+      <c r="G853" s="53"/>
     </row>
     <row r="854">
-      <c r="F854" s="50"/>
-      <c r="G854" s="50"/>
+      <c r="F854" s="53"/>
+      <c r="G854" s="53"/>
     </row>
     <row r="855">
-      <c r="F855" s="50"/>
-      <c r="G855" s="50"/>
+      <c r="F855" s="53"/>
+      <c r="G855" s="53"/>
     </row>
     <row r="856">
-      <c r="F856" s="50"/>
-      <c r="G856" s="50"/>
+      <c r="F856" s="53"/>
+      <c r="G856" s="53"/>
     </row>
     <row r="857">
-      <c r="F857" s="50"/>
-      <c r="G857" s="50"/>
+      <c r="F857" s="53"/>
+      <c r="G857" s="53"/>
     </row>
     <row r="858">
-      <c r="F858" s="50"/>
-      <c r="G858" s="50"/>
+      <c r="F858" s="53"/>
+      <c r="G858" s="53"/>
     </row>
     <row r="859">
-      <c r="F859" s="50"/>
-      <c r="G859" s="50"/>
+      <c r="F859" s="53"/>
+      <c r="G859" s="53"/>
     </row>
     <row r="860">
-      <c r="F860" s="50"/>
-      <c r="G860" s="50"/>
+      <c r="F860" s="53"/>
+      <c r="G860" s="53"/>
     </row>
     <row r="861">
-      <c r="F861" s="50"/>
-      <c r="G861" s="50"/>
+      <c r="F861" s="53"/>
+      <c r="G861" s="53"/>
     </row>
     <row r="862">
-      <c r="F862" s="50"/>
-      <c r="G862" s="50"/>
+      <c r="F862" s="53"/>
+      <c r="G862" s="53"/>
     </row>
     <row r="863">
-      <c r="F863" s="50"/>
-      <c r="G863" s="50"/>
+      <c r="F863" s="53"/>
+      <c r="G863" s="53"/>
     </row>
     <row r="864">
-      <c r="F864" s="50"/>
-      <c r="G864" s="50"/>
+      <c r="F864" s="53"/>
+      <c r="G864" s="53"/>
     </row>
     <row r="865">
-      <c r="F865" s="50"/>
-      <c r="G865" s="50"/>
+      <c r="F865" s="53"/>
+      <c r="G865" s="53"/>
     </row>
     <row r="866">
-      <c r="F866" s="50"/>
-      <c r="G866" s="50"/>
+      <c r="F866" s="53"/>
+      <c r="G866" s="53"/>
     </row>
     <row r="867">
-      <c r="F867" s="50"/>
-      <c r="G867" s="50"/>
+      <c r="F867" s="53"/>
+      <c r="G867" s="53"/>
     </row>
     <row r="868">
-      <c r="F868" s="50"/>
-      <c r="G868" s="50"/>
+      <c r="F868" s="53"/>
+      <c r="G868" s="53"/>
     </row>
     <row r="869">
-      <c r="F869" s="50"/>
-      <c r="G869" s="50"/>
+      <c r="F869" s="53"/>
+      <c r="G869" s="53"/>
     </row>
     <row r="870">
-      <c r="F870" s="50"/>
-      <c r="G870" s="50"/>
+      <c r="F870" s="53"/>
+      <c r="G870" s="53"/>
     </row>
     <row r="871">
-      <c r="F871" s="50"/>
-      <c r="G871" s="50"/>
+      <c r="F871" s="53"/>
+      <c r="G871" s="53"/>
     </row>
     <row r="872">
-      <c r="F872" s="50"/>
-      <c r="G872" s="50"/>
+      <c r="F872" s="53"/>
+      <c r="G872" s="53"/>
     </row>
     <row r="873">
-      <c r="F873" s="50"/>
-      <c r="G873" s="50"/>
+      <c r="F873" s="53"/>
+      <c r="G873" s="53"/>
     </row>
     <row r="874">
-      <c r="F874" s="50"/>
-      <c r="G874" s="50"/>
+      <c r="F874" s="53"/>
+      <c r="G874" s="53"/>
     </row>
     <row r="875">
-      <c r="F875" s="50"/>
-      <c r="G875" s="50"/>
+      <c r="F875" s="53"/>
+      <c r="G875" s="53"/>
     </row>
     <row r="876">
-      <c r="F876" s="50"/>
-      <c r="G876" s="50"/>
+      <c r="F876" s="53"/>
+      <c r="G876" s="53"/>
     </row>
     <row r="877">
-      <c r="F877" s="50"/>
-      <c r="G877" s="50"/>
+      <c r="F877" s="53"/>
+      <c r="G877" s="53"/>
     </row>
     <row r="878">
-      <c r="F878" s="50"/>
-      <c r="G878" s="50"/>
+      <c r="F878" s="53"/>
+      <c r="G878" s="53"/>
     </row>
     <row r="879">
-      <c r="F879" s="50"/>
-      <c r="G879" s="50"/>
+      <c r="F879" s="53"/>
+      <c r="G879" s="53"/>
     </row>
     <row r="880">
-      <c r="F880" s="50"/>
-      <c r="G880" s="50"/>
+      <c r="F880" s="53"/>
+      <c r="G880" s="53"/>
     </row>
     <row r="881">
-      <c r="F881" s="50"/>
-      <c r="G881" s="50"/>
+      <c r="F881" s="53"/>
+      <c r="G881" s="53"/>
     </row>
     <row r="882">
-      <c r="F882" s="50"/>
-      <c r="G882" s="50"/>
+      <c r="F882" s="53"/>
+      <c r="G882" s="53"/>
     </row>
     <row r="883">
-      <c r="F883" s="50"/>
-      <c r="G883" s="50"/>
+      <c r="F883" s="53"/>
+      <c r="G883" s="53"/>
     </row>
     <row r="884">
-      <c r="F884" s="50"/>
-      <c r="G884" s="50"/>
+      <c r="F884" s="53"/>
+      <c r="G884" s="53"/>
     </row>
     <row r="885">
-      <c r="F885" s="50"/>
-      <c r="G885" s="50"/>
+      <c r="F885" s="53"/>
+      <c r="G885" s="53"/>
     </row>
     <row r="886">
-      <c r="F886" s="50"/>
-      <c r="G886" s="50"/>
+      <c r="F886" s="53"/>
+      <c r="G886" s="53"/>
     </row>
     <row r="887">
-      <c r="F887" s="50"/>
-      <c r="G887" s="50"/>
+      <c r="F887" s="53"/>
+      <c r="G887" s="53"/>
     </row>
     <row r="888">
-      <c r="F888" s="50"/>
-      <c r="G888" s="50"/>
+      <c r="F888" s="53"/>
+      <c r="G888" s="53"/>
     </row>
     <row r="889">
-      <c r="F889" s="50"/>
-      <c r="G889" s="50"/>
+      <c r="F889" s="53"/>
+      <c r="G889" s="53"/>
     </row>
     <row r="890">
-      <c r="F890" s="50"/>
-      <c r="G890" s="50"/>
+      <c r="F890" s="53"/>
+      <c r="G890" s="53"/>
     </row>
     <row r="891">
-      <c r="F891" s="50"/>
-      <c r="G891" s="50"/>
+      <c r="F891" s="53"/>
+      <c r="G891" s="53"/>
     </row>
     <row r="892">
-      <c r="F892" s="50"/>
-      <c r="G892" s="50"/>
+      <c r="F892" s="53"/>
+      <c r="G892" s="53"/>
     </row>
     <row r="893">
-      <c r="F893" s="50"/>
-      <c r="G893" s="50"/>
+      <c r="F893" s="53"/>
+      <c r="G893" s="53"/>
     </row>
     <row r="894">
-      <c r="F894" s="50"/>
-      <c r="G894" s="50"/>
+      <c r="F894" s="53"/>
+      <c r="G894" s="53"/>
     </row>
     <row r="895">
-      <c r="F895" s="50"/>
-      <c r="G895" s="50"/>
+      <c r="F895" s="53"/>
+      <c r="G895" s="53"/>
     </row>
     <row r="896">
-      <c r="F896" s="50"/>
-      <c r="G896" s="50"/>
+      <c r="F896" s="53"/>
+      <c r="G896" s="53"/>
     </row>
     <row r="897">
-      <c r="F897" s="50"/>
-      <c r="G897" s="50"/>
+      <c r="F897" s="53"/>
+      <c r="G897" s="53"/>
     </row>
     <row r="898">
-      <c r="F898" s="50"/>
-      <c r="G898" s="50"/>
+      <c r="F898" s="53"/>
+      <c r="G898" s="53"/>
     </row>
     <row r="899">
-      <c r="F899" s="50"/>
-      <c r="G899" s="50"/>
+      <c r="F899" s="53"/>
+      <c r="G899" s="53"/>
     </row>
     <row r="900">
-      <c r="F900" s="50"/>
-      <c r="G900" s="50"/>
+      <c r="F900" s="53"/>
+      <c r="G900" s="53"/>
     </row>
     <row r="901">
-      <c r="F901" s="50"/>
-      <c r="G901" s="50"/>
+      <c r="F901" s="53"/>
+      <c r="G901" s="53"/>
     </row>
     <row r="902">
-      <c r="F902" s="50"/>
-      <c r="G902" s="50"/>
+      <c r="F902" s="53"/>
+      <c r="G902" s="53"/>
     </row>
     <row r="903">
-      <c r="F903" s="50"/>
-      <c r="G903" s="50"/>
+      <c r="F903" s="53"/>
+      <c r="G903" s="53"/>
     </row>
     <row r="904">
-      <c r="F904" s="50"/>
-      <c r="G904" s="50"/>
+      <c r="F904" s="53"/>
+      <c r="G904" s="53"/>
     </row>
     <row r="905">
-      <c r="F905" s="50"/>
-      <c r="G905" s="50"/>
+      <c r="F905" s="53"/>
+      <c r="G905" s="53"/>
     </row>
     <row r="906">
-      <c r="F906" s="50"/>
-      <c r="G906" s="50"/>
+      <c r="F906" s="53"/>
+      <c r="G906" s="53"/>
     </row>
     <row r="907">
-      <c r="F907" s="50"/>
-      <c r="G907" s="50"/>
+      <c r="F907" s="53"/>
+      <c r="G907" s="53"/>
     </row>
     <row r="908">
-      <c r="F908" s="50"/>
-      <c r="G908" s="50"/>
+      <c r="F908" s="53"/>
+      <c r="G908" s="53"/>
     </row>
     <row r="909">
-      <c r="F909" s="50"/>
-      <c r="G909" s="50"/>
+      <c r="F909" s="53"/>
+      <c r="G909" s="53"/>
     </row>
     <row r="910">
-      <c r="F910" s="50"/>
-      <c r="G910" s="50"/>
+      <c r="F910" s="53"/>
+      <c r="G910" s="53"/>
     </row>
     <row r="911">
-      <c r="F911" s="50"/>
-      <c r="G911" s="50"/>
+      <c r="F911" s="53"/>
+      <c r="G911" s="53"/>
     </row>
     <row r="912">
-      <c r="F912" s="50"/>
-      <c r="G912" s="50"/>
+      <c r="F912" s="53"/>
+      <c r="G912" s="53"/>
     </row>
     <row r="913">
-      <c r="F913" s="50"/>
-      <c r="G913" s="50"/>
+      <c r="F913" s="53"/>
+      <c r="G913" s="53"/>
     </row>
     <row r="914">
-      <c r="F914" s="50"/>
-      <c r="G914" s="50"/>
+      <c r="F914" s="53"/>
+      <c r="G914" s="53"/>
     </row>
     <row r="915">
-      <c r="F915" s="50"/>
-      <c r="G915" s="50"/>
+      <c r="F915" s="53"/>
+      <c r="G915" s="53"/>
     </row>
     <row r="916">
-      <c r="F916" s="50"/>
-      <c r="G916" s="50"/>
+      <c r="F916" s="53"/>
+      <c r="G916" s="53"/>
     </row>
     <row r="917">
-      <c r="F917" s="50"/>
-      <c r="G917" s="50"/>
+      <c r="F917" s="53"/>
+      <c r="G917" s="53"/>
     </row>
     <row r="918">
-      <c r="F918" s="50"/>
-      <c r="G918" s="50"/>
+      <c r="F918" s="53"/>
+      <c r="G918" s="53"/>
     </row>
     <row r="919">
-      <c r="F919" s="50"/>
-      <c r="G919" s="50"/>
+      <c r="F919" s="53"/>
+      <c r="G919" s="53"/>
     </row>
     <row r="920">
-      <c r="F920" s="50"/>
-      <c r="G920" s="50"/>
+      <c r="F920" s="53"/>
+      <c r="G920" s="53"/>
     </row>
     <row r="921">
-      <c r="F921" s="50"/>
-      <c r="G921" s="50"/>
+      <c r="F921" s="53"/>
+      <c r="G921" s="53"/>
     </row>
     <row r="922">
-      <c r="F922" s="50"/>
-      <c r="G922" s="50"/>
+      <c r="F922" s="53"/>
+      <c r="G922" s="53"/>
     </row>
     <row r="923">
-      <c r="F923" s="50"/>
-      <c r="G923" s="50"/>
+      <c r="F923" s="53"/>
+      <c r="G923" s="53"/>
     </row>
     <row r="924">
-      <c r="F924" s="50"/>
-      <c r="G924" s="50"/>
+      <c r="F924" s="53"/>
+      <c r="G924" s="53"/>
     </row>
     <row r="925">
-      <c r="F925" s="50"/>
-      <c r="G925" s="50"/>
+      <c r="F925" s="53"/>
+      <c r="G925" s="53"/>
     </row>
     <row r="926">
-      <c r="F926" s="50"/>
-      <c r="G926" s="50"/>
+      <c r="F926" s="53"/>
+      <c r="G926" s="53"/>
     </row>
     <row r="927">
-      <c r="F927" s="50"/>
-      <c r="G927" s="50"/>
+      <c r="F927" s="53"/>
+      <c r="G927" s="53"/>
     </row>
     <row r="928">
-      <c r="F928" s="50"/>
-      <c r="G928" s="50"/>
+      <c r="F928" s="53"/>
+      <c r="G928" s="53"/>
     </row>
     <row r="929">
-      <c r="F929" s="50"/>
-      <c r="G929" s="50"/>
+      <c r="F929" s="53"/>
+      <c r="G929" s="53"/>
     </row>
     <row r="930">
-      <c r="F930" s="50"/>
-      <c r="G930" s="50"/>
+      <c r="F930" s="53"/>
+      <c r="G930" s="53"/>
     </row>
     <row r="931">
-      <c r="F931" s="50"/>
-      <c r="G931" s="50"/>
+      <c r="F931" s="53"/>
+      <c r="G931" s="53"/>
     </row>
     <row r="932">
-      <c r="F932" s="50"/>
-      <c r="G932" s="50"/>
+      <c r="F932" s="53"/>
+      <c r="G932" s="53"/>
     </row>
     <row r="933">
-      <c r="F933" s="50"/>
-      <c r="G933" s="50"/>
+      <c r="F933" s="53"/>
+      <c r="G933" s="53"/>
     </row>
     <row r="934">
-      <c r="F934" s="50"/>
-      <c r="G934" s="50"/>
+      <c r="F934" s="53"/>
+      <c r="G934" s="53"/>
     </row>
     <row r="935">
-      <c r="F935" s="50"/>
-      <c r="G935" s="50"/>
+      <c r="F935" s="53"/>
+      <c r="G935" s="53"/>
     </row>
     <row r="936">
-      <c r="F936" s="50"/>
-      <c r="G936" s="50"/>
+      <c r="F936" s="53"/>
+      <c r="G936" s="53"/>
     </row>
     <row r="937">
-      <c r="F937" s="50"/>
-      <c r="G937" s="50"/>
+      <c r="F937" s="53"/>
+      <c r="G937" s="53"/>
     </row>
     <row r="938">
-      <c r="F938" s="50"/>
-      <c r="G938" s="50"/>
+      <c r="F938" s="53"/>
+      <c r="G938" s="53"/>
     </row>
     <row r="939">
-      <c r="F939" s="50"/>
-      <c r="G939" s="50"/>
+      <c r="F939" s="53"/>
+      <c r="G939" s="53"/>
     </row>
     <row r="940">
-      <c r="F940" s="50"/>
-      <c r="G940" s="50"/>
+      <c r="F940" s="53"/>
+      <c r="G940" s="53"/>
     </row>
     <row r="941">
-      <c r="F941" s="50"/>
-      <c r="G941" s="50"/>
+      <c r="F941" s="53"/>
+      <c r="G941" s="53"/>
     </row>
     <row r="942">
-      <c r="F942" s="50"/>
-      <c r="G942" s="50"/>
+      <c r="F942" s="53"/>
+      <c r="G942" s="53"/>
     </row>
     <row r="943">
-      <c r="F943" s="50"/>
-      <c r="G943" s="50"/>
+      <c r="F943" s="53"/>
+      <c r="G943" s="53"/>
     </row>
     <row r="944">
-      <c r="F944" s="50"/>
-      <c r="G944" s="50"/>
+      <c r="F944" s="53"/>
+      <c r="G944" s="53"/>
     </row>
     <row r="945">
-      <c r="F945" s="50"/>
-      <c r="G945" s="50"/>
+      <c r="F945" s="53"/>
+      <c r="G945" s="53"/>
     </row>
     <row r="946">
-      <c r="F946" s="50"/>
-      <c r="G946" s="50"/>
+      <c r="F946" s="53"/>
+      <c r="G946" s="53"/>
     </row>
     <row r="947">
-      <c r="F947" s="50"/>
-      <c r="G947" s="50"/>
+      <c r="F947" s="53"/>
+      <c r="G947" s="53"/>
     </row>
     <row r="948">
-      <c r="F948" s="50"/>
-      <c r="G948" s="50"/>
+      <c r="F948" s="53"/>
+      <c r="G948" s="53"/>
     </row>
     <row r="949">
-      <c r="F949" s="50"/>
-      <c r="G949" s="50"/>
+      <c r="F949" s="53"/>
+      <c r="G949" s="53"/>
     </row>
     <row r="950">
-      <c r="F950" s="50"/>
-      <c r="G950" s="50"/>
+      <c r="F950" s="53"/>
+      <c r="G950" s="53"/>
     </row>
     <row r="951">
-      <c r="F951" s="50"/>
-      <c r="G951" s="50"/>
+      <c r="F951" s="53"/>
+      <c r="G951" s="53"/>
     </row>
     <row r="952">
-      <c r="F952" s="50"/>
-      <c r="G952" s="50"/>
+      <c r="F952" s="53"/>
+      <c r="G952" s="53"/>
     </row>
     <row r="953">
-      <c r="F953" s="50"/>
-      <c r="G953" s="50"/>
+      <c r="F953" s="53"/>
+      <c r="G953" s="53"/>
     </row>
     <row r="954">
-      <c r="F954" s="50"/>
-      <c r="G954" s="50"/>
+      <c r="F954" s="53"/>
+      <c r="G954" s="53"/>
     </row>
     <row r="955">
-      <c r="F955" s="50"/>
-      <c r="G955" s="50"/>
+      <c r="F955" s="53"/>
+      <c r="G955" s="53"/>
     </row>
     <row r="956">
-      <c r="F956" s="50"/>
-      <c r="G956" s="50"/>
+      <c r="F956" s="53"/>
+      <c r="G956" s="53"/>
     </row>
     <row r="957">
-      <c r="F957" s="50"/>
-      <c r="G957" s="50"/>
+      <c r="F957" s="53"/>
+      <c r="G957" s="53"/>
     </row>
     <row r="958">
-      <c r="F958" s="50"/>
-      <c r="G958" s="50"/>
+      <c r="F958" s="53"/>
+      <c r="G958" s="53"/>
     </row>
     <row r="959">
-      <c r="F959" s="50"/>
-      <c r="G959" s="50"/>
+      <c r="F959" s="53"/>
+      <c r="G959" s="53"/>
     </row>
     <row r="960">
-      <c r="F960" s="50"/>
-      <c r="G960" s="50"/>
+      <c r="F960" s="53"/>
+      <c r="G960" s="53"/>
     </row>
     <row r="961">
-      <c r="F961" s="50"/>
-      <c r="G961" s="50"/>
+      <c r="F961" s="53"/>
+      <c r="G961" s="53"/>
     </row>
     <row r="962">
-      <c r="F962" s="50"/>
-      <c r="G962" s="50"/>
+      <c r="F962" s="53"/>
+      <c r="G962" s="53"/>
     </row>
     <row r="963">
-      <c r="F963" s="50"/>
-      <c r="G963" s="50"/>
+      <c r="F963" s="53"/>
+      <c r="G963" s="53"/>
     </row>
     <row r="964">
-      <c r="F964" s="50"/>
-      <c r="G964" s="50"/>
+      <c r="F964" s="53"/>
+      <c r="G964" s="53"/>
     </row>
     <row r="965">
-      <c r="F965" s="50"/>
-      <c r="G965" s="50"/>
+      <c r="F965" s="53"/>
+      <c r="G965" s="53"/>
     </row>
     <row r="966">
-      <c r="F966" s="50"/>
-      <c r="G966" s="50"/>
+      <c r="F966" s="53"/>
+      <c r="G966" s="53"/>
     </row>
     <row r="967">
-      <c r="F967" s="50"/>
-      <c r="G967" s="50"/>
+      <c r="F967" s="53"/>
+      <c r="G967" s="53"/>
     </row>
     <row r="968">
-      <c r="F968" s="50"/>
-      <c r="G968" s="50"/>
+      <c r="F968" s="53"/>
+      <c r="G968" s="53"/>
     </row>
     <row r="969">
-      <c r="F969" s="50"/>
-      <c r="G969" s="50"/>
+      <c r="F969" s="53"/>
+      <c r="G969" s="53"/>
     </row>
     <row r="970">
-      <c r="F970" s="50"/>
-      <c r="G970" s="50"/>
+      <c r="F970" s="53"/>
+      <c r="G970" s="53"/>
     </row>
     <row r="971">
-      <c r="F971" s="50"/>
-      <c r="G971" s="50"/>
+      <c r="F971" s="53"/>
+      <c r="G971" s="53"/>
     </row>
     <row r="972">
-      <c r="F972" s="50"/>
-      <c r="G972" s="50"/>
+      <c r="F972" s="53"/>
+      <c r="G972" s="53"/>
     </row>
     <row r="973">
-      <c r="F973" s="50"/>
-      <c r="G973" s="50"/>
+      <c r="F973" s="53"/>
+      <c r="G973" s="53"/>
     </row>
     <row r="974">
-      <c r="F974" s="50"/>
-      <c r="G974" s="50"/>
+      <c r="F974" s="53"/>
+      <c r="G974" s="53"/>
     </row>
     <row r="975">
-      <c r="F975" s="50"/>
-      <c r="G975" s="50"/>
+      <c r="F975" s="53"/>
+      <c r="G975" s="53"/>
     </row>
     <row r="976">
-      <c r="F976" s="50"/>
-      <c r="G976" s="50"/>
+      <c r="F976" s="53"/>
+      <c r="G976" s="53"/>
     </row>
     <row r="977">
-      <c r="F977" s="50"/>
-      <c r="G977" s="50"/>
+      <c r="F977" s="53"/>
+      <c r="G977" s="53"/>
     </row>
     <row r="978">
-      <c r="F978" s="50"/>
-      <c r="G978" s="50"/>
+      <c r="F978" s="53"/>
+      <c r="G978" s="53"/>
     </row>
     <row r="979">
-      <c r="F979" s="50"/>
-      <c r="G979" s="50"/>
+      <c r="F979" s="53"/>
+      <c r="G979" s="53"/>
     </row>
     <row r="980">
-      <c r="F980" s="50"/>
-      <c r="G980" s="50"/>
+      <c r="F980" s="53"/>
+      <c r="G980" s="53"/>
     </row>
     <row r="981">
-      <c r="F981" s="50"/>
-      <c r="G981" s="50"/>
+      <c r="F981" s="53"/>
+      <c r="G981" s="53"/>
     </row>
     <row r="982">
-      <c r="F982" s="50"/>
-      <c r="G982" s="50"/>
+      <c r="F982" s="53"/>
+      <c r="G982" s="53"/>
     </row>
     <row r="983">
-      <c r="F983" s="50"/>
-      <c r="G983" s="50"/>
+      <c r="F983" s="53"/>
+      <c r="G983" s="53"/>
     </row>
     <row r="984">
-      <c r="F984" s="50"/>
-      <c r="G984" s="50"/>
+      <c r="F984" s="53"/>
+      <c r="G984" s="53"/>
     </row>
     <row r="985">
-      <c r="F985" s="50"/>
-      <c r="G985" s="50"/>
+      <c r="F985" s="53"/>
+      <c r="G985" s="53"/>
     </row>
     <row r="986">
-      <c r="F986" s="50"/>
-      <c r="G986" s="50"/>
+      <c r="F986" s="53"/>
+      <c r="G986" s="53"/>
     </row>
     <row r="987">
-      <c r="F987" s="50"/>
-      <c r="G987" s="50"/>
+      <c r="F987" s="53"/>
+      <c r="G987" s="53"/>
     </row>
     <row r="988">
-      <c r="F988" s="50"/>
-      <c r="G988" s="50"/>
+      <c r="F988" s="53"/>
+      <c r="G988" s="53"/>
     </row>
     <row r="989">
-      <c r="F989" s="50"/>
-      <c r="G989" s="50"/>
+      <c r="F989" s="53"/>
+      <c r="G989" s="53"/>
     </row>
     <row r="990">
-      <c r="F990" s="50"/>
-      <c r="G990" s="50"/>
+      <c r="F990" s="53"/>
+      <c r="G990" s="53"/>
     </row>
     <row r="991">
-      <c r="F991" s="50"/>
-      <c r="G991" s="50"/>
+      <c r="F991" s="53"/>
+      <c r="G991" s="53"/>
     </row>
     <row r="992">
-      <c r="F992" s="50"/>
-      <c r="G992" s="50"/>
+      <c r="F992" s="53"/>
+      <c r="G992" s="53"/>
     </row>
     <row r="993">
-      <c r="F993" s="50"/>
-      <c r="G993" s="50"/>
+      <c r="F993" s="53"/>
+      <c r="G993" s="53"/>
     </row>
     <row r="994">
-      <c r="F994" s="50"/>
-      <c r="G994" s="50"/>
+      <c r="F994" s="53"/>
+      <c r="G994" s="53"/>
     </row>
     <row r="995">
-      <c r="F995" s="50"/>
-      <c r="G995" s="50"/>
+      <c r="F995" s="53"/>
+      <c r="G995" s="53"/>
     </row>
     <row r="996">
-      <c r="F996" s="50"/>
-      <c r="G996" s="50"/>
+      <c r="F996" s="53"/>
+      <c r="G996" s="53"/>
     </row>
     <row r="997">
-      <c r="F997" s="50"/>
-      <c r="G997" s="50"/>
+      <c r="F997" s="53"/>
+      <c r="G997" s="53"/>
     </row>
     <row r="998">
-      <c r="F998" s="50"/>
-      <c r="G998" s="50"/>
+      <c r="F998" s="53"/>
+      <c r="G998" s="53"/>
     </row>
     <row r="999">
-      <c r="F999" s="50"/>
-      <c r="G999" s="50"/>
+      <c r="F999" s="53"/>
+      <c r="G999" s="53"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="50"/>
-      <c r="G1000" s="50"/>
+      <c r="F1000" s="53"/>
+      <c r="G1000" s="53"/>
     </row>
     <row r="1001">
-      <c r="F1001" s="50"/>
-      <c r="G1001" s="50"/>
+      <c r="F1001" s="53"/>
+      <c r="G1001" s="53"/>
     </row>
     <row r="1002">
-      <c r="F1002" s="50"/>
-      <c r="G1002" s="50"/>
+      <c r="F1002" s="53"/>
+      <c r="G1002" s="53"/>
     </row>
     <row r="1003">
-      <c r="F1003" s="50"/>
-      <c r="G1003" s="50"/>
+      <c r="F1003" s="53"/>
+      <c r="G1003" s="53"/>
     </row>
     <row r="1004">
-      <c r="F1004" s="50"/>
-      <c r="G1004" s="50"/>
+      <c r="F1004" s="53"/>
+      <c r="G1004" s="53"/>
     </row>
     <row r="1005">
-      <c r="F1005" s="50"/>
-      <c r="G1005" s="50"/>
+      <c r="F1005" s="53"/>
+      <c r="G1005" s="53"/>
     </row>
     <row r="1006">
-      <c r="F1006" s="50"/>
-      <c r="G1006" s="50"/>
+      <c r="F1006" s="53"/>
+      <c r="G1006" s="53"/>
     </row>
     <row r="1007">
-      <c r="F1007" s="50"/>
-      <c r="G1007" s="50"/>
+      <c r="F1007" s="53"/>
+      <c r="G1007" s="53"/>
     </row>
     <row r="1008">
-      <c r="F1008" s="50"/>
-      <c r="G1008" s="50"/>
+      <c r="F1008" s="53"/>
+      <c r="G1008" s="53"/>
     </row>
     <row r="1009">
-      <c r="F1009" s="50"/>
-      <c r="G1009" s="50"/>
+      <c r="F1009" s="53"/>
+      <c r="G1009" s="53"/>
     </row>
     <row r="1010">
-      <c r="F1010" s="50"/>
-      <c r="G1010" s="50"/>
+      <c r="F1010" s="53"/>
+      <c r="G1010" s="53"/>
     </row>
     <row r="1011">
-      <c r="F1011" s="50"/>
-      <c r="G1011" s="50"/>
+      <c r="F1011" s="53"/>
+      <c r="G1011" s="53"/>
     </row>
     <row r="1012">
-      <c r="F1012" s="50"/>
-      <c r="G1012" s="50"/>
+      <c r="F1012" s="53"/>
+      <c r="G1012" s="53"/>
     </row>
     <row r="1013">
-      <c r="F1013" s="50"/>
-      <c r="G1013" s="50"/>
+      <c r="F1013" s="53"/>
+      <c r="G1013" s="53"/>
     </row>
     <row r="1014">
-      <c r="F1014" s="50"/>
-      <c r="G1014" s="50"/>
+      <c r="F1014" s="53"/>
+      <c r="G1014" s="53"/>
     </row>
     <row r="1015">
-      <c r="F1015" s="50"/>
-      <c r="G1015" s="50"/>
+      <c r="F1015" s="53"/>
+      <c r="G1015" s="53"/>
     </row>
     <row r="1016">
-      <c r="F1016" s="50"/>
-      <c r="G1016" s="50"/>
+      <c r="F1016" s="53"/>
+      <c r="G1016" s="53"/>
     </row>
     <row r="1017">
-      <c r="F1017" s="50"/>
-      <c r="G1017" s="50"/>
+      <c r="F1017" s="53"/>
+      <c r="G1017" s="53"/>
     </row>
     <row r="1018">
-      <c r="F1018" s="50"/>
-      <c r="G1018" s="50"/>
+      <c r="F1018" s="53"/>
+      <c r="G1018" s="53"/>
     </row>
     <row r="1019">
-      <c r="F1019" s="50"/>
-      <c r="G1019" s="50"/>
+      <c r="F1019" s="53"/>
+      <c r="G1019" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
